--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="48">
   <si>
     <t>adm0</t>
   </si>
@@ -145,6 +145,21 @@
   <si>
     <t>se</t>
   </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
 </sst>
 </file>
 
@@ -1643,13 +1658,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="0">
-        <v>0.109449103474617</v>
+        <v>0.10748159885406494</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.0074080000631511211</v>
+        <v>-0.0033799000084400177</v>
       </c>
       <c r="E86" s="0">
-        <v>0.22630620002746582</v>
+        <v>0.21834300458431244</v>
       </c>
     </row>
     <row r="87">
@@ -1660,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="0">
-        <v>0.11086250096559525</v>
+        <v>0.10447029769420624</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.0043629999272525311</v>
+        <v>-0.0095266001299023628</v>
       </c>
       <c r="E87" s="0">
-        <v>0.22608789801597595</v>
+        <v>0.21846729516983032</v>
       </c>
     </row>
     <row r="88">
@@ -1677,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="0">
-        <v>0.13268910348415375</v>
+        <v>0.12652599811553955</v>
       </c>
       <c r="D88" s="0">
-        <v>0.013171699829399586</v>
+        <v>0.013032699935138226</v>
       </c>
       <c r="E88" s="0">
-        <v>0.25220650434494019</v>
+        <v>0.2400193065404892</v>
       </c>
     </row>
     <row r="89">
@@ -1694,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="0">
-        <v>0.11051350086927414</v>
+        <v>0.10487180203199387</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.046129599213600159</v>
+        <v>-0.045122500509023666</v>
       </c>
       <c r="E89" s="0">
-        <v>0.26715660095214844</v>
+        <v>0.25486600399017334</v>
       </c>
     </row>
     <row r="90">
@@ -1711,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="0">
-        <v>0.10775099694728851</v>
+        <v>0.10629530251026154</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.045602999627590179</v>
+        <v>-0.03134860098361969</v>
       </c>
       <c r="E90" s="0">
-        <v>0.26110509037971497</v>
+        <v>0.24393920600414276</v>
       </c>
     </row>
     <row r="91">
@@ -1728,13 +1743,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="0">
-        <v>0.14393700659275055</v>
+        <v>0.14786510169506073</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.0059678000397980213</v>
+        <v>0.011944499798119068</v>
       </c>
       <c r="E91" s="0">
-        <v>0.2938418984413147</v>
+        <v>0.2837856113910675</v>
       </c>
     </row>
     <row r="92">
@@ -1745,13 +1760,13 @@
         <v>12</v>
       </c>
       <c r="C92" s="0">
-        <v>-0.071544401347637177</v>
+        <v>-0.071390002965927124</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.13756850361824036</v>
+        <v>-0.13743330538272858</v>
       </c>
       <c r="E92" s="0">
-        <v>-0.0055203000083565712</v>
+        <v>-0.0053468002006411552</v>
       </c>
     </row>
     <row r="93">
@@ -1762,13 +1777,13 @@
         <v>12</v>
       </c>
       <c r="C93" s="0">
-        <v>-0.070099897682666779</v>
+        <v>-0.06959100067615509</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.13455469906330109</v>
+        <v>-0.13422690331935883</v>
       </c>
       <c r="E93" s="0">
-        <v>-0.0056451000273227692</v>
+        <v>-0.0049550998955965042</v>
       </c>
     </row>
     <row r="94">
@@ -1779,13 +1794,13 @@
         <v>12</v>
       </c>
       <c r="C94" s="0">
-        <v>-0.089497700333595276</v>
+        <v>-0.089302599430084229</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.16778500378131866</v>
+        <v>-0.16768769919872284</v>
       </c>
       <c r="E94" s="0">
-        <v>-0.011210300028324127</v>
+        <v>-0.010917499661445618</v>
       </c>
     </row>
     <row r="95">
@@ -1796,13 +1811,13 @@
         <v>12</v>
       </c>
       <c r="C95" s="0">
-        <v>-0.081848502159118652</v>
+        <v>-0.082204900681972504</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.18601010739803314</v>
+        <v>-0.18695579469203949</v>
       </c>
       <c r="E95" s="0">
-        <v>0.022313099354505539</v>
+        <v>0.022546000778675079</v>
       </c>
     </row>
     <row r="96">
@@ -1813,13 +1828,13 @@
         <v>12</v>
       </c>
       <c r="C96" s="0">
-        <v>-0.069333799183368683</v>
+        <v>-0.071125298738479614</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.17769299447536469</v>
+        <v>-0.17949619889259338</v>
       </c>
       <c r="E96" s="0">
-        <v>0.039025299251079559</v>
+        <v>0.037245698273181915</v>
       </c>
     </row>
     <row r="97">
@@ -1830,13 +1845,13 @@
         <v>12</v>
       </c>
       <c r="C97" s="0">
-        <v>-0.1044796034693718</v>
+        <v>-0.10619469732046127</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.24667090177536011</v>
+        <v>-0.24804750084877014</v>
       </c>
       <c r="E97" s="0">
-        <v>0.037711698561906815</v>
+        <v>0.03565799817442894</v>
       </c>
     </row>
     <row r="98">
@@ -1847,13 +1862,13 @@
         <v>13</v>
       </c>
       <c r="C98" s="0">
-        <v>-0.091627001762390137</v>
+        <v>-0.097512401640415192</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.27246600389480591</v>
+        <v>-0.27802440524101257</v>
       </c>
       <c r="E98" s="0">
-        <v>0.089212000370025635</v>
+        <v>0.08299960196018219</v>
       </c>
     </row>
     <row r="99">
@@ -1864,13 +1879,13 @@
         <v>13</v>
       </c>
       <c r="C99" s="0">
-        <v>-0.076046198606491089</v>
+        <v>-0.10215400159358978</v>
       </c>
       <c r="D99" s="0">
-        <v>-0.25786331295967102</v>
+        <v>-0.299925297498703</v>
       </c>
       <c r="E99" s="0">
-        <v>0.10577090084552765</v>
+        <v>0.095617197453975677</v>
       </c>
     </row>
     <row r="100">
@@ -1881,13 +1896,13 @@
         <v>13</v>
       </c>
       <c r="C100" s="0">
-        <v>-0.10961449891328812</v>
+        <v>-0.13940109312534332</v>
       </c>
       <c r="D100" s="0">
-        <v>-0.27170878648757935</v>
+        <v>-0.2904546856880188</v>
       </c>
       <c r="E100" s="0">
-        <v>0.052479799836874008</v>
+        <v>0.011652500368654728</v>
       </c>
     </row>
     <row r="101">
@@ -1898,13 +1913,13 @@
         <v>13</v>
       </c>
       <c r="C101" s="0">
-        <v>-0.1787835955619812</v>
+        <v>-0.20831489562988281</v>
       </c>
       <c r="D101" s="0">
-        <v>-0.32672148942947388</v>
+        <v>-0.3420046865940094</v>
       </c>
       <c r="E101" s="0">
-        <v>-0.030845599249005318</v>
+        <v>-0.074625000357627869</v>
       </c>
     </row>
     <row r="102">
@@ -1915,13 +1930,13 @@
         <v>13</v>
       </c>
       <c r="C102" s="0">
-        <v>-0.051041901111602783</v>
+        <v>-0.082911700010299683</v>
       </c>
       <c r="D102" s="0">
-        <v>-0.26378050446510315</v>
+        <v>-0.25029918551445007</v>
       </c>
       <c r="E102" s="0">
-        <v>0.16169680655002594</v>
+        <v>0.084475800395011902</v>
       </c>
     </row>
     <row r="103">
@@ -1932,13 +1947,13 @@
         <v>13</v>
       </c>
       <c r="C103" s="0">
-        <v>-0.29473239183425903</v>
+        <v>-0.30285158753395081</v>
       </c>
       <c r="D103" s="0">
-        <v>-0.62766540050506592</v>
+        <v>-0.60115867853164673</v>
       </c>
       <c r="E103" s="0">
-        <v>0.038200598210096359</v>
+        <v>-0.0045444001443684101</v>
       </c>
     </row>
     <row r="104">
@@ -1949,13 +1964,13 @@
         <v>9</v>
       </c>
       <c r="C104" s="0">
-        <v>-0.035843100398778915</v>
+        <v>-0.033232599496841431</v>
       </c>
       <c r="D104" s="0">
-        <v>-0.10386709868907928</v>
+        <v>-0.082337602972984314</v>
       </c>
       <c r="E104" s="0">
-        <v>0.032180901616811752</v>
+        <v>0.015872400254011154</v>
       </c>
     </row>
     <row r="105">
@@ -1966,13 +1981,13 @@
         <v>9</v>
       </c>
       <c r="C105" s="0">
-        <v>-0.060416799038648605</v>
+        <v>-0.051409400999546051</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.12904289364814758</v>
+        <v>-0.10298120230436325</v>
       </c>
       <c r="E105" s="0">
-        <v>0.0082093998789787292</v>
+        <v>0.00016239999968092889</v>
       </c>
     </row>
     <row r="106">
@@ -1983,13 +1998,13 @@
         <v>9</v>
       </c>
       <c r="C106" s="0">
-        <v>-0.072772100567817688</v>
+        <v>-0.063374698162078857</v>
       </c>
       <c r="D106" s="0">
-        <v>-0.14425820112228394</v>
+        <v>-0.1118977963924408</v>
       </c>
       <c r="E106" s="0">
-        <v>-0.0012859000125899911</v>
+        <v>-0.014851599931716919</v>
       </c>
     </row>
     <row r="107">
@@ -2000,13 +2015,13 @@
         <v>9</v>
       </c>
       <c r="C107" s="0">
-        <v>-0.081241302192211151</v>
+        <v>-0.071840003132820129</v>
       </c>
       <c r="D107" s="0">
-        <v>-0.1645359992980957</v>
+        <v>-0.12544029951095581</v>
       </c>
       <c r="E107" s="0">
-        <v>0.0020534999202936888</v>
+        <v>-0.018239699304103851</v>
       </c>
     </row>
     <row r="108">
@@ -2017,13 +2032,13 @@
         <v>9</v>
       </c>
       <c r="C108" s="0">
-        <v>-0.098123699426651001</v>
+        <v>-0.09329339861869812</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.19590909779071808</v>
+        <v>-0.14893439412117004</v>
       </c>
       <c r="E108" s="0">
-        <v>-0.00033829998574219644</v>
+        <v>-0.037652399390935898</v>
       </c>
     </row>
     <row r="109">
@@ -2034,13 +2049,13 @@
         <v>9</v>
       </c>
       <c r="C109" s="0">
-        <v>-0.072613798081874847</v>
+        <v>-0.075594097375869751</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.18992440402507782</v>
+        <v>-0.17764079570770264</v>
       </c>
       <c r="E109" s="0">
-        <v>0.04469669982790947</v>
+        <v>0.026452699676156044</v>
       </c>
     </row>
     <row r="110">
@@ -2051,13 +2066,13 @@
         <v>14</v>
       </c>
       <c r="C110" s="0">
-        <v>-0.20193339884281158</v>
+        <v>-0.19842860102653503</v>
       </c>
       <c r="D110" s="0">
-        <v>-0.34516221284866333</v>
+        <v>-0.32032018899917603</v>
       </c>
       <c r="E110" s="0">
-        <v>-0.058704599738121033</v>
+        <v>-0.076536998152732849</v>
       </c>
     </row>
     <row r="111">
@@ -2068,13 +2083,13 @@
         <v>14</v>
       </c>
       <c r="C111" s="0">
-        <v>-0.23005120456218719</v>
+        <v>-0.21864299476146698</v>
       </c>
       <c r="D111" s="0">
-        <v>-0.37059500813484192</v>
+        <v>-0.35286828875541687</v>
       </c>
       <c r="E111" s="0">
-        <v>-0.089507296681404114</v>
+        <v>-0.08441770076751709</v>
       </c>
     </row>
     <row r="112">
@@ -2085,13 +2100,13 @@
         <v>14</v>
       </c>
       <c r="C112" s="0">
-        <v>-0.22273789346218109</v>
+        <v>-0.21136459708213806</v>
       </c>
       <c r="D112" s="0">
-        <v>-0.32684141397476196</v>
+        <v>-0.28460720181465149</v>
       </c>
       <c r="E112" s="0">
-        <v>-0.11863440275192261</v>
+        <v>-0.13812209665775299</v>
       </c>
     </row>
     <row r="113">
@@ -2102,13 +2117,13 @@
         <v>14</v>
       </c>
       <c r="C113" s="0">
-        <v>-0.18319480121135712</v>
+        <v>-0.1720225065946579</v>
       </c>
       <c r="D113" s="0">
-        <v>-0.29410499334335327</v>
+        <v>-0.24977929890155792</v>
       </c>
       <c r="E113" s="0">
-        <v>-0.072284601628780365</v>
+        <v>-0.09426560252904892</v>
       </c>
     </row>
     <row r="114">
@@ -2119,13 +2134,13 @@
         <v>14</v>
       </c>
       <c r="C114" s="0">
-        <v>-0.29198819398880005</v>
+        <v>-0.28620550036430359</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.44041529297828674</v>
+        <v>-0.3914732038974762</v>
       </c>
       <c r="E114" s="0">
-        <v>-0.14356109499931335</v>
+        <v>-0.18093790113925934</v>
       </c>
     </row>
     <row r="115">
@@ -2136,13 +2151,13 @@
         <v>14</v>
       </c>
       <c r="C115" s="0">
-        <v>-0.13739140331745148</v>
+        <v>-0.14190979301929474</v>
       </c>
       <c r="D115" s="0">
-        <v>-0.37145590782165527</v>
+        <v>-0.35764870047569275</v>
       </c>
       <c r="E115" s="0">
-        <v>0.096672996878623962</v>
+        <v>0.073829002678394318</v>
       </c>
     </row>
     <row r="116">
@@ -2153,13 +2168,13 @@
         <v>15</v>
       </c>
       <c r="C116" s="0">
-        <v>0.010583300143480301</v>
+        <v>0.0080816000699996948</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.095673799514770508</v>
+        <v>-0.064301900565624237</v>
       </c>
       <c r="E116" s="0">
-        <v>0.11684049665927887</v>
+        <v>0.080465100705623627</v>
       </c>
     </row>
     <row r="117">
@@ -2170,13 +2185,13 @@
         <v>15</v>
       </c>
       <c r="C117" s="0">
-        <v>0.054612200707197189</v>
+        <v>0.049734398722648621</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.059611100703477859</v>
+        <v>-0.031059300526976585</v>
       </c>
       <c r="E117" s="0">
-        <v>0.16883540153503418</v>
+        <v>0.13052810728549957</v>
       </c>
     </row>
     <row r="118">
@@ -2187,13 +2202,13 @@
         <v>15</v>
       </c>
       <c r="C118" s="0">
-        <v>0.072262600064277649</v>
+        <v>0.068941600620746613</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.035487100481987</v>
+        <v>-0.0056623001582920551</v>
       </c>
       <c r="E118" s="0">
-        <v>0.1800123006105423</v>
+        <v>0.14354559779167175</v>
       </c>
     </row>
     <row r="119">
@@ -2204,13 +2219,13 @@
         <v>15</v>
       </c>
       <c r="C119" s="0">
-        <v>0.082327701151371002</v>
+        <v>0.078925102949142456</v>
       </c>
       <c r="D119" s="0">
-        <v>-0.038458298891782761</v>
+        <v>-0.0025190999731421471</v>
       </c>
       <c r="E119" s="0">
-        <v>0.20311379432678223</v>
+        <v>0.1603693962097168</v>
       </c>
     </row>
     <row r="120">
@@ -2221,13 +2236,13 @@
         <v>15</v>
       </c>
       <c r="C120" s="0">
-        <v>0.11464180052280426</v>
+        <v>0.12155299633741379</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.012749100103974342</v>
+        <v>0.042662199586629868</v>
       </c>
       <c r="E120" s="0">
-        <v>0.24203270673751831</v>
+        <v>0.2004438042640686</v>
       </c>
     </row>
     <row r="121">
@@ -2238,13 +2253,13 @@
         <v>15</v>
       </c>
       <c r="C121" s="0">
-        <v>0.058571700006723404</v>
+        <v>0.069351702928543091</v>
       </c>
       <c r="D121" s="0">
-        <v>-0.080266103148460388</v>
+        <v>-0.051713798195123672</v>
       </c>
       <c r="E121" s="0">
-        <v>0.1974094957113266</v>
+        <v>0.1904170960187912</v>
       </c>
     </row>
     <row r="122">
@@ -2967,27 +2982,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -2995,319 +3013,1839 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>0.23181934654712677</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.31242671608924866</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0.29714646935462952</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="0">
-        <v>0.30193653702735901</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0">
-        <v>0.280570387840271</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>0.22948598861694336</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.31771978735923767</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0.32686534523963928</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="0">
-        <v>0.30193650722503662</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0">
-        <v>0.29767808318138123</v>
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.24363245069980621</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.32881000638008118</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0.35002753138542175</v>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
       <c r="E4" s="0">
-        <v>0.29931876063346863</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0">
-        <v>0.30145007371902466</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>0.24472054839134216</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.3129630982875824</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0.37457647919654846</v>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
       </c>
       <c r="E5" s="0">
-        <v>0.30130875110626221</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.31369751691818237</v>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0">
-        <v>0.24855084717273712</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.30478754639625549</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0.39304912090301514</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
       </c>
       <c r="E6" s="0">
-        <v>0.30647537112236023</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0">
-        <v>0.30930596590042114</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24014408886432648</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.3075079619884491</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0.38205805420875549</v>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
       </c>
       <c r="E7" s="0">
-        <v>0.31476083397865295</v>
+        <v>1</v>
       </c>
       <c r="F7" s="0">
-        <v>0.28975671529769897</v>
+        <v>0</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0">
-        <v>0.23417806625366211</v>
+        <v>0</v>
       </c>
       <c r="C8" s="0">
-        <v>0.29653763771057129</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0.38279885053634644</v>
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
       </c>
       <c r="E8" s="0">
-        <v>0.30730077624320984</v>
+        <v>1</v>
       </c>
       <c r="F8" s="0">
-        <v>0.2875497043132782</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>0.24025264382362366</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
-        <v>0.27797049283981323</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0.35442245006561279</v>
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
       </c>
       <c r="E9" s="0">
-        <v>0.31566473841667175</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0">
-        <v>0.26751077175140381</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0">
-        <v>0.23550085723400116</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.26366797089576721</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0.31690052151679993</v>
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
       </c>
       <c r="E10" s="0">
-        <v>0.31042590737342834</v>
+        <v>1</v>
       </c>
       <c r="F10" s="0">
-        <v>0.24179553985595703</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0">
-        <v>0.24521960318088531</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>0.25027880072593689</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0.29959288239479065</v>
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
       </c>
       <c r="E11" s="0">
-        <v>0.31543931365013123</v>
+        <v>1</v>
       </c>
       <c r="F11" s="0">
-        <v>0.22909201681613922</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>0.23993898928165436</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0.23256926238536835</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0.28787511587142944</v>
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
       </c>
       <c r="E12" s="0">
-        <v>0.32376077771186829</v>
+        <v>1</v>
       </c>
       <c r="F12" s="0">
-        <v>0.21540489792823792</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>0.2358463853597641</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0">
-        <v>0.21780940890312195</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0.27702182531356812</v>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
       </c>
       <c r="E13" s="0">
-        <v>0.31622827053070068</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0">
-        <v>0.21216312050819397</v>
+        <v>0</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0.23439641296863556</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>0.20482936501502991</v>
-      </c>
-      <c r="D14" s="0">
-        <v>0.26219266653060913</v>
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
       </c>
       <c r="E14" s="0">
-        <v>0.31255805492401123</v>
+        <v>1</v>
       </c>
       <c r="F14" s="0">
-        <v>0.20137989521026611</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0">
-        <v>0.22927215695381165</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0.19412219524383545</v>
-      </c>
-      <c r="D15" s="0">
-        <v>0.2598719596862793</v>
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
       </c>
       <c r="E15" s="0">
-        <v>0.3142678439617157</v>
+        <v>1</v>
       </c>
       <c r="F15" s="0">
-        <v>0.18796758353710175</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>0.2200695127248764</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>0.18463544547557831</v>
-      </c>
-      <c r="D16" s="0">
-        <v>0.26000010967254639</v>
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
       </c>
       <c r="E16" s="0">
-        <v>0.30907920002937317</v>
+        <v>1</v>
       </c>
       <c r="F16" s="0">
-        <v>0.19035698473453522</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0.21544615924358368</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>0.17757156491279602</v>
-      </c>
-      <c r="D17" s="0">
-        <v>0.24156822264194489</v>
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
       </c>
       <c r="E17" s="0">
-        <v>0.30068597197532654</v>
+        <v>1</v>
       </c>
       <c r="F17" s="0">
+        <v>0</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.34746518731117249</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.033178601413965225</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.41249528527259827</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.2824350893497467</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.37686300277709961</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.035720501095056534</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.44687521457672119</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.30685079097747803</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.39690360426902771</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.043094001710414886</v>
+      </c>
+      <c r="C20" s="0">
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.48136788606643677</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.31243941187858582</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.41696760058403015</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.039848800748586655</v>
+      </c>
+      <c r="C21" s="0">
+        <v>3.2000000476837158</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.49507129192352295</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.33886390924453735</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.43678310513496399</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.041010398417711258</v>
+      </c>
+      <c r="C22" s="0">
+        <v>4.1999998092651367</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.51716351509094238</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.3564026951789856</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.42289999127388</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.040379200130701065</v>
+      </c>
+      <c r="C23" s="0">
+        <v>5.1999998092651367</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.50204318761825562</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.34375679492950439</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.42353799939155579</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.040392998605966568</v>
+      </c>
+      <c r="C24" s="0">
+        <v>6.1999998092651367</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.5027083158493042</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.34436771273612976</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.39814010262489319</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.038309801369905472</v>
+      </c>
+      <c r="C25" s="0">
+        <v>7.1999998092651367</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="0">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.47322729229927063</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.32305291295051575</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.36208769679069519</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.034304298460483551</v>
+      </c>
+      <c r="C26" s="0">
+        <v>8.1999998092651367</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="0">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.42932409048080444</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.29485130310058594</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.34748819470405579</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.034906700253486633</v>
+      </c>
+      <c r="C27" s="0">
+        <v>9.1999998092651367</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.41590529680252075</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.27907109260559082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.33672469854354858</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.03242579847574234</v>
+      </c>
+      <c r="C28" s="0">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="0">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.40027931332588196</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.2731701135635376</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.32296329736709595</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.03399369865655899</v>
+      </c>
+      <c r="C29" s="0">
+        <v>11.199999809265137</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="0">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.38959088921546936</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.25633558630943298</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.31146660447120667</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.031351599842309952</v>
+      </c>
+      <c r="C30" s="0">
+        <v>12.199999809265137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="0">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.37291568517684937</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.25001749396324158</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.30895420908927917</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.033208098262548447</v>
+      </c>
+      <c r="C31" s="0">
+        <v>13.199999809265137</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="0">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.3740420937538147</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.24386629462242126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.30937731266021729</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.032332498580217361</v>
+      </c>
+      <c r="C32" s="0">
+        <v>14.199999809265137</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="0">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.37274900078773499</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.2460055947303772</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.29045650362968445</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.032064501196146011</v>
+      </c>
+      <c r="C33" s="0">
+        <v>15.199999809265137</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.35330289602279663</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0.22761009633541107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.280570387840271</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.061418000608682632</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="0">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.40094968676567078</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0.16019110381603241</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.29767811298370361</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.060981899499893188</v>
+      </c>
+      <c r="C35" s="0">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="0">
+        <v>4</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.41720259189605713</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.17815360426902771</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.30145010352134705</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.060592301189899445</v>
+      </c>
+      <c r="C36" s="0">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="0">
+        <v>4</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.42021098732948303</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0.18268920481204987</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.31369748711585999</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.056942898780107498</v>
+      </c>
+      <c r="C37" s="0">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="0">
+        <v>4</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.42530560493469238</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.20208939909934998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.30930599570274353</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.058117099106311798</v>
+      </c>
+      <c r="C38" s="0">
+        <v>4.4000000953674316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="0">
+        <v>4</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.42321550846099854</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0.19539649784564972</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.28975668549537659</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.058439701795578003</v>
+      </c>
+      <c r="C39" s="0">
+        <v>5.4000000953674316</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="0">
+        <v>4</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.40429851412773132</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0.17521490156650543</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.2875497043132782</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.059206601232290268</v>
+      </c>
+      <c r="C40" s="0">
+        <v>6.4000000953674316</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="0">
+        <v>4</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.40359461307525635</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0.17150479555130005</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.2675108015537262</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.059342101216316223</v>
+      </c>
+      <c r="C41" s="0">
+        <v>7.4000000953674316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="0">
+        <v>4</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.38382130861282349</v>
+      </c>
+      <c r="G41" s="0">
+        <v>0.15120029449462891</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.24179549515247345</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.059508699923753738</v>
+      </c>
+      <c r="C42" s="0">
+        <v>8.3999996185302734</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="0">
+        <v>4</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.3584325909614563</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0.1251583993434906</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.22909200191497803</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0.059599798172712326</v>
+      </c>
+      <c r="C43" s="0">
+        <v>9.3999996185302734</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="0">
+        <v>4</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.34590759873390198</v>
+      </c>
+      <c r="G43" s="0">
+        <v>0.11227639764547348</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.21540489792823792</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.059326998889446259</v>
+      </c>
+      <c r="C44" s="0">
+        <v>10.399999618530273</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="0">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.33168581128120422</v>
+      </c>
+      <c r="G44" s="0">
+        <v>0.0991239994764328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.21216310560703278</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0.057766400277614594</v>
+      </c>
+      <c r="C45" s="0">
+        <v>11.399999618530273</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="0">
+        <v>4</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.32538521289825439</v>
+      </c>
+      <c r="G45" s="0">
+        <v>0.098940998315811157</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.20137989521026611</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.058563098311424255</v>
+      </c>
+      <c r="C46" s="0">
+        <v>12.399999618530273</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="0">
+        <v>4</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.31616359949111938</v>
+      </c>
+      <c r="G46" s="0">
+        <v>0.086596198379993439</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.18796759843826294</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.058849599212408066</v>
+      </c>
+      <c r="C47" s="0">
+        <v>13.399999618530273</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.30331280827522278</v>
+      </c>
+      <c r="G47" s="0">
+        <v>0.072622403502464294</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.19035699963569641</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0.057244900614023209</v>
+      </c>
+      <c r="C48" s="0">
+        <v>14.399999618530273</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="0">
+        <v>4</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.30255699157714844</v>
+      </c>
+      <c r="G48" s="0">
+        <v>0.078157000243663788</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
         <v>0.17919610440731049</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0.057498998939990997</v>
+      </c>
+      <c r="C49" s="0">
+        <v>15.399999618530273</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="0">
+        <v>4</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.29189410805702209</v>
+      </c>
+      <c r="G49" s="0">
+        <v>0.066498100757598877</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.29338321089744568</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0.017437299713492393</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="0">
+        <v>3</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.32756030559539795</v>
+      </c>
+      <c r="G50" s="0">
+        <v>0.25920608639717102</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.29508820176124573</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0.017891800031065941</v>
+      </c>
+      <c r="C51" s="0">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="0">
+        <v>3</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.33015608787536621</v>
+      </c>
+      <c r="G51" s="0">
+        <v>0.26002028584480286</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.28986001014709473</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0.017760999500751495</v>
+      </c>
+      <c r="C52" s="0">
+        <v>2.2999999523162842</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="0">
+        <v>3</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.32467159628868103</v>
+      </c>
+      <c r="G52" s="0">
+        <v>0.25504851341247559</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.29024788737297058</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.017896700650453568</v>
+      </c>
+      <c r="C53" s="0">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="0">
+        <v>3</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.32532539963722229</v>
+      </c>
+      <c r="G53" s="0">
+        <v>0.25517028570175171</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.29513809084892273</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0.018136100843548775</v>
+      </c>
+      <c r="C54" s="0">
+        <v>4.3000001907348633</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="0">
+        <v>3</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.33068481087684631</v>
+      </c>
+      <c r="G54" s="0">
+        <v>0.25959131121635437</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.29979559779167175</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0.018005400896072388</v>
+      </c>
+      <c r="C55" s="0">
+        <v>5.3000001907348633</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="0">
+        <v>3</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.33508619666099548</v>
+      </c>
+      <c r="G55" s="0">
+        <v>0.26450499892234802</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.29152089357376099</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0.018393600359559059</v>
+      </c>
+      <c r="C56" s="0">
+        <v>6.3000001907348633</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="0">
+        <v>3</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.3275722861289978</v>
+      </c>
+      <c r="G56" s="0">
+        <v>0.25546941161155701</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.2974143922328949</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0.01839509978890419</v>
+      </c>
+      <c r="C57" s="0">
+        <v>7.3000001907348633</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="0">
+        <v>3</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.33346879482269287</v>
+      </c>
+      <c r="G57" s="0">
+        <v>0.26135998964309692</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.29235830903053284</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0.018755000084638596</v>
+      </c>
+      <c r="C58" s="0">
+        <v>8.3000001907348633</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="0">
+        <v>3</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.32911810278892517</v>
+      </c>
+      <c r="G58" s="0">
+        <v>0.25559848546981812</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.29774799942970276</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0.018401399254798889</v>
+      </c>
+      <c r="C59" s="0">
+        <v>9.3000001907348633</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="0">
+        <v>3</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.33381471037864685</v>
+      </c>
+      <c r="G59" s="0">
+        <v>0.26168128848075867</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.30706891417503357</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0.016943000257015228</v>
+      </c>
+      <c r="C60" s="0">
+        <v>10.300000190734863</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="0">
+        <v>3</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0.34027719497680664</v>
+      </c>
+      <c r="G60" s="0">
+        <v>0.27386060357093811</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.30129900574684143</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0.01647149957716465</v>
+      </c>
+      <c r="C61" s="0">
+        <v>11.300000190734863</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="0">
+        <v>3</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.33358308672904968</v>
+      </c>
+      <c r="G61" s="0">
+        <v>0.26901489496231079</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.2949163019657135</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0.016923399642109871</v>
+      </c>
+      <c r="C62" s="0">
+        <v>12.300000190734863</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="0">
+        <v>3</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0.32808619737625122</v>
+      </c>
+      <c r="G62" s="0">
+        <v>0.26174640655517578</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.29777848720550537</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0.01664000004529953</v>
+      </c>
+      <c r="C63" s="0">
+        <v>13.300000190734863</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="0">
+        <v>3</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0.33039289712905884</v>
+      </c>
+      <c r="G63" s="0">
+        <v>0.26516410708427429</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.29214221239089966</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0.016593899577856064</v>
+      </c>
+      <c r="C64" s="0">
+        <v>14.300000190734863</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="0">
+        <v>3</v>
+      </c>
+      <c r="F64" s="0">
+        <v>0.32466629147529602</v>
+      </c>
+      <c r="G64" s="0">
+        <v>0.25961819291114807</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.28459128737449646</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0.016838500276207924</v>
+      </c>
+      <c r="C65" s="0">
+        <v>15.300000190734863</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="0">
+        <v>3</v>
+      </c>
+      <c r="F65" s="0">
+        <v>0.31759470701217651</v>
+      </c>
+      <c r="G65" s="0">
+        <v>0.25158780813217163</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.32099738717079163</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0.022347800433635712</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="0">
+        <v>5</v>
+      </c>
+      <c r="F66" s="0">
+        <v>0.36479911208152771</v>
+      </c>
+      <c r="G66" s="0">
+        <v>0.27719569206237793</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.31795820593833923</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0.022268999367952347</v>
+      </c>
+      <c r="C67" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="0">
+        <v>5</v>
+      </c>
+      <c r="F67" s="0">
+        <v>0.36160540580749512</v>
+      </c>
+      <c r="G67" s="0">
+        <v>0.27431100606918335</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.32458770275115967</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0.023173099383711815</v>
+      </c>
+      <c r="C68" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="0">
+        <v>5</v>
+      </c>
+      <c r="F68" s="0">
+        <v>0.37000700831413269</v>
+      </c>
+      <c r="G68" s="0">
+        <v>0.27916839718818665</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.32443758845329285</v>
+      </c>
+      <c r="B69" s="0">
+        <v>0.022644000127911568</v>
+      </c>
+      <c r="C69" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="0">
+        <v>5</v>
+      </c>
+      <c r="F69" s="0">
+        <v>0.36881980299949646</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0.28005531430244446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.32579758763313293</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0.022622900083661079</v>
+      </c>
+      <c r="C70" s="0">
+        <v>4.5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="0">
+        <v>5</v>
+      </c>
+      <c r="F70" s="0">
+        <v>0.3701384961605072</v>
+      </c>
+      <c r="G70" s="0">
+        <v>0.28145670890808105</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.32634431123733521</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0.021670600399374962</v>
+      </c>
+      <c r="C71" s="0">
+        <v>5.5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="0">
+        <v>5</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0.36881870031356812</v>
+      </c>
+      <c r="G71" s="0">
+        <v>0.28386989235877991</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0.31835758686065674</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0.021448599174618721</v>
+      </c>
+      <c r="C72" s="0">
+        <v>6.5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="0">
+        <v>5</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0.36039680242538452</v>
+      </c>
+      <c r="G72" s="0">
+        <v>0.27631831169128418</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>0.32959121465682983</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0.021371699869632721</v>
+      </c>
+      <c r="C73" s="0">
+        <v>7.5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="0">
+        <v>5</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0.37147969007492065</v>
+      </c>
+      <c r="G73" s="0">
+        <v>0.28770270943641663</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>0.32659938931465149</v>
+      </c>
+      <c r="B74" s="0">
+        <v>0.021072300150990486</v>
+      </c>
+      <c r="C74" s="0">
+        <v>8.5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="0">
+        <v>5</v>
+      </c>
+      <c r="F74" s="0">
+        <v>0.36790108680725098</v>
+      </c>
+      <c r="G74" s="0">
+        <v>0.285297691822052</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>0.33198699355125427</v>
+      </c>
+      <c r="B75" s="0">
+        <v>0.021804699674248695</v>
+      </c>
+      <c r="C75" s="0">
+        <v>9.5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="0">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0">
+        <v>0.37472420930862427</v>
+      </c>
+      <c r="G75" s="0">
+        <v>0.28924980759620667</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>0.32885530591011047</v>
+      </c>
+      <c r="B76" s="0">
+        <v>0.020213000476360321</v>
+      </c>
+      <c r="C76" s="0">
+        <v>10.5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="0">
+        <v>5</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0.36847281455993652</v>
+      </c>
+      <c r="G76" s="0">
+        <v>0.28923779726028442</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>0.32469359040260315</v>
+      </c>
+      <c r="B77" s="0">
+        <v>0.019905600696802139</v>
+      </c>
+      <c r="C77" s="0">
+        <v>11.5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="0">
+        <v>5</v>
+      </c>
+      <c r="F77" s="0">
+        <v>0.36370858550071716</v>
+      </c>
+      <c r="G77" s="0">
+        <v>0.28567859530448914</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>0.3218575119972229</v>
+      </c>
+      <c r="B78" s="0">
+        <v>0.018580600619316101</v>
+      </c>
+      <c r="C78" s="0">
+        <v>12.5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="0">
+        <v>5</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0.35827550292015076</v>
+      </c>
+      <c r="G78" s="0">
+        <v>0.28543949127197266</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>0.3150830864906311</v>
+      </c>
+      <c r="B79" s="0">
+        <v>0.019055500626564026</v>
+      </c>
+      <c r="C79" s="0">
+        <v>13.5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="0">
+        <v>5</v>
+      </c>
+      <c r="F79" s="0">
+        <v>0.35243189334869385</v>
+      </c>
+      <c r="G79" s="0">
+        <v>0.27773430943489075</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>0.30781561136245728</v>
+      </c>
+      <c r="B80" s="0">
+        <v>0.018952900543808937</v>
+      </c>
+      <c r="C80" s="0">
+        <v>14.5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="0">
+        <v>5</v>
+      </c>
+      <c r="F80" s="0">
+        <v>0.34496331214904785</v>
+      </c>
+      <c r="G80" s="0">
+        <v>0.2706679105758667</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>0.3023642897605896</v>
+      </c>
+      <c r="B81" s="0">
+        <v>0.018754100427031517</v>
+      </c>
+      <c r="C81" s="0">
+        <v>15.5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="0">
+        <v>5</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0.33912229537963867</v>
+      </c>
+      <c r="G81" s="0">
+        <v>0.26560631394386292</v>
       </c>
     </row>
   </sheetData>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="48">
   <si>
     <t>adm0</t>
   </si>
@@ -179,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,12 +187,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,14 +231,14 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0">
-        <v>-0.056332100182771683</v>
-      </c>
-      <c r="D2" s="0">
-        <v>-0.10756020247936249</v>
-      </c>
-      <c r="E2" s="0">
-        <v>-0.0051040998660027981</v>
+      <c r="C2" s="1">
+        <v>-0.060433100908994675</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.11290889978408813</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.0079573998227715492</v>
       </c>
     </row>
     <row r="3">
@@ -246,14 +248,14 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0">
-        <v>-0.030471600592136383</v>
-      </c>
-      <c r="D3" s="0">
-        <v>-0.11674950271844864</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.055806200951337814</v>
+      <c r="C3" s="1">
+        <v>-0.031738601624965668</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.11523459851741791</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.051757398992776871</v>
       </c>
     </row>
     <row r="4">
@@ -263,14 +265,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0">
-        <v>-0.041444700211286545</v>
-      </c>
-      <c r="D4" s="0">
-        <v>-0.10087499767541885</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.017985599115490913</v>
+      <c r="C4" s="1">
+        <v>-0.046577900648117065</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.1073421984910965</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.01418639998883009</v>
       </c>
     </row>
     <row r="5">
@@ -280,14 +282,14 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0">
-        <v>-0.033182200044393539</v>
-      </c>
-      <c r="D5" s="0">
-        <v>-0.1164994016289711</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.050135001540184021</v>
+      <c r="C5" s="1">
+        <v>-0.032676100730895996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.11886230111122131</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.053510099649429321</v>
       </c>
     </row>
     <row r="6">
@@ -297,14 +299,14 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0">
-        <v>0.017603900283575058</v>
-      </c>
-      <c r="D6" s="0">
-        <v>-0.074468702077865601</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.10967650264501572</v>
+      <c r="C6" s="1">
+        <v>0.012998499907553196</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.075569696724414825</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.10156670212745667</v>
       </c>
     </row>
     <row r="7">
@@ -314,14 +316,14 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0">
-        <v>-0.1051424965262413</v>
-      </c>
-      <c r="D7" s="0">
-        <v>-0.23836269974708557</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.028077699244022369</v>
+      <c r="C7" s="1">
+        <v>-0.097154103219509125</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.2218606024980545</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.027552399784326553</v>
       </c>
     </row>
     <row r="8">
@@ -331,14 +333,14 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0">
-        <v>-0.043799400329589844</v>
-      </c>
-      <c r="D8" s="0">
-        <v>-0.11301679909229279</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.025418000295758247</v>
+      <c r="C8" s="1">
+        <v>-0.047612998634576797</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.11497770249843597</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.01975180022418499</v>
       </c>
     </row>
     <row r="9">
@@ -348,14 +350,14 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
-        <v>-0.080150000751018524</v>
-      </c>
-      <c r="D9" s="0">
-        <v>-0.16302239894866943</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.002722499892115593</v>
+      <c r="C9" s="1">
+        <v>-0.083260297775268555</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.16422459483146667</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.0022960000205785036</v>
       </c>
     </row>
     <row r="10">
@@ -365,14 +367,14 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0">
-        <v>-0.10599870234727859</v>
-      </c>
-      <c r="D10" s="0">
-        <v>-0.18599429726600647</v>
-      </c>
-      <c r="E10" s="0">
-        <v>-0.026003200560808182</v>
+      <c r="C10" s="1">
+        <v>-0.10927759855985641</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.18984049558639526</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.028714699670672417</v>
       </c>
     </row>
     <row r="11">
@@ -382,14 +384,14 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="0">
-        <v>-0.046190399676561356</v>
-      </c>
-      <c r="D11" s="0">
-        <v>-0.13127310574054718</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.038892298936843872</v>
+      <c r="C11" s="1">
+        <v>-0.050505299121141434</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.13603590428829193</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.035025399178266525</v>
       </c>
     </row>
     <row r="12">
@@ -399,14 +401,14 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="0">
-        <v>-0.10915389657020569</v>
-      </c>
-      <c r="D12" s="0">
-        <v>-0.18193410336971283</v>
-      </c>
-      <c r="E12" s="0">
-        <v>-0.036373801529407501</v>
+      <c r="C12" s="1">
+        <v>-0.11137869954109192</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.18505600094795227</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.037701401859521866</v>
       </c>
     </row>
     <row r="13">
@@ -416,14 +418,14 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="0">
-        <v>-0.11652249842882156</v>
-      </c>
-      <c r="D13" s="0">
-        <v>-0.19738869369029999</v>
-      </c>
-      <c r="E13" s="0">
-        <v>-0.035656299442052841</v>
+      <c r="C13" s="1">
+        <v>-0.1170044019818306</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.19876609742641449</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.035242699086666107</v>
       </c>
     </row>
     <row r="14">
@@ -433,14 +435,14 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0">
-        <v>-0.057672798633575439</v>
-      </c>
-      <c r="D14" s="0">
-        <v>-0.12127750366926193</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0.0059318002313375473</v>
+      <c r="C14" s="1">
+        <v>-0.057927299290895462</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.12079410254955292</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0049394001252949238</v>
       </c>
     </row>
     <row r="15">
@@ -450,14 +452,14 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0">
-        <v>-0.086822398006916046</v>
-      </c>
-      <c r="D15" s="0">
-        <v>-0.15181569755077362</v>
-      </c>
-      <c r="E15" s="0">
-        <v>-0.021829100325703621</v>
+      <c r="C15" s="1">
+        <v>-0.087724998593330383</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.15270300209522247</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.02274709939956665</v>
       </c>
     </row>
     <row r="16">
@@ -467,14 +469,14 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0">
-        <v>-0.11223659664392471</v>
-      </c>
-      <c r="D16" s="0">
-        <v>-0.1611391007900238</v>
-      </c>
-      <c r="E16" s="0">
-        <v>-0.063334099948406219</v>
+      <c r="C16" s="1">
+        <v>-0.11256039887666702</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.16035419702529907</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.064766697585582733</v>
       </c>
     </row>
     <row r="17">
@@ -484,14 +486,14 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0">
-        <v>-0.13249200582504272</v>
-      </c>
-      <c r="D17" s="0">
-        <v>-0.18961919844150543</v>
-      </c>
-      <c r="E17" s="0">
-        <v>-0.075364701449871063</v>
+      <c r="C17" s="1">
+        <v>-0.13347719609737396</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.18950240314006805</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.077451996505260468</v>
       </c>
     </row>
     <row r="18">
@@ -501,14 +503,14 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0">
-        <v>-0.12884229421615601</v>
-      </c>
-      <c r="D18" s="0">
-        <v>-0.19019809365272522</v>
-      </c>
-      <c r="E18" s="0">
-        <v>-0.067486502230167389</v>
+      <c r="C18" s="1">
+        <v>-0.12722590565681458</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.18838749825954437</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.066064201295375824</v>
       </c>
     </row>
     <row r="19">
@@ -518,14 +520,14 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0">
-        <v>-0.1097647026181221</v>
-      </c>
-      <c r="D19" s="0">
-        <v>-0.1690371036529541</v>
-      </c>
-      <c r="E19" s="0">
-        <v>-0.050492201000452042</v>
+      <c r="C19" s="1">
+        <v>-0.11019229888916016</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.16916400194168091</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.051220599561929703</v>
       </c>
     </row>
     <row r="20">
@@ -535,14 +537,14 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="0">
-        <v>0.069430500268936157</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0.01980070024728775</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0.11906039714813232</v>
+      <c r="C20" s="1">
+        <v>0.073222599923610687</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.023257700726389885</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.1231876015663147</v>
       </c>
     </row>
     <row r="21">
@@ -552,14 +554,14 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="0">
-        <v>0.043250799179077148</v>
-      </c>
-      <c r="D21" s="0">
-        <v>-0.014097799547016621</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0.10059940069913864</v>
+      <c r="C21" s="1">
+        <v>0.045584898442029953</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.010948300361633301</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.10211820155382156</v>
       </c>
     </row>
     <row r="22">
@@ -569,14 +571,14 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="0">
-        <v>0.044092200696468353</v>
-      </c>
-      <c r="D22" s="0">
-        <v>-0.0061503998003900051</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0.094334900379180908</v>
+      <c r="C22" s="1">
+        <v>0.049505498260259628</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.0002941999991890043</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.099305301904678345</v>
       </c>
     </row>
     <row r="23">
@@ -586,14 +588,14 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="0">
-        <v>0.044796701520681381</v>
-      </c>
-      <c r="D23" s="0">
-        <v>-0.035357598215341568</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0.12495099753141403</v>
+      <c r="C23" s="1">
+        <v>0.046591799706220627</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.035180598497390747</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.12836429476737976</v>
       </c>
     </row>
     <row r="24">
@@ -603,14 +605,14 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="0">
-        <v>0.0026171000208705664</v>
-      </c>
-      <c r="D24" s="0">
-        <v>-0.086922399699687958</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0.092156596481800079</v>
+      <c r="C24" s="1">
+        <v>0.0075252000242471695</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.079877801239490509</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.09492819756269455</v>
       </c>
     </row>
     <row r="25">
@@ -620,14 +622,14 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="0">
-        <v>0.07463499903678894</v>
-      </c>
-      <c r="D25" s="0">
-        <v>-0.0032464999239891768</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0.15251649916172028</v>
+      <c r="C25" s="1">
+        <v>0.068701602518558502</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.0066093001514673233</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.14401260018348694</v>
       </c>
     </row>
     <row r="26">
@@ -637,14 +639,14 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="0">
-        <v>-0.010734300129115582</v>
-      </c>
-      <c r="D26" s="0">
-        <v>-0.047528501600027084</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0.026059899479150772</v>
+      <c r="C26" s="1">
+        <v>-0.0095579996705055237</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.044379599392414093</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.025263499468564987</v>
       </c>
     </row>
     <row r="27">
@@ -654,14 +656,14 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="0">
-        <v>0.0021931000519543886</v>
-      </c>
-      <c r="D27" s="0">
-        <v>-0.036403398960828781</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0.040789499878883362</v>
+      <c r="C27" s="1">
+        <v>0.0050940997898578644</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.031385801732540131</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.041574001312255859</v>
       </c>
     </row>
     <row r="28">
@@ -671,14 +673,14 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="0">
-        <v>0.0084375003352761269</v>
-      </c>
-      <c r="D28" s="0">
-        <v>-0.02792849950492382</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0.044803600758314133</v>
+      <c r="C28" s="1">
+        <v>0.011550799943506718</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.022256800904870033</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.045358400791883469</v>
       </c>
     </row>
     <row r="29">
@@ -688,14 +690,14 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="0">
-        <v>0.0119463000446558</v>
-      </c>
-      <c r="D29" s="0">
-        <v>-0.027031600475311279</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0.050924099981784821</v>
+      <c r="C29" s="1">
+        <v>0.015207200311124325</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.022598100826144218</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.05301240086555481</v>
       </c>
     </row>
     <row r="30">
@@ -705,14 +707,14 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="0">
-        <v>0.01491519995033741</v>
-      </c>
-      <c r="D30" s="0">
-        <v>-0.023609999567270279</v>
-      </c>
-      <c r="E30" s="0">
-        <v>0.05344029888510704</v>
+      <c r="C30" s="1">
+        <v>0.014983899891376495</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.024112999439239502</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.054080799221992493</v>
       </c>
     </row>
     <row r="31">
@@ -722,14 +724,14 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="0">
-        <v>0.014948500320315361</v>
-      </c>
-      <c r="D31" s="0">
-        <v>-0.020075300708413124</v>
-      </c>
-      <c r="E31" s="0">
-        <v>0.049972198903560638</v>
+      <c r="C31" s="1">
+        <v>0.014323100447654724</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.021759599447250366</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.050405800342559814</v>
       </c>
     </row>
     <row r="32">
@@ -739,14 +741,14 @@
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="0">
-        <v>-0.047548398375511169</v>
-      </c>
-      <c r="D32" s="0">
-        <v>-0.088010698556900024</v>
-      </c>
-      <c r="E32" s="0">
-        <v>-0.0070861000567674637</v>
+      <c r="C32" s="1">
+        <v>-0.048031799495220184</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.08880169689655304</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.0072618001140654087</v>
       </c>
     </row>
     <row r="33">
@@ -756,14 +758,14 @@
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="0">
-        <v>-0.031365301460027695</v>
-      </c>
-      <c r="D33" s="0">
-        <v>-0.086398199200630188</v>
-      </c>
-      <c r="E33" s="0">
-        <v>0.023667700588703156</v>
+      <c r="C33" s="1">
+        <v>-0.033016800880432129</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.088250696659088135</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.022217100486159325</v>
       </c>
     </row>
     <row r="34">
@@ -773,14 +775,14 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="0">
-        <v>-0.0036605000495910645</v>
-      </c>
-      <c r="D34" s="0">
-        <v>-0.046877201646566391</v>
-      </c>
-      <c r="E34" s="0">
-        <v>0.039556298404932022</v>
+      <c r="C34" s="1">
+        <v>-0.0044853999279439449</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.046801198273897171</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.037830501794815063</v>
       </c>
     </row>
     <row r="35">
@@ -790,14 +792,14 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="0">
-        <v>-0.013834900222718716</v>
-      </c>
-      <c r="D35" s="0">
-        <v>-0.065688297152519226</v>
-      </c>
-      <c r="E35" s="0">
-        <v>0.038018599152565002</v>
+      <c r="C35" s="1">
+        <v>-0.015027499757707119</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.065393500030040741</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.035338599234819412</v>
       </c>
     </row>
     <row r="36">
@@ -807,14 +809,14 @@
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="0">
-        <v>0.01429119985550642</v>
-      </c>
-      <c r="D36" s="0">
-        <v>-0.035316500812768936</v>
-      </c>
-      <c r="E36" s="0">
-        <v>0.063899002969264984</v>
+      <c r="C36" s="1">
+        <v>0.016711799427866936</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.033517900854349136</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.066941499710083008</v>
       </c>
     </row>
     <row r="37">
@@ -824,14 +826,14 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="0">
-        <v>0.037565898150205612</v>
-      </c>
-      <c r="D37" s="0">
-        <v>-0.0049661002121865749</v>
-      </c>
-      <c r="E37" s="0">
-        <v>0.080097898840904236</v>
+      <c r="C37" s="1">
+        <v>0.041591499000787735</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-6.3500003307126462e-05</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.083246499300003052</v>
       </c>
     </row>
     <row r="38">
@@ -841,14 +843,14 @@
       <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0">
-        <v>-0.0092321997508406639</v>
-      </c>
-      <c r="D38" s="0">
-        <v>-0.050892800092697144</v>
-      </c>
-      <c r="E38" s="0">
-        <v>0.032428398728370667</v>
+      <c r="C38" s="1">
+        <v>-0.0084835002198815346</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.049616299569606781</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.032649300992488861</v>
       </c>
     </row>
     <row r="39">
@@ -858,14 +860,14 @@
       <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0">
-        <v>-0.0067564998753368855</v>
-      </c>
-      <c r="D39" s="0">
-        <v>-0.050530098378658295</v>
-      </c>
-      <c r="E39" s="0">
-        <v>0.037017200142145157</v>
+      <c r="C39" s="1">
+        <v>-0.0050685000605881214</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.047733001410961151</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.037595998495817184</v>
       </c>
     </row>
     <row r="40">
@@ -875,14 +877,14 @@
       <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0">
-        <v>-0.0079151997342705727</v>
-      </c>
-      <c r="D40" s="0">
-        <v>-0.063047401607036591</v>
-      </c>
-      <c r="E40" s="0">
-        <v>0.047217100858688354</v>
+      <c r="C40" s="1">
+        <v>-0.0071947998367249966</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.060790199786424637</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.046400599181652069</v>
       </c>
     </row>
     <row r="41">
@@ -892,14 +894,14 @@
       <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0">
-        <v>-0.024137800559401512</v>
-      </c>
-      <c r="D41" s="0">
-        <v>-0.077735103666782379</v>
-      </c>
-      <c r="E41" s="0">
-        <v>0.029459400102496147</v>
+      <c r="C41" s="1">
+        <v>-0.023775100708007812</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-0.076079800724983215</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.028529699891805649</v>
       </c>
     </row>
     <row r="42">
@@ -909,14 +911,14 @@
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="0">
-        <v>-0.024636499583721161</v>
-      </c>
-      <c r="D42" s="0">
-        <v>-0.076977498829364777</v>
-      </c>
-      <c r="E42" s="0">
-        <v>0.027704499661922455</v>
+      <c r="C42" s="1">
+        <v>-0.024468600749969482</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-0.076595000922679901</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.027657700702548027</v>
       </c>
     </row>
     <row r="43">
@@ -926,14 +928,14 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="0">
-        <v>-0.016274500638246536</v>
-      </c>
-      <c r="D43" s="0">
-        <v>-0.064876802265644073</v>
-      </c>
-      <c r="E43" s="0">
-        <v>0.032327800989151001</v>
+      <c r="C43" s="1">
+        <v>-0.018472900614142418</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-0.067121699452400208</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.030175900086760521</v>
       </c>
     </row>
     <row r="44">
@@ -943,14 +945,14 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="0">
-        <v>-0.084479697048664093</v>
-      </c>
-      <c r="D44" s="0">
-        <v>-0.11394000053405762</v>
-      </c>
-      <c r="E44" s="0">
-        <v>-0.055019501596689224</v>
+      <c r="C44" s="1">
+        <v>-0.082682602107524872</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-0.11374600231647491</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-0.051619298756122589</v>
       </c>
     </row>
     <row r="45">
@@ -960,14 +962,14 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="0">
-        <v>-0.076774202287197113</v>
-      </c>
-      <c r="D45" s="0">
-        <v>-0.11435209959745407</v>
-      </c>
-      <c r="E45" s="0">
-        <v>-0.039196200668811798</v>
+      <c r="C45" s="1">
+        <v>-0.07585269957780838</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-0.11385480314493179</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-0.037850599735975266</v>
       </c>
     </row>
     <row r="46">
@@ -977,14 +979,14 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="0">
-        <v>-0.073533199727535248</v>
-      </c>
-      <c r="D46" s="0">
-        <v>-0.10563380271196365</v>
-      </c>
-      <c r="E46" s="0">
-        <v>-0.041432701051235199</v>
+      <c r="C46" s="1">
+        <v>-0.072827801108360291</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-0.10480590164661407</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-0.040849700570106506</v>
       </c>
     </row>
     <row r="47">
@@ -994,14 +996,14 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="0">
-        <v>-0.076020203530788422</v>
-      </c>
-      <c r="D47" s="0">
-        <v>-0.10691329836845398</v>
-      </c>
-      <c r="E47" s="0">
-        <v>-0.045127201825380325</v>
+      <c r="C47" s="1">
+        <v>-0.074942603707313538</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-0.10491339862346649</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-0.044971898198127747</v>
       </c>
     </row>
     <row r="48">
@@ -1011,14 +1013,14 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="0">
-        <v>-0.073169499635696411</v>
-      </c>
-      <c r="D48" s="0">
-        <v>-0.11737989634275436</v>
-      </c>
-      <c r="E48" s="0">
-        <v>-0.02895909920334816</v>
+      <c r="C48" s="1">
+        <v>-0.075942397117614746</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-0.11697430163621902</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-0.034910600632429123</v>
       </c>
     </row>
     <row r="49">
@@ -1028,14 +1030,14 @@
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="0">
-        <v>-0.056519698351621628</v>
-      </c>
-      <c r="D49" s="0">
-        <v>-0.10897570103406906</v>
-      </c>
-      <c r="E49" s="0">
-        <v>-0.0040636998601257801</v>
+      <c r="C49" s="1">
+        <v>-0.060596499592065811</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-0.11023090034723282</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-0.010962099768221378</v>
       </c>
     </row>
     <row r="50">
@@ -1045,14 +1047,14 @@
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="0">
-        <v>-0.029404500499367714</v>
-      </c>
-      <c r="D50" s="0">
-        <v>-0.054994698613882065</v>
-      </c>
-      <c r="E50" s="0">
-        <v>-0.0038143000565469265</v>
+      <c r="C50" s="1">
+        <v>-0.029570499435067177</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-0.056234899908304214</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-0.0029060000088065863</v>
       </c>
     </row>
     <row r="51">
@@ -1062,14 +1064,14 @@
       <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="0">
-        <v>-0.04697670042514801</v>
-      </c>
-      <c r="D51" s="0">
-        <v>-0.072750799357891083</v>
-      </c>
-      <c r="E51" s="0">
-        <v>-0.021202599629759789</v>
+      <c r="C51" s="1">
+        <v>-0.04751100018620491</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-0.07308650016784668</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-0.021935500204563141</v>
       </c>
     </row>
     <row r="52">
@@ -1079,14 +1081,14 @@
       <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="0">
-        <v>-0.054304301738739014</v>
-      </c>
-      <c r="D52" s="0">
-        <v>-0.075445599853992462</v>
-      </c>
-      <c r="E52" s="0">
-        <v>-0.033162999898195267</v>
+      <c r="C52" s="1">
+        <v>-0.054365899413824081</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-0.076579302549362183</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-0.03215239942073822</v>
       </c>
     </row>
     <row r="53">
@@ -1096,14 +1098,14 @@
       <c r="B53" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="0">
-        <v>-0.062831997871398926</v>
-      </c>
-      <c r="D53" s="0">
-        <v>-0.084634900093078613</v>
-      </c>
-      <c r="E53" s="0">
-        <v>-0.041028998792171478</v>
+      <c r="C53" s="1">
+        <v>-0.063480399549007416</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-0.086188897490501404</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-0.040771801024675369</v>
       </c>
     </row>
     <row r="54">
@@ -1113,14 +1115,14 @@
       <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="0">
-        <v>-0.067478097975254059</v>
-      </c>
-      <c r="D54" s="0">
-        <v>-0.091020002961158752</v>
-      </c>
-      <c r="E54" s="0">
-        <v>-0.043936200439929962</v>
+      <c r="C54" s="1">
+        <v>-0.065606899559497833</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-0.089826501905918121</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-0.041387200355529785</v>
       </c>
     </row>
     <row r="55">
@@ -1130,14 +1132,14 @@
       <c r="B55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="0">
-        <v>-0.069567501544952393</v>
-      </c>
-      <c r="D55" s="0">
-        <v>-0.097465001046657562</v>
-      </c>
-      <c r="E55" s="0">
-        <v>-0.041669901460409164</v>
+      <c r="C55" s="1">
+        <v>-0.067900702357292175</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-0.096962399780750275</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-0.038839001208543777</v>
       </c>
     </row>
     <row r="56">
@@ -1147,13 +1149,13 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="1">
         <v>-0.24313719570636749</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56" s="1">
         <v>-0.33929958939552307</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="1">
         <v>-0.14697480201721191</v>
       </c>
     </row>
@@ -1164,13 +1166,13 @@
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="1">
         <v>-0.17056350409984589</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57" s="1">
         <v>-0.26028868556022644</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="1">
         <v>-0.080838300287723541</v>
       </c>
     </row>
@@ -1181,13 +1183,13 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="1">
         <v>-0.16984309256076813</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58" s="1">
         <v>-0.2709018886089325</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="1">
         <v>-0.068784400820732117</v>
       </c>
     </row>
@@ -1198,13 +1200,13 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="1">
         <v>-0.22099119424819946</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59" s="1">
         <v>-0.34595799446105957</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="1">
         <v>-0.096024401485919952</v>
       </c>
     </row>
@@ -1215,13 +1217,13 @@
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="1">
         <v>-0.22435760498046875</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60" s="1">
         <v>-0.35085970163345337</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="1">
         <v>-0.097855597734451294</v>
       </c>
     </row>
@@ -1232,13 +1234,13 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="1">
         <v>-0.22701770067214966</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61" s="1">
         <v>-0.37130150198936462</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="1">
         <v>-0.082733899354934692</v>
       </c>
     </row>
@@ -1249,13 +1251,13 @@
       <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="1">
         <v>-0.0084429001435637474</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62" s="1">
         <v>-0.044472601264715195</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="1">
         <v>0.027586700394749641</v>
       </c>
     </row>
@@ -1266,13 +1268,13 @@
       <c r="B63" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="1">
         <v>-0.049546100199222565</v>
       </c>
-      <c r="D63" s="0">
+      <c r="D63" s="1">
         <v>-0.099307000637054443</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="1">
         <v>0.00021470000501722097</v>
       </c>
     </row>
@@ -1283,13 +1285,13 @@
       <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="1">
         <v>-0.054213501513004303</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64" s="1">
         <v>-0.1181337982416153</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="1">
         <v>0.0097067998722195625</v>
       </c>
     </row>
@@ -1300,13 +1302,13 @@
       <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="1">
         <v>-0.034487999975681305</v>
       </c>
-      <c r="D65" s="0">
+      <c r="D65" s="1">
         <v>-0.10307410359382629</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="1">
         <v>0.034098200500011444</v>
       </c>
     </row>
@@ -1317,13 +1319,13 @@
       <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66" s="1">
         <v>-0.019967200234532356</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66" s="1">
         <v>-0.086046300828456879</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66" s="1">
         <v>0.046112000942230225</v>
       </c>
     </row>
@@ -1334,13 +1336,13 @@
       <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67" s="1">
         <v>-0.0047021000646054745</v>
       </c>
-      <c r="D67" s="0">
+      <c r="D67" s="1">
         <v>-0.085631303489208221</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67" s="1">
         <v>0.076227098703384399</v>
       </c>
     </row>
@@ -1351,13 +1353,13 @@
       <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68" s="1">
         <v>0.033575598150491714</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68" s="1">
         <v>-0.017218099907040596</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68" s="1">
         <v>0.084369301795959473</v>
       </c>
     </row>
@@ -1368,13 +1370,13 @@
       <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69" s="1">
         <v>-0.0029986000154167414</v>
       </c>
-      <c r="D69" s="0">
+      <c r="D69" s="1">
         <v>-0.051775101572275162</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69" s="1">
         <v>0.045777801424264908</v>
       </c>
     </row>
@@ -1385,13 +1387,13 @@
       <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70" s="1">
         <v>-0.017226900905370712</v>
       </c>
-      <c r="D70" s="0">
+      <c r="D70" s="1">
         <v>-0.067079201340675354</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70" s="1">
         <v>0.032625298947095871</v>
       </c>
     </row>
@@ -1402,13 +1404,13 @@
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71" s="1">
         <v>-0.016230199486017227</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71" s="1">
         <v>-0.075400799512863159</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71" s="1">
         <v>0.042940400540828705</v>
       </c>
     </row>
@@ -1419,13 +1421,13 @@
       <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72" s="1">
         <v>-0.032229598611593246</v>
       </c>
-      <c r="D72" s="0">
+      <c r="D72" s="1">
         <v>-0.097260802984237671</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72" s="1">
         <v>0.032801501452922821</v>
       </c>
     </row>
@@ -1436,13 +1438,13 @@
       <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73" s="1">
         <v>-0.047564100474119186</v>
       </c>
-      <c r="D73" s="0">
+      <c r="D73" s="1">
         <v>-0.09843839704990387</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73" s="1">
         <v>0.0033100999426096678</v>
       </c>
     </row>
@@ -1453,13 +1455,13 @@
       <c r="B74" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74" s="1">
         <v>-0.3161529004573822</v>
       </c>
-      <c r="D74" s="0">
+      <c r="D74" s="1">
         <v>-0.37197110056877136</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74" s="1">
         <v>-0.26033470034599304</v>
       </c>
     </row>
@@ -1470,13 +1472,13 @@
       <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75" s="1">
         <v>-0.38542190194129944</v>
       </c>
-      <c r="D75" s="0">
+      <c r="D75" s="1">
         <v>-0.44791358709335327</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75" s="1">
         <v>-0.32293018698692322</v>
       </c>
     </row>
@@ -1487,13 +1489,13 @@
       <c r="B76" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76" s="1">
         <v>-0.37274080514907837</v>
       </c>
-      <c r="D76" s="0">
+      <c r="D76" s="1">
         <v>-0.44494989514350891</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76" s="1">
         <v>-0.30053168535232544</v>
       </c>
     </row>
@@ -1504,13 +1506,13 @@
       <c r="B77" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77" s="1">
         <v>-0.36941158771514893</v>
       </c>
-      <c r="D77" s="0">
+      <c r="D77" s="1">
         <v>-0.49847540259361267</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77" s="1">
         <v>-0.24034780263900757</v>
       </c>
     </row>
@@ -1521,13 +1523,13 @@
       <c r="B78" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78" s="1">
         <v>-0.30194690823554993</v>
       </c>
-      <c r="D78" s="0">
+      <c r="D78" s="1">
         <v>-0.42135569453239441</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78" s="1">
         <v>-0.18253810703754425</v>
       </c>
     </row>
@@ -1538,13 +1540,13 @@
       <c r="B79" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79" s="1">
         <v>-0.28528809547424316</v>
       </c>
-      <c r="D79" s="0">
+      <c r="D79" s="1">
         <v>-0.44931790232658386</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79" s="1">
         <v>-0.12125830352306366</v>
       </c>
     </row>
@@ -1555,13 +1557,13 @@
       <c r="B80" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80" s="1">
         <v>-0.074010796844959259</v>
       </c>
-      <c r="D80" s="0">
+      <c r="D80" s="1">
         <v>-0.11017850041389465</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80" s="1">
         <v>-0.03784320130944252</v>
       </c>
     </row>
@@ -1572,13 +1574,13 @@
       <c r="B81" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81" s="1">
         <v>-0.078051097691059113</v>
       </c>
-      <c r="D81" s="0">
+      <c r="D81" s="1">
         <v>-0.10492180287837982</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81" s="1">
         <v>-0.051180399954319</v>
       </c>
     </row>
@@ -1589,13 +1591,13 @@
       <c r="B82" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82" s="1">
         <v>-0.10111019760370255</v>
       </c>
-      <c r="D82" s="0">
+      <c r="D82" s="1">
         <v>-0.14005169272422791</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82" s="1">
         <v>-0.062168598175048828</v>
       </c>
     </row>
@@ -1606,13 +1608,13 @@
       <c r="B83" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83" s="1">
         <v>-0.11574780195951462</v>
       </c>
-      <c r="D83" s="0">
+      <c r="D83" s="1">
         <v>-0.15907770395278931</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83" s="1">
         <v>-0.072417899966239929</v>
       </c>
     </row>
@@ -1623,13 +1625,13 @@
       <c r="B84" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84" s="1">
         <v>-0.13912059366703033</v>
       </c>
-      <c r="D84" s="0">
+      <c r="D84" s="1">
         <v>-0.20296800136566162</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84" s="1">
         <v>-0.075273200869560242</v>
       </c>
     </row>
@@ -1640,13 +1642,13 @@
       <c r="B85" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85" s="1">
         <v>-0.15070550143718719</v>
       </c>
-      <c r="D85" s="0">
+      <c r="D85" s="1">
         <v>-0.21933630108833313</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85" s="1">
         <v>-0.08207479864358902</v>
       </c>
     </row>
@@ -1657,13 +1659,13 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86" s="1">
         <v>0.10748159885406494</v>
       </c>
-      <c r="D86" s="0">
+      <c r="D86" s="1">
         <v>-0.0033799000084400177</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86" s="1">
         <v>0.21834300458431244</v>
       </c>
     </row>
@@ -1674,13 +1676,13 @@
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87" s="1">
         <v>0.10447029769420624</v>
       </c>
-      <c r="D87" s="0">
+      <c r="D87" s="1">
         <v>-0.0095266001299023628</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87" s="1">
         <v>0.21846729516983032</v>
       </c>
     </row>
@@ -1691,13 +1693,13 @@
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88" s="1">
         <v>0.12652599811553955</v>
       </c>
-      <c r="D88" s="0">
+      <c r="D88" s="1">
         <v>0.013032699935138226</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88" s="1">
         <v>0.2400193065404892</v>
       </c>
     </row>
@@ -1708,13 +1710,13 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89" s="1">
         <v>0.10487180203199387</v>
       </c>
-      <c r="D89" s="0">
+      <c r="D89" s="1">
         <v>-0.045122500509023666</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89" s="1">
         <v>0.25486600399017334</v>
       </c>
     </row>
@@ -1725,13 +1727,13 @@
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90" s="1">
         <v>0.10629530251026154</v>
       </c>
-      <c r="D90" s="0">
+      <c r="D90" s="1">
         <v>-0.03134860098361969</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90" s="1">
         <v>0.24393920600414276</v>
       </c>
     </row>
@@ -1742,13 +1744,13 @@
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91" s="1">
         <v>0.14786510169506073</v>
       </c>
-      <c r="D91" s="0">
+      <c r="D91" s="1">
         <v>0.011944499798119068</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91" s="1">
         <v>0.2837856113910675</v>
       </c>
     </row>
@@ -1759,13 +1761,13 @@
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92" s="1">
         <v>-0.071390002965927124</v>
       </c>
-      <c r="D92" s="0">
+      <c r="D92" s="1">
         <v>-0.13743330538272858</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92" s="1">
         <v>-0.0053468002006411552</v>
       </c>
     </row>
@@ -1776,13 +1778,13 @@
       <c r="B93" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93" s="1">
         <v>-0.06959100067615509</v>
       </c>
-      <c r="D93" s="0">
+      <c r="D93" s="1">
         <v>-0.13422690331935883</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93" s="1">
         <v>-0.0049550998955965042</v>
       </c>
     </row>
@@ -1793,13 +1795,13 @@
       <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94" s="1">
         <v>-0.089302599430084229</v>
       </c>
-      <c r="D94" s="0">
+      <c r="D94" s="1">
         <v>-0.16768769919872284</v>
       </c>
-      <c r="E94" s="0">
+      <c r="E94" s="1">
         <v>-0.010917499661445618</v>
       </c>
     </row>
@@ -1810,13 +1812,13 @@
       <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95" s="1">
         <v>-0.082204900681972504</v>
       </c>
-      <c r="D95" s="0">
+      <c r="D95" s="1">
         <v>-0.18695579469203949</v>
       </c>
-      <c r="E95" s="0">
+      <c r="E95" s="1">
         <v>0.022546000778675079</v>
       </c>
     </row>
@@ -1827,13 +1829,13 @@
       <c r="B96" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96" s="1">
         <v>-0.071125298738479614</v>
       </c>
-      <c r="D96" s="0">
+      <c r="D96" s="1">
         <v>-0.17949619889259338</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96" s="1">
         <v>0.037245698273181915</v>
       </c>
     </row>
@@ -1844,13 +1846,13 @@
       <c r="B97" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97" s="1">
         <v>-0.10619469732046127</v>
       </c>
-      <c r="D97" s="0">
+      <c r="D97" s="1">
         <v>-0.24804750084877014</v>
       </c>
-      <c r="E97" s="0">
+      <c r="E97" s="1">
         <v>0.03565799817442894</v>
       </c>
     </row>
@@ -1861,13 +1863,13 @@
       <c r="B98" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98" s="1">
         <v>-0.097512401640415192</v>
       </c>
-      <c r="D98" s="0">
+      <c r="D98" s="1">
         <v>-0.27802440524101257</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98" s="1">
         <v>0.08299960196018219</v>
       </c>
     </row>
@@ -1878,13 +1880,13 @@
       <c r="B99" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99" s="1">
         <v>-0.10215400159358978</v>
       </c>
-      <c r="D99" s="0">
+      <c r="D99" s="1">
         <v>-0.299925297498703</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99" s="1">
         <v>0.095617197453975677</v>
       </c>
     </row>
@@ -1895,13 +1897,13 @@
       <c r="B100" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100" s="1">
         <v>-0.13940109312534332</v>
       </c>
-      <c r="D100" s="0">
+      <c r="D100" s="1">
         <v>-0.2904546856880188</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100" s="1">
         <v>0.011652500368654728</v>
       </c>
     </row>
@@ -1912,13 +1914,13 @@
       <c r="B101" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101" s="1">
         <v>-0.20831489562988281</v>
       </c>
-      <c r="D101" s="0">
+      <c r="D101" s="1">
         <v>-0.3420046865940094</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101" s="1">
         <v>-0.074625000357627869</v>
       </c>
     </row>
@@ -1929,13 +1931,13 @@
       <c r="B102" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102" s="1">
         <v>-0.082911700010299683</v>
       </c>
-      <c r="D102" s="0">
+      <c r="D102" s="1">
         <v>-0.25029918551445007</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102" s="1">
         <v>0.084475800395011902</v>
       </c>
     </row>
@@ -1946,13 +1948,13 @@
       <c r="B103" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103" s="1">
         <v>-0.30285158753395081</v>
       </c>
-      <c r="D103" s="0">
+      <c r="D103" s="1">
         <v>-0.60115867853164673</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103" s="1">
         <v>-0.0045444001443684101</v>
       </c>
     </row>
@@ -1963,13 +1965,13 @@
       <c r="B104" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104" s="1">
         <v>-0.033232599496841431</v>
       </c>
-      <c r="D104" s="0">
+      <c r="D104" s="1">
         <v>-0.082337602972984314</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104" s="1">
         <v>0.015872400254011154</v>
       </c>
     </row>
@@ -1980,13 +1982,13 @@
       <c r="B105" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105" s="1">
         <v>-0.051409400999546051</v>
       </c>
-      <c r="D105" s="0">
+      <c r="D105" s="1">
         <v>-0.10298120230436325</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105" s="1">
         <v>0.00016239999968092889</v>
       </c>
     </row>
@@ -1997,13 +1999,13 @@
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106" s="1">
         <v>-0.063374698162078857</v>
       </c>
-      <c r="D106" s="0">
+      <c r="D106" s="1">
         <v>-0.1118977963924408</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106" s="1">
         <v>-0.014851599931716919</v>
       </c>
     </row>
@@ -2014,13 +2016,13 @@
       <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107" s="1">
         <v>-0.071840003132820129</v>
       </c>
-      <c r="D107" s="0">
+      <c r="D107" s="1">
         <v>-0.12544029951095581</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107" s="1">
         <v>-0.018239699304103851</v>
       </c>
     </row>
@@ -2031,13 +2033,13 @@
       <c r="B108" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108" s="1">
         <v>-0.09329339861869812</v>
       </c>
-      <c r="D108" s="0">
+      <c r="D108" s="1">
         <v>-0.14893439412117004</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108" s="1">
         <v>-0.037652399390935898</v>
       </c>
     </row>
@@ -2048,13 +2050,13 @@
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109" s="1">
         <v>-0.075594097375869751</v>
       </c>
-      <c r="D109" s="0">
+      <c r="D109" s="1">
         <v>-0.17764079570770264</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109" s="1">
         <v>0.026452699676156044</v>
       </c>
     </row>
@@ -2065,13 +2067,13 @@
       <c r="B110" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110" s="1">
         <v>-0.19842860102653503</v>
       </c>
-      <c r="D110" s="0">
+      <c r="D110" s="1">
         <v>-0.32032018899917603</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110" s="1">
         <v>-0.076536998152732849</v>
       </c>
     </row>
@@ -2082,13 +2084,13 @@
       <c r="B111" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111" s="1">
         <v>-0.21864299476146698</v>
       </c>
-      <c r="D111" s="0">
+      <c r="D111" s="1">
         <v>-0.35286828875541687</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111" s="1">
         <v>-0.08441770076751709</v>
       </c>
     </row>
@@ -2099,13 +2101,13 @@
       <c r="B112" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112" s="1">
         <v>-0.21136459708213806</v>
       </c>
-      <c r="D112" s="0">
+      <c r="D112" s="1">
         <v>-0.28460720181465149</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112" s="1">
         <v>-0.13812209665775299</v>
       </c>
     </row>
@@ -2116,13 +2118,13 @@
       <c r="B113" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113" s="1">
         <v>-0.1720225065946579</v>
       </c>
-      <c r="D113" s="0">
+      <c r="D113" s="1">
         <v>-0.24977929890155792</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113" s="1">
         <v>-0.09426560252904892</v>
       </c>
     </row>
@@ -2133,13 +2135,13 @@
       <c r="B114" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114" s="1">
         <v>-0.28620550036430359</v>
       </c>
-      <c r="D114" s="0">
+      <c r="D114" s="1">
         <v>-0.3914732038974762</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114" s="1">
         <v>-0.18093790113925934</v>
       </c>
     </row>
@@ -2150,13 +2152,13 @@
       <c r="B115" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115" s="1">
         <v>-0.14190979301929474</v>
       </c>
-      <c r="D115" s="0">
+      <c r="D115" s="1">
         <v>-0.35764870047569275</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115" s="1">
         <v>0.073829002678394318</v>
       </c>
     </row>
@@ -2167,13 +2169,13 @@
       <c r="B116" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116" s="1">
         <v>0.0080816000699996948</v>
       </c>
-      <c r="D116" s="0">
+      <c r="D116" s="1">
         <v>-0.064301900565624237</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116" s="1">
         <v>0.080465100705623627</v>
       </c>
     </row>
@@ -2184,13 +2186,13 @@
       <c r="B117" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117" s="1">
         <v>0.049734398722648621</v>
       </c>
-      <c r="D117" s="0">
+      <c r="D117" s="1">
         <v>-0.031059300526976585</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117" s="1">
         <v>0.13052810728549957</v>
       </c>
     </row>
@@ -2201,13 +2203,13 @@
       <c r="B118" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118" s="1">
         <v>0.068941600620746613</v>
       </c>
-      <c r="D118" s="0">
+      <c r="D118" s="1">
         <v>-0.0056623001582920551</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118" s="1">
         <v>0.14354559779167175</v>
       </c>
     </row>
@@ -2218,13 +2220,13 @@
       <c r="B119" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119" s="1">
         <v>0.078925102949142456</v>
       </c>
-      <c r="D119" s="0">
+      <c r="D119" s="1">
         <v>-0.0025190999731421471</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119" s="1">
         <v>0.1603693962097168</v>
       </c>
     </row>
@@ -2235,13 +2237,13 @@
       <c r="B120" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120" s="1">
         <v>0.12155299633741379</v>
       </c>
-      <c r="D120" s="0">
+      <c r="D120" s="1">
         <v>0.042662199586629868</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120" s="1">
         <v>0.2004438042640686</v>
       </c>
     </row>
@@ -2252,13 +2254,13 @@
       <c r="B121" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121" s="1">
         <v>0.069351702928543091</v>
       </c>
-      <c r="D121" s="0">
+      <c r="D121" s="1">
         <v>-0.051713798195123672</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121" s="1">
         <v>0.1904170960187912</v>
       </c>
     </row>
@@ -2269,13 +2271,13 @@
       <c r="B122" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122" s="1">
         <v>0.011527099646627903</v>
       </c>
-      <c r="D122" s="0">
+      <c r="D122" s="1">
         <v>-0.049515798687934875</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122" s="1">
         <v>0.072569899260997772</v>
       </c>
     </row>
@@ -2286,13 +2288,13 @@
       <c r="B123" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123" s="1">
         <v>-0.0086843995377421379</v>
       </c>
-      <c r="D123" s="0">
+      <c r="D123" s="1">
         <v>-0.062157798558473587</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123" s="1">
         <v>0.04478909820318222</v>
       </c>
     </row>
@@ -2303,13 +2305,13 @@
       <c r="B124" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124" s="1">
         <v>-0.031061200425028801</v>
       </c>
-      <c r="D124" s="0">
+      <c r="D124" s="1">
         <v>-0.072899296879768372</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124" s="1">
         <v>0.010777000337839127</v>
       </c>
     </row>
@@ -2320,13 +2322,13 @@
       <c r="B125" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125" s="1">
         <v>-0.063822999596595764</v>
       </c>
-      <c r="D125" s="0">
+      <c r="D125" s="1">
         <v>-0.10928530246019363</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125" s="1">
         <v>-0.018360799178481102</v>
       </c>
     </row>
@@ -2337,13 +2339,13 @@
       <c r="B126" t="s">
         <v>18</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126" s="1">
         <v>-0.059255801141262054</v>
       </c>
-      <c r="D126" s="0">
+      <c r="D126" s="1">
         <v>-0.11425860226154327</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126" s="1">
         <v>-0.004253000020980835</v>
       </c>
     </row>
@@ -2354,13 +2356,13 @@
       <c r="B127" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127" s="1">
         <v>-0.08315189927816391</v>
       </c>
-      <c r="D127" s="0">
+      <c r="D127" s="1">
         <v>-0.15886589884757996</v>
       </c>
-      <c r="E127" s="0">
+      <c r="E127" s="1">
         <v>-0.0074379001744091511</v>
       </c>
     </row>
@@ -2371,13 +2373,13 @@
       <c r="B128" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128" s="1">
         <v>-0.28803971409797668</v>
       </c>
-      <c r="D128" s="0">
+      <c r="D128" s="1">
         <v>-0.43633389472961426</v>
       </c>
-      <c r="E128" s="0">
+      <c r="E128" s="1">
         <v>-0.13974550366401672</v>
       </c>
     </row>
@@ -2388,13 +2390,13 @@
       <c r="B129" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129" s="1">
         <v>-0.31275489926338196</v>
       </c>
-      <c r="D129" s="0">
+      <c r="D129" s="1">
         <v>-0.47169199585914612</v>
       </c>
-      <c r="E129" s="0">
+      <c r="E129" s="1">
         <v>-0.1538178026676178</v>
       </c>
     </row>
@@ -2405,13 +2407,13 @@
       <c r="B130" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130" s="1">
         <v>-0.32570910453796387</v>
       </c>
-      <c r="D130" s="0">
+      <c r="D130" s="1">
         <v>-0.48825448751449585</v>
       </c>
-      <c r="E130" s="0">
+      <c r="E130" s="1">
         <v>-0.16316360235214233</v>
       </c>
     </row>
@@ -2422,13 +2424,13 @@
       <c r="B131" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131" s="1">
         <v>-0.30696290731430054</v>
       </c>
-      <c r="D131" s="0">
+      <c r="D131" s="1">
         <v>-0.49264359474182129</v>
       </c>
-      <c r="E131" s="0">
+      <c r="E131" s="1">
         <v>-0.12128219753503799</v>
       </c>
     </row>
@@ -2439,13 +2441,13 @@
       <c r="B132" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132" s="1">
         <v>-0.32761558890342712</v>
       </c>
-      <c r="D132" s="0">
+      <c r="D132" s="1">
         <v>-0.55175948143005371</v>
       </c>
-      <c r="E132" s="0">
+      <c r="E132" s="1">
         <v>-0.10347159951925278</v>
       </c>
     </row>
@@ -2456,13 +2458,13 @@
       <c r="B133" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133" s="1">
         <v>-0.30382460355758667</v>
       </c>
-      <c r="D133" s="0">
+      <c r="D133" s="1">
         <v>-0.60693228244781494</v>
       </c>
-      <c r="E133" s="0">
+      <c r="E133" s="1">
         <v>-0.00071679998654872179</v>
       </c>
     </row>
@@ -2473,13 +2475,13 @@
       <c r="B134" t="s">
         <v>20</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134" s="1">
         <v>-0.11842170357704163</v>
       </c>
-      <c r="D134" s="0">
+      <c r="D134" s="1">
         <v>-0.20130950212478638</v>
       </c>
-      <c r="E134" s="0">
+      <c r="E134" s="1">
         <v>-0.035533998161554337</v>
       </c>
     </row>
@@ -2490,13 +2492,13 @@
       <c r="B135" t="s">
         <v>20</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135" s="1">
         <v>-0.12045329809188843</v>
       </c>
-      <c r="D135" s="0">
+      <c r="D135" s="1">
         <v>-0.20358340442180634</v>
       </c>
-      <c r="E135" s="0">
+      <c r="E135" s="1">
         <v>-0.037323199212551117</v>
       </c>
     </row>
@@ -2507,13 +2509,13 @@
       <c r="B136" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136" s="1">
         <v>-0.12224339693784714</v>
       </c>
-      <c r="D136" s="0">
-        <v>-0.20943069458007813</v>
-      </c>
-      <c r="E136" s="0">
+      <c r="D136" s="1">
+        <v>-0.20943069458007812</v>
+      </c>
+      <c r="E136" s="1">
         <v>-0.035056199878454208</v>
       </c>
     </row>
@@ -2524,13 +2526,13 @@
       <c r="B137" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137" s="1">
         <v>-0.12185929715633392</v>
       </c>
-      <c r="D137" s="0">
+      <c r="D137" s="1">
         <v>-0.21153199672698975</v>
       </c>
-      <c r="E137" s="0">
+      <c r="E137" s="1">
         <v>-0.032186601310968399</v>
       </c>
     </row>
@@ -2541,13 +2543,13 @@
       <c r="B138" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138" s="1">
         <v>-0.12546789646148682</v>
       </c>
-      <c r="D138" s="0">
+      <c r="D138" s="1">
         <v>-0.21812550723552704</v>
       </c>
-      <c r="E138" s="0">
+      <c r="E138" s="1">
         <v>-0.032810401171445847</v>
       </c>
     </row>
@@ -2558,13 +2560,13 @@
       <c r="B139" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139" s="1">
         <v>-0.1274556964635849</v>
       </c>
-      <c r="D139" s="0">
+      <c r="D139" s="1">
         <v>-0.22088049352169037</v>
       </c>
-      <c r="E139" s="0">
+      <c r="E139" s="1">
         <v>-0.034030899405479431</v>
       </c>
     </row>
@@ -2575,13 +2577,13 @@
       <c r="B140" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140" s="1">
         <v>0.0011742999777197838</v>
       </c>
-      <c r="D140" s="0">
+      <c r="D140" s="1">
         <v>-0.036519799381494522</v>
       </c>
-      <c r="E140" s="0">
+      <c r="E140" s="1">
         <v>0.03886830061674118</v>
       </c>
     </row>
@@ -2592,13 +2594,13 @@
       <c r="B141" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141" s="1">
         <v>0.021168999373912811</v>
       </c>
-      <c r="D141" s="0">
+      <c r="D141" s="1">
         <v>-0.016581600531935692</v>
       </c>
-      <c r="E141" s="0">
+      <c r="E141" s="1">
         <v>0.058919601142406464</v>
       </c>
     </row>
@@ -2609,13 +2611,13 @@
       <c r="B142" t="s">
         <v>9</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142" s="1">
         <v>0.023247199133038521</v>
       </c>
-      <c r="D142" s="0">
+      <c r="D142" s="1">
         <v>-0.011351499706506729</v>
       </c>
-      <c r="E142" s="0">
+      <c r="E142" s="1">
         <v>0.057845998555421829</v>
       </c>
     </row>
@@ -2626,13 +2628,13 @@
       <c r="B143" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143" s="1">
         <v>0.026719400659203529</v>
       </c>
-      <c r="D143" s="0">
+      <c r="D143" s="1">
         <v>-0.017189500853419304</v>
       </c>
-      <c r="E143" s="0">
+      <c r="E143" s="1">
         <v>0.070628203451633453</v>
       </c>
     </row>
@@ -2643,13 +2645,13 @@
       <c r="B144" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144" s="1">
         <v>0.020646700635552406</v>
       </c>
-      <c r="D144" s="0">
+      <c r="D144" s="1">
         <v>-0.017602499574422836</v>
       </c>
-      <c r="E144" s="0">
+      <c r="E144" s="1">
         <v>0.05889580026268959</v>
       </c>
     </row>
@@ -2660,13 +2662,13 @@
       <c r="B145" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="0">
+      <c r="C145" s="1">
         <v>0.020179999992251396</v>
       </c>
-      <c r="D145" s="0">
+      <c r="D145" s="1">
         <v>-0.018105700612068176</v>
       </c>
-      <c r="E145" s="0">
+      <c r="E145" s="1">
         <v>0.058465801179409027</v>
       </c>
     </row>
@@ -2677,13 +2679,13 @@
       <c r="B146" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="0">
+      <c r="C146" s="1">
         <v>-0.085221201181411743</v>
       </c>
-      <c r="D146" s="0">
+      <c r="D146" s="1">
         <v>-0.16009250283241272</v>
       </c>
-      <c r="E146" s="0">
+      <c r="E146" s="1">
         <v>-0.010349799878895283</v>
       </c>
     </row>
@@ -2694,13 +2696,13 @@
       <c r="B147" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="0">
+      <c r="C147" s="1">
         <v>0.01472609955817461</v>
       </c>
-      <c r="D147" s="0">
+      <c r="D147" s="1">
         <v>-0.056175298988819122</v>
       </c>
-      <c r="E147" s="0">
+      <c r="E147" s="1">
         <v>0.085627399384975433</v>
       </c>
     </row>
@@ -2711,13 +2713,13 @@
       <c r="B148" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="0">
+      <c r="C148" s="1">
         <v>-0.30423951148986816</v>
       </c>
-      <c r="D148" s="0">
+      <c r="D148" s="1">
         <v>-0.59496891498565674</v>
       </c>
-      <c r="E148" s="0">
+      <c r="E148" s="1">
         <v>-0.013509999960660934</v>
       </c>
     </row>
@@ -2728,13 +2730,13 @@
       <c r="B149" t="s">
         <v>16</v>
       </c>
-      <c r="C149" s="0">
+      <c r="C149" s="1">
         <v>-0.078261397778987885</v>
       </c>
-      <c r="D149" s="0">
+      <c r="D149" s="1">
         <v>-0.16806450486183167</v>
       </c>
-      <c r="E149" s="0">
+      <c r="E149" s="1">
         <v>0.01154169999063015</v>
       </c>
     </row>
@@ -2745,13 +2747,13 @@
       <c r="B150" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="0">
+      <c r="C150" s="1">
         <v>-0.065064698457717896</v>
       </c>
-      <c r="D150" s="0">
+      <c r="D150" s="1">
         <v>-0.21074590086936951</v>
       </c>
-      <c r="E150" s="0">
+      <c r="E150" s="1">
         <v>0.080616496503353119</v>
       </c>
     </row>
@@ -2762,13 +2764,13 @@
       <c r="B151" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="0">
+      <c r="C151" s="1">
         <v>-0.21668089926242828</v>
       </c>
-      <c r="D151" s="0">
+      <c r="D151" s="1">
         <v>-0.43788638710975647</v>
       </c>
-      <c r="E151" s="0">
+      <c r="E151" s="1">
         <v>0.0045245001092553139</v>
       </c>
     </row>
@@ -2779,13 +2781,13 @@
       <c r="B152" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="0">
+      <c r="C152" s="1">
         <v>-0.083214700222015381</v>
       </c>
-      <c r="D152" s="0">
+      <c r="D152" s="1">
         <v>-0.16699209809303284</v>
       </c>
-      <c r="E152" s="0">
+      <c r="E152" s="1">
         <v>0.00056279997806996107</v>
       </c>
     </row>
@@ -2796,13 +2798,13 @@
       <c r="B153" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="0">
+      <c r="C153" s="1">
         <v>-0.056018300354480743</v>
       </c>
-      <c r="D153" s="0">
+      <c r="D153" s="1">
         <v>-0.19589079916477203</v>
       </c>
-      <c r="E153" s="0">
+      <c r="E153" s="1">
         <v>0.083854101598262787</v>
       </c>
     </row>
@@ -2813,13 +2815,13 @@
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="0">
+      <c r="C154" s="1">
         <v>-0.18065080046653748</v>
       </c>
-      <c r="D154" s="0">
+      <c r="D154" s="1">
         <v>-0.36763650178909302</v>
       </c>
-      <c r="E154" s="0">
+      <c r="E154" s="1">
         <v>0.0063347998075187206</v>
       </c>
     </row>
@@ -2830,13 +2832,13 @@
       <c r="B155" t="s">
         <v>16</v>
       </c>
-      <c r="C155" s="0">
+      <c r="C155" s="1">
         <v>-0.085748203098773956</v>
       </c>
-      <c r="D155" s="0">
+      <c r="D155" s="1">
         <v>-0.16503910720348358</v>
       </c>
-      <c r="E155" s="0">
+      <c r="E155" s="1">
         <v>-0.0064574000425636768</v>
       </c>
     </row>
@@ -2847,13 +2849,13 @@
       <c r="B156" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="0">
+      <c r="C156" s="1">
         <v>-0.080451697111129761</v>
       </c>
-      <c r="D156" s="0">
+      <c r="D156" s="1">
         <v>-0.21725210547447205</v>
       </c>
-      <c r="E156" s="0">
+      <c r="E156" s="1">
         <v>0.056348800659179688</v>
       </c>
     </row>
@@ -2864,13 +2866,13 @@
       <c r="B157" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="0">
+      <c r="C157" s="1">
         <v>-0.1414840966463089</v>
       </c>
-      <c r="D157" s="0">
+      <c r="D157" s="1">
         <v>-0.29155060648918152</v>
       </c>
-      <c r="E157" s="0">
+      <c r="E157" s="1">
         <v>0.0085824001580476761</v>
       </c>
     </row>
@@ -2881,13 +2883,13 @@
       <c r="B158" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="0">
+      <c r="C158" s="1">
         <v>-0.095031403005123138</v>
       </c>
-      <c r="D158" s="0">
+      <c r="D158" s="1">
         <v>-0.15572540462017059</v>
       </c>
-      <c r="E158" s="0">
+      <c r="E158" s="1">
         <v>-0.034337300807237625</v>
       </c>
     </row>
@@ -2898,13 +2900,13 @@
       <c r="B159" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="0">
+      <c r="C159" s="1">
         <v>-0.080035299062728882</v>
       </c>
-      <c r="D159" s="0">
+      <c r="D159" s="1">
         <v>-0.19611060619354248</v>
       </c>
-      <c r="E159" s="0">
+      <c r="E159" s="1">
         <v>0.03604000061750412</v>
       </c>
     </row>
@@ -2915,13 +2917,13 @@
       <c r="B160" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="0">
+      <c r="C160" s="1">
         <v>-0.10340250283479691</v>
       </c>
-      <c r="D160" s="0">
+      <c r="D160" s="1">
         <v>-0.22275279462337494</v>
       </c>
-      <c r="E160" s="0">
+      <c r="E160" s="1">
         <v>0.015947699546813965</v>
       </c>
     </row>
@@ -2932,13 +2934,13 @@
       <c r="B161" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="0">
+      <c r="C161" s="1">
         <v>-0.091561801731586456</v>
       </c>
-      <c r="D161" s="0">
+      <c r="D161" s="1">
         <v>-0.14560990035533905</v>
       </c>
-      <c r="E161" s="0">
+      <c r="E161" s="1">
         <v>-0.037513699382543564</v>
       </c>
     </row>
@@ -2949,13 +2951,13 @@
       <c r="B162" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="0">
+      <c r="C162" s="1">
         <v>-0.065582200884819031</v>
       </c>
-      <c r="D162" s="0">
+      <c r="D162" s="1">
         <v>-0.1693217009305954</v>
       </c>
-      <c r="E162" s="0">
+      <c r="E162" s="1">
         <v>0.038157299160957336</v>
       </c>
     </row>
@@ -2966,13 +2968,13 @@
       <c r="B163" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="0">
+      <c r="C163" s="1">
         <v>-0.1187869980931282</v>
       </c>
-      <c r="D163" s="0">
+      <c r="D163" s="1">
         <v>-0.23786389827728271</v>
       </c>
-      <c r="E163" s="0">
+      <c r="E163" s="1">
         <v>0.00028989999555051327</v>
       </c>
     </row>
@@ -3009,1843 +3011,1843 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
+      <c r="A2" s="1">
+        <v>0.31242668628692627</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.057532701641321182</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.42519080638885498</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.19966259598731995</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
+      <c r="A3" s="1">
+        <v>0.31771978735923767</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.059151899069547653</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.43365749716758728</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.20178210735321045</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
+      <c r="A4" s="1">
+        <v>0.32881000638008118</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.057643800973892212</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="0">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.44179189205169678</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.21582819521427155</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>0</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
+      <c r="A5" s="1">
+        <v>0.3129630982875824</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.056690998375415802</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42407751083374023</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20184870064258575</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0</v>
+      <c r="A6" s="1">
+        <v>0.30241191387176514</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.052970800548791885</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="0">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.40623471140861511</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.19858910143375397</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0</v>
+      <c r="A7" s="1">
+        <v>0.30820810794830322</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.051752600818872452</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="0">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0">
-        <v>0</v>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.40964320302009583</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.20677299797534943</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0</v>
+      <c r="A8" s="1">
+        <v>0.29797831177711487</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.050005901604890823</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="0">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0">
-        <v>0</v>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.39598989486694336</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.19996669888496399</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <v>0</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0</v>
+      <c r="A9" s="1">
+        <v>0.27604091167449951</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.04835129901766777</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="0">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0</v>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.37080949544906616</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.18127240240573883</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0</v>
+      <c r="A10" s="1">
+        <v>0.26587009429931641</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.049307599663734436</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="0">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0</v>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.36251300573348999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.16922719776630402</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <v>0</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0</v>
+      <c r="A11" s="1">
+        <v>0.25289979577064514</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.04868520051240921</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="0">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0</v>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.34832280874252319</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.15747679769992828</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>0</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0</v>
+      <c r="A12" s="1">
+        <v>0.23343589901924133</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.043830398470163345</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="0">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0">
-        <v>0</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.31934350728988647</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.14752830564975739</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <v>0</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0</v>
+      <c r="A13" s="1">
+        <v>0.21772889792919159</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.042051300406455994</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="0">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0">
-        <v>0</v>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.30014941096305847</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1353083997964859</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <v>0</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0">
-        <v>0</v>
+      <c r="A14" s="1">
+        <v>0.20527069270610809</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.040737301111221313</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="0">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0">
-        <v>0</v>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.2851158082485199</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.12542560696601868</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <v>0</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0">
-        <v>0</v>
+      <c r="A15" s="1">
+        <v>0.19401110708713531</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.040597699582576752</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="0">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0">
-        <v>0</v>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.27358260750770569</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11443959921598434</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <v>0</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0</v>
+      <c r="A16" s="1">
+        <v>0.18467999994754791</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.039184499531984329</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="0">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0">
-        <v>0</v>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.26148161292076111</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.10787840187549591</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <v>0</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0">
-        <v>0</v>
+      <c r="A17" s="1">
+        <v>0.17672860622406006</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.038286600261926651</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="0">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0">
-        <v>0</v>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.25177028775215149</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.10168690234422684</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <v>0.34746518731117249</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.033178601413965225</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="A18" s="1">
+        <v>0.34866610169410706</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.033772598952054977</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.20000000298023224</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="0">
-        <v>2</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0.41249528527259827</v>
-      </c>
-      <c r="G18" s="0">
-        <v>0.2824350893497467</v>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.41486039757728577</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.28247180581092834</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0">
-        <v>0.37686300277709961</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0.035720501095056534</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="A19" s="1">
+        <v>0.37579119205474854</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.036610398441553116</v>
+      </c>
+      <c r="C19" s="1">
         <v>1.2000000476837158</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="0">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0.44687521457672119</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0.30685079097747803</v>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.44754761457443237</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.30403479933738708</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>0.39690360426902771</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0.043094001710414886</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="A20" s="1">
+        <v>0.39608511328697205</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.041570801287889481</v>
+      </c>
+      <c r="C20" s="1">
         <v>2.2000000476837158</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="0">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0.48136788606643677</v>
-      </c>
-      <c r="G20" s="0">
-        <v>0.31243941187858582</v>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.47756388783454895</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.31460630893707275</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>0.41696760058403015</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0.039848800748586655</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="A21" s="1">
+        <v>0.41743719577789307</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.038744501769542694</v>
+      </c>
+      <c r="C21" s="1">
         <v>3.2000000476837158</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="0">
-        <v>2</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0.49507129192352295</v>
-      </c>
-      <c r="G21" s="0">
-        <v>0.33886390924453735</v>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.49337640404701233</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.3414979875087738</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>0.43678310513496399</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0.041010398417711258</v>
-      </c>
-      <c r="C22" s="0">
+      <c r="A22" s="1">
+        <v>0.43490129709243774</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.04043550044298172</v>
+      </c>
+      <c r="C22" s="1">
         <v>4.1999998092651367</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="0">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0.51716351509094238</v>
-      </c>
-      <c r="G22" s="0">
-        <v>0.3564026951789856</v>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.51415491104125977</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.35564771294593811</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0">
-        <v>0.42289999127388</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.040379200130701065</v>
-      </c>
-      <c r="C23" s="0">
+      <c r="A23" s="1">
+        <v>0.42491531372070312</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.040017899125814438</v>
+      </c>
+      <c r="C23" s="1">
         <v>5.1999998092651367</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="0">
-        <v>2</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0.50204318761825562</v>
-      </c>
-      <c r="G23" s="0">
-        <v>0.34375679492950439</v>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.50335037708282471</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.34648019075393677</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0">
-        <v>0.42353799939155579</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.040392998605966568</v>
-      </c>
-      <c r="C24" s="0">
+      <c r="A24" s="1">
+        <v>0.42644131183624268</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.040100198239088058</v>
+      </c>
+      <c r="C24" s="1">
         <v>6.1999998092651367</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="0">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0.5027083158493042</v>
-      </c>
-      <c r="G24" s="0">
-        <v>0.34436771273612976</v>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.50503772497177124</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.34784489870071411</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>0.39814010262489319</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.038309801369905472</v>
-      </c>
-      <c r="C25" s="0">
+      <c r="A25" s="1">
+        <v>0.39878928661346436</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.037564899772405624</v>
+      </c>
+      <c r="C25" s="1">
         <v>7.1999998092651367</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="0">
-        <v>2</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0.47322729229927063</v>
-      </c>
-      <c r="G25" s="0">
-        <v>0.32305291295051575</v>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.47241649031639099</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.32516211271286011</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0">
-        <v>0.36208769679069519</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.034304298460483551</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="A26" s="1">
+        <v>0.36245408654212952</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.036159399896860123</v>
+      </c>
+      <c r="C26" s="1">
         <v>8.1999998092651367</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="0">
-        <v>2</v>
-      </c>
-      <c r="F26" s="0">
-        <v>0.42932409048080444</v>
-      </c>
-      <c r="G26" s="0">
-        <v>0.29485130310058594</v>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.43332651257514954</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.29158169031143188</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0">
-        <v>0.34748819470405579</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.034906700253486633</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="A27" s="1">
+        <v>0.34716939926147461</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.034727800637483597</v>
+      </c>
+      <c r="C27" s="1">
         <v>9.1999998092651367</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="0">
-        <v>2</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0.41590529680252075</v>
-      </c>
-      <c r="G27" s="0">
-        <v>0.27907109260559082</v>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.41523590683937073</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.27910289168357849</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0">
-        <v>0.33672469854354858</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.03242579847574234</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="A28" s="1">
+        <v>0.33571040630340576</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.033819198608398438</v>
+      </c>
+      <c r="C28" s="1">
         <v>10.199999809265137</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="0">
-        <v>2</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0.40027931332588196</v>
-      </c>
-      <c r="G28" s="0">
-        <v>0.2731701135635376</v>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.40199598670005798</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.26942479610443115</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0">
-        <v>0.32296329736709595</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.03399369865655899</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="A29" s="1">
+        <v>0.32486748695373535</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.032749198377132416</v>
+      </c>
+      <c r="C29" s="1">
         <v>11.199999809265137</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="0">
-        <v>2</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0.38959088921546936</v>
-      </c>
-      <c r="G29" s="0">
-        <v>0.25633558630943298</v>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.38905590772628784</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.26067909598350525</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0">
-        <v>0.31146660447120667</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.031351599842309952</v>
-      </c>
-      <c r="C30" s="0">
+      <c r="A30" s="1">
+        <v>0.31122028827667236</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.031862899661064148</v>
+      </c>
+      <c r="C30" s="1">
         <v>12.199999809265137</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="0">
-        <v>2</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0.37291568517684937</v>
-      </c>
-      <c r="G30" s="0">
-        <v>0.25001749396324158</v>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.37367159128189087</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.24876900017261505</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0">
-        <v>0.30895420908927917</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.033208098262548447</v>
-      </c>
-      <c r="C31" s="0">
+      <c r="A31" s="1">
+        <v>0.30923759937286377</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.03207780048251152</v>
+      </c>
+      <c r="C31" s="1">
         <v>13.199999809265137</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="0">
-        <v>2</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0.3740420937538147</v>
-      </c>
-      <c r="G31" s="0">
-        <v>0.24386629462242126</v>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.37211009860038757</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.24636510014533997</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0">
-        <v>0.30937731266021729</v>
-      </c>
-      <c r="B32" s="0">
-        <v>0.032332498580217361</v>
-      </c>
-      <c r="C32" s="0">
+      <c r="A32" s="1">
+        <v>0.30947938561439514</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.033002998679876328</v>
+      </c>
+      <c r="C32" s="1">
         <v>14.199999809265137</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="0">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0.37274900078773499</v>
-      </c>
-      <c r="G32" s="0">
-        <v>0.2460055947303772</v>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.37416529655456543</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.24479350447654724</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0">
-        <v>0.29045650362968445</v>
-      </c>
-      <c r="B33" s="0">
-        <v>0.032064501196146011</v>
-      </c>
-      <c r="C33" s="0">
+      <c r="A33" s="1">
+        <v>0.2926047146320343</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.032569199800491333</v>
+      </c>
+      <c r="C33" s="1">
         <v>15.199999809265137</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="0">
-        <v>2</v>
-      </c>
-      <c r="F33" s="0">
-        <v>0.35330289602279663</v>
-      </c>
-      <c r="G33" s="0">
-        <v>0.22761009633541107</v>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.35644030570983887</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.22876909375190735</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0">
+      <c r="A34" s="1">
         <v>0.280570387840271</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34" s="1">
         <v>0.061418000608682632</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34" s="1">
         <v>0.40000000596046448</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="0">
-        <v>4</v>
-      </c>
-      <c r="F34" s="0">
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
         <v>0.40094968676567078</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34" s="1">
         <v>0.16019110381603241</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0">
+      <c r="A35" s="1">
         <v>0.29767811298370361</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35" s="1">
         <v>0.060981899499893188</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35" s="1">
         <v>1.3999999761581421</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="0">
-        <v>4</v>
-      </c>
-      <c r="F35" s="0">
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
         <v>0.41720259189605713</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35" s="1">
         <v>0.17815360426902771</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0">
+      <c r="A36" s="1">
         <v>0.30145010352134705</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36" s="1">
         <v>0.060592301189899445</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36" s="1">
         <v>2.4000000953674316</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="0">
-        <v>4</v>
-      </c>
-      <c r="F36" s="0">
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
         <v>0.42021098732948303</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36" s="1">
         <v>0.18268920481204987</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0">
+      <c r="A37" s="1">
         <v>0.31369748711585999</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37" s="1">
         <v>0.056942898780107498</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37" s="1">
         <v>3.4000000953674316</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="0">
-        <v>4</v>
-      </c>
-      <c r="F37" s="0">
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
         <v>0.42530560493469238</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37" s="1">
         <v>0.20208939909934998</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
+      <c r="A38" s="1">
         <v>0.30930599570274353</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38" s="1">
         <v>0.058117099106311798</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38" s="1">
         <v>4.4000000953674316</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="0">
-        <v>4</v>
-      </c>
-      <c r="F38" s="0">
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
         <v>0.42321550846099854</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38" s="1">
         <v>0.19539649784564972</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0">
+      <c r="A39" s="1">
         <v>0.28975668549537659</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39" s="1">
         <v>0.058439701795578003</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39" s="1">
         <v>5.4000000953674316</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="0">
-        <v>4</v>
-      </c>
-      <c r="F39" s="0">
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
         <v>0.40429851412773132</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39" s="1">
         <v>0.17521490156650543</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0">
+      <c r="A40" s="1">
         <v>0.2875497043132782</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40" s="1">
         <v>0.059206601232290268</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40" s="1">
         <v>6.4000000953674316</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="0">
-        <v>4</v>
-      </c>
-      <c r="F40" s="0">
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
         <v>0.40359461307525635</v>
       </c>
-      <c r="G40" s="0">
+      <c r="G40" s="1">
         <v>0.17150479555130005</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0">
+      <c r="A41" s="1">
         <v>0.2675108015537262</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41" s="1">
         <v>0.059342101216316223</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41" s="1">
         <v>7.4000000953674316</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="0">
-        <v>4</v>
-      </c>
-      <c r="F41" s="0">
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
         <v>0.38382130861282349</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41" s="1">
         <v>0.15120029449462891</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0">
+      <c r="A42" s="1">
         <v>0.24179549515247345</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42" s="1">
         <v>0.059508699923753738</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42" s="1">
         <v>8.3999996185302734</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="0">
-        <v>4</v>
-      </c>
-      <c r="F42" s="0">
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
         <v>0.3584325909614563</v>
       </c>
-      <c r="G42" s="0">
+      <c r="G42" s="1">
         <v>0.1251583993434906</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0">
+      <c r="A43" s="1">
         <v>0.22909200191497803</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43" s="1">
         <v>0.059599798172712326</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43" s="1">
         <v>9.3999996185302734</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="0">
-        <v>4</v>
-      </c>
-      <c r="F43" s="0">
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
         <v>0.34590759873390198</v>
       </c>
-      <c r="G43" s="0">
+      <c r="G43" s="1">
         <v>0.11227639764547348</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0">
+      <c r="A44" s="1">
         <v>0.21540489792823792</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44" s="1">
         <v>0.059326998889446259</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44" s="1">
         <v>10.399999618530273</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="0">
-        <v>4</v>
-      </c>
-      <c r="F44" s="0">
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
         <v>0.33168581128120422</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44" s="1">
         <v>0.0991239994764328</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0">
+      <c r="A45" s="1">
         <v>0.21216310560703278</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45" s="1">
         <v>0.057766400277614594</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45" s="1">
         <v>11.399999618530273</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="0">
-        <v>4</v>
-      </c>
-      <c r="F45" s="0">
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
         <v>0.32538521289825439</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45" s="1">
         <v>0.098940998315811157</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0">
+      <c r="A46" s="1">
         <v>0.20137989521026611</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46" s="1">
         <v>0.058563098311424255</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46" s="1">
         <v>12.399999618530273</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="0">
-        <v>4</v>
-      </c>
-      <c r="F46" s="0">
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
         <v>0.31616359949111938</v>
       </c>
-      <c r="G46" s="0">
+      <c r="G46" s="1">
         <v>0.086596198379993439</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0">
+      <c r="A47" s="1">
         <v>0.18796759843826294</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47" s="1">
         <v>0.058849599212408066</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47" s="1">
         <v>13.399999618530273</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="0">
-        <v>4</v>
-      </c>
-      <c r="F47" s="0">
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
         <v>0.30331280827522278</v>
       </c>
-      <c r="G47" s="0">
+      <c r="G47" s="1">
         <v>0.072622403502464294</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0">
+      <c r="A48" s="1">
         <v>0.19035699963569641</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48" s="1">
         <v>0.057244900614023209</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48" s="1">
         <v>14.399999618530273</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="0">
-        <v>4</v>
-      </c>
-      <c r="F48" s="0">
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
         <v>0.30255699157714844</v>
       </c>
-      <c r="G48" s="0">
+      <c r="G48" s="1">
         <v>0.078157000243663788</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0">
+      <c r="A49" s="1">
         <v>0.17919610440731049</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49" s="1">
         <v>0.057498998939990997</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49" s="1">
         <v>15.399999618530273</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="0">
-        <v>4</v>
-      </c>
-      <c r="F49" s="0">
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
         <v>0.29189410805702209</v>
       </c>
-      <c r="G49" s="0">
+      <c r="G49" s="1">
         <v>0.066498100757598877</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0">
+      <c r="A50" s="1">
         <v>0.29338321089744568</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50" s="1">
         <v>0.017437299713492393</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50" s="1">
         <v>0.30000001192092896</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50" s="1">
         <v>0.32756030559539795</v>
       </c>
-      <c r="G50" s="0">
+      <c r="G50" s="1">
         <v>0.25920608639717102</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0">
+      <c r="A51" s="1">
         <v>0.29508820176124573</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51" s="1">
         <v>0.017891800031065941</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51" s="1">
         <v>1.2999999523162842</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51" s="1">
         <v>0.33015608787536621</v>
       </c>
-      <c r="G51" s="0">
+      <c r="G51" s="1">
         <v>0.26002028584480286</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0">
+      <c r="A52" s="1">
         <v>0.28986001014709473</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52" s="1">
         <v>0.017760999500751495</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52" s="1">
         <v>2.2999999523162842</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="1">
         <v>0.32467159628868103</v>
       </c>
-      <c r="G52" s="0">
+      <c r="G52" s="1">
         <v>0.25504851341247559</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0">
+      <c r="A53" s="1">
         <v>0.29024788737297058</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53" s="1">
         <v>0.017896700650453568</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53" s="1">
         <v>3.2999999523162842</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="1">
         <v>0.32532539963722229</v>
       </c>
-      <c r="G53" s="0">
+      <c r="G53" s="1">
         <v>0.25517028570175171</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0">
+      <c r="A54" s="1">
         <v>0.29513809084892273</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54" s="1">
         <v>0.018136100843548775</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54" s="1">
         <v>4.3000001907348633</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="1">
         <v>0.33068481087684631</v>
       </c>
-      <c r="G54" s="0">
+      <c r="G54" s="1">
         <v>0.25959131121635437</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0">
+      <c r="A55" s="1">
         <v>0.29979559779167175</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55" s="1">
         <v>0.018005400896072388</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55" s="1">
         <v>5.3000001907348633</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="1">
         <v>0.33508619666099548</v>
       </c>
-      <c r="G55" s="0">
+      <c r="G55" s="1">
         <v>0.26450499892234802</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0">
+      <c r="A56" s="1">
         <v>0.29152089357376099</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56" s="1">
         <v>0.018393600359559059</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="1">
         <v>6.3000001907348633</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56" s="1">
         <v>0.3275722861289978</v>
       </c>
-      <c r="G56" s="0">
+      <c r="G56" s="1">
         <v>0.25546941161155701</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0">
+      <c r="A57" s="1">
         <v>0.2974143922328949</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57" s="1">
         <v>0.01839509978890419</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="1">
         <v>7.3000001907348633</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="1">
         <v>3</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="1">
         <v>0.33346879482269287</v>
       </c>
-      <c r="G57" s="0">
+      <c r="G57" s="1">
         <v>0.26135998964309692</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0">
+      <c r="A58" s="1">
         <v>0.29235830903053284</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58" s="1">
         <v>0.018755000084638596</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="1">
         <v>8.3000001907348633</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="1">
         <v>3</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="1">
         <v>0.32911810278892517</v>
       </c>
-      <c r="G58" s="0">
+      <c r="G58" s="1">
         <v>0.25559848546981812</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0">
+      <c r="A59" s="1">
         <v>0.29774799942970276</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59" s="1">
         <v>0.018401399254798889</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="1">
         <v>9.3000001907348633</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="1">
         <v>3</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="1">
         <v>0.33381471037864685</v>
       </c>
-      <c r="G59" s="0">
+      <c r="G59" s="1">
         <v>0.26168128848075867</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0">
+      <c r="A60" s="1">
         <v>0.30706891417503357</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60" s="1">
         <v>0.016943000257015228</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="1">
         <v>10.300000190734863</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="1">
         <v>3</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60" s="1">
         <v>0.34027719497680664</v>
       </c>
-      <c r="G60" s="0">
+      <c r="G60" s="1">
         <v>0.27386060357093811</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0">
+      <c r="A61" s="1">
         <v>0.30129900574684143</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61" s="1">
         <v>0.01647149957716465</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="1">
         <v>11.300000190734863</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="1">
         <v>3</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61" s="1">
         <v>0.33358308672904968</v>
       </c>
-      <c r="G61" s="0">
+      <c r="G61" s="1">
         <v>0.26901489496231079</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0">
+      <c r="A62" s="1">
         <v>0.2949163019657135</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62" s="1">
         <v>0.016923399642109871</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="1">
         <v>12.300000190734863</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="1">
         <v>3</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="1">
         <v>0.32808619737625122</v>
       </c>
-      <c r="G62" s="0">
+      <c r="G62" s="1">
         <v>0.26174640655517578</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0">
+      <c r="A63" s="1">
         <v>0.29777848720550537</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63" s="1">
         <v>0.01664000004529953</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="1">
         <v>13.300000190734863</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="1">
         <v>3</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="1">
         <v>0.33039289712905884</v>
       </c>
-      <c r="G63" s="0">
+      <c r="G63" s="1">
         <v>0.26516410708427429</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0">
+      <c r="A64" s="1">
         <v>0.29214221239089966</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64" s="1">
         <v>0.016593899577856064</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="1">
         <v>14.300000190734863</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="1">
         <v>3</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64" s="1">
         <v>0.32466629147529602</v>
       </c>
-      <c r="G64" s="0">
+      <c r="G64" s="1">
         <v>0.25961819291114807</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0">
+      <c r="A65" s="1">
         <v>0.28459128737449646</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65" s="1">
         <v>0.016838500276207924</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="1">
         <v>15.300000190734863</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="1">
         <v>3</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="1">
         <v>0.31759470701217651</v>
       </c>
-      <c r="G65" s="0">
+      <c r="G65" s="1">
         <v>0.25158780813217163</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0">
-        <v>0.32099738717079163</v>
-      </c>
-      <c r="B66" s="0">
-        <v>0.022347800433635712</v>
-      </c>
-      <c r="C66" s="0">
+      <c r="A66" s="1">
+        <v>0.29349809885025024</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.022946100682020187</v>
+      </c>
+      <c r="C66" s="1">
         <v>0.5</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="0">
-        <v>5</v>
-      </c>
-      <c r="F66" s="0">
-        <v>0.36479911208152771</v>
-      </c>
-      <c r="G66" s="0">
-        <v>0.27719569206237793</v>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.33847248554229736</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.24852369725704193</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0">
-        <v>0.31795820593833923</v>
-      </c>
-      <c r="B67" s="0">
-        <v>0.022268999367952347</v>
-      </c>
-      <c r="C67" s="0">
+      <c r="A67" s="1">
+        <v>0.29127231240272522</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.026036299765110016</v>
+      </c>
+      <c r="C67" s="1">
         <v>1.5</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="0">
-        <v>5</v>
-      </c>
-      <c r="F67" s="0">
-        <v>0.36160540580749512</v>
-      </c>
-      <c r="G67" s="0">
-        <v>0.27431100606918335</v>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.34230351448059082</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.24024119973182678</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0">
-        <v>0.32458770275115967</v>
-      </c>
-      <c r="B68" s="0">
-        <v>0.023173099383711815</v>
-      </c>
-      <c r="C68" s="0">
+      <c r="A68" s="1">
+        <v>0.29703319072723389</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.026579599827528</v>
+      </c>
+      <c r="C68" s="1">
         <v>2.5</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="0">
-        <v>5</v>
-      </c>
-      <c r="F68" s="0">
-        <v>0.37000700831413269</v>
-      </c>
-      <c r="G68" s="0">
-        <v>0.27916839718818665</v>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.34912919998168945</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.24493719637393951</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0">
-        <v>0.32443758845329285</v>
-      </c>
-      <c r="B69" s="0">
-        <v>0.022644000127911568</v>
-      </c>
-      <c r="C69" s="0">
+      <c r="A69" s="1">
+        <v>0.29721760749816895</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.025398299098014832</v>
+      </c>
+      <c r="C69" s="1">
         <v>3.5</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="0">
-        <v>5</v>
-      </c>
-      <c r="F69" s="0">
-        <v>0.36881980299949646</v>
-      </c>
-      <c r="G69" s="0">
-        <v>0.28005531430244446</v>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.34699830412864685</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.24743689596652985</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0">
-        <v>0.32579758763313293</v>
-      </c>
-      <c r="B70" s="0">
-        <v>0.022622900083661079</v>
-      </c>
-      <c r="C70" s="0">
+      <c r="A70" s="1">
+        <v>0.29535779356956482</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.025569500401616096</v>
+      </c>
+      <c r="C70" s="1">
         <v>4.5</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="0">
-        <v>5</v>
-      </c>
-      <c r="F70" s="0">
-        <v>0.3701384961605072</v>
-      </c>
-      <c r="G70" s="0">
-        <v>0.28145670890808105</v>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.3454740047454834</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.24524159729480743</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0">
-        <v>0.32634431123733521</v>
-      </c>
-      <c r="B71" s="0">
-        <v>0.021670600399374962</v>
-      </c>
-      <c r="C71" s="0">
+      <c r="A71" s="1">
+        <v>0.29804480075836182</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.024363899603486061</v>
+      </c>
+      <c r="C71" s="1">
         <v>5.5</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="0">
-        <v>5</v>
-      </c>
-      <c r="F71" s="0">
-        <v>0.36881870031356812</v>
-      </c>
-      <c r="G71" s="0">
-        <v>0.28386989235877991</v>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.34579798579216003</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.25029158592224121</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0">
-        <v>0.31835758686065674</v>
-      </c>
-      <c r="B72" s="0">
-        <v>0.021448599174618721</v>
-      </c>
-      <c r="C72" s="0">
+      <c r="A72" s="1">
+        <v>0.29060021042823792</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.026716100051999092</v>
+      </c>
+      <c r="C72" s="1">
         <v>6.5</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="0">
-        <v>5</v>
-      </c>
-      <c r="F72" s="0">
-        <v>0.36039680242538452</v>
-      </c>
-      <c r="G72" s="0">
-        <v>0.27631831169128418</v>
+      <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.3429638147354126</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.2382366955280304</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0">
-        <v>0.32959121465682983</v>
-      </c>
-      <c r="B73" s="0">
-        <v>0.021371699869632721</v>
-      </c>
-      <c r="C73" s="0">
+      <c r="A73" s="1">
+        <v>0.30197030305862427</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.026311799883842468</v>
+      </c>
+      <c r="C73" s="1">
         <v>7.5</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="0">
-        <v>5</v>
-      </c>
-      <c r="F73" s="0">
-        <v>0.37147969007492065</v>
-      </c>
-      <c r="G73" s="0">
-        <v>0.28770270943641663</v>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.35354140400886536</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.25039920210838318</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0">
-        <v>0.32659938931465149</v>
-      </c>
-      <c r="B74" s="0">
-        <v>0.021072300150990486</v>
-      </c>
-      <c r="C74" s="0">
+      <c r="A74" s="1">
+        <v>0.29819479584693909</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.025836799293756485</v>
+      </c>
+      <c r="C74" s="1">
         <v>8.5</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="0">
-        <v>5</v>
-      </c>
-      <c r="F74" s="0">
-        <v>0.36790108680725098</v>
-      </c>
-      <c r="G74" s="0">
-        <v>0.285297691822052</v>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.34883490204811096</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.24755470454692841</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0">
-        <v>0.33198699355125427</v>
-      </c>
-      <c r="B75" s="0">
-        <v>0.021804699674248695</v>
-      </c>
-      <c r="C75" s="0">
+      <c r="A75" s="1">
+        <v>0.30509939789772034</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.027172699570655823</v>
+      </c>
+      <c r="C75" s="1">
         <v>9.5</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="0">
-        <v>5</v>
-      </c>
-      <c r="F75" s="0">
-        <v>0.37472420930862427</v>
-      </c>
-      <c r="G75" s="0">
-        <v>0.28924980759620667</v>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.35835790634155273</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.25184088945388794</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0">
-        <v>0.32885530591011047</v>
-      </c>
-      <c r="B76" s="0">
-        <v>0.020213000476360321</v>
-      </c>
-      <c r="C76" s="0">
+      <c r="A76" s="1">
+        <v>0.30081269145011902</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.02654930017888546</v>
+      </c>
+      <c r="C76" s="1">
         <v>10.5</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="0">
-        <v>5</v>
-      </c>
-      <c r="F76" s="0">
-        <v>0.36847281455993652</v>
-      </c>
-      <c r="G76" s="0">
-        <v>0.28923779726028442</v>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.35284930467605591</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.24877609312534332</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0">
-        <v>0.32469359040260315</v>
-      </c>
-      <c r="B77" s="0">
-        <v>0.019905600696802139</v>
-      </c>
-      <c r="C77" s="0">
+      <c r="A77" s="1">
+        <v>0.29612511396408081</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.02395470067858696</v>
+      </c>
+      <c r="C77" s="1">
         <v>11.5</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="0">
-        <v>5</v>
-      </c>
-      <c r="F77" s="0">
-        <v>0.36370858550071716</v>
-      </c>
-      <c r="G77" s="0">
-        <v>0.28567859530448914</v>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.34307628870010376</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.24917389452457428</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0">
-        <v>0.3218575119972229</v>
-      </c>
-      <c r="B78" s="0">
-        <v>0.018580600619316101</v>
-      </c>
-      <c r="C78" s="0">
+      <c r="A78" s="1">
+        <v>0.2938377857208252</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.024197399616241455</v>
+      </c>
+      <c r="C78" s="1">
         <v>12.5</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="0">
-        <v>5</v>
-      </c>
-      <c r="F78" s="0">
-        <v>0.35827550292015076</v>
-      </c>
-      <c r="G78" s="0">
-        <v>0.28543949127197266</v>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.34126469492912292</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.24641090631484985</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0">
-        <v>0.3150830864906311</v>
-      </c>
-      <c r="B79" s="0">
-        <v>0.019055500626564026</v>
-      </c>
-      <c r="C79" s="0">
+      <c r="A79" s="1">
+        <v>0.28582391142845154</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.021697400137782097</v>
+      </c>
+      <c r="C79" s="1">
         <v>13.5</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="0">
-        <v>5</v>
-      </c>
-      <c r="F79" s="0">
-        <v>0.35243189334869385</v>
-      </c>
-      <c r="G79" s="0">
-        <v>0.27773430943489075</v>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.32835081219673157</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.24329699575901031</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0">
-        <v>0.30781561136245728</v>
-      </c>
-      <c r="B80" s="0">
-        <v>0.018952900543808937</v>
-      </c>
-      <c r="C80" s="0">
+      <c r="A80" s="1">
+        <v>0.27508071064949036</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.020120399072766304</v>
+      </c>
+      <c r="C80" s="1">
         <v>14.5</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="0">
-        <v>5</v>
-      </c>
-      <c r="F80" s="0">
-        <v>0.34496331214904785</v>
-      </c>
-      <c r="G80" s="0">
-        <v>0.2706679105758667</v>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.31451669335365295</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.23564469814300537</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0">
-        <v>0.3023642897605896</v>
-      </c>
-      <c r="B81" s="0">
-        <v>0.018754100427031517</v>
-      </c>
-      <c r="C81" s="0">
+      <c r="A81" s="1">
+        <v>0.27098241448402405</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.020249899476766586</v>
+      </c>
+      <c r="C81" s="1">
         <v>15.5</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="0">
-        <v>5</v>
-      </c>
-      <c r="F81" s="0">
-        <v>0.33912229537963867</v>
-      </c>
-      <c r="G81" s="0">
-        <v>0.26560631394386292</v>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.31067219376564026</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.23129260540008545</v>
       </c>
     </row>
   </sheetData>
@@ -4878,10 +4880,10 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2" s="1">
         <v>0.14100000262260437</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="1">
         <v>0.019999999552965164</v>
       </c>
     </row>
@@ -4892,10 +4894,10 @@
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="1">
         <v>0.12399999797344208</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="1">
         <v>0.014000000432133675</v>
       </c>
     </row>
@@ -4906,10 +4908,10 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4" s="1">
         <v>0.12099999934434891</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="1">
         <v>0.017000000923871994</v>
       </c>
     </row>
@@ -4920,10 +4922,10 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="1">
         <v>0.13899999856948853</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="1">
         <v>0.018999999389052391</v>
       </c>
     </row>
@@ -4934,10 +4936,10 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6" s="1">
         <v>0.11400000005960464</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="1">
         <v>0.016000000759959221</v>
       </c>
     </row>
@@ -4948,10 +4950,10 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7" s="1">
         <v>0.090000003576278687</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="1">
         <v>0.012000000104308128</v>
       </c>
     </row>
@@ -4962,10 +4964,10 @@
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8" s="1">
         <v>0.083999998867511749</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="1">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -4976,10 +4978,10 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9" s="1">
         <v>0.059999998658895493</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="1">
         <v>0.008999999612569809</v>
       </c>
     </row>
@@ -4990,10 +4992,10 @@
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10" s="1">
         <v>0.050999999046325684</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10" s="1">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -5004,10 +5006,10 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11" s="1">
         <v>0.05000000074505806</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11" s="1">
         <v>0.0070000002160668373</v>
       </c>
     </row>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="48">
   <si>
     <t>adm0</t>
   </si>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="48">
   <si>
     <t>adm0</t>
   </si>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="48">
   <si>
     <t>adm0</t>
   </si>
@@ -179,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,12 +187,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,14 +231,14 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0">
-        <v>-0.056332100182771683</v>
-      </c>
-      <c r="D2" s="0">
-        <v>-0.10756020247936249</v>
-      </c>
-      <c r="E2" s="0">
-        <v>-0.0051040998660027981</v>
+      <c r="C2" s="1">
+        <v>-0.05630199983716011</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.10751459747552872</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.0050893998704850674</v>
       </c>
     </row>
     <row r="3">
@@ -246,14 +248,14 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0">
-        <v>-0.030471600592136383</v>
-      </c>
-      <c r="D3" s="0">
-        <v>-0.11674950271844864</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.055806200951337814</v>
+      <c r="C3" s="1">
+        <v>-0.03042680025100708</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.11669810116291046</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.055844500660896301</v>
       </c>
     </row>
     <row r="4">
@@ -263,14 +265,14 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0">
-        <v>-0.041444700211286545</v>
-      </c>
-      <c r="D4" s="0">
-        <v>-0.10087499767541885</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.017985599115490913</v>
+      <c r="C4" s="1">
+        <v>-0.041340399533510208</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.10070730000734329</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.018026599660515785</v>
       </c>
     </row>
     <row r="5">
@@ -280,14 +282,14 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0">
-        <v>-0.033182200044393539</v>
-      </c>
-      <c r="D5" s="0">
-        <v>-0.1164994016289711</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.050135001540184021</v>
+      <c r="C5" s="1">
+        <v>-0.033096998929977417</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.11649639904499054</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.050302501767873764</v>
       </c>
     </row>
     <row r="6">
@@ -297,14 +299,14 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0">
-        <v>0.017603900283575058</v>
-      </c>
-      <c r="D6" s="0">
-        <v>-0.074468702077865601</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.10967650264501572</v>
+      <c r="C6" s="1">
+        <v>0.017696300521492958</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.07439509779214859</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.10978779941797256</v>
       </c>
     </row>
     <row r="7">
@@ -314,14 +316,14 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0">
-        <v>-0.1051424965262413</v>
-      </c>
-      <c r="D7" s="0">
-        <v>-0.23836269974708557</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.028077699244022369</v>
+      <c r="C7" s="1">
+        <v>-0.10497009754180908</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.238167405128479</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.028227200731635094</v>
       </c>
     </row>
     <row r="8">
@@ -331,14 +333,14 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0">
-        <v>-0.043799400329589844</v>
-      </c>
-      <c r="D8" s="0">
-        <v>-0.11301679909229279</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.025418000295758247</v>
+      <c r="C8" s="1">
+        <v>-0.044097900390625</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.11338769644498825</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.025191899389028549</v>
       </c>
     </row>
     <row r="9">
@@ -348,14 +350,14 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
-        <v>-0.080150000751018524</v>
-      </c>
-      <c r="D9" s="0">
-        <v>-0.16302239894866943</v>
-      </c>
-      <c r="E9" s="0">
-        <v>0.002722499892115593</v>
+      <c r="C9" s="1">
+        <v>-0.080384202301502228</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.16328209638595581</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0025136999320238829</v>
       </c>
     </row>
     <row r="10">
@@ -365,14 +367,14 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0">
-        <v>-0.10599870234727859</v>
-      </c>
-      <c r="D10" s="0">
-        <v>-0.18599429726600647</v>
-      </c>
-      <c r="E10" s="0">
-        <v>-0.026003200560808182</v>
+      <c r="C10" s="1">
+        <v>-0.10613589733839035</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.1861111968755722</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.026160700246691704</v>
       </c>
     </row>
     <row r="11">
@@ -382,14 +384,14 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="0">
-        <v>-0.046190399676561356</v>
-      </c>
-      <c r="D11" s="0">
-        <v>-0.13127310574054718</v>
-      </c>
-      <c r="E11" s="0">
-        <v>0.038892298936843872</v>
+      <c r="C11" s="1">
+        <v>-0.046280700713396072</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.13128970563411713</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.038728199899196625</v>
       </c>
     </row>
     <row r="12">
@@ -399,14 +401,14 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="0">
-        <v>-0.10915389657020569</v>
-      </c>
-      <c r="D12" s="0">
-        <v>-0.18193410336971283</v>
-      </c>
-      <c r="E12" s="0">
-        <v>-0.036373801529407501</v>
+      <c r="C12" s="1">
+        <v>-0.1091931015253067</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.18187530338764191</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.036511000245809555</v>
       </c>
     </row>
     <row r="13">
@@ -416,14 +418,14 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="0">
-        <v>-0.11652249842882156</v>
-      </c>
-      <c r="D13" s="0">
-        <v>-0.19738869369029999</v>
-      </c>
-      <c r="E13" s="0">
-        <v>-0.035656299442052841</v>
+      <c r="C13" s="1">
+        <v>-0.11656180024147034</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.19729809463024139</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.035825401544570923</v>
       </c>
     </row>
     <row r="14">
@@ -433,14 +435,14 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0">
-        <v>-0.057672798633575439</v>
-      </c>
-      <c r="D14" s="0">
-        <v>-0.12127750366926193</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0.0059318002313375473</v>
+      <c r="C14" s="1">
+        <v>-0.057550601661205292</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.12108980119228363</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.0059885000810027122</v>
       </c>
     </row>
     <row r="15">
@@ -450,14 +452,14 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0">
-        <v>-0.086822398006916046</v>
-      </c>
-      <c r="D15" s="0">
-        <v>-0.15181569755077362</v>
-      </c>
-      <c r="E15" s="0">
-        <v>-0.021829100325703621</v>
+      <c r="C15" s="1">
+        <v>-0.086683101952075958</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.15159539878368378</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-0.021770799532532692</v>
       </c>
     </row>
     <row r="16">
@@ -467,14 +469,14 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0">
-        <v>-0.11223659664392471</v>
-      </c>
-      <c r="D16" s="0">
-        <v>-0.1611391007900238</v>
-      </c>
-      <c r="E16" s="0">
-        <v>-0.063334099948406219</v>
+      <c r="C16" s="1">
+        <v>-0.11205200105905533</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.16090250015258789</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.063201501965522766</v>
       </c>
     </row>
     <row r="17">
@@ -484,14 +486,14 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0">
-        <v>-0.13249200582504272</v>
-      </c>
-      <c r="D17" s="0">
-        <v>-0.18961919844150543</v>
-      </c>
-      <c r="E17" s="0">
-        <v>-0.075364701449871063</v>
+      <c r="C17" s="1">
+        <v>-0.13227240741252899</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.18935629725456238</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.075188599526882172</v>
       </c>
     </row>
     <row r="18">
@@ -501,14 +503,14 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0">
-        <v>-0.12884229421615601</v>
-      </c>
-      <c r="D18" s="0">
-        <v>-0.19019809365272522</v>
-      </c>
-      <c r="E18" s="0">
-        <v>-0.067486502230167389</v>
+      <c r="C18" s="1">
+        <v>-0.12858599424362183</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.18995900452136993</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.067213103175163269</v>
       </c>
     </row>
     <row r="19">
@@ -518,14 +520,14 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0">
-        <v>-0.1097647026181221</v>
-      </c>
-      <c r="D19" s="0">
-        <v>-0.1690371036529541</v>
-      </c>
-      <c r="E19" s="0">
-        <v>-0.050492201000452042</v>
+      <c r="C19" s="1">
+        <v>-0.1095627024769783</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.16881179809570312</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.050313699990510941</v>
       </c>
     </row>
     <row r="20">
@@ -535,14 +537,14 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="0">
-        <v>0.069430500268936157</v>
-      </c>
-      <c r="D20" s="0">
-        <v>0.01980070024728775</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0.11906039714813232</v>
+      <c r="C20" s="1">
+        <v>0.069327101111412048</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.019715199247002602</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.1189391016960144</v>
       </c>
     </row>
     <row r="21">
@@ -552,14 +554,14 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="0">
-        <v>0.043250799179077148</v>
-      </c>
-      <c r="D21" s="0">
-        <v>-0.014097799547016621</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0.10059940069913864</v>
+      <c r="C21" s="1">
+        <v>0.043149199336767197</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.014216200448572636</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.10051470249891281</v>
       </c>
     </row>
     <row r="22">
@@ -569,14 +571,14 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="0">
-        <v>0.044092200696468353</v>
-      </c>
-      <c r="D22" s="0">
-        <v>-0.0061503998003900051</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0.094334900379180908</v>
+      <c r="C22" s="1">
+        <v>0.043977200984954834</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.006346600130200386</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.094301000237464905</v>
       </c>
     </row>
     <row r="23">
@@ -586,14 +588,14 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="0">
-        <v>0.044796701520681381</v>
-      </c>
-      <c r="D23" s="0">
-        <v>-0.035357598215341568</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0.12495099753141403</v>
+      <c r="C23" s="1">
+        <v>0.044674601405858994</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.035554699599742889</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.12490399926900864</v>
       </c>
     </row>
     <row r="24">
@@ -603,14 +605,14 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="0">
-        <v>0.0026171000208705664</v>
-      </c>
-      <c r="D24" s="0">
-        <v>-0.086922399699687958</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0.092156596481800079</v>
+      <c r="C24" s="1">
+        <v>0.0025380998849868774</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.087012998759746552</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.092089101672172546</v>
       </c>
     </row>
     <row r="25">
@@ -620,14 +622,14 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="0">
-        <v>0.07463499903678894</v>
-      </c>
-      <c r="D25" s="0">
-        <v>-0.0032464999239891768</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0.15251649916172028</v>
+      <c r="C25" s="1">
+        <v>0.074616797268390656</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.003297500079497695</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.1525312066078186</v>
       </c>
     </row>
     <row r="26">
@@ -637,14 +639,14 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="0">
-        <v>-0.010734300129115582</v>
-      </c>
-      <c r="D26" s="0">
-        <v>-0.047528501600027084</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0.026059899479150772</v>
+      <c r="C26" s="1">
+        <v>-0.010705499909818172</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.047542698681354523</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.026131600141525269</v>
       </c>
     </row>
     <row r="27">
@@ -654,14 +656,14 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="0">
-        <v>0.0021931000519543886</v>
-      </c>
-      <c r="D27" s="0">
-        <v>-0.036403398960828781</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0.040789499878883362</v>
+      <c r="C27" s="1">
+        <v>0.0022752000950276852</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.036333099007606506</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.04088360071182251</v>
       </c>
     </row>
     <row r="28">
@@ -671,14 +673,14 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="0">
-        <v>0.0084375003352761269</v>
-      </c>
-      <c r="D28" s="0">
-        <v>-0.02792849950492382</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0.044803600758314133</v>
+      <c r="C28" s="1">
+        <v>0.0085516003891825676</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.027824200689792633</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.044927299022674561</v>
       </c>
     </row>
     <row r="29">
@@ -688,14 +690,14 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="0">
-        <v>0.0119463000446558</v>
-      </c>
-      <c r="D29" s="0">
-        <v>-0.027031600475311279</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0.050924099981784821</v>
+      <c r="C29" s="1">
+        <v>0.012107199989259243</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.026856299489736557</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.051070798188447952</v>
       </c>
     </row>
     <row r="30">
@@ -705,14 +707,14 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="0">
-        <v>0.01491519995033741</v>
-      </c>
-      <c r="D30" s="0">
-        <v>-0.023609999567270279</v>
-      </c>
-      <c r="E30" s="0">
-        <v>0.05344029888510704</v>
+      <c r="C30" s="1">
+        <v>0.01510039996355772</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.023421300575137138</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.053622100502252579</v>
       </c>
     </row>
     <row r="31">
@@ -722,14 +724,14 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="0">
-        <v>0.014948500320315361</v>
-      </c>
-      <c r="D31" s="0">
-        <v>-0.020075300708413124</v>
-      </c>
-      <c r="E31" s="0">
-        <v>0.049972198903560638</v>
+      <c r="C31" s="1">
+        <v>0.015088300220668316</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.019965000450611115</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.050141498446464539</v>
       </c>
     </row>
     <row r="32">
@@ -739,14 +741,14 @@
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="0">
-        <v>-0.047548398375511169</v>
-      </c>
-      <c r="D32" s="0">
-        <v>-0.088010698556900024</v>
-      </c>
-      <c r="E32" s="0">
-        <v>-0.0070861000567674637</v>
+      <c r="C32" s="1">
+        <v>-0.047440100461244583</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.087867103517055511</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.0070130000822246075</v>
       </c>
     </row>
     <row r="33">
@@ -756,14 +758,14 @@
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="0">
-        <v>-0.031365301460027695</v>
-      </c>
-      <c r="D33" s="0">
-        <v>-0.086398199200630188</v>
-      </c>
-      <c r="E33" s="0">
-        <v>0.023667700588703156</v>
+      <c r="C33" s="1">
+        <v>-0.031212000176310539</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.086225196719169617</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.023801200091838837</v>
       </c>
     </row>
     <row r="34">
@@ -773,14 +775,14 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="0">
-        <v>-0.0036605000495910645</v>
-      </c>
-      <c r="D34" s="0">
-        <v>-0.046877201646566391</v>
-      </c>
-      <c r="E34" s="0">
-        <v>0.039556298404932022</v>
+      <c r="C34" s="1">
+        <v>-0.0035063999239355326</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.04671819880604744</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.039705298840999603</v>
       </c>
     </row>
     <row r="35">
@@ -790,14 +792,14 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="0">
-        <v>-0.013834900222718716</v>
-      </c>
-      <c r="D35" s="0">
-        <v>-0.065688297152519226</v>
-      </c>
-      <c r="E35" s="0">
-        <v>0.038018599152565002</v>
+      <c r="C35" s="1">
+        <v>-0.0135690001770854</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.065419197082519531</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.038281198590993881</v>
       </c>
     </row>
     <row r="36">
@@ -807,14 +809,14 @@
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="0">
-        <v>0.01429119985550642</v>
-      </c>
-      <c r="D36" s="0">
-        <v>-0.035316500812768936</v>
-      </c>
-      <c r="E36" s="0">
-        <v>0.063899002969264984</v>
+      <c r="C36" s="1">
+        <v>0.014497799798846245</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.035086698830127716</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.064082197844982147</v>
       </c>
     </row>
     <row r="37">
@@ -824,14 +826,14 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="0">
-        <v>0.037565898150205612</v>
-      </c>
-      <c r="D37" s="0">
-        <v>-0.0049661002121865749</v>
-      </c>
-      <c r="E37" s="0">
-        <v>0.080097898840904236</v>
+      <c r="C37" s="1">
+        <v>0.03771049901843071</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.0047911000438034534</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.080212198197841644</v>
       </c>
     </row>
     <row r="38">
@@ -841,14 +843,14 @@
       <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0">
-        <v>-0.0092321997508406639</v>
-      </c>
-      <c r="D38" s="0">
-        <v>-0.050892800092697144</v>
-      </c>
-      <c r="E38" s="0">
-        <v>0.032428398728370667</v>
+      <c r="C38" s="1">
+        <v>-0.0093692000955343246</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.051078598946332932</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.032340198755264282</v>
       </c>
     </row>
     <row r="39">
@@ -858,14 +860,14 @@
       <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0">
-        <v>-0.0067564998753368855</v>
-      </c>
-      <c r="D39" s="0">
-        <v>-0.050530098378658295</v>
-      </c>
-      <c r="E39" s="0">
-        <v>0.037017200142145157</v>
+      <c r="C39" s="1">
+        <v>-0.0068732998333871365</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.050726998597383499</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.03698049858212471</v>
       </c>
     </row>
     <row r="40">
@@ -875,14 +877,14 @@
       <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0">
-        <v>-0.0079151997342705727</v>
-      </c>
-      <c r="D40" s="0">
-        <v>-0.063047401607036591</v>
-      </c>
-      <c r="E40" s="0">
-        <v>0.047217100858688354</v>
+      <c r="C40" s="1">
+        <v>-0.0079872002825140953</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.063191600143909454</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.047217201441526413</v>
       </c>
     </row>
     <row r="41">
@@ -892,14 +894,14 @@
       <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0">
-        <v>-0.024137800559401512</v>
-      </c>
-      <c r="D41" s="0">
-        <v>-0.077735103666782379</v>
-      </c>
-      <c r="E41" s="0">
-        <v>0.029459400102496147</v>
+      <c r="C41" s="1">
+        <v>-0.024171900004148483</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-0.077872201800346375</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.029528399929404259</v>
       </c>
     </row>
     <row r="42">
@@ -909,14 +911,14 @@
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="0">
-        <v>-0.024636499583721161</v>
-      </c>
-      <c r="D42" s="0">
-        <v>-0.076977498829364777</v>
-      </c>
-      <c r="E42" s="0">
-        <v>0.027704499661922455</v>
+      <c r="C42" s="1">
+        <v>-0.024672200903296471</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-0.077101096510887146</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.027756700292229652</v>
       </c>
     </row>
     <row r="43">
@@ -926,14 +928,14 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="0">
-        <v>-0.016274500638246536</v>
-      </c>
-      <c r="D43" s="0">
-        <v>-0.064876802265644073</v>
-      </c>
-      <c r="E43" s="0">
-        <v>0.032327800989151001</v>
+      <c r="C43" s="1">
+        <v>-0.016398999840021133</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-0.065076500177383423</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.032278500497341156</v>
       </c>
     </row>
     <row r="44">
@@ -943,14 +945,14 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="0">
-        <v>-0.084479697048664093</v>
-      </c>
-      <c r="D44" s="0">
-        <v>-0.11394000053405762</v>
-      </c>
-      <c r="E44" s="0">
-        <v>-0.055019501596689224</v>
+      <c r="C44" s="1">
+        <v>-0.08455049991607666</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-0.11395590007305145</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-0.055145099759101868</v>
       </c>
     </row>
     <row r="45">
@@ -960,14 +962,14 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="0">
-        <v>-0.076774202287197113</v>
-      </c>
-      <c r="D45" s="0">
-        <v>-0.11435209959745407</v>
-      </c>
-      <c r="E45" s="0">
-        <v>-0.039196200668811798</v>
+      <c r="C45" s="1">
+        <v>-0.077083401381969452</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-0.11467000097036362</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-0.039496801793575287</v>
       </c>
     </row>
     <row r="46">
@@ -977,14 +979,14 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="0">
-        <v>-0.073533199727535248</v>
-      </c>
-      <c r="D46" s="0">
-        <v>-0.10563380271196365</v>
-      </c>
-      <c r="E46" s="0">
-        <v>-0.041432701051235199</v>
+      <c r="C46" s="1">
+        <v>-0.07403930276632309</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-0.10611250251531601</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-0.04196619987487793</v>
       </c>
     </row>
     <row r="47">
@@ -994,14 +996,14 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="0">
-        <v>-0.076020203530788422</v>
-      </c>
-      <c r="D47" s="0">
-        <v>-0.10691329836845398</v>
-      </c>
-      <c r="E47" s="0">
-        <v>-0.045127201825380325</v>
+      <c r="C47" s="1">
+        <v>-0.076771698892116547</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-0.10751509666442871</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-0.046028301119804382</v>
       </c>
     </row>
     <row r="48">
@@ -1011,14 +1013,14 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="0">
-        <v>-0.073169499635696411</v>
-      </c>
-      <c r="D48" s="0">
-        <v>-0.11737989634275436</v>
-      </c>
-      <c r="E48" s="0">
-        <v>-0.02895909920334816</v>
+      <c r="C48" s="1">
+        <v>-0.073916502296924591</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-0.1181718036532402</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-0.02966110035777092</v>
       </c>
     </row>
     <row r="49">
@@ -1028,14 +1030,14 @@
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="0">
-        <v>-0.056519698351621628</v>
-      </c>
-      <c r="D49" s="0">
-        <v>-0.10897570103406906</v>
-      </c>
-      <c r="E49" s="0">
-        <v>-0.0040636998601257801</v>
+      <c r="C49" s="1">
+        <v>-0.05723629891872406</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-0.10964979976415634</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-0.0048227999359369278</v>
       </c>
     </row>
     <row r="50">
@@ -1045,14 +1047,14 @@
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="0">
-        <v>-0.029404500499367714</v>
-      </c>
-      <c r="D50" s="0">
-        <v>-0.054994698613882065</v>
-      </c>
-      <c r="E50" s="0">
-        <v>-0.0038143000565469265</v>
+      <c r="C50" s="1">
+        <v>-0.029215900227427483</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-0.054767701774835587</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-0.0036641999613493681</v>
       </c>
     </row>
     <row r="51">
@@ -1062,14 +1064,14 @@
       <c r="B51" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="0">
-        <v>-0.04697670042514801</v>
-      </c>
-      <c r="D51" s="0">
-        <v>-0.072750799357891083</v>
-      </c>
-      <c r="E51" s="0">
-        <v>-0.021202599629759789</v>
+      <c r="C51" s="1">
+        <v>-0.046690601855516434</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-0.072396300733089447</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-0.020984899252653122</v>
       </c>
     </row>
     <row r="52">
@@ -1079,14 +1081,14 @@
       <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="0">
-        <v>-0.054304301738739014</v>
-      </c>
-      <c r="D52" s="0">
-        <v>-0.075445599853992462</v>
-      </c>
-      <c r="E52" s="0">
-        <v>-0.033162999898195267</v>
+      <c r="C52" s="1">
+        <v>-0.053957998752593994</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-0.075035497546195984</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-0.032880499958992004</v>
       </c>
     </row>
     <row r="53">
@@ -1096,14 +1098,14 @@
       <c r="B53" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="0">
-        <v>-0.062831997871398926</v>
-      </c>
-      <c r="D53" s="0">
-        <v>-0.084634900093078613</v>
-      </c>
-      <c r="E53" s="0">
-        <v>-0.041028998792171478</v>
+      <c r="C53" s="1">
+        <v>-0.062396898865699768</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-0.084095597267150879</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-0.040698200464248657</v>
       </c>
     </row>
     <row r="54">
@@ -1113,14 +1115,14 @@
       <c r="B54" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="0">
-        <v>-0.067478097975254059</v>
-      </c>
-      <c r="D54" s="0">
-        <v>-0.091020002961158752</v>
-      </c>
-      <c r="E54" s="0">
-        <v>-0.043936200439929962</v>
+      <c r="C54" s="1">
+        <v>-0.06708969920873642</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-0.090583696961402893</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-0.043595600873231888</v>
       </c>
     </row>
     <row r="55">
@@ -1130,14 +1132,14 @@
       <c r="B55" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="0">
-        <v>-0.069567501544952393</v>
-      </c>
-      <c r="D55" s="0">
-        <v>-0.097465001046657562</v>
-      </c>
-      <c r="E55" s="0">
-        <v>-0.041669901460409164</v>
+      <c r="C55" s="1">
+        <v>-0.069185897707939148</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-0.097019501030445099</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-0.041352301836013794</v>
       </c>
     </row>
     <row r="56">
@@ -1147,13 +1149,13 @@
       <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="1">
         <v>-0.24313719570636749</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56" s="1">
         <v>-0.33929958939552307</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="1">
         <v>-0.14697480201721191</v>
       </c>
     </row>
@@ -1164,13 +1166,13 @@
       <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="1">
         <v>-0.17056350409984589</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57" s="1">
         <v>-0.26028868556022644</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="1">
         <v>-0.080838300287723541</v>
       </c>
     </row>
@@ -1181,13 +1183,13 @@
       <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="1">
         <v>-0.16984309256076813</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58" s="1">
         <v>-0.2709018886089325</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="1">
         <v>-0.068784400820732117</v>
       </c>
     </row>
@@ -1198,13 +1200,13 @@
       <c r="B59" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="1">
         <v>-0.22099119424819946</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59" s="1">
         <v>-0.34595799446105957</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="1">
         <v>-0.096024401485919952</v>
       </c>
     </row>
@@ -1215,13 +1217,13 @@
       <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="1">
         <v>-0.22435760498046875</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60" s="1">
         <v>-0.35085970163345337</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="1">
         <v>-0.097855597734451294</v>
       </c>
     </row>
@@ -1232,13 +1234,13 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="1">
         <v>-0.22701770067214966</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61" s="1">
         <v>-0.37130150198936462</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="1">
         <v>-0.082733899354934692</v>
       </c>
     </row>
@@ -1249,13 +1251,13 @@
       <c r="B62" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="1">
         <v>-0.0084429001435637474</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62" s="1">
         <v>-0.044472601264715195</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="1">
         <v>0.027586700394749641</v>
       </c>
     </row>
@@ -1266,13 +1268,13 @@
       <c r="B63" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="1">
         <v>-0.049546100199222565</v>
       </c>
-      <c r="D63" s="0">
+      <c r="D63" s="1">
         <v>-0.099307000637054443</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="1">
         <v>0.00021470000501722097</v>
       </c>
     </row>
@@ -1283,13 +1285,13 @@
       <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="1">
         <v>-0.054213501513004303</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64" s="1">
         <v>-0.1181337982416153</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="1">
         <v>0.0097067998722195625</v>
       </c>
     </row>
@@ -1300,13 +1302,13 @@
       <c r="B65" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="1">
         <v>-0.034487999975681305</v>
       </c>
-      <c r="D65" s="0">
+      <c r="D65" s="1">
         <v>-0.10307410359382629</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="1">
         <v>0.034098200500011444</v>
       </c>
     </row>
@@ -1317,13 +1319,13 @@
       <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66" s="1">
         <v>-0.019967200234532356</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66" s="1">
         <v>-0.086046300828456879</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66" s="1">
         <v>0.046112000942230225</v>
       </c>
     </row>
@@ -1334,13 +1336,13 @@
       <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67" s="1">
         <v>-0.0047021000646054745</v>
       </c>
-      <c r="D67" s="0">
+      <c r="D67" s="1">
         <v>-0.085631303489208221</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67" s="1">
         <v>0.076227098703384399</v>
       </c>
     </row>
@@ -1351,13 +1353,13 @@
       <c r="B68" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68" s="1">
         <v>0.033575598150491714</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68" s="1">
         <v>-0.017218099907040596</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68" s="1">
         <v>0.084369301795959473</v>
       </c>
     </row>
@@ -1368,13 +1370,13 @@
       <c r="B69" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69" s="1">
         <v>-0.0029986000154167414</v>
       </c>
-      <c r="D69" s="0">
+      <c r="D69" s="1">
         <v>-0.051775101572275162</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69" s="1">
         <v>0.045777801424264908</v>
       </c>
     </row>
@@ -1385,13 +1387,13 @@
       <c r="B70" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70" s="1">
         <v>-0.017226900905370712</v>
       </c>
-      <c r="D70" s="0">
+      <c r="D70" s="1">
         <v>-0.067079201340675354</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70" s="1">
         <v>0.032625298947095871</v>
       </c>
     </row>
@@ -1402,13 +1404,13 @@
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71" s="1">
         <v>-0.016230199486017227</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71" s="1">
         <v>-0.075400799512863159</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71" s="1">
         <v>0.042940400540828705</v>
       </c>
     </row>
@@ -1419,13 +1421,13 @@
       <c r="B72" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72" s="1">
         <v>-0.032229598611593246</v>
       </c>
-      <c r="D72" s="0">
+      <c r="D72" s="1">
         <v>-0.097260802984237671</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72" s="1">
         <v>0.032801501452922821</v>
       </c>
     </row>
@@ -1436,13 +1438,13 @@
       <c r="B73" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73" s="1">
         <v>-0.047564100474119186</v>
       </c>
-      <c r="D73" s="0">
+      <c r="D73" s="1">
         <v>-0.09843839704990387</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73" s="1">
         <v>0.0033100999426096678</v>
       </c>
     </row>
@@ -1453,13 +1455,13 @@
       <c r="B74" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74" s="1">
         <v>-0.3161529004573822</v>
       </c>
-      <c r="D74" s="0">
+      <c r="D74" s="1">
         <v>-0.37197110056877136</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74" s="1">
         <v>-0.26033470034599304</v>
       </c>
     </row>
@@ -1470,13 +1472,13 @@
       <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75" s="1">
         <v>-0.38542190194129944</v>
       </c>
-      <c r="D75" s="0">
+      <c r="D75" s="1">
         <v>-0.44791358709335327</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75" s="1">
         <v>-0.32293018698692322</v>
       </c>
     </row>
@@ -1487,13 +1489,13 @@
       <c r="B76" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76" s="1">
         <v>-0.37274080514907837</v>
       </c>
-      <c r="D76" s="0">
+      <c r="D76" s="1">
         <v>-0.44494989514350891</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76" s="1">
         <v>-0.30053168535232544</v>
       </c>
     </row>
@@ -1504,13 +1506,13 @@
       <c r="B77" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77" s="1">
         <v>-0.36941158771514893</v>
       </c>
-      <c r="D77" s="0">
+      <c r="D77" s="1">
         <v>-0.49847540259361267</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77" s="1">
         <v>-0.24034780263900757</v>
       </c>
     </row>
@@ -1521,13 +1523,13 @@
       <c r="B78" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78" s="1">
         <v>-0.30194690823554993</v>
       </c>
-      <c r="D78" s="0">
+      <c r="D78" s="1">
         <v>-0.42135569453239441</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78" s="1">
         <v>-0.18253810703754425</v>
       </c>
     </row>
@@ -1538,13 +1540,13 @@
       <c r="B79" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79" s="1">
         <v>-0.28528809547424316</v>
       </c>
-      <c r="D79" s="0">
+      <c r="D79" s="1">
         <v>-0.44931790232658386</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79" s="1">
         <v>-0.12125830352306366</v>
       </c>
     </row>
@@ -1555,13 +1557,13 @@
       <c r="B80" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80" s="1">
         <v>-0.074010796844959259</v>
       </c>
-      <c r="D80" s="0">
+      <c r="D80" s="1">
         <v>-0.11017850041389465</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80" s="1">
         <v>-0.03784320130944252</v>
       </c>
     </row>
@@ -1572,13 +1574,13 @@
       <c r="B81" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81" s="1">
         <v>-0.078051097691059113</v>
       </c>
-      <c r="D81" s="0">
+      <c r="D81" s="1">
         <v>-0.10492180287837982</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81" s="1">
         <v>-0.051180399954319</v>
       </c>
     </row>
@@ -1589,13 +1591,13 @@
       <c r="B82" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82" s="1">
         <v>-0.10111019760370255</v>
       </c>
-      <c r="D82" s="0">
+      <c r="D82" s="1">
         <v>-0.14005169272422791</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82" s="1">
         <v>-0.062168598175048828</v>
       </c>
     </row>
@@ -1606,13 +1608,13 @@
       <c r="B83" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83" s="1">
         <v>-0.11574780195951462</v>
       </c>
-      <c r="D83" s="0">
+      <c r="D83" s="1">
         <v>-0.15907770395278931</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83" s="1">
         <v>-0.072417899966239929</v>
       </c>
     </row>
@@ -1623,13 +1625,13 @@
       <c r="B84" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84" s="1">
         <v>-0.13912059366703033</v>
       </c>
-      <c r="D84" s="0">
+      <c r="D84" s="1">
         <v>-0.20296800136566162</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84" s="1">
         <v>-0.075273200869560242</v>
       </c>
     </row>
@@ -1640,13 +1642,13 @@
       <c r="B85" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85" s="1">
         <v>-0.15070550143718719</v>
       </c>
-      <c r="D85" s="0">
+      <c r="D85" s="1">
         <v>-0.21933630108833313</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85" s="1">
         <v>-0.08207479864358902</v>
       </c>
     </row>
@@ -1657,13 +1659,13 @@
       <c r="B86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86" s="1">
         <v>0.10748159885406494</v>
       </c>
-      <c r="D86" s="0">
+      <c r="D86" s="1">
         <v>-0.0033799000084400177</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86" s="1">
         <v>0.21834300458431244</v>
       </c>
     </row>
@@ -1674,13 +1676,13 @@
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87" s="1">
         <v>0.10447029769420624</v>
       </c>
-      <c r="D87" s="0">
+      <c r="D87" s="1">
         <v>-0.0095266001299023628</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87" s="1">
         <v>0.21846729516983032</v>
       </c>
     </row>
@@ -1691,13 +1693,13 @@
       <c r="B88" t="s">
         <v>8</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88" s="1">
         <v>0.12652599811553955</v>
       </c>
-      <c r="D88" s="0">
+      <c r="D88" s="1">
         <v>0.013032699935138226</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88" s="1">
         <v>0.2400193065404892</v>
       </c>
     </row>
@@ -1708,13 +1710,13 @@
       <c r="B89" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89" s="1">
         <v>0.10487180203199387</v>
       </c>
-      <c r="D89" s="0">
+      <c r="D89" s="1">
         <v>-0.045122500509023666</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89" s="1">
         <v>0.25486600399017334</v>
       </c>
     </row>
@@ -1725,13 +1727,13 @@
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90" s="1">
         <v>0.10629530251026154</v>
       </c>
-      <c r="D90" s="0">
+      <c r="D90" s="1">
         <v>-0.03134860098361969</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90" s="1">
         <v>0.24393920600414276</v>
       </c>
     </row>
@@ -1742,13 +1744,13 @@
       <c r="B91" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91" s="1">
         <v>0.14786510169506073</v>
       </c>
-      <c r="D91" s="0">
+      <c r="D91" s="1">
         <v>0.011944499798119068</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91" s="1">
         <v>0.2837856113910675</v>
       </c>
     </row>
@@ -1759,13 +1761,13 @@
       <c r="B92" t="s">
         <v>12</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92" s="1">
         <v>-0.071390002965927124</v>
       </c>
-      <c r="D92" s="0">
+      <c r="D92" s="1">
         <v>-0.13743330538272858</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92" s="1">
         <v>-0.0053468002006411552</v>
       </c>
     </row>
@@ -1776,13 +1778,13 @@
       <c r="B93" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93" s="1">
         <v>-0.06959100067615509</v>
       </c>
-      <c r="D93" s="0">
+      <c r="D93" s="1">
         <v>-0.13422690331935883</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93" s="1">
         <v>-0.0049550998955965042</v>
       </c>
     </row>
@@ -1793,13 +1795,13 @@
       <c r="B94" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94" s="1">
         <v>-0.089302599430084229</v>
       </c>
-      <c r="D94" s="0">
+      <c r="D94" s="1">
         <v>-0.16768769919872284</v>
       </c>
-      <c r="E94" s="0">
+      <c r="E94" s="1">
         <v>-0.010917499661445618</v>
       </c>
     </row>
@@ -1810,13 +1812,13 @@
       <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95" s="1">
         <v>-0.082204900681972504</v>
       </c>
-      <c r="D95" s="0">
+      <c r="D95" s="1">
         <v>-0.18695579469203949</v>
       </c>
-      <c r="E95" s="0">
+      <c r="E95" s="1">
         <v>0.022546000778675079</v>
       </c>
     </row>
@@ -1827,13 +1829,13 @@
       <c r="B96" t="s">
         <v>12</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96" s="1">
         <v>-0.071125298738479614</v>
       </c>
-      <c r="D96" s="0">
+      <c r="D96" s="1">
         <v>-0.17949619889259338</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96" s="1">
         <v>0.037245698273181915</v>
       </c>
     </row>
@@ -1844,13 +1846,13 @@
       <c r="B97" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97" s="1">
         <v>-0.10619469732046127</v>
       </c>
-      <c r="D97" s="0">
+      <c r="D97" s="1">
         <v>-0.24804750084877014</v>
       </c>
-      <c r="E97" s="0">
+      <c r="E97" s="1">
         <v>0.03565799817442894</v>
       </c>
     </row>
@@ -1861,13 +1863,13 @@
       <c r="B98" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98" s="1">
         <v>-0.097512401640415192</v>
       </c>
-      <c r="D98" s="0">
+      <c r="D98" s="1">
         <v>-0.27802440524101257</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98" s="1">
         <v>0.08299960196018219</v>
       </c>
     </row>
@@ -1878,13 +1880,13 @@
       <c r="B99" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99" s="1">
         <v>-0.10215400159358978</v>
       </c>
-      <c r="D99" s="0">
+      <c r="D99" s="1">
         <v>-0.299925297498703</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99" s="1">
         <v>0.095617197453975677</v>
       </c>
     </row>
@@ -1895,13 +1897,13 @@
       <c r="B100" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100" s="1">
         <v>-0.13940109312534332</v>
       </c>
-      <c r="D100" s="0">
+      <c r="D100" s="1">
         <v>-0.2904546856880188</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100" s="1">
         <v>0.011652500368654728</v>
       </c>
     </row>
@@ -1912,13 +1914,13 @@
       <c r="B101" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101" s="1">
         <v>-0.20831489562988281</v>
       </c>
-      <c r="D101" s="0">
+      <c r="D101" s="1">
         <v>-0.3420046865940094</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101" s="1">
         <v>-0.074625000357627869</v>
       </c>
     </row>
@@ -1929,13 +1931,13 @@
       <c r="B102" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102" s="1">
         <v>-0.082911700010299683</v>
       </c>
-      <c r="D102" s="0">
+      <c r="D102" s="1">
         <v>-0.25029918551445007</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102" s="1">
         <v>0.084475800395011902</v>
       </c>
     </row>
@@ -1946,13 +1948,13 @@
       <c r="B103" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103" s="1">
         <v>-0.30285158753395081</v>
       </c>
-      <c r="D103" s="0">
+      <c r="D103" s="1">
         <v>-0.60115867853164673</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103" s="1">
         <v>-0.0045444001443684101</v>
       </c>
     </row>
@@ -1963,13 +1965,13 @@
       <c r="B104" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104" s="1">
         <v>-0.033232599496841431</v>
       </c>
-      <c r="D104" s="0">
+      <c r="D104" s="1">
         <v>-0.082337602972984314</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104" s="1">
         <v>0.015872400254011154</v>
       </c>
     </row>
@@ -1980,13 +1982,13 @@
       <c r="B105" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105" s="1">
         <v>-0.051409400999546051</v>
       </c>
-      <c r="D105" s="0">
+      <c r="D105" s="1">
         <v>-0.10298120230436325</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105" s="1">
         <v>0.00016239999968092889</v>
       </c>
     </row>
@@ -1997,13 +1999,13 @@
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106" s="1">
         <v>-0.063374698162078857</v>
       </c>
-      <c r="D106" s="0">
+      <c r="D106" s="1">
         <v>-0.1118977963924408</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106" s="1">
         <v>-0.014851599931716919</v>
       </c>
     </row>
@@ -2014,13 +2016,13 @@
       <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107" s="1">
         <v>-0.071840003132820129</v>
       </c>
-      <c r="D107" s="0">
+      <c r="D107" s="1">
         <v>-0.12544029951095581</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107" s="1">
         <v>-0.018239699304103851</v>
       </c>
     </row>
@@ -2031,13 +2033,13 @@
       <c r="B108" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108" s="1">
         <v>-0.09329339861869812</v>
       </c>
-      <c r="D108" s="0">
+      <c r="D108" s="1">
         <v>-0.14893439412117004</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108" s="1">
         <v>-0.037652399390935898</v>
       </c>
     </row>
@@ -2048,13 +2050,13 @@
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109" s="1">
         <v>-0.075594097375869751</v>
       </c>
-      <c r="D109" s="0">
+      <c r="D109" s="1">
         <v>-0.17764079570770264</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109" s="1">
         <v>0.026452699676156044</v>
       </c>
     </row>
@@ -2065,13 +2067,13 @@
       <c r="B110" t="s">
         <v>14</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110" s="1">
         <v>-0.19842860102653503</v>
       </c>
-      <c r="D110" s="0">
+      <c r="D110" s="1">
         <v>-0.32032018899917603</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110" s="1">
         <v>-0.076536998152732849</v>
       </c>
     </row>
@@ -2082,13 +2084,13 @@
       <c r="B111" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111" s="1">
         <v>-0.21864299476146698</v>
       </c>
-      <c r="D111" s="0">
+      <c r="D111" s="1">
         <v>-0.35286828875541687</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111" s="1">
         <v>-0.08441770076751709</v>
       </c>
     </row>
@@ -2099,13 +2101,13 @@
       <c r="B112" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112" s="1">
         <v>-0.21136459708213806</v>
       </c>
-      <c r="D112" s="0">
+      <c r="D112" s="1">
         <v>-0.28460720181465149</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112" s="1">
         <v>-0.13812209665775299</v>
       </c>
     </row>
@@ -2116,13 +2118,13 @@
       <c r="B113" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113" s="1">
         <v>-0.1720225065946579</v>
       </c>
-      <c r="D113" s="0">
+      <c r="D113" s="1">
         <v>-0.24977929890155792</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113" s="1">
         <v>-0.09426560252904892</v>
       </c>
     </row>
@@ -2133,13 +2135,13 @@
       <c r="B114" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114" s="1">
         <v>-0.28620550036430359</v>
       </c>
-      <c r="D114" s="0">
+      <c r="D114" s="1">
         <v>-0.3914732038974762</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114" s="1">
         <v>-0.18093790113925934</v>
       </c>
     </row>
@@ -2150,13 +2152,13 @@
       <c r="B115" t="s">
         <v>14</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115" s="1">
         <v>-0.14190979301929474</v>
       </c>
-      <c r="D115" s="0">
+      <c r="D115" s="1">
         <v>-0.35764870047569275</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115" s="1">
         <v>0.073829002678394318</v>
       </c>
     </row>
@@ -2167,13 +2169,13 @@
       <c r="B116" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116" s="1">
         <v>0.0080816000699996948</v>
       </c>
-      <c r="D116" s="0">
+      <c r="D116" s="1">
         <v>-0.064301900565624237</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116" s="1">
         <v>0.080465100705623627</v>
       </c>
     </row>
@@ -2184,13 +2186,13 @@
       <c r="B117" t="s">
         <v>15</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117" s="1">
         <v>0.049734398722648621</v>
       </c>
-      <c r="D117" s="0">
+      <c r="D117" s="1">
         <v>-0.031059300526976585</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117" s="1">
         <v>0.13052810728549957</v>
       </c>
     </row>
@@ -2201,13 +2203,13 @@
       <c r="B118" t="s">
         <v>15</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118" s="1">
         <v>0.068941600620746613</v>
       </c>
-      <c r="D118" s="0">
+      <c r="D118" s="1">
         <v>-0.0056623001582920551</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118" s="1">
         <v>0.14354559779167175</v>
       </c>
     </row>
@@ -2218,13 +2220,13 @@
       <c r="B119" t="s">
         <v>15</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119" s="1">
         <v>0.078925102949142456</v>
       </c>
-      <c r="D119" s="0">
+      <c r="D119" s="1">
         <v>-0.0025190999731421471</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119" s="1">
         <v>0.1603693962097168</v>
       </c>
     </row>
@@ -2235,13 +2237,13 @@
       <c r="B120" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120" s="1">
         <v>0.12155299633741379</v>
       </c>
-      <c r="D120" s="0">
+      <c r="D120" s="1">
         <v>0.042662199586629868</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120" s="1">
         <v>0.2004438042640686</v>
       </c>
     </row>
@@ -2252,13 +2254,13 @@
       <c r="B121" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121" s="1">
         <v>0.069351702928543091</v>
       </c>
-      <c r="D121" s="0">
+      <c r="D121" s="1">
         <v>-0.051713798195123672</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121" s="1">
         <v>0.1904170960187912</v>
       </c>
     </row>
@@ -2269,13 +2271,13 @@
       <c r="B122" t="s">
         <v>18</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122" s="1">
         <v>0.011527099646627903</v>
       </c>
-      <c r="D122" s="0">
+      <c r="D122" s="1">
         <v>-0.049515798687934875</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122" s="1">
         <v>0.072569899260997772</v>
       </c>
     </row>
@@ -2286,13 +2288,13 @@
       <c r="B123" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123" s="1">
         <v>-0.0086843995377421379</v>
       </c>
-      <c r="D123" s="0">
+      <c r="D123" s="1">
         <v>-0.062157798558473587</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123" s="1">
         <v>0.04478909820318222</v>
       </c>
     </row>
@@ -2303,13 +2305,13 @@
       <c r="B124" t="s">
         <v>18</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124" s="1">
         <v>-0.031061200425028801</v>
       </c>
-      <c r="D124" s="0">
+      <c r="D124" s="1">
         <v>-0.072899296879768372</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124" s="1">
         <v>0.010777000337839127</v>
       </c>
     </row>
@@ -2320,13 +2322,13 @@
       <c r="B125" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125" s="1">
         <v>-0.063822999596595764</v>
       </c>
-      <c r="D125" s="0">
+      <c r="D125" s="1">
         <v>-0.10928530246019363</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125" s="1">
         <v>-0.018360799178481102</v>
       </c>
     </row>
@@ -2337,13 +2339,13 @@
       <c r="B126" t="s">
         <v>18</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126" s="1">
         <v>-0.059255801141262054</v>
       </c>
-      <c r="D126" s="0">
+      <c r="D126" s="1">
         <v>-0.11425860226154327</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126" s="1">
         <v>-0.004253000020980835</v>
       </c>
     </row>
@@ -2354,13 +2356,13 @@
       <c r="B127" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127" s="1">
         <v>-0.08315189927816391</v>
       </c>
-      <c r="D127" s="0">
+      <c r="D127" s="1">
         <v>-0.15886589884757996</v>
       </c>
-      <c r="E127" s="0">
+      <c r="E127" s="1">
         <v>-0.0074379001744091511</v>
       </c>
     </row>
@@ -2371,13 +2373,13 @@
       <c r="B128" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128" s="1">
         <v>-0.28803971409797668</v>
       </c>
-      <c r="D128" s="0">
+      <c r="D128" s="1">
         <v>-0.43633389472961426</v>
       </c>
-      <c r="E128" s="0">
+      <c r="E128" s="1">
         <v>-0.13974550366401672</v>
       </c>
     </row>
@@ -2388,13 +2390,13 @@
       <c r="B129" t="s">
         <v>19</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129" s="1">
         <v>-0.31275489926338196</v>
       </c>
-      <c r="D129" s="0">
+      <c r="D129" s="1">
         <v>-0.47169199585914612</v>
       </c>
-      <c r="E129" s="0">
+      <c r="E129" s="1">
         <v>-0.1538178026676178</v>
       </c>
     </row>
@@ -2405,13 +2407,13 @@
       <c r="B130" t="s">
         <v>19</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130" s="1">
         <v>-0.32570910453796387</v>
       </c>
-      <c r="D130" s="0">
+      <c r="D130" s="1">
         <v>-0.48825448751449585</v>
       </c>
-      <c r="E130" s="0">
+      <c r="E130" s="1">
         <v>-0.16316360235214233</v>
       </c>
     </row>
@@ -2422,13 +2424,13 @@
       <c r="B131" t="s">
         <v>19</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131" s="1">
         <v>-0.30696290731430054</v>
       </c>
-      <c r="D131" s="0">
+      <c r="D131" s="1">
         <v>-0.49264359474182129</v>
       </c>
-      <c r="E131" s="0">
+      <c r="E131" s="1">
         <v>-0.12128219753503799</v>
       </c>
     </row>
@@ -2439,13 +2441,13 @@
       <c r="B132" t="s">
         <v>19</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132" s="1">
         <v>-0.32761558890342712</v>
       </c>
-      <c r="D132" s="0">
+      <c r="D132" s="1">
         <v>-0.55175948143005371</v>
       </c>
-      <c r="E132" s="0">
+      <c r="E132" s="1">
         <v>-0.10347159951925278</v>
       </c>
     </row>
@@ -2456,13 +2458,13 @@
       <c r="B133" t="s">
         <v>19</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133" s="1">
         <v>-0.30382460355758667</v>
       </c>
-      <c r="D133" s="0">
+      <c r="D133" s="1">
         <v>-0.60693228244781494</v>
       </c>
-      <c r="E133" s="0">
+      <c r="E133" s="1">
         <v>-0.00071679998654872179</v>
       </c>
     </row>
@@ -2473,13 +2475,13 @@
       <c r="B134" t="s">
         <v>20</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134" s="1">
         <v>-0.11842170357704163</v>
       </c>
-      <c r="D134" s="0">
+      <c r="D134" s="1">
         <v>-0.20130950212478638</v>
       </c>
-      <c r="E134" s="0">
+      <c r="E134" s="1">
         <v>-0.035533998161554337</v>
       </c>
     </row>
@@ -2490,13 +2492,13 @@
       <c r="B135" t="s">
         <v>20</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135" s="1">
         <v>-0.12045329809188843</v>
       </c>
-      <c r="D135" s="0">
+      <c r="D135" s="1">
         <v>-0.20358340442180634</v>
       </c>
-      <c r="E135" s="0">
+      <c r="E135" s="1">
         <v>-0.037323199212551117</v>
       </c>
     </row>
@@ -2507,13 +2509,13 @@
       <c r="B136" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136" s="1">
         <v>-0.12224339693784714</v>
       </c>
-      <c r="D136" s="0">
-        <v>-0.20943069458007813</v>
-      </c>
-      <c r="E136" s="0">
+      <c r="D136" s="1">
+        <v>-0.20943069458007812</v>
+      </c>
+      <c r="E136" s="1">
         <v>-0.035056199878454208</v>
       </c>
     </row>
@@ -2524,13 +2526,13 @@
       <c r="B137" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137" s="1">
         <v>-0.12185929715633392</v>
       </c>
-      <c r="D137" s="0">
+      <c r="D137" s="1">
         <v>-0.21153199672698975</v>
       </c>
-      <c r="E137" s="0">
+      <c r="E137" s="1">
         <v>-0.032186601310968399</v>
       </c>
     </row>
@@ -2541,13 +2543,13 @@
       <c r="B138" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138" s="1">
         <v>-0.12546789646148682</v>
       </c>
-      <c r="D138" s="0">
+      <c r="D138" s="1">
         <v>-0.21812550723552704</v>
       </c>
-      <c r="E138" s="0">
+      <c r="E138" s="1">
         <v>-0.032810401171445847</v>
       </c>
     </row>
@@ -2558,13 +2560,13 @@
       <c r="B139" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139" s="1">
         <v>-0.1274556964635849</v>
       </c>
-      <c r="D139" s="0">
+      <c r="D139" s="1">
         <v>-0.22088049352169037</v>
       </c>
-      <c r="E139" s="0">
+      <c r="E139" s="1">
         <v>-0.034030899405479431</v>
       </c>
     </row>
@@ -2575,13 +2577,13 @@
       <c r="B140" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140" s="1">
         <v>0.0011742999777197838</v>
       </c>
-      <c r="D140" s="0">
+      <c r="D140" s="1">
         <v>-0.036519799381494522</v>
       </c>
-      <c r="E140" s="0">
+      <c r="E140" s="1">
         <v>0.03886830061674118</v>
       </c>
     </row>
@@ -2592,13 +2594,13 @@
       <c r="B141" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141" s="1">
         <v>0.021168999373912811</v>
       </c>
-      <c r="D141" s="0">
+      <c r="D141" s="1">
         <v>-0.016581600531935692</v>
       </c>
-      <c r="E141" s="0">
+      <c r="E141" s="1">
         <v>0.058919601142406464</v>
       </c>
     </row>
@@ -2609,13 +2611,13 @@
       <c r="B142" t="s">
         <v>9</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142" s="1">
         <v>0.023247199133038521</v>
       </c>
-      <c r="D142" s="0">
+      <c r="D142" s="1">
         <v>-0.011351499706506729</v>
       </c>
-      <c r="E142" s="0">
+      <c r="E142" s="1">
         <v>0.057845998555421829</v>
       </c>
     </row>
@@ -2626,13 +2628,13 @@
       <c r="B143" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143" s="1">
         <v>0.026719400659203529</v>
       </c>
-      <c r="D143" s="0">
+      <c r="D143" s="1">
         <v>-0.017189500853419304</v>
       </c>
-      <c r="E143" s="0">
+      <c r="E143" s="1">
         <v>0.070628203451633453</v>
       </c>
     </row>
@@ -2643,13 +2645,13 @@
       <c r="B144" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144" s="1">
         <v>0.020646700635552406</v>
       </c>
-      <c r="D144" s="0">
+      <c r="D144" s="1">
         <v>-0.017602499574422836</v>
       </c>
-      <c r="E144" s="0">
+      <c r="E144" s="1">
         <v>0.05889580026268959</v>
       </c>
     </row>
@@ -2660,13 +2662,13 @@
       <c r="B145" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="0">
+      <c r="C145" s="1">
         <v>0.020179999992251396</v>
       </c>
-      <c r="D145" s="0">
+      <c r="D145" s="1">
         <v>-0.018105700612068176</v>
       </c>
-      <c r="E145" s="0">
+      <c r="E145" s="1">
         <v>0.058465801179409027</v>
       </c>
     </row>
@@ -2677,13 +2679,13 @@
       <c r="B146" t="s">
         <v>16</v>
       </c>
-      <c r="C146" s="0">
+      <c r="C146" s="1">
         <v>-0.085221201181411743</v>
       </c>
-      <c r="D146" s="0">
+      <c r="D146" s="1">
         <v>-0.16009250283241272</v>
       </c>
-      <c r="E146" s="0">
+      <c r="E146" s="1">
         <v>-0.010349799878895283</v>
       </c>
     </row>
@@ -2694,13 +2696,13 @@
       <c r="B147" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="0">
+      <c r="C147" s="1">
         <v>0.01472609955817461</v>
       </c>
-      <c r="D147" s="0">
+      <c r="D147" s="1">
         <v>-0.056175298988819122</v>
       </c>
-      <c r="E147" s="0">
+      <c r="E147" s="1">
         <v>0.085627399384975433</v>
       </c>
     </row>
@@ -2711,13 +2713,13 @@
       <c r="B148" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="0">
+      <c r="C148" s="1">
         <v>-0.30423951148986816</v>
       </c>
-      <c r="D148" s="0">
+      <c r="D148" s="1">
         <v>-0.59496891498565674</v>
       </c>
-      <c r="E148" s="0">
+      <c r="E148" s="1">
         <v>-0.013509999960660934</v>
       </c>
     </row>
@@ -2728,13 +2730,13 @@
       <c r="B149" t="s">
         <v>16</v>
       </c>
-      <c r="C149" s="0">
+      <c r="C149" s="1">
         <v>-0.078261397778987885</v>
       </c>
-      <c r="D149" s="0">
+      <c r="D149" s="1">
         <v>-0.16806450486183167</v>
       </c>
-      <c r="E149" s="0">
+      <c r="E149" s="1">
         <v>0.01154169999063015</v>
       </c>
     </row>
@@ -2745,13 +2747,13 @@
       <c r="B150" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="0">
+      <c r="C150" s="1">
         <v>-0.065064698457717896</v>
       </c>
-      <c r="D150" s="0">
+      <c r="D150" s="1">
         <v>-0.21074590086936951</v>
       </c>
-      <c r="E150" s="0">
+      <c r="E150" s="1">
         <v>0.080616496503353119</v>
       </c>
     </row>
@@ -2762,13 +2764,13 @@
       <c r="B151" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="0">
+      <c r="C151" s="1">
         <v>-0.21668089926242828</v>
       </c>
-      <c r="D151" s="0">
+      <c r="D151" s="1">
         <v>-0.43788638710975647</v>
       </c>
-      <c r="E151" s="0">
+      <c r="E151" s="1">
         <v>0.0045245001092553139</v>
       </c>
     </row>
@@ -2779,13 +2781,13 @@
       <c r="B152" t="s">
         <v>16</v>
       </c>
-      <c r="C152" s="0">
+      <c r="C152" s="1">
         <v>-0.083214700222015381</v>
       </c>
-      <c r="D152" s="0">
+      <c r="D152" s="1">
         <v>-0.16699209809303284</v>
       </c>
-      <c r="E152" s="0">
+      <c r="E152" s="1">
         <v>0.00056279997806996107</v>
       </c>
     </row>
@@ -2796,13 +2798,13 @@
       <c r="B153" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="0">
+      <c r="C153" s="1">
         <v>-0.056018300354480743</v>
       </c>
-      <c r="D153" s="0">
+      <c r="D153" s="1">
         <v>-0.19589079916477203</v>
       </c>
-      <c r="E153" s="0">
+      <c r="E153" s="1">
         <v>0.083854101598262787</v>
       </c>
     </row>
@@ -2813,13 +2815,13 @@
       <c r="B154" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="0">
+      <c r="C154" s="1">
         <v>-0.18065080046653748</v>
       </c>
-      <c r="D154" s="0">
+      <c r="D154" s="1">
         <v>-0.36763650178909302</v>
       </c>
-      <c r="E154" s="0">
+      <c r="E154" s="1">
         <v>0.0063347998075187206</v>
       </c>
     </row>
@@ -2830,13 +2832,13 @@
       <c r="B155" t="s">
         <v>16</v>
       </c>
-      <c r="C155" s="0">
+      <c r="C155" s="1">
         <v>-0.085748203098773956</v>
       </c>
-      <c r="D155" s="0">
+      <c r="D155" s="1">
         <v>-0.16503910720348358</v>
       </c>
-      <c r="E155" s="0">
+      <c r="E155" s="1">
         <v>-0.0064574000425636768</v>
       </c>
     </row>
@@ -2847,13 +2849,13 @@
       <c r="B156" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="0">
+      <c r="C156" s="1">
         <v>-0.080451697111129761</v>
       </c>
-      <c r="D156" s="0">
+      <c r="D156" s="1">
         <v>-0.21725210547447205</v>
       </c>
-      <c r="E156" s="0">
+      <c r="E156" s="1">
         <v>0.056348800659179688</v>
       </c>
     </row>
@@ -2864,13 +2866,13 @@
       <c r="B157" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="0">
+      <c r="C157" s="1">
         <v>-0.1414840966463089</v>
       </c>
-      <c r="D157" s="0">
+      <c r="D157" s="1">
         <v>-0.29155060648918152</v>
       </c>
-      <c r="E157" s="0">
+      <c r="E157" s="1">
         <v>0.0085824001580476761</v>
       </c>
     </row>
@@ -2881,13 +2883,13 @@
       <c r="B158" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="0">
+      <c r="C158" s="1">
         <v>-0.095031403005123138</v>
       </c>
-      <c r="D158" s="0">
+      <c r="D158" s="1">
         <v>-0.15572540462017059</v>
       </c>
-      <c r="E158" s="0">
+      <c r="E158" s="1">
         <v>-0.034337300807237625</v>
       </c>
     </row>
@@ -2898,13 +2900,13 @@
       <c r="B159" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="0">
+      <c r="C159" s="1">
         <v>-0.080035299062728882</v>
       </c>
-      <c r="D159" s="0">
+      <c r="D159" s="1">
         <v>-0.19611060619354248</v>
       </c>
-      <c r="E159" s="0">
+      <c r="E159" s="1">
         <v>0.03604000061750412</v>
       </c>
     </row>
@@ -2915,13 +2917,13 @@
       <c r="B160" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="0">
+      <c r="C160" s="1">
         <v>-0.10340250283479691</v>
       </c>
-      <c r="D160" s="0">
+      <c r="D160" s="1">
         <v>-0.22275279462337494</v>
       </c>
-      <c r="E160" s="0">
+      <c r="E160" s="1">
         <v>0.015947699546813965</v>
       </c>
     </row>
@@ -2932,13 +2934,13 @@
       <c r="B161" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="0">
+      <c r="C161" s="1">
         <v>-0.091561801731586456</v>
       </c>
-      <c r="D161" s="0">
+      <c r="D161" s="1">
         <v>-0.14560990035533905</v>
       </c>
-      <c r="E161" s="0">
+      <c r="E161" s="1">
         <v>-0.037513699382543564</v>
       </c>
     </row>
@@ -2949,13 +2951,13 @@
       <c r="B162" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="0">
+      <c r="C162" s="1">
         <v>-0.065582200884819031</v>
       </c>
-      <c r="D162" s="0">
+      <c r="D162" s="1">
         <v>-0.1693217009305954</v>
       </c>
-      <c r="E162" s="0">
+      <c r="E162" s="1">
         <v>0.038157299160957336</v>
       </c>
     </row>
@@ -2966,13 +2968,13 @@
       <c r="B163" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="0">
+      <c r="C163" s="1">
         <v>-0.1187869980931282</v>
       </c>
-      <c r="D163" s="0">
+      <c r="D163" s="1">
         <v>-0.23786389827728271</v>
       </c>
-      <c r="E163" s="0">
+      <c r="E163" s="1">
         <v>0.00028989999555051327</v>
       </c>
     </row>
@@ -3009,1843 +3011,1843 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
+      <c r="A2" s="1">
+        <v>0.31242668628692627</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.057532701641321182</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="0">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0">
-        <v>0</v>
-      </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.42519080638885498</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.19966259598731995</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>0</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0</v>
+      <c r="A3" s="1">
+        <v>0.31771978735923767</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.059151899069547653</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0</v>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.43365749716758728</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.20178210735321045</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>0</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
+      <c r="A4" s="1">
+        <v>0.32881000638008118</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.057643800973892212</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="0">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.44179189205169678</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.21582819521427155</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>0</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
+      <c r="A5" s="1">
+        <v>0.3129630982875824</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.056690998375415802</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42407751083374023</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20184870064258575</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0">
-        <v>0</v>
+      <c r="A6" s="1">
+        <v>0.30241191387176514</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.052970800548791885</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="0">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.40623471140861511</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.19858910143375397</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <v>0</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0</v>
+      <c r="A7" s="1">
+        <v>0.30820810794830322</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.051752600818872452</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="0">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0">
-        <v>0</v>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.40964320302009583</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.20677299797534943</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0">
-        <v>0</v>
+      <c r="A8" s="1">
+        <v>0.29797831177711487</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.050005901604890823</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="0">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0">
-        <v>0</v>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.39598989486694336</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.19996669888496399</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <v>0</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0</v>
+      <c r="A9" s="1">
+        <v>0.27604091167449951</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.04835129901766777</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="0">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0</v>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.37080949544906616</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.18127240240573883</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <v>0</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0">
-        <v>0</v>
+      <c r="A10" s="1">
+        <v>0.26587009429931641</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.049307599663734436</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="0">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0</v>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.36251300573348999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.16922719776630402</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <v>0</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0">
-        <v>0</v>
+      <c r="A11" s="1">
+        <v>0.25289979577064514</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.04868520051240921</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="0">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0</v>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.34832280874252319</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.15747679769992828</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>0</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0</v>
+      <c r="A12" s="1">
+        <v>0.23343589901924133</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.043830398470163345</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="0">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0">
-        <v>0</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.31934350728988647</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.14752830564975739</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <v>0</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0</v>
+      <c r="A13" s="1">
+        <v>0.21772889792919159</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.042051300406455994</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="0">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0">
-        <v>0</v>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.30014941096305847</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1353083997964859</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <v>0</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0">
-        <v>0</v>
+      <c r="A14" s="1">
+        <v>0.20527069270610809</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.040737301111221313</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="0">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0">
-        <v>0</v>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.2851158082485199</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.12542560696601868</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <v>0</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0">
-        <v>0</v>
+      <c r="A15" s="1">
+        <v>0.19401110708713531</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.040597699582576752</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="0">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0">
-        <v>0</v>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.27358260750770569</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11443959921598434</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <v>0</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0">
-        <v>0</v>
+      <c r="A16" s="1">
+        <v>0.18467999994754791</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.039184499531984329</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="0">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0">
-        <v>0</v>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.26148161292076111</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.10787840187549591</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <v>0</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0">
-        <v>0</v>
+      <c r="A17" s="1">
+        <v>0.17672860622406006</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.038286600261926651</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="0">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0">
-        <v>0</v>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.25177028775215149</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.10168690234422684</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <v>0.34746518731117249</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.033178601413965225</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="A18" s="1">
+        <v>0.34866610169410706</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.033772598952054977</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.20000000298023224</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="0">
-        <v>2</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0.41249528527259827</v>
-      </c>
-      <c r="G18" s="0">
-        <v>0.2824350893497467</v>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.41486039757728577</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.28247180581092834</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0">
-        <v>0.37686300277709961</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0.035720501095056534</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="A19" s="1">
+        <v>0.37579119205474854</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.036610398441553116</v>
+      </c>
+      <c r="C19" s="1">
         <v>1.2000000476837158</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="0">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0.44687521457672119</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0.30685079097747803</v>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.44754761457443237</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.30403479933738708</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>0.39690360426902771</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0.043094001710414886</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="A20" s="1">
+        <v>0.39608511328697205</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.041570801287889481</v>
+      </c>
+      <c r="C20" s="1">
         <v>2.2000000476837158</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="0">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0.48136788606643677</v>
-      </c>
-      <c r="G20" s="0">
-        <v>0.31243941187858582</v>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.47756388783454895</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.31460630893707275</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>0.41696760058403015</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0.039848800748586655</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="A21" s="1">
+        <v>0.41743719577789307</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.038744501769542694</v>
+      </c>
+      <c r="C21" s="1">
         <v>3.2000000476837158</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="0">
-        <v>2</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0.49507129192352295</v>
-      </c>
-      <c r="G21" s="0">
-        <v>0.33886390924453735</v>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.49337640404701233</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.3414979875087738</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>0.43678310513496399</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0.041010398417711258</v>
-      </c>
-      <c r="C22" s="0">
+      <c r="A22" s="1">
+        <v>0.43490129709243774</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.04043550044298172</v>
+      </c>
+      <c r="C22" s="1">
         <v>4.1999998092651367</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="0">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0.51716351509094238</v>
-      </c>
-      <c r="G22" s="0">
-        <v>0.3564026951789856</v>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.51415491104125977</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.35564771294593811</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0">
-        <v>0.42289999127388</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.040379200130701065</v>
-      </c>
-      <c r="C23" s="0">
+      <c r="A23" s="1">
+        <v>0.42491531372070312</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.040017899125814438</v>
+      </c>
+      <c r="C23" s="1">
         <v>5.1999998092651367</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="0">
-        <v>2</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0.50204318761825562</v>
-      </c>
-      <c r="G23" s="0">
-        <v>0.34375679492950439</v>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.50335037708282471</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.34648019075393677</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0">
-        <v>0.42353799939155579</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.040392998605966568</v>
-      </c>
-      <c r="C24" s="0">
+      <c r="A24" s="1">
+        <v>0.42644131183624268</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.040100198239088058</v>
+      </c>
+      <c r="C24" s="1">
         <v>6.1999998092651367</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="0">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0.5027083158493042</v>
-      </c>
-      <c r="G24" s="0">
-        <v>0.34436771273612976</v>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.50503772497177124</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.34784489870071411</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>0.39814010262489319</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.038309801369905472</v>
-      </c>
-      <c r="C25" s="0">
+      <c r="A25" s="1">
+        <v>0.39878928661346436</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.037564899772405624</v>
+      </c>
+      <c r="C25" s="1">
         <v>7.1999998092651367</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="0">
-        <v>2</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0.47322729229927063</v>
-      </c>
-      <c r="G25" s="0">
-        <v>0.32305291295051575</v>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.47241649031639099</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.32516211271286011</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0">
-        <v>0.36208769679069519</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.034304298460483551</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="A26" s="1">
+        <v>0.36245408654212952</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.036159399896860123</v>
+      </c>
+      <c r="C26" s="1">
         <v>8.1999998092651367</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="0">
-        <v>2</v>
-      </c>
-      <c r="F26" s="0">
-        <v>0.42932409048080444</v>
-      </c>
-      <c r="G26" s="0">
-        <v>0.29485130310058594</v>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.43332651257514954</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.29158169031143188</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0">
-        <v>0.34748819470405579</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.034906700253486633</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="A27" s="1">
+        <v>0.34716939926147461</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.034727800637483597</v>
+      </c>
+      <c r="C27" s="1">
         <v>9.1999998092651367</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="0">
-        <v>2</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0.41590529680252075</v>
-      </c>
-      <c r="G27" s="0">
-        <v>0.27907109260559082</v>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.41523590683937073</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.27910289168357849</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0">
-        <v>0.33672469854354858</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.03242579847574234</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="A28" s="1">
+        <v>0.33571040630340576</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.033819198608398438</v>
+      </c>
+      <c r="C28" s="1">
         <v>10.199999809265137</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="0">
-        <v>2</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0.40027931332588196</v>
-      </c>
-      <c r="G28" s="0">
-        <v>0.2731701135635376</v>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.40199598670005798</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.26942479610443115</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0">
-        <v>0.32296329736709595</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.03399369865655899</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="A29" s="1">
+        <v>0.32486748695373535</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.032749198377132416</v>
+      </c>
+      <c r="C29" s="1">
         <v>11.199999809265137</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="0">
-        <v>2</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0.38959088921546936</v>
-      </c>
-      <c r="G29" s="0">
-        <v>0.25633558630943298</v>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.38905590772628784</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.26067909598350525</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0">
-        <v>0.31146660447120667</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.031351599842309952</v>
-      </c>
-      <c r="C30" s="0">
+      <c r="A30" s="1">
+        <v>0.31122028827667236</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.031862899661064148</v>
+      </c>
+      <c r="C30" s="1">
         <v>12.199999809265137</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="0">
-        <v>2</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0.37291568517684937</v>
-      </c>
-      <c r="G30" s="0">
-        <v>0.25001749396324158</v>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.37367159128189087</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.24876900017261505</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0">
-        <v>0.30895420908927917</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.033208098262548447</v>
-      </c>
-      <c r="C31" s="0">
+      <c r="A31" s="1">
+        <v>0.30923759937286377</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.03207780048251152</v>
+      </c>
+      <c r="C31" s="1">
         <v>13.199999809265137</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="0">
-        <v>2</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0.3740420937538147</v>
-      </c>
-      <c r="G31" s="0">
-        <v>0.24386629462242126</v>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.37211009860038757</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.24636510014533997</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0">
-        <v>0.30937731266021729</v>
-      </c>
-      <c r="B32" s="0">
-        <v>0.032332498580217361</v>
-      </c>
-      <c r="C32" s="0">
+      <c r="A32" s="1">
+        <v>0.30947938561439514</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.033002998679876328</v>
+      </c>
+      <c r="C32" s="1">
         <v>14.199999809265137</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="0">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0.37274900078773499</v>
-      </c>
-      <c r="G32" s="0">
-        <v>0.2460055947303772</v>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.37416529655456543</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.24479350447654724</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0">
-        <v>0.29045650362968445</v>
-      </c>
-      <c r="B33" s="0">
-        <v>0.032064501196146011</v>
-      </c>
-      <c r="C33" s="0">
+      <c r="A33" s="1">
+        <v>0.2926047146320343</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.032569199800491333</v>
+      </c>
+      <c r="C33" s="1">
         <v>15.199999809265137</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="0">
-        <v>2</v>
-      </c>
-      <c r="F33" s="0">
-        <v>0.35330289602279663</v>
-      </c>
-      <c r="G33" s="0">
-        <v>0.22761009633541107</v>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.35644030570983887</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.22876909375190735</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0">
+      <c r="A34" s="1">
         <v>0.280570387840271</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34" s="1">
         <v>0.061418000608682632</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34" s="1">
         <v>0.40000000596046448</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="0">
-        <v>4</v>
-      </c>
-      <c r="F34" s="0">
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
         <v>0.40094968676567078</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34" s="1">
         <v>0.16019110381603241</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0">
+      <c r="A35" s="1">
         <v>0.29767811298370361</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35" s="1">
         <v>0.060981899499893188</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35" s="1">
         <v>1.3999999761581421</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="0">
-        <v>4</v>
-      </c>
-      <c r="F35" s="0">
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
         <v>0.41720259189605713</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35" s="1">
         <v>0.17815360426902771</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0">
+      <c r="A36" s="1">
         <v>0.30145010352134705</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36" s="1">
         <v>0.060592301189899445</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36" s="1">
         <v>2.4000000953674316</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="0">
-        <v>4</v>
-      </c>
-      <c r="F36" s="0">
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
         <v>0.42021098732948303</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36" s="1">
         <v>0.18268920481204987</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0">
+      <c r="A37" s="1">
         <v>0.31369748711585999</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37" s="1">
         <v>0.056942898780107498</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37" s="1">
         <v>3.4000000953674316</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="0">
-        <v>4</v>
-      </c>
-      <c r="F37" s="0">
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
         <v>0.42530560493469238</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37" s="1">
         <v>0.20208939909934998</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
+      <c r="A38" s="1">
         <v>0.30930599570274353</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38" s="1">
         <v>0.058117099106311798</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38" s="1">
         <v>4.4000000953674316</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="0">
-        <v>4</v>
-      </c>
-      <c r="F38" s="0">
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
         <v>0.42321550846099854</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38" s="1">
         <v>0.19539649784564972</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0">
+      <c r="A39" s="1">
         <v>0.28975668549537659</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39" s="1">
         <v>0.058439701795578003</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39" s="1">
         <v>5.4000000953674316</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="0">
-        <v>4</v>
-      </c>
-      <c r="F39" s="0">
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
         <v>0.40429851412773132</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39" s="1">
         <v>0.17521490156650543</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0">
+      <c r="A40" s="1">
         <v>0.2875497043132782</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40" s="1">
         <v>0.059206601232290268</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40" s="1">
         <v>6.4000000953674316</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="0">
-        <v>4</v>
-      </c>
-      <c r="F40" s="0">
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
         <v>0.40359461307525635</v>
       </c>
-      <c r="G40" s="0">
+      <c r="G40" s="1">
         <v>0.17150479555130005</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0">
+      <c r="A41" s="1">
         <v>0.2675108015537262</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41" s="1">
         <v>0.059342101216316223</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41" s="1">
         <v>7.4000000953674316</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="0">
-        <v>4</v>
-      </c>
-      <c r="F41" s="0">
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
         <v>0.38382130861282349</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41" s="1">
         <v>0.15120029449462891</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0">
+      <c r="A42" s="1">
         <v>0.24179549515247345</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42" s="1">
         <v>0.059508699923753738</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42" s="1">
         <v>8.3999996185302734</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="0">
-        <v>4</v>
-      </c>
-      <c r="F42" s="0">
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
         <v>0.3584325909614563</v>
       </c>
-      <c r="G42" s="0">
+      <c r="G42" s="1">
         <v>0.1251583993434906</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0">
+      <c r="A43" s="1">
         <v>0.22909200191497803</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43" s="1">
         <v>0.059599798172712326</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43" s="1">
         <v>9.3999996185302734</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="0">
-        <v>4</v>
-      </c>
-      <c r="F43" s="0">
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
         <v>0.34590759873390198</v>
       </c>
-      <c r="G43" s="0">
+      <c r="G43" s="1">
         <v>0.11227639764547348</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0">
+      <c r="A44" s="1">
         <v>0.21540489792823792</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44" s="1">
         <v>0.059326998889446259</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44" s="1">
         <v>10.399999618530273</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="0">
-        <v>4</v>
-      </c>
-      <c r="F44" s="0">
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
         <v>0.33168581128120422</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44" s="1">
         <v>0.0991239994764328</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0">
+      <c r="A45" s="1">
         <v>0.21216310560703278</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45" s="1">
         <v>0.057766400277614594</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45" s="1">
         <v>11.399999618530273</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="0">
-        <v>4</v>
-      </c>
-      <c r="F45" s="0">
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
         <v>0.32538521289825439</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45" s="1">
         <v>0.098940998315811157</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0">
+      <c r="A46" s="1">
         <v>0.20137989521026611</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46" s="1">
         <v>0.058563098311424255</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46" s="1">
         <v>12.399999618530273</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="0">
-        <v>4</v>
-      </c>
-      <c r="F46" s="0">
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
         <v>0.31616359949111938</v>
       </c>
-      <c r="G46" s="0">
+      <c r="G46" s="1">
         <v>0.086596198379993439</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0">
+      <c r="A47" s="1">
         <v>0.18796759843826294</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47" s="1">
         <v>0.058849599212408066</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47" s="1">
         <v>13.399999618530273</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="0">
-        <v>4</v>
-      </c>
-      <c r="F47" s="0">
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
         <v>0.30331280827522278</v>
       </c>
-      <c r="G47" s="0">
+      <c r="G47" s="1">
         <v>0.072622403502464294</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0">
+      <c r="A48" s="1">
         <v>0.19035699963569641</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48" s="1">
         <v>0.057244900614023209</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48" s="1">
         <v>14.399999618530273</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="0">
-        <v>4</v>
-      </c>
-      <c r="F48" s="0">
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
         <v>0.30255699157714844</v>
       </c>
-      <c r="G48" s="0">
+      <c r="G48" s="1">
         <v>0.078157000243663788</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0">
+      <c r="A49" s="1">
         <v>0.17919610440731049</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49" s="1">
         <v>0.057498998939990997</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49" s="1">
         <v>15.399999618530273</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="0">
-        <v>4</v>
-      </c>
-      <c r="F49" s="0">
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
         <v>0.29189410805702209</v>
       </c>
-      <c r="G49" s="0">
+      <c r="G49" s="1">
         <v>0.066498100757598877</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0">
+      <c r="A50" s="1">
         <v>0.29338321089744568</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50" s="1">
         <v>0.017437299713492393</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50" s="1">
         <v>0.30000001192092896</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50" s="1">
         <v>0.32756030559539795</v>
       </c>
-      <c r="G50" s="0">
+      <c r="G50" s="1">
         <v>0.25920608639717102</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0">
+      <c r="A51" s="1">
         <v>0.29508820176124573</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51" s="1">
         <v>0.017891800031065941</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51" s="1">
         <v>1.2999999523162842</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51" s="1">
         <v>0.33015608787536621</v>
       </c>
-      <c r="G51" s="0">
+      <c r="G51" s="1">
         <v>0.26002028584480286</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0">
+      <c r="A52" s="1">
         <v>0.28986001014709473</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52" s="1">
         <v>0.017760999500751495</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52" s="1">
         <v>2.2999999523162842</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="1">
         <v>0.32467159628868103</v>
       </c>
-      <c r="G52" s="0">
+      <c r="G52" s="1">
         <v>0.25504851341247559</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0">
+      <c r="A53" s="1">
         <v>0.29024788737297058</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53" s="1">
         <v>0.017896700650453568</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53" s="1">
         <v>3.2999999523162842</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="1">
         <v>0.32532539963722229</v>
       </c>
-      <c r="G53" s="0">
+      <c r="G53" s="1">
         <v>0.25517028570175171</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0">
+      <c r="A54" s="1">
         <v>0.29513809084892273</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54" s="1">
         <v>0.018136100843548775</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54" s="1">
         <v>4.3000001907348633</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="1">
         <v>0.33068481087684631</v>
       </c>
-      <c r="G54" s="0">
+      <c r="G54" s="1">
         <v>0.25959131121635437</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0">
+      <c r="A55" s="1">
         <v>0.29979559779167175</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55" s="1">
         <v>0.018005400896072388</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55" s="1">
         <v>5.3000001907348633</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="1">
         <v>0.33508619666099548</v>
       </c>
-      <c r="G55" s="0">
+      <c r="G55" s="1">
         <v>0.26450499892234802</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0">
+      <c r="A56" s="1">
         <v>0.29152089357376099</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56" s="1">
         <v>0.018393600359559059</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="1">
         <v>6.3000001907348633</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56" s="1">
         <v>0.3275722861289978</v>
       </c>
-      <c r="G56" s="0">
+      <c r="G56" s="1">
         <v>0.25546941161155701</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0">
+      <c r="A57" s="1">
         <v>0.2974143922328949</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57" s="1">
         <v>0.01839509978890419</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="1">
         <v>7.3000001907348633</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="1">
         <v>3</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="1">
         <v>0.33346879482269287</v>
       </c>
-      <c r="G57" s="0">
+      <c r="G57" s="1">
         <v>0.26135998964309692</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0">
+      <c r="A58" s="1">
         <v>0.29235830903053284</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58" s="1">
         <v>0.018755000084638596</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="1">
         <v>8.3000001907348633</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="1">
         <v>3</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="1">
         <v>0.32911810278892517</v>
       </c>
-      <c r="G58" s="0">
+      <c r="G58" s="1">
         <v>0.25559848546981812</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0">
+      <c r="A59" s="1">
         <v>0.29774799942970276</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59" s="1">
         <v>0.018401399254798889</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="1">
         <v>9.3000001907348633</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="1">
         <v>3</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="1">
         <v>0.33381471037864685</v>
       </c>
-      <c r="G59" s="0">
+      <c r="G59" s="1">
         <v>0.26168128848075867</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0">
+      <c r="A60" s="1">
         <v>0.30706891417503357</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60" s="1">
         <v>0.016943000257015228</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="1">
         <v>10.300000190734863</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="1">
         <v>3</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60" s="1">
         <v>0.34027719497680664</v>
       </c>
-      <c r="G60" s="0">
+      <c r="G60" s="1">
         <v>0.27386060357093811</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0">
+      <c r="A61" s="1">
         <v>0.30129900574684143</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61" s="1">
         <v>0.01647149957716465</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="1">
         <v>11.300000190734863</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="1">
         <v>3</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61" s="1">
         <v>0.33358308672904968</v>
       </c>
-      <c r="G61" s="0">
+      <c r="G61" s="1">
         <v>0.26901489496231079</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0">
+      <c r="A62" s="1">
         <v>0.2949163019657135</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62" s="1">
         <v>0.016923399642109871</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="1">
         <v>12.300000190734863</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="1">
         <v>3</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="1">
         <v>0.32808619737625122</v>
       </c>
-      <c r="G62" s="0">
+      <c r="G62" s="1">
         <v>0.26174640655517578</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0">
+      <c r="A63" s="1">
         <v>0.29777848720550537</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63" s="1">
         <v>0.01664000004529953</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="1">
         <v>13.300000190734863</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="1">
         <v>3</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="1">
         <v>0.33039289712905884</v>
       </c>
-      <c r="G63" s="0">
+      <c r="G63" s="1">
         <v>0.26516410708427429</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0">
+      <c r="A64" s="1">
         <v>0.29214221239089966</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64" s="1">
         <v>0.016593899577856064</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="1">
         <v>14.300000190734863</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="1">
         <v>3</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64" s="1">
         <v>0.32466629147529602</v>
       </c>
-      <c r="G64" s="0">
+      <c r="G64" s="1">
         <v>0.25961819291114807</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0">
+      <c r="A65" s="1">
         <v>0.28459128737449646</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65" s="1">
         <v>0.016838500276207924</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="1">
         <v>15.300000190734863</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="1">
         <v>3</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="1">
         <v>0.31759470701217651</v>
       </c>
-      <c r="G65" s="0">
+      <c r="G65" s="1">
         <v>0.25158780813217163</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0">
-        <v>0.32099738717079163</v>
-      </c>
-      <c r="B66" s="0">
-        <v>0.022347800433635712</v>
-      </c>
-      <c r="C66" s="0">
+      <c r="A66" s="1">
+        <v>0.29256859421730042</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.022925399243831635</v>
+      </c>
+      <c r="C66" s="1">
         <v>0.5</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="0">
-        <v>5</v>
-      </c>
-      <c r="F66" s="0">
-        <v>0.36479911208152771</v>
-      </c>
-      <c r="G66" s="0">
-        <v>0.27719569206237793</v>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.33750239014625549</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.24763479828834534</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0">
-        <v>0.31795820593833923</v>
-      </c>
-      <c r="B67" s="0">
-        <v>0.022268999367952347</v>
-      </c>
-      <c r="C67" s="0">
+      <c r="A67" s="1">
+        <v>0.28949031233787537</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.026351600885391235</v>
+      </c>
+      <c r="C67" s="1">
         <v>1.5</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="0">
-        <v>5</v>
-      </c>
-      <c r="F67" s="0">
-        <v>0.36160540580749512</v>
-      </c>
-      <c r="G67" s="0">
-        <v>0.27431100606918335</v>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.34113940596580505</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.23784120380878448</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0">
-        <v>0.32458770275115967</v>
-      </c>
-      <c r="B68" s="0">
-        <v>0.023173099383711815</v>
-      </c>
-      <c r="C68" s="0">
+      <c r="A68" s="1">
+        <v>0.29647868871688843</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.026682199910283089</v>
+      </c>
+      <c r="C68" s="1">
         <v>2.5</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="0">
-        <v>5</v>
-      </c>
-      <c r="F68" s="0">
-        <v>0.37000700831413269</v>
-      </c>
-      <c r="G68" s="0">
-        <v>0.27916839718818665</v>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.34877580404281616</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.24418160319328308</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0">
-        <v>0.32443758845329285</v>
-      </c>
-      <c r="B69" s="0">
-        <v>0.022644000127911568</v>
-      </c>
-      <c r="C69" s="0">
+      <c r="A69" s="1">
+        <v>0.29604721069335938</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.025628900155425072</v>
+      </c>
+      <c r="C69" s="1">
         <v>3.5</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="0">
-        <v>5</v>
-      </c>
-      <c r="F69" s="0">
-        <v>0.36881980299949646</v>
-      </c>
-      <c r="G69" s="0">
-        <v>0.28005531430244446</v>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.34627988934516907</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.24581460654735565</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0">
-        <v>0.32579758763313293</v>
-      </c>
-      <c r="B70" s="0">
-        <v>0.022622900083661079</v>
-      </c>
-      <c r="C70" s="0">
+      <c r="A70" s="1">
+        <v>0.29446598887443542</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.025737399235367775</v>
+      </c>
+      <c r="C70" s="1">
         <v>4.5</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="0">
-        <v>5</v>
-      </c>
-      <c r="F70" s="0">
-        <v>0.3701384961605072</v>
-      </c>
-      <c r="G70" s="0">
-        <v>0.28145670890808105</v>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.34491130709648132</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.24402070045471191</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0">
-        <v>0.32634431123733521</v>
-      </c>
-      <c r="B71" s="0">
-        <v>0.021670600399374962</v>
-      </c>
-      <c r="C71" s="0">
+      <c r="A71" s="1">
+        <v>0.296722412109375</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.024671999737620354</v>
+      </c>
+      <c r="C71" s="1">
         <v>5.5</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="0">
-        <v>5</v>
-      </c>
-      <c r="F71" s="0">
-        <v>0.36881870031356812</v>
-      </c>
-      <c r="G71" s="0">
-        <v>0.28386989235877991</v>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.34507951140403748</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.24836529791355133</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0">
-        <v>0.31835758686065674</v>
-      </c>
-      <c r="B72" s="0">
-        <v>0.021448599174618721</v>
-      </c>
-      <c r="C72" s="0">
+      <c r="A72" s="1">
+        <v>0.28983700275421143</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.026698000729084015</v>
+      </c>
+      <c r="C72" s="1">
         <v>6.5</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="0">
-        <v>5</v>
-      </c>
-      <c r="F72" s="0">
-        <v>0.36039680242538452</v>
-      </c>
-      <c r="G72" s="0">
-        <v>0.27631831169128418</v>
+      <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.34216511249542236</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.23750889301300049</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0">
-        <v>0.32959121465682983</v>
-      </c>
-      <c r="B73" s="0">
-        <v>0.021371699869632721</v>
-      </c>
-      <c r="C73" s="0">
+      <c r="A73" s="1">
+        <v>0.30120968818664551</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.026308299973607063</v>
+      </c>
+      <c r="C73" s="1">
         <v>7.5</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="0">
-        <v>5</v>
-      </c>
-      <c r="F73" s="0">
-        <v>0.37147969007492065</v>
-      </c>
-      <c r="G73" s="0">
-        <v>0.28770270943641663</v>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.3527739942073822</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.24964539706707001</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0">
-        <v>0.32659938931465149</v>
-      </c>
-      <c r="B74" s="0">
-        <v>0.021072300150990486</v>
-      </c>
-      <c r="C74" s="0">
+      <c r="A74" s="1">
+        <v>0.29737439751625061</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.02577890083193779</v>
+      </c>
+      <c r="C74" s="1">
         <v>8.5</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="0">
-        <v>5</v>
-      </c>
-      <c r="F74" s="0">
-        <v>0.36790108680725098</v>
-      </c>
-      <c r="G74" s="0">
-        <v>0.285297691822052</v>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.34790098667144775</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.24684770405292511</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0">
-        <v>0.33198699355125427</v>
-      </c>
-      <c r="B75" s="0">
-        <v>0.021804699674248695</v>
-      </c>
-      <c r="C75" s="0">
+      <c r="A75" s="1">
+        <v>0.30438938736915588</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.027009999379515648</v>
+      </c>
+      <c r="C75" s="1">
         <v>9.5</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="0">
-        <v>5</v>
-      </c>
-      <c r="F75" s="0">
-        <v>0.37472420930862427</v>
-      </c>
-      <c r="G75" s="0">
-        <v>0.28924980759620667</v>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.35732901096343994</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.25144979357719421</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0">
-        <v>0.32885530591011047</v>
-      </c>
-      <c r="B76" s="0">
-        <v>0.020213000476360321</v>
-      </c>
-      <c r="C76" s="0">
+      <c r="A76" s="1">
+        <v>0.30008640885353088</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.026559500023722649</v>
+      </c>
+      <c r="C76" s="1">
         <v>10.5</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="0">
-        <v>5</v>
-      </c>
-      <c r="F76" s="0">
-        <v>0.36847281455993652</v>
-      </c>
-      <c r="G76" s="0">
-        <v>0.28923779726028442</v>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.35214298963546753</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.24802979826927185</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0">
-        <v>0.32469359040260315</v>
-      </c>
-      <c r="B77" s="0">
-        <v>0.019905600696802139</v>
-      </c>
-      <c r="C77" s="0">
+      <c r="A77" s="1">
+        <v>0.29523470997810364</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.023873399943113327</v>
+      </c>
+      <c r="C77" s="1">
         <v>11.5</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="0">
-        <v>5</v>
-      </c>
-      <c r="F77" s="0">
-        <v>0.36370858550071716</v>
-      </c>
-      <c r="G77" s="0">
-        <v>0.28567859530448914</v>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.34202659130096436</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.24844279885292053</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0">
-        <v>0.3218575119972229</v>
-      </c>
-      <c r="B78" s="0">
-        <v>0.018580600619316101</v>
-      </c>
-      <c r="C78" s="0">
+      <c r="A78" s="1">
+        <v>0.29373690485954285</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.024122599512338638</v>
+      </c>
+      <c r="C78" s="1">
         <v>12.5</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="0">
-        <v>5</v>
-      </c>
-      <c r="F78" s="0">
-        <v>0.35827550292015076</v>
-      </c>
-      <c r="G78" s="0">
-        <v>0.28543949127197266</v>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.34101718664169312</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.24645659327507019</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0">
-        <v>0.3150830864906311</v>
-      </c>
-      <c r="B79" s="0">
-        <v>0.019055500626564026</v>
-      </c>
-      <c r="C79" s="0">
+      <c r="A79" s="1">
+        <v>0.28563541173934937</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.021619299426674843</v>
+      </c>
+      <c r="C79" s="1">
         <v>13.5</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="0">
-        <v>5</v>
-      </c>
-      <c r="F79" s="0">
-        <v>0.35243189334869385</v>
-      </c>
-      <c r="G79" s="0">
-        <v>0.27773430943489075</v>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.32800918817520142</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.24326160550117493</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0">
-        <v>0.30781561136245728</v>
-      </c>
-      <c r="B80" s="0">
-        <v>0.018952900543808937</v>
-      </c>
-      <c r="C80" s="0">
+      <c r="A80" s="1">
+        <v>0.27553519606590271</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.020040100440382957</v>
+      </c>
+      <c r="C80" s="1">
         <v>14.5</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="0">
-        <v>5</v>
-      </c>
-      <c r="F80" s="0">
-        <v>0.34496331214904785</v>
-      </c>
-      <c r="G80" s="0">
-        <v>0.2706679105758667</v>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.31481379270553589</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.23625659942626953</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0">
-        <v>0.3023642897605896</v>
-      </c>
-      <c r="B81" s="0">
-        <v>0.018754100427031517</v>
-      </c>
-      <c r="C81" s="0">
+      <c r="A81" s="1">
+        <v>0.27193841338157654</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.02008490078151226</v>
+      </c>
+      <c r="C81" s="1">
         <v>15.5</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="0">
-        <v>5</v>
-      </c>
-      <c r="F81" s="0">
-        <v>0.33912229537963867</v>
-      </c>
-      <c r="G81" s="0">
-        <v>0.26560631394386292</v>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.31130480766296387</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.23257200419902802</v>
       </c>
     </row>
   </sheetData>
@@ -4878,10 +4880,10 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2" s="1">
         <v>0.14100000262260437</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="1">
         <v>0.019999999552965164</v>
       </c>
     </row>
@@ -4892,10 +4894,10 @@
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="1">
         <v>0.12399999797344208</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="1">
         <v>0.014000000432133675</v>
       </c>
     </row>
@@ -4906,10 +4908,10 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4" s="1">
         <v>0.12099999934434891</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="1">
         <v>0.017000000923871994</v>
       </c>
     </row>
@@ -4920,10 +4922,10 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="1">
         <v>0.13899999856948853</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="1">
         <v>0.018999999389052391</v>
       </c>
     </row>
@@ -4934,10 +4936,10 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6" s="1">
         <v>0.11400000005960464</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="1">
         <v>0.016000000759959221</v>
       </c>
     </row>
@@ -4948,10 +4950,10 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7" s="1">
         <v>0.090000003576278687</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="1">
         <v>0.012000000104308128</v>
       </c>
     </row>
@@ -4962,10 +4964,10 @@
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8" s="1">
         <v>0.083999998867511749</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="1">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -4976,10 +4978,10 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9" s="1">
         <v>0.059999998658895493</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="1">
         <v>0.008999999612569809</v>
       </c>
     </row>
@@ -4990,10 +4992,10 @@
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10" s="1">
         <v>0.050999999046325684</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10" s="1">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -5004,10 +5006,10 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11" s="1">
         <v>0.05000000074505806</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11" s="1">
         <v>0.0070000002160668373</v>
       </c>
     </row>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="48">
   <si>
     <t>adm0</t>
   </si>
@@ -232,13 +232,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.060433100908994675</v>
+        <v>-0.060412701219320297</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.11290889978408813</v>
+        <v>-0.1128557026386261</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0079573998227715492</v>
+        <v>-0.0079698003828525543</v>
       </c>
     </row>
     <row r="3">
@@ -249,13 +249,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.031738601624965668</v>
+        <v>-0.031718999147415161</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.11523459851741791</v>
+        <v>-0.11516480147838593</v>
       </c>
       <c r="E3" s="1">
-        <v>0.051757398992776871</v>
+        <v>0.051726900041103363</v>
       </c>
     </row>
     <row r="4">
@@ -266,13 +266,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.046577900648117065</v>
+        <v>-0.046486299484968185</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.1073421984910965</v>
+        <v>-0.10715120285749435</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01418639998883009</v>
+        <v>0.014178699813783169</v>
       </c>
     </row>
     <row r="5">
@@ -283,13 +283,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.032676100730895996</v>
+        <v>-0.032559499144554138</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.11886230111122131</v>
+        <v>-0.11879889667034149</v>
       </c>
       <c r="E5" s="1">
-        <v>0.053510099649429321</v>
+        <v>0.053679998964071274</v>
       </c>
     </row>
     <row r="6">
@@ -300,13 +300,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>0.012998499907553196</v>
+        <v>0.013019699603319168</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.075569696724414825</v>
+        <v>-0.075582101941108704</v>
       </c>
       <c r="E6" s="1">
-        <v>0.10156670212745667</v>
+        <v>0.10162150114774704</v>
       </c>
     </row>
     <row r="7">
@@ -317,13 +317,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.097154103219509125</v>
+        <v>-0.097028903663158417</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.2218606024980545</v>
+        <v>-0.22173640131950378</v>
       </c>
       <c r="E7" s="1">
-        <v>0.027552399784326553</v>
+        <v>0.027678500860929489</v>
       </c>
     </row>
     <row r="8">
@@ -334,13 +334,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.047612998634576797</v>
+        <v>-0.047866299748420715</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.11497770249843597</v>
+        <v>-0.11527919769287109</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01975180022418499</v>
+        <v>0.019546600058674812</v>
       </c>
     </row>
     <row r="9">
@@ -351,13 +351,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.083260297775268555</v>
+        <v>-0.083423696458339691</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.16422459483146667</v>
+        <v>-0.16436560451984406</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0022960000205785036</v>
+        <v>-0.0024818999227136374</v>
       </c>
     </row>
     <row r="10">
@@ -368,13 +368,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.10927759855985641</v>
+        <v>-0.10931739956140518</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.18984049558639526</v>
+        <v>-0.18980680406093597</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.028714699670672417</v>
+        <v>-0.028828099370002747</v>
       </c>
     </row>
     <row r="11">
@@ -385,13 +385,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.050505299121141434</v>
+        <v>-0.050530198961496353</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.13603590428829193</v>
+        <v>-0.13592930138111115</v>
       </c>
       <c r="E11" s="1">
-        <v>0.035025399178266525</v>
+        <v>0.034868799149990082</v>
       </c>
     </row>
     <row r="12">
@@ -402,13 +402,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.11137869954109192</v>
+        <v>-0.11130739748477936</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.18505600094795227</v>
+        <v>-0.18478429317474365</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.037701401859521866</v>
+        <v>-0.037830598652362823</v>
       </c>
     </row>
     <row r="13">
@@ -419,13 +419,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>-0.1170044019818306</v>
+        <v>-0.11701499670743942</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.19876609742641449</v>
+        <v>-0.19860319793224335</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.035242699086666107</v>
+        <v>-0.035426799207925797</v>
       </c>
     </row>
     <row r="14">
@@ -436,13 +436,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.057927299290895462</v>
+        <v>-0.057794101536273956</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.12079410254955292</v>
+        <v>-0.12058769911527634</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0049394001252949238</v>
+        <v>0.0049995998851954937</v>
       </c>
     </row>
     <row r="15">
@@ -453,13 +453,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.087724998593330383</v>
+        <v>-0.087575100362300873</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.15270300209522247</v>
+        <v>-0.15246519446372986</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02274709939956665</v>
+        <v>-0.02268500067293644</v>
       </c>
     </row>
     <row r="16">
@@ -470,13 +470,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.11256039887666702</v>
+        <v>-0.1123804971575737</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.16035419702529907</v>
+        <v>-0.16011050343513489</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.064766697585582733</v>
+        <v>-0.064650498330593109</v>
       </c>
     </row>
     <row r="17">
@@ -487,13 +487,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.13347719609737396</v>
+        <v>-0.13326629996299744</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.18950240314006805</v>
+        <v>-0.18923319876194</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.077451996505260468</v>
+        <v>-0.077299296855926514</v>
       </c>
     </row>
     <row r="18">
@@ -504,13 +504,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>-0.12722590565681458</v>
+        <v>-0.12697599828243256</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.18838749825954437</v>
+        <v>-0.18814300000667572</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.066064201295375824</v>
+        <v>-0.065809100866317749</v>
       </c>
     </row>
     <row r="19">
@@ -521,13 +521,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.11019229888916016</v>
+        <v>-0.10997969657182693</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.16916400194168091</v>
+        <v>-0.16891959309577942</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.051220599561929703</v>
+        <v>-0.051039800047874451</v>
       </c>
     </row>
     <row r="20">
@@ -538,13 +538,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>0.073222599923610687</v>
+        <v>0.073120199143886566</v>
       </c>
       <c r="D20" s="1">
-        <v>0.023257700726389885</v>
+        <v>0.023180199787020683</v>
       </c>
       <c r="E20" s="1">
-        <v>0.1231876015663147</v>
+        <v>0.1230601966381073</v>
       </c>
     </row>
     <row r="21">
@@ -555,13 +555,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>0.045584898442029953</v>
+        <v>0.045483101159334183</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.010948300361633301</v>
+        <v>-0.011050400324165821</v>
       </c>
       <c r="E21" s="1">
-        <v>0.10211820155382156</v>
+        <v>0.10201650112867355</v>
       </c>
     </row>
     <row r="22">
@@ -572,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>0.049505498260259628</v>
+        <v>0.04939579963684082</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.0002941999991890043</v>
+        <v>-0.00043720001121982932</v>
       </c>
       <c r="E22" s="1">
-        <v>0.099305301904678345</v>
+        <v>0.099228799343109131</v>
       </c>
     </row>
     <row r="23">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>0.046591799706220627</v>
+        <v>0.046436898410320282</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.035180598497390747</v>
+        <v>-0.035390101373195648</v>
       </c>
       <c r="E23" s="1">
-        <v>0.12836429476737976</v>
+        <v>0.12826399505138397</v>
       </c>
     </row>
     <row r="24">
@@ -606,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0075252000242471695</v>
+        <v>0.0074999998323619366</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.079877801239490509</v>
+        <v>-0.079910799860954285</v>
       </c>
       <c r="E24" s="1">
-        <v>0.09492819756269455</v>
+        <v>0.094910897314548492</v>
       </c>
     </row>
     <row r="25">
@@ -623,13 +623,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.068701602518558502</v>
+        <v>0.068736299872398376</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.0066093001514673233</v>
+        <v>-0.006605600006878376</v>
       </c>
       <c r="E25" s="1">
-        <v>0.14401260018348694</v>
+        <v>0.14407829940319061</v>
       </c>
     </row>
     <row r="26">
@@ -640,13 +640,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.0095579996705055237</v>
+        <v>-0.0095375999808311462</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.044379599392414093</v>
+        <v>-0.044403601437807083</v>
       </c>
       <c r="E26" s="1">
-        <v>0.025263499468564987</v>
+        <v>0.025328399613499641</v>
       </c>
     </row>
     <row r="27">
@@ -657,13 +657,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0050940997898578644</v>
+        <v>0.0051623000763356686</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.031385801732540131</v>
+        <v>-0.031328398734331131</v>
       </c>
       <c r="E27" s="1">
-        <v>0.041574001312255859</v>
+        <v>0.041652899235486984</v>
       </c>
     </row>
     <row r="28">
@@ -674,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="1">
-        <v>0.011550799943506718</v>
+        <v>0.011647400446236134</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.022256800904870033</v>
+        <v>-0.022158099338412285</v>
       </c>
       <c r="E28" s="1">
-        <v>0.045358400791883469</v>
+        <v>0.045452799648046494</v>
       </c>
     </row>
     <row r="29">
@@ -691,13 +691,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="1">
-        <v>0.015207200311124325</v>
+        <v>0.015344199724495411</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.022598100826144218</v>
+        <v>-0.022437499836087227</v>
       </c>
       <c r="E29" s="1">
-        <v>0.05301240086555481</v>
+        <v>0.053125999867916107</v>
       </c>
     </row>
     <row r="30">
@@ -708,13 +708,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="1">
-        <v>0.014983899891376495</v>
+        <v>0.015142000280320644</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.024112999439239502</v>
+        <v>-0.023947399109601974</v>
       </c>
       <c r="E30" s="1">
-        <v>0.054080799221992493</v>
+        <v>0.054231401532888412</v>
       </c>
     </row>
     <row r="31">
@@ -725,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="C31" s="1">
-        <v>0.014323100447654724</v>
+        <v>0.014448300004005432</v>
       </c>
       <c r="D31" s="1">
-        <v>-0.021759599447250366</v>
+        <v>-0.021661700680851936</v>
       </c>
       <c r="E31" s="1">
-        <v>0.050405800342559814</v>
+        <v>0.050558198243379593</v>
       </c>
     </row>
     <row r="32">
@@ -742,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="1">
-        <v>-0.048031799495220184</v>
+        <v>-0.0479326993227005</v>
       </c>
       <c r="D32" s="1">
-        <v>-0.08880169689655304</v>
+        <v>-0.088633596897125244</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0072618001140654087</v>
+        <v>-0.0072319000028073788</v>
       </c>
     </row>
     <row r="33">
@@ -759,13 +759,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="1">
-        <v>-0.033016800880432129</v>
+        <v>-0.032864600419998169</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.088250696659088135</v>
+        <v>-0.088067799806594849</v>
       </c>
       <c r="E33" s="1">
-        <v>0.022217100486159325</v>
+        <v>0.02233860082924366</v>
       </c>
     </row>
     <row r="34">
@@ -776,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>-0.0044853999279439449</v>
+        <v>-0.0043500000610947609</v>
       </c>
       <c r="D34" s="1">
-        <v>-0.046801198273897171</v>
+        <v>-0.046652998775243759</v>
       </c>
       <c r="E34" s="1">
-        <v>0.037830501794815063</v>
+        <v>0.037953000515699387</v>
       </c>
     </row>
     <row r="35">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.015027499757707119</v>
+        <v>-0.014781800098717213</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.065393500030040741</v>
+        <v>-0.06513579934835434</v>
       </c>
       <c r="E35" s="1">
-        <v>0.035338599234819412</v>
+        <v>0.035572100430727005</v>
       </c>
     </row>
     <row r="36">
@@ -810,13 +810,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="1">
-        <v>0.016711799427866936</v>
+        <v>0.016870299354195595</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.033517900854349136</v>
+        <v>-0.033296398818492889</v>
       </c>
       <c r="E36" s="1">
-        <v>0.066941499710083008</v>
+        <v>0.067037001252174377</v>
       </c>
     </row>
     <row r="37">
@@ -827,13 +827,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="1">
-        <v>0.041591499000787735</v>
+        <v>0.041691601276397705</v>
       </c>
       <c r="D37" s="1">
-        <v>-6.3500003307126462e-05</v>
+        <v>0.00011369999992894009</v>
       </c>
       <c r="E37" s="1">
-        <v>0.083246499300003052</v>
+        <v>0.083269499242305756</v>
       </c>
     </row>
     <row r="38">
@@ -844,13 +844,13 @@
         <v>13</v>
       </c>
       <c r="C38" s="1">
-        <v>-0.0084835002198815346</v>
+        <v>-0.0086358999833464622</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.049616299569606781</v>
+        <v>-0.049814801663160324</v>
       </c>
       <c r="E38" s="1">
-        <v>0.032649300992488861</v>
+        <v>0.03254299983382225</v>
       </c>
     </row>
     <row r="39">
@@ -861,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="C39" s="1">
-        <v>-0.0050685000605881214</v>
+        <v>-0.0051901000551879406</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.047733001410961151</v>
+        <v>-0.047931898385286331</v>
       </c>
       <c r="E39" s="1">
-        <v>0.037595998495817184</v>
+        <v>0.037551801651716232</v>
       </c>
     </row>
     <row r="40">
@@ -878,13 +878,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.0071947998367249966</v>
+        <v>-0.0072762998752295971</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.060790199786424637</v>
+        <v>-0.060942299664020538</v>
       </c>
       <c r="E40" s="1">
-        <v>0.046400599181652069</v>
+        <v>0.04638969898223877</v>
       </c>
     </row>
     <row r="41">
@@ -895,13 +895,13 @@
         <v>13</v>
       </c>
       <c r="C41" s="1">
-        <v>-0.023775100708007812</v>
+        <v>-0.023823700845241547</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.076079800724983215</v>
+        <v>-0.076234400272369385</v>
       </c>
       <c r="E41" s="1">
-        <v>0.028529699891805649</v>
+        <v>0.02858709916472435</v>
       </c>
     </row>
     <row r="42">
@@ -912,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="C42" s="1">
-        <v>-0.024468600749969482</v>
+        <v>-0.02451770007610321</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.076595000922679901</v>
+        <v>-0.076747402548789978</v>
       </c>
       <c r="E42" s="1">
-        <v>0.027657700702548027</v>
+        <v>0.027711899951100349</v>
       </c>
     </row>
     <row r="43">
@@ -929,13 +929,13 @@
         <v>13</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.018472900614142418</v>
+        <v>-0.018589399755001068</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.067121699452400208</v>
+        <v>-0.067317098379135132</v>
       </c>
       <c r="E43" s="1">
-        <v>0.030175900086760521</v>
+        <v>0.030138300731778145</v>
       </c>
     </row>
     <row r="44">
@@ -946,13 +946,13 @@
         <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>-0.082682602107524872</v>
+        <v>-0.08275739848613739</v>
       </c>
       <c r="D44" s="1">
-        <v>-0.11374600231647491</v>
+        <v>-0.1137629970908165</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.051619298756122589</v>
+        <v>-0.051751799881458282</v>
       </c>
     </row>
     <row r="45">
@@ -963,13 +963,13 @@
         <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>-0.07585269957780838</v>
+        <v>-0.076173797249794006</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.11385480314493179</v>
+        <v>-0.11416950076818466</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.037850599735975266</v>
+        <v>-0.038178000599145889</v>
       </c>
     </row>
     <row r="46">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="C46" s="1">
-        <v>-0.072827801108360291</v>
+        <v>-0.073344603180885315</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.10480590164661407</v>
+        <v>-0.10527220368385315</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.040849700570106506</v>
+        <v>-0.041416998952627182</v>
       </c>
     </row>
     <row r="47">
@@ -997,13 +997,13 @@
         <v>14</v>
       </c>
       <c r="C47" s="1">
-        <v>-0.074942603707313538</v>
+        <v>-0.075696296989917755</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.10491339862346649</v>
+        <v>-0.10550670325756073</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.044971898198127747</v>
+        <v>-0.045885898172855377</v>
       </c>
     </row>
     <row r="48">
@@ -1014,13 +1014,13 @@
         <v>14</v>
       </c>
       <c r="C48" s="1">
-        <v>-0.075942397117614746</v>
+        <v>-0.076671898365020752</v>
       </c>
       <c r="D48" s="1">
-        <v>-0.11697430163621902</v>
+        <v>-0.11777590215206146</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.034910600632429123</v>
+        <v>-0.03556789830327034</v>
       </c>
     </row>
     <row r="49">
@@ -1031,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="C49" s="1">
-        <v>-0.060596499592065811</v>
+        <v>-0.061333101242780685</v>
       </c>
       <c r="D49" s="1">
-        <v>-0.11023090034723282</v>
+        <v>-0.11091510206460953</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.010962099768221378</v>
+        <v>-0.011751200072467327</v>
       </c>
     </row>
     <row r="50">
@@ -1048,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="C50" s="1">
-        <v>-0.029570499435067177</v>
+        <v>-0.029354099184274673</v>
       </c>
       <c r="D50" s="1">
-        <v>-0.056234899908304214</v>
+        <v>-0.056036800146102905</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.0029060000088065863</v>
+        <v>-0.0026714999694377184</v>
       </c>
     </row>
     <row r="51">
@@ -1065,13 +1065,13 @@
         <v>15</v>
       </c>
       <c r="C51" s="1">
-        <v>-0.04751100018620491</v>
+        <v>-0.047192301601171494</v>
       </c>
       <c r="D51" s="1">
-        <v>-0.07308650016784668</v>
+        <v>-0.072742000222206116</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.021935500204563141</v>
+        <v>-0.021642699837684631</v>
       </c>
     </row>
     <row r="52">
@@ -1082,13 +1082,13 @@
         <v>15</v>
       </c>
       <c r="C52" s="1">
-        <v>-0.054365899413824081</v>
+        <v>-0.053990498185157776</v>
       </c>
       <c r="D52" s="1">
-        <v>-0.076579302549362183</v>
+        <v>-0.076124399900436401</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.03215239942073822</v>
+        <v>-0.03185649961233139</v>
       </c>
     </row>
     <row r="53">
@@ -1099,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="C53" s="1">
-        <v>-0.063480399549007416</v>
+        <v>-0.063012696802616119</v>
       </c>
       <c r="D53" s="1">
-        <v>-0.086188897490501404</v>
+        <v>-0.085618898272514343</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.040771801024675369</v>
+        <v>-0.040406398475170135</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1116,13 @@
         <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>-0.065606899559497833</v>
+        <v>-0.065182097256183624</v>
       </c>
       <c r="D54" s="1">
-        <v>-0.089826501905918121</v>
+        <v>-0.089397802948951721</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.041387200355529785</v>
+        <v>-0.040966499596834183</v>
       </c>
     </row>
     <row r="55">
@@ -1133,13 +1133,13 @@
         <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>-0.067900702357292175</v>
+        <v>-0.067451201379299164</v>
       </c>
       <c r="D55" s="1">
-        <v>-0.096962399780750275</v>
+        <v>-0.096511602401733398</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.038839001208543777</v>
+        <v>-0.038390800356864929</v>
       </c>
     </row>
     <row r="56">
@@ -4484,10 +4484,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>0.29349809885025024</v>
+        <v>0.29346328973770142</v>
       </c>
       <c r="B66" s="1">
-        <v>0.022946100682020187</v>
+        <v>0.022922299802303314</v>
       </c>
       <c r="C66" s="1">
         <v>0.5</v>
@@ -4499,18 +4499,18 @@
         <v>5</v>
       </c>
       <c r="F66" s="1">
-        <v>0.33847248554229736</v>
+        <v>0.3383910059928894</v>
       </c>
       <c r="G66" s="1">
-        <v>0.24852369725704193</v>
+        <v>0.24853560328483582</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>0.29127231240272522</v>
+        <v>0.29125800728797913</v>
       </c>
       <c r="B67" s="1">
-        <v>0.026036299765110016</v>
+        <v>0.025980100035667419</v>
       </c>
       <c r="C67" s="1">
         <v>1.5</v>
@@ -4522,18 +4522,18 @@
         <v>5</v>
       </c>
       <c r="F67" s="1">
-        <v>0.34230351448059082</v>
+        <v>0.34217900037765503</v>
       </c>
       <c r="G67" s="1">
-        <v>0.24024119973182678</v>
+        <v>0.24033699929714203</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>0.29703319072723389</v>
+        <v>0.29702439904212952</v>
       </c>
       <c r="B68" s="1">
-        <v>0.026579599827528</v>
+        <v>0.026531999930739403</v>
       </c>
       <c r="C68" s="1">
         <v>2.5</v>
@@ -4545,18 +4545,18 @@
         <v>5</v>
       </c>
       <c r="F68" s="1">
-        <v>0.34912919998168945</v>
+        <v>0.34902709722518921</v>
       </c>
       <c r="G68" s="1">
-        <v>0.24493719637393951</v>
+        <v>0.24502170085906982</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>0.29721760749816895</v>
+        <v>0.29718101024627686</v>
       </c>
       <c r="B69" s="1">
-        <v>0.025398299098014832</v>
+        <v>0.025366000831127167</v>
       </c>
       <c r="C69" s="1">
         <v>3.5</v>
@@ -4568,18 +4568,18 @@
         <v>5</v>
       </c>
       <c r="F69" s="1">
-        <v>0.34699830412864685</v>
+        <v>0.3468984067440033</v>
       </c>
       <c r="G69" s="1">
-        <v>0.24743689596652985</v>
+        <v>0.24746359884738922</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>0.29535779356956482</v>
+        <v>0.2953169047832489</v>
       </c>
       <c r="B70" s="1">
-        <v>0.025569500401616096</v>
+        <v>0.025551199913024902</v>
       </c>
       <c r="C70" s="1">
         <v>4.5</v>
@@ -4591,18 +4591,18 @@
         <v>5</v>
       </c>
       <c r="F70" s="1">
-        <v>0.3454740047454834</v>
+        <v>0.34539729356765747</v>
       </c>
       <c r="G70" s="1">
-        <v>0.24524159729480743</v>
+        <v>0.24523650109767914</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>0.29804480075836182</v>
+        <v>0.29796141386032104</v>
       </c>
       <c r="B71" s="1">
-        <v>0.024363899603486061</v>
+        <v>0.024358900263905525</v>
       </c>
       <c r="C71" s="1">
         <v>5.5</v>
@@ -4614,18 +4614,18 @@
         <v>5</v>
       </c>
       <c r="F71" s="1">
-        <v>0.34579798579216003</v>
+        <v>0.34570491313934326</v>
       </c>
       <c r="G71" s="1">
-        <v>0.25029158592224121</v>
+        <v>0.25021800398826599</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>0.29060021042823792</v>
+        <v>0.29048120975494385</v>
       </c>
       <c r="B72" s="1">
-        <v>0.026716100051999092</v>
+        <v>0.026723999530076981</v>
       </c>
       <c r="C72" s="1">
         <v>6.5</v>
@@ -4637,18 +4637,18 @@
         <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>0.3429638147354126</v>
+        <v>0.34286031126976013</v>
       </c>
       <c r="G72" s="1">
-        <v>0.2382366955280304</v>
+        <v>0.23810219764709473</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>0.30197030305862427</v>
+        <v>0.30184260010719299</v>
       </c>
       <c r="B73" s="1">
-        <v>0.026311799883842468</v>
+        <v>0.026318300515413284</v>
       </c>
       <c r="C73" s="1">
         <v>7.5</v>
@@ -4660,18 +4660,18 @@
         <v>5</v>
       </c>
       <c r="F73" s="1">
-        <v>0.35354140400886536</v>
+        <v>0.3534264862537384</v>
       </c>
       <c r="G73" s="1">
-        <v>0.25039920210838318</v>
+        <v>0.25025871396064758</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>0.29819479584693909</v>
+        <v>0.29809111356735229</v>
       </c>
       <c r="B74" s="1">
-        <v>0.025836799293756485</v>
+        <v>0.025827599689364433</v>
       </c>
       <c r="C74" s="1">
         <v>8.5</v>
@@ -4683,18 +4683,18 @@
         <v>5</v>
       </c>
       <c r="F74" s="1">
-        <v>0.34883490204811096</v>
+        <v>0.34871318936347961</v>
       </c>
       <c r="G74" s="1">
-        <v>0.24755470454692841</v>
+        <v>0.24746899306774139</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>0.30509939789772034</v>
+        <v>0.30501461029052734</v>
       </c>
       <c r="B75" s="1">
-        <v>0.027172699570655823</v>
+        <v>0.027179699391126633</v>
       </c>
       <c r="C75" s="1">
         <v>9.5</v>
@@ -4706,18 +4706,18 @@
         <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>0.35835790634155273</v>
+        <v>0.35828679800033569</v>
       </c>
       <c r="G75" s="1">
-        <v>0.25184088945388794</v>
+        <v>0.25174239277839661</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>0.30081269145011902</v>
+        <v>0.30073758959770203</v>
       </c>
       <c r="B76" s="1">
-        <v>0.02654930017888546</v>
+        <v>0.026554800570011139</v>
       </c>
       <c r="C76" s="1">
         <v>10.5</v>
@@ -4729,18 +4729,18 @@
         <v>5</v>
       </c>
       <c r="F76" s="1">
-        <v>0.35284930467605591</v>
+        <v>0.35278499126434326</v>
       </c>
       <c r="G76" s="1">
-        <v>0.24877609312534332</v>
+        <v>0.24869020283222198</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>0.29612511396408081</v>
+        <v>0.29600319266319275</v>
       </c>
       <c r="B77" s="1">
-        <v>0.02395470067858696</v>
+        <v>0.023955199867486954</v>
       </c>
       <c r="C77" s="1">
         <v>11.5</v>
@@ -4752,18 +4752,18 @@
         <v>5</v>
       </c>
       <c r="F77" s="1">
-        <v>0.34307628870010376</v>
+        <v>0.34295541048049927</v>
       </c>
       <c r="G77" s="1">
-        <v>0.24917389452457428</v>
+        <v>0.24905100464820862</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>0.2938377857208252</v>
+        <v>0.29374051094055176</v>
       </c>
       <c r="B78" s="1">
-        <v>0.024197399616241455</v>
+        <v>0.024193499237298965</v>
       </c>
       <c r="C78" s="1">
         <v>12.5</v>
@@ -4775,18 +4775,18 @@
         <v>5</v>
       </c>
       <c r="F78" s="1">
-        <v>0.34126469492912292</v>
+        <v>0.34115979075431824</v>
       </c>
       <c r="G78" s="1">
-        <v>0.24641090631484985</v>
+        <v>0.24632120132446289</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>0.28582391142845154</v>
+        <v>0.2857201099395752</v>
       </c>
       <c r="B79" s="1">
-        <v>0.021697400137782097</v>
+        <v>0.021702000871300697</v>
       </c>
       <c r="C79" s="1">
         <v>13.5</v>
@@ -4798,18 +4798,18 @@
         <v>5</v>
       </c>
       <c r="F79" s="1">
-        <v>0.32835081219673157</v>
+        <v>0.32825601100921631</v>
       </c>
       <c r="G79" s="1">
-        <v>0.24329699575901031</v>
+        <v>0.24318419396877289</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>0.27508071064949036</v>
+        <v>0.27501249313354492</v>
       </c>
       <c r="B80" s="1">
-        <v>0.020120399072766304</v>
+        <v>0.02011529915034771</v>
       </c>
       <c r="C80" s="1">
         <v>14.5</v>
@@ -4821,18 +4821,18 @@
         <v>5</v>
       </c>
       <c r="F80" s="1">
-        <v>0.31451669335365295</v>
+        <v>0.31443849205970764</v>
       </c>
       <c r="G80" s="1">
-        <v>0.23564469814300537</v>
+        <v>0.2355864942073822</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>0.27098241448402405</v>
+        <v>0.27093571424484253</v>
       </c>
       <c r="B81" s="1">
-        <v>0.020249899476766586</v>
+        <v>0.020248899236321449</v>
       </c>
       <c r="C81" s="1">
         <v>15.5</v>
@@ -4844,10 +4844,10 @@
         <v>5</v>
       </c>
       <c r="F81" s="1">
-        <v>0.31067219376564026</v>
+        <v>0.31062358617782593</v>
       </c>
       <c r="G81" s="1">
-        <v>0.23129260540008545</v>
+        <v>0.23124790191650391</v>
       </c>
     </row>
   </sheetData>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="48">
   <si>
     <t>adm0</t>
   </si>
@@ -232,13 +232,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.060412701219320297</v>
+        <v>-0.058178499341011047</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.1128557026386261</v>
+        <v>-0.11031050235033035</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0079698003828525543</v>
+        <v>-0.0060463999398052692</v>
       </c>
     </row>
     <row r="3">
@@ -249,13 +249,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.031718999147415161</v>
+        <v>-0.030740400776267052</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.11516480147838593</v>
+        <v>-0.11473140120506287</v>
       </c>
       <c r="E3" s="1">
-        <v>0.051726900041103363</v>
+        <v>0.053250599652528763</v>
       </c>
     </row>
     <row r="4">
@@ -266,13 +266,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.046486299484968185</v>
+        <v>-0.046436801552772522</v>
       </c>
       <c r="D4" s="1">
-        <v>-0.10715120285749435</v>
+        <v>-0.10736340284347534</v>
       </c>
       <c r="E4" s="1">
-        <v>0.014178699813783169</v>
+        <v>0.014489900320768356</v>
       </c>
     </row>
     <row r="5">
@@ -283,13 +283,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.032559499144554138</v>
+        <v>-0.029913600534200668</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.11879889667034149</v>
+        <v>-0.11679840087890625</v>
       </c>
       <c r="E5" s="1">
-        <v>0.053679998964071274</v>
+        <v>0.056971199810504913</v>
       </c>
     </row>
     <row r="6">
@@ -300,13 +300,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>0.013019699603319168</v>
+        <v>0.015701200813055038</v>
       </c>
       <c r="D6" s="1">
-        <v>-0.075582101941108704</v>
+        <v>-0.072815500199794769</v>
       </c>
       <c r="E6" s="1">
-        <v>0.10162150114774704</v>
+        <v>0.10421790182590485</v>
       </c>
     </row>
     <row r="7">
@@ -317,13 +317,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>-0.097028903663158417</v>
+        <v>-0.093759797513484955</v>
       </c>
       <c r="D7" s="1">
-        <v>-0.22173640131950378</v>
+        <v>-0.21789419651031494</v>
       </c>
       <c r="E7" s="1">
-        <v>0.027678500860929489</v>
+        <v>0.030374500900506973</v>
       </c>
     </row>
     <row r="8">
@@ -334,13 +334,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
-        <v>-0.047866299748420715</v>
+        <v>-0.04498320072889328</v>
       </c>
       <c r="D8" s="1">
-        <v>-0.11527919769287109</v>
+        <v>-0.11406169831752777</v>
       </c>
       <c r="E8" s="1">
-        <v>0.019546600058674812</v>
+        <v>0.024095200002193451</v>
       </c>
     </row>
     <row r="9">
@@ -351,13 +351,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>-0.083423696458339691</v>
+        <v>-0.080527499318122864</v>
       </c>
       <c r="D9" s="1">
-        <v>-0.16436560451984406</v>
+        <v>-0.16420440375804901</v>
       </c>
       <c r="E9" s="1">
-        <v>-0.0024818999227136374</v>
+        <v>0.0031493999995291233</v>
       </c>
     </row>
     <row r="10">
@@ -368,13 +368,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>-0.10931739956140518</v>
+        <v>-0.10572589933872223</v>
       </c>
       <c r="D10" s="1">
-        <v>-0.18980680406093597</v>
+        <v>-0.18932540714740753</v>
       </c>
       <c r="E10" s="1">
-        <v>-0.028828099370002747</v>
+        <v>-0.022126400843262672</v>
       </c>
     </row>
     <row r="11">
@@ -385,13 +385,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>-0.050530198961496353</v>
+        <v>-0.051204301416873932</v>
       </c>
       <c r="D11" s="1">
-        <v>-0.13592930138111115</v>
+        <v>-0.13691709935665131</v>
       </c>
       <c r="E11" s="1">
-        <v>0.034868799149990082</v>
+        <v>0.034508399665355682</v>
       </c>
     </row>
     <row r="12">
@@ -402,13 +402,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="1">
-        <v>-0.11130739748477936</v>
+        <v>-0.11293759942054749</v>
       </c>
       <c r="D12" s="1">
-        <v>-0.18478429317474365</v>
+        <v>-0.18611699342727661</v>
       </c>
       <c r="E12" s="1">
-        <v>-0.037830598652362823</v>
+        <v>-0.039758298546075821</v>
       </c>
     </row>
     <row r="13">
@@ -419,13 +419,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="1">
-        <v>-0.11701499670743942</v>
+        <v>-0.11908400058746338</v>
       </c>
       <c r="D13" s="1">
-        <v>-0.19860319793224335</v>
+        <v>-0.2021683007478714</v>
       </c>
       <c r="E13" s="1">
-        <v>-0.035426799207925797</v>
+        <v>-0.035999801009893417</v>
       </c>
     </row>
     <row r="14">
@@ -436,13 +436,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.057794101536273956</v>
+        <v>-0.056474499404430389</v>
       </c>
       <c r="D14" s="1">
-        <v>-0.12058769911527634</v>
+        <v>-0.12043389678001404</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0049995998851954937</v>
+        <v>0.0074848998337984085</v>
       </c>
     </row>
     <row r="15">
@@ -453,13 +453,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.087575100362300873</v>
+        <v>-0.08614630252122879</v>
       </c>
       <c r="D15" s="1">
-        <v>-0.15246519446372986</v>
+        <v>-0.15256319940090179</v>
       </c>
       <c r="E15" s="1">
-        <v>-0.02268500067293644</v>
+        <v>-0.019729400053620338</v>
       </c>
     </row>
     <row r="16">
@@ -470,13 +470,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.1123804971575737</v>
+        <v>-0.11001720279455185</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.16011050343513489</v>
+        <v>-0.15813839435577393</v>
       </c>
       <c r="E16" s="1">
-        <v>-0.064650498330593109</v>
+        <v>-0.061896100640296936</v>
       </c>
     </row>
     <row r="17">
@@ -487,13 +487,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>-0.13326629996299744</v>
+        <v>-0.13150599598884583</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.18923319876194</v>
+        <v>-0.18812079727649689</v>
       </c>
       <c r="E17" s="1">
-        <v>-0.077299296855926514</v>
+        <v>-0.074891097843647003</v>
       </c>
     </row>
     <row r="18">
@@ -504,13 +504,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="1">
-        <v>-0.12697599828243256</v>
+        <v>-0.12533609569072723</v>
       </c>
       <c r="D18" s="1">
-        <v>-0.18814300000667572</v>
+        <v>-0.18748080730438232</v>
       </c>
       <c r="E18" s="1">
-        <v>-0.065809100866317749</v>
+        <v>-0.063191398978233337</v>
       </c>
     </row>
     <row r="19">
@@ -521,13 +521,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.10997969657182693</v>
+        <v>-0.10817500203847885</v>
       </c>
       <c r="D19" s="1">
-        <v>-0.16891959309577942</v>
+        <v>-0.16719460487365723</v>
       </c>
       <c r="E19" s="1">
-        <v>-0.051039800047874451</v>
+        <v>-0.049155399203300476</v>
       </c>
     </row>
     <row r="20">
@@ -538,13 +538,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <v>0.073120199143886566</v>
+        <v>0.071867197751998901</v>
       </c>
       <c r="D20" s="1">
-        <v>0.023180199787020683</v>
+        <v>0.023569399490952492</v>
       </c>
       <c r="E20" s="1">
-        <v>0.1230601966381073</v>
+        <v>0.12016499787569046</v>
       </c>
     </row>
     <row r="21">
@@ -555,13 +555,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>0.045483101159334183</v>
+        <v>0.044763799756765366</v>
       </c>
       <c r="D21" s="1">
-        <v>-0.011050400324165821</v>
+        <v>-0.011006300337612629</v>
       </c>
       <c r="E21" s="1">
-        <v>0.10201650112867355</v>
+        <v>0.10053390264511108</v>
       </c>
     </row>
     <row r="22">
@@ -572,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>0.04939579963684082</v>
+        <v>0.048542499542236328</v>
       </c>
       <c r="D22" s="1">
-        <v>-0.00043720001121982932</v>
+        <v>-0.00083749997429549694</v>
       </c>
       <c r="E22" s="1">
-        <v>0.099228799343109131</v>
+        <v>0.097922496497631073</v>
       </c>
     </row>
     <row r="23">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>0.046436898410320282</v>
+        <v>0.045288600027561188</v>
       </c>
       <c r="D23" s="1">
-        <v>-0.035390101373195648</v>
+        <v>-0.036022599786520004</v>
       </c>
       <c r="E23" s="1">
-        <v>0.12826399505138397</v>
+        <v>0.12659980356693268</v>
       </c>
     </row>
     <row r="24">
@@ -606,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>0.0074999998323619366</v>
+        <v>0.0065105999819934368</v>
       </c>
       <c r="D24" s="1">
-        <v>-0.079910799860954285</v>
+        <v>-0.079807698726654053</v>
       </c>
       <c r="E24" s="1">
-        <v>0.094910897314548492</v>
+        <v>0.092828899621963501</v>
       </c>
     </row>
     <row r="25">
@@ -623,13 +623,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>0.068736299872398376</v>
+        <v>0.067639298737049103</v>
       </c>
       <c r="D25" s="1">
-        <v>-0.006605600006878376</v>
+        <v>-0.0073293000459671021</v>
       </c>
       <c r="E25" s="1">
-        <v>0.14407829940319061</v>
+        <v>0.14260789752006531</v>
       </c>
     </row>
     <row r="26">
@@ -640,13 +640,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="1">
-        <v>-0.0095375999808311462</v>
+        <v>-0.010212100110948086</v>
       </c>
       <c r="D26" s="1">
-        <v>-0.044403601437807083</v>
+        <v>-0.045651398599147797</v>
       </c>
       <c r="E26" s="1">
-        <v>0.025328399613499641</v>
+        <v>0.025227099657058716</v>
       </c>
     </row>
     <row r="27">
@@ -657,13 +657,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="1">
-        <v>0.0051623000763356686</v>
+        <v>0.0045157000422477722</v>
       </c>
       <c r="D27" s="1">
-        <v>-0.031328398734331131</v>
+        <v>-0.03270919993519783</v>
       </c>
       <c r="E27" s="1">
-        <v>0.041652899235486984</v>
+        <v>0.041740600019693375</v>
       </c>
     </row>
     <row r="28">
@@ -674,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="1">
-        <v>0.011647400446236134</v>
+        <v>0.01032320037484169</v>
       </c>
       <c r="D28" s="1">
-        <v>-0.022158099338412285</v>
+        <v>-0.024294400587677956</v>
       </c>
       <c r="E28" s="1">
-        <v>0.045452799648046494</v>
+        <v>0.044940900057554245</v>
       </c>
     </row>
     <row r="29">
@@ -691,13 +691,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="1">
-        <v>0.015344199724495411</v>
+        <v>0.014546600170433521</v>
       </c>
       <c r="D29" s="1">
-        <v>-0.022437499836087227</v>
+        <v>-0.023318899795413017</v>
       </c>
       <c r="E29" s="1">
-        <v>0.053125999867916107</v>
+        <v>0.05241210013628006</v>
       </c>
     </row>
     <row r="30">
@@ -708,13 +708,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="1">
-        <v>0.015142000280320644</v>
+        <v>0.015472100116312504</v>
       </c>
       <c r="D30" s="1">
-        <v>-0.023947399109601974</v>
+        <v>-0.023752599954605103</v>
       </c>
       <c r="E30" s="1">
-        <v>0.054231401532888412</v>
+        <v>0.054696798324584961</v>
       </c>
     </row>
     <row r="31">
@@ -725,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="C31" s="1">
-        <v>0.014448300004005432</v>
+        <v>0.01433899998664856</v>
       </c>
       <c r="D31" s="1">
-        <v>-0.021661700680851936</v>
+        <v>-0.02198139950633049</v>
       </c>
       <c r="E31" s="1">
-        <v>0.050558198243379593</v>
+        <v>0.050659298896789551</v>
       </c>
     </row>
     <row r="32">
@@ -742,13 +742,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="1">
-        <v>-0.0479326993227005</v>
+        <v>-0.048761799931526184</v>
       </c>
       <c r="D32" s="1">
-        <v>-0.088633596897125244</v>
+        <v>-0.090476997196674347</v>
       </c>
       <c r="E32" s="1">
-        <v>-0.0072319000028073788</v>
+        <v>-0.0070465002208948135</v>
       </c>
     </row>
     <row r="33">
@@ -759,13 +759,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="1">
-        <v>-0.032864600419998169</v>
+        <v>-0.033235900104045868</v>
       </c>
       <c r="D33" s="1">
-        <v>-0.088067799806594849</v>
+        <v>-0.089214198291301727</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02233860082924366</v>
+        <v>0.022742399945855141</v>
       </c>
     </row>
     <row r="34">
@@ -776,13 +776,13 @@
         <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>-0.0043500000610947609</v>
+        <v>-0.0027902000583708286</v>
       </c>
       <c r="D34" s="1">
-        <v>-0.046652998775243759</v>
+        <v>-0.044166300445795059</v>
       </c>
       <c r="E34" s="1">
-        <v>0.037953000515699387</v>
+        <v>0.038585901260375977</v>
       </c>
     </row>
     <row r="35">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.014781800098717213</v>
+        <v>-0.013526500202715397</v>
       </c>
       <c r="D35" s="1">
-        <v>-0.06513579934835434</v>
+        <v>-0.063691399991512299</v>
       </c>
       <c r="E35" s="1">
-        <v>0.035572100430727005</v>
+        <v>0.036638401448726654</v>
       </c>
     </row>
     <row r="36">
@@ -810,13 +810,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="1">
-        <v>0.016870299354195595</v>
+        <v>0.018102999776601791</v>
       </c>
       <c r="D36" s="1">
-        <v>-0.033296398818492889</v>
+        <v>-0.03155839815735817</v>
       </c>
       <c r="E36" s="1">
-        <v>0.067037001252174377</v>
+        <v>0.067764297127723694</v>
       </c>
     </row>
     <row r="37">
@@ -827,13 +827,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="1">
-        <v>0.041691601276397705</v>
+        <v>0.042327400296926498</v>
       </c>
       <c r="D37" s="1">
-        <v>0.00011369999992894009</v>
+        <v>0.00024360000679735094</v>
       </c>
       <c r="E37" s="1">
-        <v>0.083269499242305756</v>
+        <v>0.084411196410655975</v>
       </c>
     </row>
     <row r="38">
@@ -844,13 +844,13 @@
         <v>13</v>
       </c>
       <c r="C38" s="1">
-        <v>-0.0086358999833464622</v>
+        <v>-0.011112299747765064</v>
       </c>
       <c r="D38" s="1">
-        <v>-0.049814801663160324</v>
+        <v>-0.052806101739406586</v>
       </c>
       <c r="E38" s="1">
-        <v>0.03254299983382225</v>
+        <v>0.03058139979839325</v>
       </c>
     </row>
     <row r="39">
@@ -861,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="C39" s="1">
-        <v>-0.0051901000551879406</v>
+        <v>-0.0072210999205708504</v>
       </c>
       <c r="D39" s="1">
-        <v>-0.047931898385286331</v>
+        <v>-0.050702601671218872</v>
       </c>
       <c r="E39" s="1">
-        <v>0.037551801651716232</v>
+        <v>0.036260299384593964</v>
       </c>
     </row>
     <row r="40">
@@ -878,13 +878,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="1">
-        <v>-0.0072762998752295971</v>
+        <v>-0.0084653003141283989</v>
       </c>
       <c r="D40" s="1">
-        <v>-0.060942299664020538</v>
+        <v>-0.063210397958755493</v>
       </c>
       <c r="E40" s="1">
-        <v>0.04638969898223877</v>
+        <v>0.046279899775981903</v>
       </c>
     </row>
     <row r="41">
@@ -895,13 +895,13 @@
         <v>13</v>
       </c>
       <c r="C41" s="1">
-        <v>-0.023823700845241547</v>
+        <v>-0.024527400732040405</v>
       </c>
       <c r="D41" s="1">
-        <v>-0.076234400272369385</v>
+        <v>-0.077508799731731415</v>
       </c>
       <c r="E41" s="1">
-        <v>0.02858709916472435</v>
+        <v>0.028454000130295753</v>
       </c>
     </row>
     <row r="42">
@@ -912,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="C42" s="1">
-        <v>-0.02451770007610321</v>
+        <v>-0.025157500058412552</v>
       </c>
       <c r="D42" s="1">
-        <v>-0.076747402548789978</v>
+        <v>-0.078260503709316254</v>
       </c>
       <c r="E42" s="1">
-        <v>0.027711899951100349</v>
+        <v>0.02794560045003891</v>
       </c>
     </row>
     <row r="43">
@@ -929,13 +929,13 @@
         <v>13</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.018589399755001068</v>
+        <v>-0.020154900848865509</v>
       </c>
       <c r="D43" s="1">
-        <v>-0.067317098379135132</v>
+        <v>-0.069958798587322235</v>
       </c>
       <c r="E43" s="1">
-        <v>0.030138300731778145</v>
+        <v>0.029649000614881516</v>
       </c>
     </row>
     <row r="44">
@@ -946,13 +946,13 @@
         <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>-0.08275739848613739</v>
+        <v>-0.083253301680088043</v>
       </c>
       <c r="D44" s="1">
-        <v>-0.1137629970908165</v>
+        <v>-0.11409930139780045</v>
       </c>
       <c r="E44" s="1">
-        <v>-0.051751799881458282</v>
+        <v>-0.052407298237085342</v>
       </c>
     </row>
     <row r="45">
@@ -963,13 +963,13 @@
         <v>14</v>
       </c>
       <c r="C45" s="1">
-        <v>-0.076173797249794006</v>
+        <v>-0.076646298170089722</v>
       </c>
       <c r="D45" s="1">
-        <v>-0.11416950076818466</v>
+        <v>-0.11476670205593109</v>
       </c>
       <c r="E45" s="1">
-        <v>-0.038178000599145889</v>
+        <v>-0.038525998592376709</v>
       </c>
     </row>
     <row r="46">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="C46" s="1">
-        <v>-0.073344603180885315</v>
+        <v>-0.075423501431941986</v>
       </c>
       <c r="D46" s="1">
-        <v>-0.10527220368385315</v>
+        <v>-0.10816910117864609</v>
       </c>
       <c r="E46" s="1">
-        <v>-0.041416998952627182</v>
+        <v>-0.042677901685237885</v>
       </c>
     </row>
     <row r="47">
@@ -997,13 +997,13 @@
         <v>14</v>
       </c>
       <c r="C47" s="1">
-        <v>-0.075696296989917755</v>
+        <v>-0.079169102013111115</v>
       </c>
       <c r="D47" s="1">
-        <v>-0.10550670325756073</v>
+        <v>-0.10918659716844559</v>
       </c>
       <c r="E47" s="1">
-        <v>-0.045885898172855377</v>
+        <v>-0.049151498824357986</v>
       </c>
     </row>
     <row r="48">
@@ -1014,13 +1014,13 @@
         <v>14</v>
       </c>
       <c r="C48" s="1">
-        <v>-0.076671898365020752</v>
+        <v>-0.080334596335887909</v>
       </c>
       <c r="D48" s="1">
-        <v>-0.11777590215206146</v>
+        <v>-0.12054619938135147</v>
       </c>
       <c r="E48" s="1">
-        <v>-0.03556789830327034</v>
+        <v>-0.040123000741004944</v>
       </c>
     </row>
     <row r="49">
@@ -1031,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="C49" s="1">
-        <v>-0.061333101242780685</v>
+        <v>-0.063561096787452698</v>
       </c>
       <c r="D49" s="1">
-        <v>-0.11091510206460953</v>
+        <v>-0.11276890337467194</v>
       </c>
       <c r="E49" s="1">
-        <v>-0.011751200072467327</v>
+        <v>-0.014353199861943722</v>
       </c>
     </row>
     <row r="50">
@@ -1048,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="C50" s="1">
-        <v>-0.029354099184274673</v>
+        <v>-0.028496600687503815</v>
       </c>
       <c r="D50" s="1">
-        <v>-0.056036800146102905</v>
+        <v>-0.055451199412345886</v>
       </c>
       <c r="E50" s="1">
-        <v>-0.0026714999694377184</v>
+        <v>-0.0015419999836012721</v>
       </c>
     </row>
     <row r="51">
@@ -1065,13 +1065,13 @@
         <v>15</v>
       </c>
       <c r="C51" s="1">
-        <v>-0.047192301601171494</v>
+        <v>-0.046444699168205261</v>
       </c>
       <c r="D51" s="1">
-        <v>-0.072742000222206116</v>
+        <v>-0.072406403720378876</v>
       </c>
       <c r="E51" s="1">
-        <v>-0.021642699837684631</v>
+        <v>-0.020482899621129036</v>
       </c>
     </row>
     <row r="52">
@@ -1082,13 +1082,13 @@
         <v>15</v>
       </c>
       <c r="C52" s="1">
-        <v>-0.053990498185157776</v>
+        <v>-0.053283698856830597</v>
       </c>
       <c r="D52" s="1">
-        <v>-0.076124399900436401</v>
+        <v>-0.075409598648548126</v>
       </c>
       <c r="E52" s="1">
-        <v>-0.03185649961233139</v>
+        <v>-0.031157800927758217</v>
       </c>
     </row>
     <row r="53">
@@ -1099,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="C53" s="1">
-        <v>-0.063012696802616119</v>
+        <v>-0.061563901603221893</v>
       </c>
       <c r="D53" s="1">
-        <v>-0.085618898272514343</v>
+        <v>-0.083559699356555939</v>
       </c>
       <c r="E53" s="1">
-        <v>-0.040406398475170135</v>
+        <v>-0.039568100124597549</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1116,13 @@
         <v>15</v>
       </c>
       <c r="C54" s="1">
-        <v>-0.065182097256183624</v>
+        <v>-0.063780099153518677</v>
       </c>
       <c r="D54" s="1">
-        <v>-0.089397802948951721</v>
+        <v>-0.087359502911567688</v>
       </c>
       <c r="E54" s="1">
-        <v>-0.040966499596834183</v>
+        <v>-0.040200799703598022</v>
       </c>
     </row>
     <row r="55">
@@ -1133,13 +1133,13 @@
         <v>15</v>
       </c>
       <c r="C55" s="1">
-        <v>-0.067451201379299164</v>
+        <v>-0.066208899021148682</v>
       </c>
       <c r="D55" s="1">
-        <v>-0.096511602401733398</v>
+        <v>-0.094490602612495422</v>
       </c>
       <c r="E55" s="1">
-        <v>-0.038390800356864929</v>
+        <v>-0.037927098572254181</v>
       </c>
     </row>
     <row r="56">
@@ -4484,10 +4484,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>0.29346328973770142</v>
+        <v>0.29562771320343018</v>
       </c>
       <c r="B66" s="1">
-        <v>0.022922299802303314</v>
+        <v>0.023122400045394897</v>
       </c>
       <c r="C66" s="1">
         <v>0.5</v>
@@ -4499,18 +4499,18 @@
         <v>5</v>
       </c>
       <c r="F66" s="1">
-        <v>0.3383910059928894</v>
+        <v>0.34094759821891785</v>
       </c>
       <c r="G66" s="1">
-        <v>0.24853560328483582</v>
+        <v>0.25030779838562012</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>0.29125800728797913</v>
+        <v>0.29379680752754211</v>
       </c>
       <c r="B67" s="1">
-        <v>0.025980100035667419</v>
+        <v>0.026009799912571907</v>
       </c>
       <c r="C67" s="1">
         <v>1.5</v>
@@ -4522,18 +4522,18 @@
         <v>5</v>
       </c>
       <c r="F67" s="1">
-        <v>0.34217900037765503</v>
+        <v>0.34477600455284119</v>
       </c>
       <c r="G67" s="1">
-        <v>0.24033699929714203</v>
+        <v>0.24281759560108185</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>0.29702439904212952</v>
+        <v>0.29921668767929077</v>
       </c>
       <c r="B68" s="1">
-        <v>0.026531999930739403</v>
+        <v>0.026417499408125877</v>
       </c>
       <c r="C68" s="1">
         <v>2.5</v>
@@ -4545,18 +4545,18 @@
         <v>5</v>
       </c>
       <c r="F68" s="1">
-        <v>0.34902709722518921</v>
+        <v>0.35099500417709351</v>
       </c>
       <c r="G68" s="1">
-        <v>0.24502170085906982</v>
+        <v>0.24743840098381042</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>0.29718101024627686</v>
+        <v>0.29836991429328918</v>
       </c>
       <c r="B69" s="1">
-        <v>0.025366000831127167</v>
+        <v>0.025427399203181267</v>
       </c>
       <c r="C69" s="1">
         <v>3.5</v>
@@ -4568,18 +4568,18 @@
         <v>5</v>
       </c>
       <c r="F69" s="1">
-        <v>0.3468984067440033</v>
+        <v>0.34820759296417236</v>
       </c>
       <c r="G69" s="1">
-        <v>0.24746359884738922</v>
+        <v>0.24853220582008362</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>0.2953169047832489</v>
+        <v>0.29633298516273499</v>
       </c>
       <c r="B70" s="1">
-        <v>0.025551199913024902</v>
+        <v>0.025622600689530373</v>
       </c>
       <c r="C70" s="1">
         <v>4.5</v>
@@ -4591,18 +4591,18 @@
         <v>5</v>
       </c>
       <c r="F70" s="1">
-        <v>0.34539729356765747</v>
+        <v>0.34655329585075378</v>
       </c>
       <c r="G70" s="1">
-        <v>0.24523650109767914</v>
+        <v>0.24611270427703857</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>0.29796141386032104</v>
+        <v>0.29904669523239136</v>
       </c>
       <c r="B71" s="1">
-        <v>0.024358900263905525</v>
+        <v>0.024389300495386124</v>
       </c>
       <c r="C71" s="1">
         <v>5.5</v>
@@ -4614,18 +4614,18 @@
         <v>5</v>
       </c>
       <c r="F71" s="1">
-        <v>0.34570491313934326</v>
+        <v>0.3468497097492218</v>
       </c>
       <c r="G71" s="1">
-        <v>0.25021800398826599</v>
+        <v>0.2512437105178833</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>0.29048120975494385</v>
+        <v>0.29171189665794373</v>
       </c>
       <c r="B72" s="1">
-        <v>0.026723999530076981</v>
+        <v>0.02664639987051487</v>
       </c>
       <c r="C72" s="1">
         <v>6.5</v>
@@ -4637,18 +4637,18 @@
         <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>0.34286031126976013</v>
+        <v>0.34393879771232605</v>
       </c>
       <c r="G72" s="1">
-        <v>0.23810219764709473</v>
+        <v>0.2394849956035614</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>0.30184260010719299</v>
+        <v>0.30299121141433716</v>
       </c>
       <c r="B73" s="1">
-        <v>0.026318300515413284</v>
+        <v>0.026252800598740578</v>
       </c>
       <c r="C73" s="1">
         <v>7.5</v>
@@ -4660,18 +4660,18 @@
         <v>5</v>
       </c>
       <c r="F73" s="1">
-        <v>0.3534264862537384</v>
+        <v>0.35444670915603638</v>
       </c>
       <c r="G73" s="1">
-        <v>0.25025871396064758</v>
+        <v>0.25153571367263794</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>0.29809111356735229</v>
+        <v>0.29948410391807556</v>
       </c>
       <c r="B74" s="1">
-        <v>0.025827599689364433</v>
+        <v>0.025828799232840538</v>
       </c>
       <c r="C74" s="1">
         <v>8.5</v>
@@ -4683,18 +4683,18 @@
         <v>5</v>
       </c>
       <c r="F74" s="1">
-        <v>0.34871318936347961</v>
+        <v>0.35010859370231628</v>
       </c>
       <c r="G74" s="1">
-        <v>0.24746899306774139</v>
+        <v>0.248859703540802</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>0.30501461029052734</v>
+        <v>0.3062908947467804</v>
       </c>
       <c r="B75" s="1">
-        <v>0.027179699391126633</v>
+        <v>0.02721869945526123</v>
       </c>
       <c r="C75" s="1">
         <v>9.5</v>
@@ -4706,18 +4706,18 @@
         <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>0.35828679800033569</v>
+        <v>0.35963961482048035</v>
       </c>
       <c r="G75" s="1">
-        <v>0.25174239277839661</v>
+        <v>0.25294220447540283</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>0.30073758959770203</v>
+        <v>0.30212411284446716</v>
       </c>
       <c r="B76" s="1">
-        <v>0.026554800570011139</v>
+        <v>0.02659120038151741</v>
       </c>
       <c r="C76" s="1">
         <v>10.5</v>
@@ -4729,18 +4729,18 @@
         <v>5</v>
       </c>
       <c r="F76" s="1">
-        <v>0.35278499126434326</v>
+        <v>0.35424289107322693</v>
       </c>
       <c r="G76" s="1">
-        <v>0.24869020283222198</v>
+        <v>0.25000539422035217</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>0.29600319266319275</v>
+        <v>0.29764890670776367</v>
       </c>
       <c r="B77" s="1">
-        <v>0.023955199867486954</v>
+        <v>0.024072399362921715</v>
       </c>
       <c r="C77" s="1">
         <v>11.5</v>
@@ -4752,18 +4752,18 @@
         <v>5</v>
       </c>
       <c r="F77" s="1">
-        <v>0.34295541048049927</v>
+        <v>0.34483081102371216</v>
       </c>
       <c r="G77" s="1">
-        <v>0.24905100464820862</v>
+        <v>0.25046700239181519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>0.29374051094055176</v>
+        <v>0.29535010457038879</v>
       </c>
       <c r="B78" s="1">
-        <v>0.024193499237298965</v>
+        <v>0.024101000279188156</v>
       </c>
       <c r="C78" s="1">
         <v>12.5</v>
@@ -4775,18 +4775,18 @@
         <v>5</v>
       </c>
       <c r="F78" s="1">
-        <v>0.34115979075431824</v>
+        <v>0.34258809685707092</v>
       </c>
       <c r="G78" s="1">
-        <v>0.24632120132446289</v>
+        <v>0.24811209738254547</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>0.2857201099395752</v>
+        <v>0.28717079758644104</v>
       </c>
       <c r="B79" s="1">
-        <v>0.021702000871300697</v>
+        <v>0.021642699837684631</v>
       </c>
       <c r="C79" s="1">
         <v>13.5</v>
@@ -4798,18 +4798,18 @@
         <v>5</v>
       </c>
       <c r="F79" s="1">
-        <v>0.32825601100921631</v>
+        <v>0.32959049940109253</v>
       </c>
       <c r="G79" s="1">
-        <v>0.24318419396877289</v>
+        <v>0.24475109577178955</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>0.27501249313354492</v>
+        <v>0.27645140886306763</v>
       </c>
       <c r="B80" s="1">
-        <v>0.02011529915034771</v>
+        <v>0.020148599520325661</v>
       </c>
       <c r="C80" s="1">
         <v>14.5</v>
@@ -4821,18 +4821,18 @@
         <v>5</v>
       </c>
       <c r="F80" s="1">
-        <v>0.31443849205970764</v>
+        <v>0.31594270467758179</v>
       </c>
       <c r="G80" s="1">
-        <v>0.2355864942073822</v>
+        <v>0.23696020245552063</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>0.27093571424484253</v>
+        <v>0.27241900563240051</v>
       </c>
       <c r="B81" s="1">
-        <v>0.020248899236321449</v>
+        <v>0.020303200930356979</v>
       </c>
       <c r="C81" s="1">
         <v>15.5</v>
@@ -4844,10 +4844,10 @@
         <v>5</v>
       </c>
       <c r="F81" s="1">
-        <v>0.31062358617782593</v>
+        <v>0.31221330165863037</v>
       </c>
       <c r="G81" s="1">
-        <v>0.23124790191650391</v>
+        <v>0.23262469470500946</v>
       </c>
     </row>
   </sheetData>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="52">
   <si>
     <t>adm0</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>Home isolation*</t>
   </si>
+  <si>
+    <t>No gathering</t>
+  </si>
 </sst>
 </file>
 
@@ -238,16 +241,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0">
-        <v>-0.0082561001181602478</v>
-      </c>
-      <c r="D2" s="0">
-        <v>-0.065253898501396179</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0.048741601407527924</v>
+        <v>51</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.010312000289559364</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.068523399531841278</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.047899298369884491</v>
       </c>
     </row>
     <row r="3">
@@ -255,16 +258,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0">
-        <v>0.02606390044093132</v>
-      </c>
-      <c r="D3" s="0">
-        <v>-0.053167998790740967</v>
-      </c>
-      <c r="E3" s="0">
-        <v>0.10529589653015137</v>
+        <v>51</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.021823300048708916</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.058582000434398651</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.10222859680652618</v>
       </c>
     </row>
     <row r="4">
@@ -272,16 +275,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0">
-        <v>-0.012575199827551842</v>
-      </c>
-      <c r="D4" s="0">
-        <v>-0.063942499458789825</v>
-      </c>
-      <c r="E4" s="0">
-        <v>0.038792099803686142</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-0.015444899909198284</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.068040698766708374</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.037150900810956955</v>
       </c>
     </row>
     <row r="5">
@@ -289,16 +292,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0">
-        <v>-0.032948698848485947</v>
-      </c>
-      <c r="D5" s="0">
-        <v>-0.083888202905654907</v>
-      </c>
-      <c r="E5" s="0">
-        <v>0.017990700900554657</v>
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-0.038050100207328796</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.089286096394062042</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.013185800053179264</v>
       </c>
     </row>
     <row r="6">
@@ -306,16 +309,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0">
-        <v>-0.012658099643886089</v>
-      </c>
-      <c r="D6" s="0">
-        <v>-0.062964096665382385</v>
-      </c>
-      <c r="E6" s="0">
-        <v>0.037647999823093414</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.015242800116539001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-0.066220499575138092</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.035734999924898148</v>
       </c>
     </row>
     <row r="7">
@@ -323,16 +326,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0.013112599961459637</v>
-      </c>
-      <c r="D7" s="0">
-        <v>-0.057287398725748062</v>
-      </c>
-      <c r="E7" s="0">
-        <v>0.083512596786022186</v>
+        <v>51</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.011324799619615078</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-0.060419399291276932</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.083068899810314178</v>
       </c>
     </row>
     <row r="8">
@@ -342,14 +345,14 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="0">
-        <v>-0.11061619967222214</v>
-      </c>
-      <c r="D8" s="0">
-        <v>-0.23103910684585571</v>
-      </c>
-      <c r="E8" s="0">
-        <v>0.0098067000508308411</v>
+      <c r="C8" s="1">
+        <v>-0.11849139630794525</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.23049640655517578</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-0.0064864000305533409</v>
       </c>
     </row>
     <row r="9">
@@ -359,14 +362,14 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="0">
-        <v>-0.19328950345516205</v>
-      </c>
-      <c r="D9" s="0">
-        <v>-0.31998229026794434</v>
-      </c>
-      <c r="E9" s="0">
-        <v>-0.066596798598766327</v>
+      <c r="C9" s="1">
+        <v>-0.18399220705032349</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.30763658881187439</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.060347799211740494</v>
       </c>
     </row>
     <row r="10">
@@ -376,14 +379,14 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0">
-        <v>-0.20695249736309052</v>
-      </c>
-      <c r="D10" s="0">
-        <v>-0.31713360548019409</v>
-      </c>
-      <c r="E10" s="0">
-        <v>-0.096771396696567535</v>
+      <c r="C10" s="1">
+        <v>-0.20545209944248199</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.31066828966140747</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.10023579746484756</v>
       </c>
     </row>
     <row r="11">
@@ -393,14 +396,14 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="0">
-        <v>-0.13760590553283691</v>
-      </c>
-      <c r="D11" s="0">
-        <v>-0.22750170528888702</v>
-      </c>
-      <c r="E11" s="0">
-        <v>-0.047710098326206207</v>
+      <c r="C11" s="1">
+        <v>-0.12754009664058685</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-0.2129732072353363</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.042107000946998596</v>
       </c>
     </row>
     <row r="12">
@@ -410,14 +413,14 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="0">
-        <v>-0.22423550486564636</v>
-      </c>
-      <c r="D12" s="0">
-        <v>-0.30983808636665344</v>
-      </c>
-      <c r="E12" s="0">
-        <v>-0.13863299787044525</v>
+      <c r="C12" s="1">
+        <v>-0.2173352986574173</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.2974810004234314</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.13718970119953156</v>
       </c>
     </row>
     <row r="13">
@@ -427,14 +430,14 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="0">
-        <v>-0.25031149387359619</v>
-      </c>
-      <c r="D13" s="0">
-        <v>-0.34570419788360596</v>
-      </c>
-      <c r="E13" s="0">
-        <v>-0.15491870045661926</v>
+      <c r="C13" s="1">
+        <v>-0.24582080543041229</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.33625990152359009</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.1553816944360733</v>
       </c>
     </row>
     <row r="14">
@@ -444,14 +447,14 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="0">
-        <v>-0.031532701104879379</v>
-      </c>
-      <c r="D14" s="0">
-        <v>-0.094829797744750977</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0.031764499843120575</v>
+      <c r="C14" s="1">
+        <v>-0.029157500714063644</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.094047799706459045</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.035732898861169815</v>
       </c>
     </row>
     <row r="15">
@@ -461,14 +464,14 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="0">
-        <v>-0.049695100635290146</v>
-      </c>
-      <c r="D15" s="0">
-        <v>-0.10701250284910202</v>
-      </c>
-      <c r="E15" s="0">
-        <v>0.0076223998330533504</v>
+      <c r="C15" s="1">
+        <v>-0.050004001706838608</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.11011850088834763</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.010110599920153618</v>
       </c>
     </row>
     <row r="16">
@@ -478,14 +481,14 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="0">
-        <v>-0.069177098572254181</v>
-      </c>
-      <c r="D16" s="0">
-        <v>-0.12231379747390747</v>
-      </c>
-      <c r="E16" s="0">
-        <v>-0.016040399670600891</v>
+      <c r="C16" s="1">
+        <v>-0.06653209775686264</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.12157870084047318</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.011485399678349495</v>
       </c>
     </row>
     <row r="17">
@@ -495,14 +498,14 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="0">
-        <v>-0.082514002919197083</v>
-      </c>
-      <c r="D17" s="0">
-        <v>-0.13824689388275146</v>
-      </c>
-      <c r="E17" s="0">
-        <v>-0.026781199499964714</v>
+      <c r="C17" s="1">
+        <v>-0.079225599765777588</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.13572660088539124</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.022724499925971031</v>
       </c>
     </row>
     <row r="18">
@@ -512,14 +515,14 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="0">
-        <v>-0.064142100512981415</v>
-      </c>
-      <c r="D18" s="0">
-        <v>-0.12888219952583313</v>
-      </c>
-      <c r="E18" s="0">
-        <v>0.00059790001250803471</v>
+      <c r="C18" s="1">
+        <v>-0.060759499669075012</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.12690219283103943</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.0053832000121474266</v>
       </c>
     </row>
     <row r="19">
@@ -529,14 +532,14 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="0">
-        <v>-0.063355103135108948</v>
-      </c>
-      <c r="D19" s="0">
-        <v>-0.1257932037115097</v>
-      </c>
-      <c r="E19" s="0">
-        <v>-0.00091689999680966139</v>
+      <c r="C19" s="1">
+        <v>-0.061259001493453979</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.12464150041341782</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.0021234001033008099</v>
       </c>
     </row>
     <row r="20">
@@ -546,14 +549,14 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="0">
-        <v>-0.015815300866961479</v>
-      </c>
-      <c r="D20" s="0">
-        <v>-0.12217990309000015</v>
-      </c>
-      <c r="E20" s="0">
-        <v>0.090549297630786896</v>
+      <c r="C20" s="1">
+        <v>-0.013413799926638603</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.10227619856595993</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.075448699295520782</v>
       </c>
     </row>
     <row r="21">
@@ -563,14 +566,14 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="0">
-        <v>-0.068355098366737366</v>
-      </c>
-      <c r="D21" s="0">
-        <v>-0.18509109318256378</v>
-      </c>
-      <c r="E21" s="0">
-        <v>0.048380900174379349</v>
+      <c r="C21" s="1">
+        <v>-0.040389001369476318</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.13513609766960144</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.054358098655939102</v>
       </c>
     </row>
     <row r="22">
@@ -580,14 +583,14 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="0">
-        <v>0.0046492000110447407</v>
-      </c>
-      <c r="D22" s="0">
-        <v>-0.10116969794034958</v>
-      </c>
-      <c r="E22" s="0">
-        <v>0.11046809703111649</v>
+      <c r="C22" s="1">
+        <v>0.013529299758374691</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-0.082507498562335968</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.1095660999417305</v>
       </c>
     </row>
     <row r="23">
@@ -597,14 +600,14 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="0">
-        <v>-0.058158598840236664</v>
-      </c>
-      <c r="D23" s="0">
-        <v>-0.15890470147132874</v>
-      </c>
-      <c r="E23" s="0">
-        <v>0.042587600648403168</v>
+      <c r="C23" s="1">
+        <v>-0.04893210157752037</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-0.1284417062997818</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.03057749941945076</v>
       </c>
     </row>
     <row r="24">
@@ -614,14 +617,14 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="0">
-        <v>0.0062216999940574169</v>
-      </c>
-      <c r="D24" s="0">
-        <v>-0.14672300219535828</v>
-      </c>
-      <c r="E24" s="0">
-        <v>0.15916639566421509</v>
+      <c r="C24" s="1">
+        <v>0.0053237001411616802</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-0.12326300144195557</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.1339104026556015</v>
       </c>
     </row>
     <row r="25">
@@ -631,14 +634,14 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="0">
-        <v>-0.022551300004124641</v>
-      </c>
-      <c r="D25" s="0">
-        <v>-0.22345669567584991</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0.17835420370101929</v>
+      <c r="C25" s="1">
+        <v>-0.026576699689030647</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-0.20317879319190979</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.15002529323101044</v>
       </c>
     </row>
     <row r="26">
@@ -648,14 +651,14 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="0">
-        <v>-0.047858398407697678</v>
-      </c>
-      <c r="D26" s="0">
-        <v>-0.10030820220708847</v>
-      </c>
-      <c r="E26" s="0">
-        <v>0.0045914999209344387</v>
+      <c r="C26" s="1">
+        <v>-0.041132800281047821</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-0.091124698519706726</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.0088590998202562332</v>
       </c>
     </row>
     <row r="27">
@@ -665,14 +668,14 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="0">
-        <v>-0.036541398614645004</v>
-      </c>
-      <c r="D27" s="0">
-        <v>-0.086932897567749023</v>
-      </c>
-      <c r="E27" s="0">
-        <v>0.013850199989974499</v>
+      <c r="C27" s="1">
+        <v>-0.03238309919834137</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.080135896801948547</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.015369599685072899</v>
       </c>
     </row>
     <row r="28">
@@ -682,14 +685,14 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="0">
-        <v>-0.037433799356222153</v>
-      </c>
-      <c r="D28" s="0">
-        <v>-0.08451080322265625</v>
-      </c>
-      <c r="E28" s="0">
-        <v>0.0096431998535990715</v>
+      <c r="C28" s="1">
+        <v>-0.032727498561143875</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.075959697365760803</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.010504700243473053</v>
       </c>
     </row>
     <row r="29">
@@ -699,14 +702,14 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="0">
-        <v>-0.036309801042079926</v>
-      </c>
-      <c r="D29" s="0">
-        <v>-0.081617303192615509</v>
-      </c>
-      <c r="E29" s="0">
-        <v>0.0089977001771330833</v>
+      <c r="C29" s="1">
+        <v>-0.030230000615119934</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-0.072589203715324402</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.012129100039601326</v>
       </c>
     </row>
     <row r="30">
@@ -716,14 +719,14 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="0">
-        <v>-0.043020900338888168</v>
-      </c>
-      <c r="D30" s="0">
-        <v>-0.084574498236179352</v>
-      </c>
-      <c r="E30" s="0">
-        <v>-0.0014672999968752265</v>
+      <c r="C30" s="1">
+        <v>-0.037640400230884552</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.075827203691005707</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.00054650002857670188</v>
       </c>
     </row>
     <row r="31">
@@ -733,14 +736,14 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="0">
-        <v>-0.052498098462820053</v>
-      </c>
-      <c r="D31" s="0">
-        <v>-0.090909399092197418</v>
-      </c>
-      <c r="E31" s="0">
-        <v>-0.014086700044572353</v>
+      <c r="C31" s="1">
+        <v>-0.04715690016746521</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.081775397062301636</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.012538399547338486</v>
       </c>
     </row>
     <row r="32">
@@ -750,14 +753,14 @@
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="0">
-        <v>0.009579099714756012</v>
-      </c>
-      <c r="D32" s="0">
-        <v>-0.022227799519896507</v>
-      </c>
-      <c r="E32" s="0">
-        <v>0.041386101394891739</v>
+      <c r="C32" s="1">
+        <v>0.0061376001685857773</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-0.025129800662398338</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.037404999136924744</v>
       </c>
     </row>
     <row r="33">
@@ -767,14 +770,14 @@
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="0">
-        <v>0.014879800379276276</v>
-      </c>
-      <c r="D33" s="0">
-        <v>-0.027994100004434586</v>
-      </c>
-      <c r="E33" s="0">
-        <v>0.057753700762987137</v>
+      <c r="C33" s="1">
+        <v>0.011590000241994858</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-0.031978901475667953</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.055158801376819611</v>
       </c>
     </row>
     <row r="34">
@@ -784,14 +787,14 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="0">
-        <v>0.0081957001239061356</v>
-      </c>
-      <c r="D34" s="0">
-        <v>-0.027438400313258171</v>
-      </c>
-      <c r="E34" s="0">
-        <v>0.043829798698425293</v>
+      <c r="C34" s="1">
+        <v>0.0060467999428510666</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.031293898820877075</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.043387401849031448</v>
       </c>
     </row>
     <row r="35">
@@ -801,14 +804,14 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="0">
-        <v>0.00152449996676296</v>
-      </c>
-      <c r="D35" s="0">
-        <v>-0.041563399136066437</v>
-      </c>
-      <c r="E35" s="0">
-        <v>0.044612400233745575</v>
+      <c r="C35" s="1">
+        <v>0.0026072000619024038</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-0.042939398437738419</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.048153899610042572</v>
       </c>
     </row>
     <row r="36">
@@ -818,14 +821,14 @@
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="0">
-        <v>-0.0010160000529140234</v>
-      </c>
-      <c r="D36" s="0">
-        <v>-0.055392000824213028</v>
-      </c>
-      <c r="E36" s="0">
-        <v>0.053360000252723694</v>
+      <c r="C36" s="1">
+        <v>0.00053339998703449965</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-0.057017598301172256</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.058084499090909958</v>
       </c>
     </row>
     <row r="37">
@@ -835,14 +838,14 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="0">
-        <v>0.023939099162817001</v>
-      </c>
-      <c r="D37" s="0">
-        <v>-0.036191001534461975</v>
-      </c>
-      <c r="E37" s="0">
-        <v>0.084069199860095978</v>
+      <c r="C37" s="1">
+        <v>0.0257594995200634</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-0.036660399287939072</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.088179402053356171</v>
       </c>
     </row>
     <row r="38">
@@ -852,14 +855,14 @@
       <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="0">
-        <v>0.026365200057625771</v>
-      </c>
-      <c r="D38" s="0">
-        <v>-0.035362798720598221</v>
-      </c>
-      <c r="E38" s="0">
-        <v>0.088093198835849762</v>
+      <c r="C38" s="1">
+        <v>0.027635600417852402</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-0.033190999180078506</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.088462196290493011</v>
       </c>
     </row>
     <row r="39">
@@ -869,14 +872,14 @@
       <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="0">
-        <v>0.026520499959588051</v>
-      </c>
-      <c r="D39" s="0">
-        <v>-0.033819198608398438</v>
-      </c>
-      <c r="E39" s="0">
-        <v>0.086860202252864838</v>
+      <c r="C39" s="1">
+        <v>0.02440669946372509</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.035424001514911652</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.084237396717071533</v>
       </c>
     </row>
     <row r="40">
@@ -886,14 +889,14 @@
       <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="0">
-        <v>-0.0010962999658659101</v>
-      </c>
-      <c r="D40" s="0">
-        <v>-0.064004398882389069</v>
-      </c>
-      <c r="E40" s="0">
-        <v>0.061811801046133041</v>
+      <c r="C40" s="1">
+        <v>-0.005272699985653162</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.069731399416923523</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.059186000376939774</v>
       </c>
     </row>
     <row r="41">
@@ -903,14 +906,14 @@
       <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="0">
-        <v>-0.0090851001441478729</v>
-      </c>
-      <c r="D41" s="0">
-        <v>-0.067642703652381897</v>
-      </c>
-      <c r="E41" s="0">
-        <v>0.049472399055957794</v>
+      <c r="C41" s="1">
+        <v>-0.012423399835824966</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-0.071038499474525452</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.046191699802875519</v>
       </c>
     </row>
     <row r="42">
@@ -920,14 +923,14 @@
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="0">
-        <v>0.0029627999756485224</v>
-      </c>
-      <c r="D42" s="0">
-        <v>-0.062668800354003906</v>
-      </c>
-      <c r="E42" s="0">
-        <v>0.068594500422477722</v>
+      <c r="C42" s="1">
+        <v>-0.0048263999633491039</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-0.070660799741744995</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.061007998883724213</v>
       </c>
     </row>
     <row r="43">
@@ -937,14 +940,14 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="0">
-        <v>0.0001905999961309135</v>
-      </c>
-      <c r="D43" s="0">
-        <v>-0.066010996699333191</v>
-      </c>
-      <c r="E43" s="0">
-        <v>0.066392198204994202</v>
+      <c r="C43" s="1">
+        <v>-0.008389599621295929</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-0.075975902378559113</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.059196799993515015</v>
       </c>
     </row>
     <row r="44">
@@ -954,14 +957,14 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="0">
-        <v>-0.066577300429344177</v>
-      </c>
-      <c r="D44" s="0">
-        <v>-0.10710909962654114</v>
-      </c>
-      <c r="E44" s="0">
-        <v>-0.026045599952340126</v>
+      <c r="C44" s="1">
+        <v>-0.061126798391342163</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-0.10152249783277512</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-0.020731000229716301</v>
       </c>
     </row>
     <row r="45">
@@ -971,14 +974,14 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="0">
-        <v>-0.063893400132656097</v>
-      </c>
-      <c r="D45" s="0">
-        <v>-0.10928969830274582</v>
-      </c>
-      <c r="E45" s="0">
-        <v>-0.018497100099921227</v>
+      <c r="C45" s="1">
+        <v>-0.060033198446035385</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-0.10462579876184464</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-0.015440599992871284</v>
       </c>
     </row>
     <row r="46">
@@ -988,14 +991,14 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="0">
-        <v>-0.063940398395061493</v>
-      </c>
-      <c r="D46" s="0">
-        <v>-0.10464829951524734</v>
-      </c>
-      <c r="E46" s="0">
-        <v>-0.02323249913752079</v>
+      <c r="C46" s="1">
+        <v>-0.059325799345970154</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-0.098447896540164948</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-0.020203800871968269</v>
       </c>
     </row>
     <row r="47">
@@ -1005,14 +1008,14 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="0">
-        <v>-0.064452499151229858</v>
-      </c>
-      <c r="D47" s="0">
-        <v>-0.096075601875782013</v>
-      </c>
-      <c r="E47" s="0">
-        <v>-0.032829400151968002</v>
+      <c r="C47" s="1">
+        <v>-0.060914698988199234</v>
+      </c>
+      <c r="D47" s="1">
+        <v>-0.09173160046339035</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-0.030097799375653267</v>
       </c>
     </row>
     <row r="48">
@@ -1022,14 +1025,14 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="0">
-        <v>-0.056740600615739822</v>
-      </c>
-      <c r="D48" s="0">
-        <v>-0.095567196607589722</v>
-      </c>
-      <c r="E48" s="0">
-        <v>-0.017914000898599625</v>
+      <c r="C48" s="1">
+        <v>-0.05251619964838028</v>
+      </c>
+      <c r="D48" s="1">
+        <v>-0.090736299753189087</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-0.014295999892055988</v>
       </c>
     </row>
     <row r="49">
@@ -1039,14 +1042,14 @@
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="0">
-        <v>-0.059118300676345825</v>
-      </c>
-      <c r="D49" s="0">
-        <v>-0.10247710347175598</v>
-      </c>
-      <c r="E49" s="0">
-        <v>-0.015759499743580818</v>
+      <c r="C49" s="1">
+        <v>-0.054601401090621948</v>
+      </c>
+      <c r="D49" s="1">
+        <v>-0.097254097461700439</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-0.0119486004114151</v>
       </c>
     </row>
     <row r="50">
@@ -1056,14 +1059,14 @@
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="0">
-        <v>0.031122500076889992</v>
-      </c>
-      <c r="D50" s="0">
-        <v>-0.0018491999944671988</v>
-      </c>
-      <c r="E50" s="0">
-        <v>0.064094200730323792</v>
+      <c r="C50" s="1">
+        <v>0.030461499467492104</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-0.0024574000854045153</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.063380397856235504</v>
       </c>
     </row>
     <row r="51">
@@ -1073,14 +1076,14 @@
       <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="0">
-        <v>0.02805200032889843</v>
-      </c>
-      <c r="D51" s="0">
-        <v>-0.0049049998633563519</v>
-      </c>
-      <c r="E51" s="0">
-        <v>0.06100890040397644</v>
+      <c r="C51" s="1">
+        <v>0.024932699277997017</v>
+      </c>
+      <c r="D51" s="1">
+        <v>-0.007548800203949213</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.057414200156927109</v>
       </c>
     </row>
     <row r="52">
@@ -1090,14 +1093,14 @@
       <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="0">
-        <v>0.032415200024843216</v>
-      </c>
-      <c r="D52" s="0">
-        <v>-0.0063224001787602901</v>
-      </c>
-      <c r="E52" s="0">
-        <v>0.071152903139591217</v>
+      <c r="C52" s="1">
+        <v>0.026885999366641045</v>
+      </c>
+      <c r="D52" s="1">
+        <v>-0.012327400036156178</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.066099397838115692</v>
       </c>
     </row>
     <row r="53">
@@ -1107,14 +1110,14 @@
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="0">
-        <v>0.036841999739408493</v>
-      </c>
-      <c r="D53" s="0">
-        <v>-0.0010896000312641263</v>
-      </c>
-      <c r="E53" s="0">
-        <v>0.074773602187633514</v>
+      <c r="C53" s="1">
+        <v>0.033984299749135971</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-0.0034439000301063061</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.071412503719329834</v>
       </c>
     </row>
     <row r="54">
@@ -1124,14 +1127,14 @@
       <c r="B54" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="0">
-        <v>0.030281199142336845</v>
-      </c>
-      <c r="D54" s="0">
-        <v>-0.0078007001429796219</v>
-      </c>
-      <c r="E54" s="0">
-        <v>0.068363003432750702</v>
+      <c r="C54" s="1">
+        <v>0.022633099928498268</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-0.015199099667370319</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.060465298593044281</v>
       </c>
     </row>
     <row r="55">
@@ -1141,14 +1144,14 @@
       <c r="B55" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="0">
-        <v>0.014898600056767464</v>
-      </c>
-      <c r="D55" s="0">
-        <v>-0.026490900665521622</v>
-      </c>
-      <c r="E55" s="0">
-        <v>0.056288201361894608</v>
+      <c r="C55" s="1">
+        <v>0.0075861997902393341</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-0.034021500498056412</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.04919390007853508</v>
       </c>
     </row>
     <row r="56">
@@ -1158,14 +1161,14 @@
       <c r="B56" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="0">
-        <v>-0.14210879802703857</v>
-      </c>
-      <c r="D56" s="0">
-        <v>-0.19371959567070007</v>
-      </c>
-      <c r="E56" s="0">
-        <v>-0.090498000383377075</v>
+      <c r="C56" s="1">
+        <v>-0.14095400273799896</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-0.19366669654846191</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-0.088241301476955414</v>
       </c>
     </row>
     <row r="57">
@@ -1175,14 +1178,14 @@
       <c r="B57" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="0">
-        <v>-0.11295729875564575</v>
-      </c>
-      <c r="D57" s="0">
-        <v>-0.17420129477977753</v>
-      </c>
-      <c r="E57" s="0">
-        <v>-0.051713299006223679</v>
+      <c r="C57" s="1">
+        <v>-0.11598879843950272</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-0.17835879325866699</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-0.0536189004778862</v>
       </c>
     </row>
     <row r="58">
@@ -1192,14 +1195,14 @@
       <c r="B58" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="0">
-        <v>-0.13845759630203247</v>
-      </c>
-      <c r="D58" s="0">
-        <v>-0.19849829375743866</v>
-      </c>
-      <c r="E58" s="0">
-        <v>-0.078416801989078522</v>
+      <c r="C58" s="1">
+        <v>-0.13805399835109711</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-0.19840130209922791</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-0.077706597745418549</v>
       </c>
     </row>
     <row r="59">
@@ -1209,14 +1212,14 @@
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="0">
-        <v>-0.16503560543060303</v>
-      </c>
-      <c r="D59" s="0">
-        <v>-0.21292440593242645</v>
-      </c>
-      <c r="E59" s="0">
-        <v>-0.11714679747819901</v>
+      <c r="C59" s="1">
+        <v>-0.16872300207614899</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-0.21544229984283447</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-0.1220036968588829</v>
       </c>
     </row>
     <row r="60">
@@ -1226,14 +1229,14 @@
       <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="0">
-        <v>-0.14333149790763855</v>
-      </c>
-      <c r="D60" s="0">
-        <v>-0.18365620076656342</v>
-      </c>
-      <c r="E60" s="0">
-        <v>-0.10300669819116592</v>
+      <c r="C60" s="1">
+        <v>-0.14328190684318542</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-0.18264660239219666</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-0.10391709953546524</v>
       </c>
     </row>
     <row r="61">
@@ -1243,14 +1246,14 @@
       <c r="B61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="0">
-        <v>-0.12116889655590057</v>
-      </c>
-      <c r="D61" s="0">
-        <v>-0.1758124977350235</v>
-      </c>
-      <c r="E61" s="0">
-        <v>-0.066525302827358246</v>
+      <c r="C61" s="1">
+        <v>-0.12017399817705154</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-0.17395460605621338</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-0.066393397748470306</v>
       </c>
     </row>
     <row r="62">
@@ -1260,14 +1263,14 @@
       <c r="B62" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="0">
-        <v>-0.021204199641942978</v>
-      </c>
-      <c r="D62" s="0">
-        <v>-0.08586689829826355</v>
-      </c>
-      <c r="E62" s="0">
-        <v>0.043458499014377594</v>
+      <c r="C62" s="1">
+        <v>-0.019395200535655022</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-0.078932702541351318</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.040142301470041275</v>
       </c>
     </row>
     <row r="63">
@@ -1277,14 +1280,14 @@
       <c r="B63" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="0">
-        <v>-0.0039033000357449055</v>
-      </c>
-      <c r="D63" s="0">
-        <v>-0.071229398250579834</v>
-      </c>
-      <c r="E63" s="0">
-        <v>0.063422799110412598</v>
+      <c r="C63" s="1">
+        <v>-0.01025409996509552</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-0.071006700396537781</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.050498601049184799</v>
       </c>
     </row>
     <row r="64">
@@ -1294,14 +1297,14 @@
       <c r="B64" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="0">
-        <v>0.032310198992490768</v>
-      </c>
-      <c r="D64" s="0">
-        <v>-0.0096877999603748322</v>
-      </c>
-      <c r="E64" s="0">
-        <v>0.074308201670646667</v>
+      <c r="C64" s="1">
+        <v>0.030562000349164009</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-0.011968200094997883</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.073092199862003326</v>
       </c>
     </row>
     <row r="65">
@@ -1311,14 +1314,14 @@
       <c r="B65" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="0">
-        <v>0.05907440185546875</v>
-      </c>
-      <c r="D65" s="0">
-        <v>0.010922499932348728</v>
-      </c>
-      <c r="E65" s="0">
-        <v>0.10722629725933075</v>
+      <c r="C65" s="1">
+        <v>0.055122200399637222</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.0072631998918950558</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.10298120230436325</v>
       </c>
     </row>
     <row r="66">
@@ -1328,14 +1331,14 @@
       <c r="B66" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="0">
-        <v>0.065580703318119049</v>
-      </c>
-      <c r="D66" s="0">
-        <v>-0.0016401000320911407</v>
-      </c>
-      <c r="E66" s="0">
-        <v>0.13280139863491058</v>
+      <c r="C66" s="1">
+        <v>0.061808299273252487</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-0.0021919999271631241</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.12580870091915131</v>
       </c>
     </row>
     <row r="67">
@@ -1345,14 +1348,14 @@
       <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="0">
-        <v>0.053010698407888412</v>
-      </c>
-      <c r="D67" s="0">
-        <v>-0.024370899423956871</v>
-      </c>
-      <c r="E67" s="0">
-        <v>0.1303924024105072</v>
+      <c r="C67" s="1">
+        <v>0.048536799848079681</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-0.025765899568796158</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.12283950299024582</v>
       </c>
     </row>
     <row r="68">
@@ -1362,14 +1365,14 @@
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="0">
-        <v>-0.20207439363002777</v>
-      </c>
-      <c r="D68" s="0">
-        <v>-0.33875718712806702</v>
-      </c>
-      <c r="E68" s="0">
-        <v>-0.065391600131988525</v>
+      <c r="C68" s="1">
+        <v>-0.20498579740524292</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-0.34607589244842529</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-0.063895702362060547</v>
       </c>
     </row>
     <row r="69">
@@ -1379,14 +1382,14 @@
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="0">
-        <v>-0.19568470120429993</v>
-      </c>
-      <c r="D69" s="0">
-        <v>-0.30378571152687073</v>
-      </c>
-      <c r="E69" s="0">
-        <v>-0.087583698332309723</v>
+      <c r="C69" s="1">
+        <v>-0.19817450642585754</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-0.30937141180038452</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-0.086977496743202209</v>
       </c>
     </row>
     <row r="70">
@@ -1396,14 +1399,14 @@
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="0">
-        <v>-0.14983430504798889</v>
-      </c>
-      <c r="D70" s="0">
-        <v>-0.27187550067901611</v>
-      </c>
-      <c r="E70" s="0">
-        <v>-0.027793200686573982</v>
+      <c r="C70" s="1">
+        <v>-0.14993129670619965</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-0.27480700612068176</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-0.025055499747395515</v>
       </c>
     </row>
     <row r="71">
@@ -1413,14 +1416,14 @@
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="0">
-        <v>-0.15784619748592377</v>
-      </c>
-      <c r="D71" s="0">
-        <v>-0.32371830940246582</v>
-      </c>
-      <c r="E71" s="0">
-        <v>0.0080260001122951508</v>
+      <c r="C71" s="1">
+        <v>-0.15978039801120758</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-0.32809638977050781</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0.0085356999188661575</v>
       </c>
     </row>
     <row r="72">
@@ -1430,14 +1433,14 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="0">
-        <v>-0.21799449622631073</v>
-      </c>
-      <c r="D72" s="0">
-        <v>-0.37018018960952759</v>
-      </c>
-      <c r="E72" s="0">
-        <v>-0.065808899700641632</v>
+      <c r="C72" s="1">
+        <v>-0.22175240516662598</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-0.37549480795860291</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-0.068010002374649048</v>
       </c>
     </row>
     <row r="73">
@@ -1447,14 +1450,14 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="0">
-        <v>-0.23901629447937012</v>
-      </c>
-      <c r="D73" s="0">
-        <v>-0.38900679349899292</v>
-      </c>
-      <c r="E73" s="0">
-        <v>-0.089025899767875671</v>
+      <c r="C73" s="1">
+        <v>-0.2429036945104599</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-0.39205780625343323</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-0.093749597668647766</v>
       </c>
     </row>
     <row r="74">
@@ -1464,14 +1467,14 @@
       <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="0">
-        <v>-0.010738699696958065</v>
-      </c>
-      <c r="D74" s="0">
-        <v>-0.15891279280185699</v>
-      </c>
-      <c r="E74" s="0">
-        <v>0.13743549585342407</v>
+      <c r="C74" s="1">
+        <v>-0.0090266996994614601</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-0.15909430384635925</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.14104080200195312</v>
       </c>
     </row>
     <row r="75">
@@ -1481,14 +1484,14 @@
       <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="0">
-        <v>0.017078200355172157</v>
-      </c>
-      <c r="D75" s="0">
-        <v>-0.096782200038433075</v>
-      </c>
-      <c r="E75" s="0">
-        <v>0.13093869388103485</v>
+      <c r="C75" s="1">
+        <v>0.018773199990391731</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-0.095759503543376923</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.13330590724945068</v>
       </c>
     </row>
     <row r="76">
@@ -1498,14 +1501,14 @@
       <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="0">
-        <v>-0.021290000528097153</v>
-      </c>
-      <c r="D76" s="0">
-        <v>-0.13061730563640594</v>
-      </c>
-      <c r="E76" s="0">
-        <v>0.088037401437759399</v>
+      <c r="C76" s="1">
+        <v>-0.02047399990260601</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-0.13099609315395355</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.09004809707403183</v>
       </c>
     </row>
     <row r="77">
@@ -1515,14 +1518,14 @@
       <c r="B77" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="0">
-        <v>-0.030197400599718094</v>
-      </c>
-      <c r="D77" s="0">
-        <v>-0.13914379477500916</v>
-      </c>
-      <c r="E77" s="0">
-        <v>0.078749001026153564</v>
+      <c r="C77" s="1">
+        <v>-0.028700400143861771</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-0.13939189910888672</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.081991098821163177</v>
       </c>
     </row>
     <row r="78">
@@ -1532,14 +1535,14 @@
       <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="0">
-        <v>0.0089459000155329704</v>
-      </c>
-      <c r="D78" s="0">
-        <v>-0.090368501842021942</v>
-      </c>
-      <c r="E78" s="0">
-        <v>0.10826029628515244</v>
+      <c r="C78" s="1">
+        <v>0.011554700322449207</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-0.089881502091884613</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.11299090087413788</v>
       </c>
     </row>
     <row r="79">
@@ -1549,14 +1552,14 @@
       <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="0">
-        <v>-0.012183500453829765</v>
-      </c>
-      <c r="D79" s="0">
-        <v>-0.096280299127101898</v>
-      </c>
-      <c r="E79" s="0">
-        <v>0.071913301944732666</v>
+      <c r="C79" s="1">
+        <v>-0.0092628002166748047</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-0.095771096646785736</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.077245503664016724</v>
       </c>
     </row>
     <row r="80">
@@ -1566,14 +1569,14 @@
       <c r="B80" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="0">
-        <v>-0.10899700224399567</v>
-      </c>
-      <c r="D80" s="0">
-        <v>-0.27100661396980286</v>
-      </c>
-      <c r="E80" s="0">
-        <v>0.053012698888778687</v>
+      <c r="C80" s="1">
+        <v>-0.10976310074329376</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-0.27272120118141174</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.053194999694824219</v>
       </c>
     </row>
     <row r="81">
@@ -1583,14 +1586,14 @@
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="0">
-        <v>-0.15903300046920776</v>
-      </c>
-      <c r="D81" s="0">
-        <v>-0.30057179927825928</v>
-      </c>
-      <c r="E81" s="0">
-        <v>-0.017494199797511101</v>
+      <c r="C81" s="1">
+        <v>-0.15974889695644379</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-0.30157139897346497</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-0.017926499247550964</v>
       </c>
     </row>
     <row r="82">
@@ -1600,14 +1603,14 @@
       <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="0">
-        <v>-0.12838530540466309</v>
-      </c>
-      <c r="D82" s="0">
-        <v>-0.261850506067276</v>
-      </c>
-      <c r="E82" s="0">
-        <v>0.005079799797385931</v>
+      <c r="C82" s="1">
+        <v>-0.12838940322399139</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-0.26258409023284912</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.0058051999658346176</v>
       </c>
     </row>
     <row r="83">
@@ -1617,14 +1620,14 @@
       <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="0">
-        <v>-0.1246785968542099</v>
-      </c>
-      <c r="D83" s="0">
-        <v>-0.23755529522895813</v>
-      </c>
-      <c r="E83" s="0">
-        <v>-0.011801999993622303</v>
+      <c r="C83" s="1">
+        <v>-0.12521189451217651</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-0.23960989713668823</v>
+      </c>
+      <c r="E83" s="1">
+        <v>-0.010813900269567966</v>
       </c>
     </row>
     <row r="84">
@@ -1634,14 +1637,14 @@
       <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="0">
-        <v>-0.17186160385608673</v>
-      </c>
-      <c r="D84" s="0">
-        <v>-0.28328138589859009</v>
-      </c>
-      <c r="E84" s="0">
-        <v>-0.060441900044679642</v>
+      <c r="C84" s="1">
+        <v>-0.17330379784107208</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-0.28638839721679688</v>
+      </c>
+      <c r="E84" s="1">
+        <v>-0.060219299048185349</v>
       </c>
     </row>
     <row r="85">
@@ -1651,14 +1654,14 @@
       <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="0">
-        <v>-0.15792560577392578</v>
-      </c>
-      <c r="D85" s="0">
-        <v>-0.262176513671875</v>
-      </c>
-      <c r="E85" s="0">
-        <v>-0.053674701601266861</v>
+      <c r="C85" s="1">
+        <v>-0.15977640450000763</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-0.26569628715515137</v>
+      </c>
+      <c r="E85" s="1">
+        <v>-0.053856600075960159</v>
       </c>
     </row>
     <row r="86">
@@ -1668,14 +1671,14 @@
       <c r="B86" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="0">
-        <v>-0.3161529004573822</v>
-      </c>
-      <c r="D86" s="0">
-        <v>-0.37197110056877136</v>
-      </c>
-      <c r="E86" s="0">
-        <v>-0.26033470034599304</v>
+      <c r="C86" s="1">
+        <v>-0.3544309139251709</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-0.42525729537010193</v>
+      </c>
+      <c r="E86" s="1">
+        <v>-0.28360459208488464</v>
       </c>
     </row>
     <row r="87">
@@ -1685,14 +1688,14 @@
       <c r="B87" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="0">
-        <v>-0.38542190194129944</v>
-      </c>
-      <c r="D87" s="0">
-        <v>-0.44791358709335327</v>
-      </c>
-      <c r="E87" s="0">
-        <v>-0.32293018698692322</v>
+      <c r="C87" s="1">
+        <v>-0.42027229070663452</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-0.52322667837142944</v>
+      </c>
+      <c r="E87" s="1">
+        <v>-0.31731781363487244</v>
       </c>
     </row>
     <row r="88">
@@ -1702,14 +1705,14 @@
       <c r="B88" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="0">
-        <v>-0.37274080514907837</v>
-      </c>
-      <c r="D88" s="0">
-        <v>-0.44494989514350891</v>
-      </c>
-      <c r="E88" s="0">
-        <v>-0.30053168535232544</v>
+      <c r="C88" s="1">
+        <v>-0.39082500338554382</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-0.52977627515792847</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-0.25187370181083679</v>
       </c>
     </row>
     <row r="89">
@@ -1719,14 +1722,14 @@
       <c r="B89" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="0">
-        <v>-0.36941158771514893</v>
-      </c>
-      <c r="D89" s="0">
-        <v>-0.49847540259361267</v>
-      </c>
-      <c r="E89" s="0">
-        <v>-0.24034780263900757</v>
+      <c r="C89" s="1">
+        <v>-0.33294400572776794</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-0.5112454891204834</v>
+      </c>
+      <c r="E89" s="1">
+        <v>-0.15464259684085846</v>
       </c>
     </row>
     <row r="90">
@@ -1736,14 +1739,14 @@
       <c r="B90" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="0">
-        <v>-0.30194690823554993</v>
-      </c>
-      <c r="D90" s="0">
-        <v>-0.42135569453239441</v>
-      </c>
-      <c r="E90" s="0">
-        <v>-0.18253810703754425</v>
+      <c r="C90" s="1">
+        <v>-0.33615279197692871</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-0.45380499958992004</v>
+      </c>
+      <c r="E90" s="1">
+        <v>-0.21850059926509857</v>
       </c>
     </row>
     <row r="91">
@@ -1753,14 +1756,14 @@
       <c r="B91" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="0">
-        <v>-0.28528809547424316</v>
-      </c>
-      <c r="D91" s="0">
-        <v>-0.44931790232658386</v>
-      </c>
-      <c r="E91" s="0">
-        <v>-0.12125830352306366</v>
+      <c r="C91" s="1">
+        <v>-0.33383971452713013</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-0.51850968599319458</v>
+      </c>
+      <c r="E91" s="1">
+        <v>-0.14916959404945374</v>
       </c>
     </row>
     <row r="92">
@@ -1770,14 +1773,14 @@
       <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="0">
-        <v>-0.074010796844959259</v>
-      </c>
-      <c r="D92" s="0">
-        <v>-0.11017850041389465</v>
-      </c>
-      <c r="E92" s="0">
-        <v>-0.03784320130944252</v>
+      <c r="C92" s="1">
+        <v>-0.092635996639728546</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-0.14015479385852814</v>
+      </c>
+      <c r="E92" s="1">
+        <v>-0.045117098838090897</v>
       </c>
     </row>
     <row r="93">
@@ -1787,14 +1790,14 @@
       <c r="B93" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="0">
-        <v>-0.078051097691059113</v>
-      </c>
-      <c r="D93" s="0">
-        <v>-0.10492180287837982</v>
-      </c>
-      <c r="E93" s="0">
-        <v>-0.051180399954319</v>
+      <c r="C93" s="1">
+        <v>-0.10194040089845657</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-0.14108580350875854</v>
+      </c>
+      <c r="E93" s="1">
+        <v>-0.062794901430606842</v>
       </c>
     </row>
     <row r="94">
@@ -1804,14 +1807,14 @@
       <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="0">
-        <v>-0.10111019760370255</v>
-      </c>
-      <c r="D94" s="0">
-        <v>-0.14005169272422791</v>
-      </c>
-      <c r="E94" s="0">
-        <v>-0.062168598175048828</v>
+      <c r="C94" s="1">
+        <v>-0.11984570324420929</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-0.17743760347366333</v>
+      </c>
+      <c r="E94" s="1">
+        <v>-0.062253799289464951</v>
       </c>
     </row>
     <row r="95">
@@ -1821,14 +1824,14 @@
       <c r="B95" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="0">
-        <v>-0.11574780195951462</v>
-      </c>
-      <c r="D95" s="0">
-        <v>-0.15907770395278931</v>
-      </c>
-      <c r="E95" s="0">
-        <v>-0.072417899966239929</v>
+      <c r="C95" s="1">
+        <v>-0.13601620495319366</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-0.20041139423847198</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-0.07162100076675415</v>
       </c>
     </row>
     <row r="96">
@@ -1838,14 +1841,14 @@
       <c r="B96" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="0">
-        <v>-0.13912059366703033</v>
-      </c>
-      <c r="D96" s="0">
-        <v>-0.20296800136566162</v>
-      </c>
-      <c r="E96" s="0">
-        <v>-0.075273200869560242</v>
+      <c r="C96" s="1">
+        <v>-0.14504599571228027</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-0.20962269604206085</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-0.080469198524951935</v>
       </c>
     </row>
     <row r="97">
@@ -1855,14 +1858,14 @@
       <c r="B97" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="0">
-        <v>-0.15070550143718719</v>
-      </c>
-      <c r="D97" s="0">
-        <v>-0.21933630108833313</v>
-      </c>
-      <c r="E97" s="0">
-        <v>-0.08207479864358902</v>
+      <c r="C97" s="1">
+        <v>-0.15360230207443237</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-0.22243089973926544</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-0.084773600101470947</v>
       </c>
     </row>
     <row r="98">
@@ -1872,13 +1875,13 @@
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98" s="1">
         <v>0.092292197048664093</v>
       </c>
-      <c r="D98" s="0">
+      <c r="D98" s="1">
         <v>-0.0047777998261153698</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98" s="1">
         <v>0.18936209380626678</v>
       </c>
     </row>
@@ -1889,13 +1892,13 @@
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99" s="1">
         <v>0.095018602907657623</v>
       </c>
-      <c r="D99" s="0">
+      <c r="D99" s="1">
         <v>-0.0073734000325202942</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99" s="1">
         <v>0.19741059839725494</v>
       </c>
     </row>
@@ -1906,13 +1909,13 @@
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100" s="1">
         <v>0.11779829859733582</v>
       </c>
-      <c r="D100" s="0">
+      <c r="D100" s="1">
         <v>0.019012900069355965</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100" s="1">
         <v>0.21658369898796082</v>
       </c>
     </row>
@@ -1923,13 +1926,13 @@
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101" s="1">
         <v>0.10150880366563797</v>
       </c>
-      <c r="D101" s="0">
+      <c r="D101" s="1">
         <v>-0.028974400833249092</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101" s="1">
         <v>0.23199209570884705</v>
       </c>
     </row>
@@ -1940,13 +1943,13 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102" s="1">
         <v>0.11672709882259369</v>
       </c>
-      <c r="D102" s="0">
+      <c r="D102" s="1">
         <v>-0.0028454998973757029</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102" s="1">
         <v>0.23629969358444214</v>
       </c>
     </row>
@@ -1957,13 +1960,13 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103" s="1">
         <v>0.14434400200843811</v>
       </c>
-      <c r="D103" s="0">
+      <c r="D103" s="1">
         <v>0.0070397998206317425</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103" s="1">
         <v>0.28164830803871155</v>
       </c>
     </row>
@@ -1974,13 +1977,13 @@
       <c r="B104" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104" s="1">
         <v>-0.06966099888086319</v>
       </c>
-      <c r="D104" s="0">
+      <c r="D104" s="1">
         <v>-0.13488650321960449</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104" s="1">
         <v>-0.0044354000128805637</v>
       </c>
     </row>
@@ -1991,13 +1994,13 @@
       <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105" s="1">
         <v>-0.069186203181743622</v>
       </c>
-      <c r="D105" s="0">
+      <c r="D105" s="1">
         <v>-0.13323439657688141</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105" s="1">
         <v>-0.0051378998905420303</v>
       </c>
     </row>
@@ -2008,13 +2011,13 @@
       <c r="B106" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106" s="1">
         <v>-0.08965650200843811</v>
       </c>
-      <c r="D106" s="0">
+      <c r="D106" s="1">
         <v>-0.16718029975891113</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106" s="1">
         <v>-0.012132800184190273</v>
       </c>
     </row>
@@ -2025,13 +2028,13 @@
       <c r="B107" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107" s="1">
         <v>-0.083830900490283966</v>
       </c>
-      <c r="D107" s="0">
+      <c r="D107" s="1">
         <v>-0.18740920722484589</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107" s="1">
         <v>0.019747400656342506</v>
       </c>
     </row>
@@ -2042,13 +2045,13 @@
       <c r="B108" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108" s="1">
         <v>-0.078354597091674805</v>
       </c>
-      <c r="D108" s="0">
+      <c r="D108" s="1">
         <v>-0.18712860345840454</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108" s="1">
         <v>0.030419299378991127</v>
       </c>
     </row>
@@ -2059,13 +2062,13 @@
       <c r="B109" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109" s="1">
         <v>-0.10949569940567017</v>
       </c>
-      <c r="D109" s="0">
+      <c r="D109" s="1">
         <v>-0.25138631463050842</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109" s="1">
         <v>0.032394900918006897</v>
       </c>
     </row>
@@ -2076,13 +2079,13 @@
       <c r="B110" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110" s="1">
         <v>-0.1293071061372757</v>
       </c>
-      <c r="D110" s="0">
+      <c r="D110" s="1">
         <v>-0.29690030217170715</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110" s="1">
         <v>0.038286000490188599</v>
       </c>
     </row>
@@ -2093,13 +2096,13 @@
       <c r="B111" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111" s="1">
         <v>-0.12830360233783722</v>
       </c>
-      <c r="D111" s="0">
+      <c r="D111" s="1">
         <v>-0.31990361213684082</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111" s="1">
         <v>0.063296303153038025</v>
       </c>
     </row>
@@ -2110,13 +2113,13 @@
       <c r="B112" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112" s="1">
         <v>-0.16766129434108734</v>
       </c>
-      <c r="D112" s="0">
+      <c r="D112" s="1">
         <v>-0.31412848830223083</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112" s="1">
         <v>-0.021194100379943848</v>
       </c>
     </row>
@@ -2127,13 +2130,13 @@
       <c r="B113" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113" s="1">
         <v>-0.22743089497089386</v>
       </c>
-      <c r="D113" s="0">
+      <c r="D113" s="1">
         <v>-0.36130079627037048</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113" s="1">
         <v>-0.093561001121997833</v>
       </c>
     </row>
@@ -2144,13 +2147,13 @@
       <c r="B114" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114" s="1">
         <v>-0.094052903354167938</v>
       </c>
-      <c r="D114" s="0">
+      <c r="D114" s="1">
         <v>-0.24868719279766083</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114" s="1">
         <v>0.060581501573324203</v>
       </c>
     </row>
@@ -2161,13 +2164,13 @@
       <c r="B115" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115" s="1">
         <v>-0.33108291029930115</v>
       </c>
-      <c r="D115" s="0">
+      <c r="D115" s="1">
         <v>-0.60860979557037354</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115" s="1">
         <v>-0.053555998951196671</v>
       </c>
     </row>
@@ -2178,13 +2181,13 @@
       <c r="B116" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116" s="1">
         <v>-0.031478900462388992</v>
       </c>
-      <c r="D116" s="0">
+      <c r="D116" s="1">
         <v>-0.079572699964046478</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116" s="1">
         <v>0.016614900901913643</v>
       </c>
     </row>
@@ -2195,13 +2198,13 @@
       <c r="B117" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117" s="1">
         <v>-0.052664600312709808</v>
       </c>
-      <c r="D117" s="0">
+      <c r="D117" s="1">
         <v>-0.10516860336065292</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117" s="1">
         <v>-0.00016049999976530671</v>
       </c>
     </row>
@@ -2212,13 +2215,13 @@
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118" s="1">
         <v>-0.066323898732662201</v>
       </c>
-      <c r="D118" s="0">
+      <c r="D118" s="1">
         <v>-0.11299960315227509</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118" s="1">
         <v>-0.019648199900984764</v>
       </c>
     </row>
@@ -2229,13 +2232,13 @@
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119" s="1">
         <v>-0.07612919807434082</v>
       </c>
-      <c r="D119" s="0">
+      <c r="D119" s="1">
         <v>-0.12824900448322296</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119" s="1">
         <v>-0.024009499698877335</v>
       </c>
     </row>
@@ -2246,13 +2249,13 @@
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120" s="1">
         <v>-0.10406090319156647</v>
       </c>
-      <c r="D120" s="0">
+      <c r="D120" s="1">
         <v>-0.15465910732746124</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120" s="1">
         <v>-0.053462699055671692</v>
       </c>
     </row>
@@ -2263,13 +2266,13 @@
       <c r="B121" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121" s="1">
         <v>-0.083518199622631073</v>
       </c>
-      <c r="D121" s="0">
+      <c r="D121" s="1">
         <v>-0.19396039843559265</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121" s="1">
         <v>0.026924099773168564</v>
       </c>
     </row>
@@ -2280,13 +2283,13 @@
       <c r="B122" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122" s="1">
         <v>-0.17438270151615143</v>
       </c>
-      <c r="D122" s="0">
+      <c r="D122" s="1">
         <v>-0.28495800495147705</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122" s="1">
         <v>-0.063807502388954163</v>
       </c>
     </row>
@@ -2297,13 +2300,13 @@
       <c r="B123" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123" s="1">
         <v>-0.19913800060749054</v>
       </c>
-      <c r="D123" s="0">
+      <c r="D123" s="1">
         <v>-0.32711189985275269</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123" s="1">
         <v>-0.071164101362228394</v>
       </c>
     </row>
@@ -2314,13 +2317,13 @@
       <c r="B124" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124" s="1">
         <v>-0.19038090109825134</v>
       </c>
-      <c r="D124" s="0">
+      <c r="D124" s="1">
         <v>-0.25921940803527832</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124" s="1">
         <v>-0.12154240161180496</v>
       </c>
     </row>
@@ -2331,13 +2334,13 @@
       <c r="B125" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125" s="1">
         <v>-0.15794670581817627</v>
       </c>
-      <c r="D125" s="0">
+      <c r="D125" s="1">
         <v>-0.23302440345287323</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125" s="1">
         <v>-0.082869000732898712</v>
       </c>
     </row>
@@ -2348,13 +2351,13 @@
       <c r="B126" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126" s="1">
         <v>-0.27867469191551208</v>
       </c>
-      <c r="D126" s="0">
+      <c r="D126" s="1">
         <v>-0.37051481008529663</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126" s="1">
         <v>-0.18683460354804993</v>
       </c>
     </row>
@@ -2365,13 +2368,13 @@
       <c r="B127" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127" s="1">
         <v>-0.12124659866094589</v>
       </c>
-      <c r="D127" s="0">
+      <c r="D127" s="1">
         <v>-0.32012259960174561</v>
       </c>
-      <c r="E127" s="0">
+      <c r="E127" s="1">
         <v>0.077629297971725464</v>
       </c>
     </row>
@@ -2382,13 +2385,13 @@
       <c r="B128" t="s">
         <v>50</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128" s="1">
         <v>-0.068294800817966461</v>
       </c>
-      <c r="D128" s="0">
+      <c r="D128" s="1">
         <v>-0.15233120322227478</v>
       </c>
-      <c r="E128" s="0">
+      <c r="E128" s="1">
         <v>0.015741599723696709</v>
       </c>
     </row>
@@ -2399,13 +2402,13 @@
       <c r="B129" t="s">
         <v>50</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129" s="1">
         <v>-0.039226099848747253</v>
       </c>
-      <c r="D129" s="0">
+      <c r="D129" s="1">
         <v>-0.13231079280376434</v>
       </c>
-      <c r="E129" s="0">
+      <c r="E129" s="1">
         <v>0.053858701139688492</v>
       </c>
     </row>
@@ -2416,13 +2419,13 @@
       <c r="B130" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130" s="1">
         <v>-0.0044534001499414444</v>
       </c>
-      <c r="D130" s="0">
+      <c r="D130" s="1">
         <v>-0.10074260085821152</v>
       </c>
-      <c r="E130" s="0">
+      <c r="E130" s="1">
         <v>0.091835901141166687</v>
       </c>
     </row>
@@ -2433,13 +2436,13 @@
       <c r="B131" t="s">
         <v>50</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131" s="1">
         <v>0.00036490001366473734</v>
       </c>
-      <c r="D131" s="0">
+      <c r="D131" s="1">
         <v>-0.12429530173540115</v>
       </c>
-      <c r="E131" s="0">
+      <c r="E131" s="1">
         <v>0.12502509355545044</v>
       </c>
     </row>
@@ -2450,13 +2453,13 @@
       <c r="B132" t="s">
         <v>50</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132" s="1">
         <v>0.011334000155329704</v>
       </c>
-      <c r="D132" s="0">
+      <c r="D132" s="1">
         <v>-0.10497819632291794</v>
       </c>
-      <c r="E132" s="0">
+      <c r="E132" s="1">
         <v>0.12764610350131989</v>
       </c>
     </row>
@@ -2467,13 +2470,13 @@
       <c r="B133" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133" s="1">
         <v>0.027882099151611328</v>
       </c>
-      <c r="D133" s="0">
+      <c r="D133" s="1">
         <v>-0.12519629299640656</v>
       </c>
-      <c r="E133" s="0">
+      <c r="E133" s="1">
         <v>0.18096050620079041</v>
       </c>
     </row>
@@ -2484,13 +2487,13 @@
       <c r="B134" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134" s="1">
         <v>0.011527099646627903</v>
       </c>
-      <c r="D134" s="0">
+      <c r="D134" s="1">
         <v>-0.049515798687934875</v>
       </c>
-      <c r="E134" s="0">
+      <c r="E134" s="1">
         <v>0.072569899260997772</v>
       </c>
     </row>
@@ -2501,13 +2504,13 @@
       <c r="B135" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135" s="1">
         <v>-0.0086843995377421379</v>
       </c>
-      <c r="D135" s="0">
+      <c r="D135" s="1">
         <v>-0.062157798558473587</v>
       </c>
-      <c r="E135" s="0">
+      <c r="E135" s="1">
         <v>0.04478909820318222</v>
       </c>
     </row>
@@ -2518,13 +2521,13 @@
       <c r="B136" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136" s="1">
         <v>-0.031061200425028801</v>
       </c>
-      <c r="D136" s="0">
+      <c r="D136" s="1">
         <v>-0.072899296879768372</v>
       </c>
-      <c r="E136" s="0">
+      <c r="E136" s="1">
         <v>0.010777000337839127</v>
       </c>
     </row>
@@ -2535,13 +2538,13 @@
       <c r="B137" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137" s="1">
         <v>-0.063822999596595764</v>
       </c>
-      <c r="D137" s="0">
+      <c r="D137" s="1">
         <v>-0.10928530246019363</v>
       </c>
-      <c r="E137" s="0">
+      <c r="E137" s="1">
         <v>-0.018360799178481102</v>
       </c>
     </row>
@@ -2552,13 +2555,13 @@
       <c r="B138" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138" s="1">
         <v>-0.059255801141262054</v>
       </c>
-      <c r="D138" s="0">
+      <c r="D138" s="1">
         <v>-0.11425860226154327</v>
       </c>
-      <c r="E138" s="0">
+      <c r="E138" s="1">
         <v>-0.004253000020980835</v>
       </c>
     </row>
@@ -2569,13 +2572,13 @@
       <c r="B139" t="s">
         <v>18</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139" s="1">
         <v>-0.08315189927816391</v>
       </c>
-      <c r="D139" s="0">
+      <c r="D139" s="1">
         <v>-0.15886589884757996</v>
       </c>
-      <c r="E139" s="0">
+      <c r="E139" s="1">
         <v>-0.0074379001744091511</v>
       </c>
     </row>
@@ -2586,13 +2589,13 @@
       <c r="B140" t="s">
         <v>19</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140" s="1">
         <v>-0.28803971409797668</v>
       </c>
-      <c r="D140" s="0">
+      <c r="D140" s="1">
         <v>-0.43633389472961426</v>
       </c>
-      <c r="E140" s="0">
+      <c r="E140" s="1">
         <v>-0.13974550366401672</v>
       </c>
     </row>
@@ -2603,13 +2606,13 @@
       <c r="B141" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141" s="1">
         <v>-0.31275489926338196</v>
       </c>
-      <c r="D141" s="0">
+      <c r="D141" s="1">
         <v>-0.47169199585914612</v>
       </c>
-      <c r="E141" s="0">
+      <c r="E141" s="1">
         <v>-0.1538178026676178</v>
       </c>
     </row>
@@ -2620,13 +2623,13 @@
       <c r="B142" t="s">
         <v>19</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142" s="1">
         <v>-0.32570910453796387</v>
       </c>
-      <c r="D142" s="0">
+      <c r="D142" s="1">
         <v>-0.48825448751449585</v>
       </c>
-      <c r="E142" s="0">
+      <c r="E142" s="1">
         <v>-0.16316360235214233</v>
       </c>
     </row>
@@ -2637,13 +2640,13 @@
       <c r="B143" t="s">
         <v>19</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143" s="1">
         <v>-0.30696290731430054</v>
       </c>
-      <c r="D143" s="0">
+      <c r="D143" s="1">
         <v>-0.49264359474182129</v>
       </c>
-      <c r="E143" s="0">
+      <c r="E143" s="1">
         <v>-0.12128219753503799</v>
       </c>
     </row>
@@ -2654,13 +2657,13 @@
       <c r="B144" t="s">
         <v>19</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144" s="1">
         <v>-0.32761558890342712</v>
       </c>
-      <c r="D144" s="0">
+      <c r="D144" s="1">
         <v>-0.55175948143005371</v>
       </c>
-      <c r="E144" s="0">
+      <c r="E144" s="1">
         <v>-0.10347159951925278</v>
       </c>
     </row>
@@ -2671,13 +2674,13 @@
       <c r="B145" t="s">
         <v>19</v>
       </c>
-      <c r="C145" s="0">
+      <c r="C145" s="1">
         <v>-0.30382460355758667</v>
       </c>
-      <c r="D145" s="0">
+      <c r="D145" s="1">
         <v>-0.60693228244781494</v>
       </c>
-      <c r="E145" s="0">
+      <c r="E145" s="1">
         <v>-0.00071679998654872179</v>
       </c>
     </row>
@@ -2688,13 +2691,13 @@
       <c r="B146" t="s">
         <v>20</v>
       </c>
-      <c r="C146" s="0">
+      <c r="C146" s="1">
         <v>-0.11842170357704163</v>
       </c>
-      <c r="D146" s="0">
+      <c r="D146" s="1">
         <v>-0.20130950212478638</v>
       </c>
-      <c r="E146" s="0">
+      <c r="E146" s="1">
         <v>-0.035533998161554337</v>
       </c>
     </row>
@@ -2705,13 +2708,13 @@
       <c r="B147" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="0">
+      <c r="C147" s="1">
         <v>-0.12045329809188843</v>
       </c>
-      <c r="D147" s="0">
+      <c r="D147" s="1">
         <v>-0.20358340442180634</v>
       </c>
-      <c r="E147" s="0">
+      <c r="E147" s="1">
         <v>-0.037323199212551117</v>
       </c>
     </row>
@@ -2722,13 +2725,13 @@
       <c r="B148" t="s">
         <v>20</v>
       </c>
-      <c r="C148" s="0">
+      <c r="C148" s="1">
         <v>-0.12224339693784714</v>
       </c>
-      <c r="D148" s="0">
-        <v>-0.20943069458007813</v>
-      </c>
-      <c r="E148" s="0">
+      <c r="D148" s="1">
+        <v>-0.20943069458007812</v>
+      </c>
+      <c r="E148" s="1">
         <v>-0.035056199878454208</v>
       </c>
     </row>
@@ -2739,13 +2742,13 @@
       <c r="B149" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="0">
+      <c r="C149" s="1">
         <v>-0.12185929715633392</v>
       </c>
-      <c r="D149" s="0">
+      <c r="D149" s="1">
         <v>-0.21153199672698975</v>
       </c>
-      <c r="E149" s="0">
+      <c r="E149" s="1">
         <v>-0.032186601310968399</v>
       </c>
     </row>
@@ -2756,13 +2759,13 @@
       <c r="B150" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="0">
+      <c r="C150" s="1">
         <v>-0.12546789646148682</v>
       </c>
-      <c r="D150" s="0">
+      <c r="D150" s="1">
         <v>-0.21812550723552704</v>
       </c>
-      <c r="E150" s="0">
+      <c r="E150" s="1">
         <v>-0.032810401171445847</v>
       </c>
     </row>
@@ -2773,13 +2776,13 @@
       <c r="B151" t="s">
         <v>20</v>
       </c>
-      <c r="C151" s="0">
+      <c r="C151" s="1">
         <v>-0.1274556964635849</v>
       </c>
-      <c r="D151" s="0">
+      <c r="D151" s="1">
         <v>-0.22088049352169037</v>
       </c>
-      <c r="E151" s="0">
+      <c r="E151" s="1">
         <v>-0.034030899405479431</v>
       </c>
     </row>
@@ -2790,13 +2793,13 @@
       <c r="B152" t="s">
         <v>9</v>
       </c>
-      <c r="C152" s="0">
+      <c r="C152" s="1">
         <v>0.0011742999777197838</v>
       </c>
-      <c r="D152" s="0">
+      <c r="D152" s="1">
         <v>-0.036519799381494522</v>
       </c>
-      <c r="E152" s="0">
+      <c r="E152" s="1">
         <v>0.03886830061674118</v>
       </c>
     </row>
@@ -2807,13 +2810,13 @@
       <c r="B153" t="s">
         <v>9</v>
       </c>
-      <c r="C153" s="0">
+      <c r="C153" s="1">
         <v>0.021168999373912811</v>
       </c>
-      <c r="D153" s="0">
+      <c r="D153" s="1">
         <v>-0.016581600531935692</v>
       </c>
-      <c r="E153" s="0">
+      <c r="E153" s="1">
         <v>0.058919601142406464</v>
       </c>
     </row>
@@ -2824,13 +2827,13 @@
       <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="0">
+      <c r="C154" s="1">
         <v>0.023247199133038521</v>
       </c>
-      <c r="D154" s="0">
+      <c r="D154" s="1">
         <v>-0.011351499706506729</v>
       </c>
-      <c r="E154" s="0">
+      <c r="E154" s="1">
         <v>0.057845998555421829</v>
       </c>
     </row>
@@ -2841,13 +2844,13 @@
       <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="0">
+      <c r="C155" s="1">
         <v>0.026719400659203529</v>
       </c>
-      <c r="D155" s="0">
+      <c r="D155" s="1">
         <v>-0.017189500853419304</v>
       </c>
-      <c r="E155" s="0">
+      <c r="E155" s="1">
         <v>0.070628203451633453</v>
       </c>
     </row>
@@ -2858,13 +2861,13 @@
       <c r="B156" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="0">
+      <c r="C156" s="1">
         <v>0.020646700635552406</v>
       </c>
-      <c r="D156" s="0">
+      <c r="D156" s="1">
         <v>-0.017602499574422836</v>
       </c>
-      <c r="E156" s="0">
+      <c r="E156" s="1">
         <v>0.05889580026268959</v>
       </c>
     </row>
@@ -2875,13 +2878,13 @@
       <c r="B157" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="0">
+      <c r="C157" s="1">
         <v>0.020179999992251396</v>
       </c>
-      <c r="D157" s="0">
+      <c r="D157" s="1">
         <v>-0.018105700612068176</v>
       </c>
-      <c r="E157" s="0">
+      <c r="E157" s="1">
         <v>0.058465801179409027</v>
       </c>
     </row>
@@ -2892,14 +2895,14 @@
       <c r="B158" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="0">
-        <v>-0.31551319360733032</v>
-      </c>
-      <c r="D158" s="0">
-        <v>-0.46545770764350891</v>
-      </c>
-      <c r="E158" s="0">
-        <v>-0.16556869447231293</v>
+      <c r="C158" s="1">
+        <v>-0.31720688939094543</v>
+      </c>
+      <c r="D158" s="1">
+        <v>-0.46753141283988953</v>
+      </c>
+      <c r="E158" s="1">
+        <v>-0.16688239574432373</v>
       </c>
     </row>
     <row r="159">
@@ -2909,14 +2912,14 @@
       <c r="B159" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="0">
-        <v>0.070942498743534088</v>
-      </c>
-      <c r="D159" s="0">
-        <v>-0.13110730051994324</v>
-      </c>
-      <c r="E159" s="0">
-        <v>0.27299231290817261</v>
+      <c r="C159" s="1">
+        <v>0.073519803583621979</v>
+      </c>
+      <c r="D159" s="1">
+        <v>-0.1286969929933548</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.27573660016059875</v>
       </c>
     </row>
     <row r="160">
@@ -2926,14 +2929,14 @@
       <c r="B160" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="0">
-        <v>-0.22906219959259033</v>
-      </c>
-      <c r="D160" s="0">
-        <v>-0.3924202024936676</v>
-      </c>
-      <c r="E160" s="0">
-        <v>-0.065704300999641418</v>
+      <c r="C160" s="1">
+        <v>-0.23214809596538544</v>
+      </c>
+      <c r="D160" s="1">
+        <v>-0.39599820971488953</v>
+      </c>
+      <c r="E160" s="1">
+        <v>-0.068298101425170898</v>
       </c>
     </row>
     <row r="161">
@@ -2943,14 +2946,14 @@
       <c r="B161" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="0">
-        <v>-0.34423309564590454</v>
-      </c>
-      <c r="D161" s="0">
-        <v>-0.44197380542755127</v>
-      </c>
-      <c r="E161" s="0">
-        <v>-0.24649240076541901</v>
+      <c r="C161" s="1">
+        <v>-0.34820461273193359</v>
+      </c>
+      <c r="D161" s="1">
+        <v>-0.44688990712165833</v>
+      </c>
+      <c r="E161" s="1">
+        <v>-0.24951939284801483</v>
       </c>
     </row>
     <row r="162">
@@ -2960,14 +2963,14 @@
       <c r="B162" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="0">
-        <v>0.10212010145187378</v>
-      </c>
-      <c r="D162" s="0">
-        <v>0.018806099891662598</v>
-      </c>
-      <c r="E162" s="0">
-        <v>0.1854339987039566</v>
+      <c r="C162" s="1">
+        <v>0.10668569803237915</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.025227999314665794</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0.18814340233802795</v>
       </c>
     </row>
     <row r="163">
@@ -2977,14 +2980,14 @@
       <c r="B163" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="0">
-        <v>-0.25752121210098267</v>
-      </c>
-      <c r="D163" s="0">
-        <v>-0.43590730428695679</v>
-      </c>
-      <c r="E163" s="0">
-        <v>-0.079135201871395111</v>
+      <c r="C163" s="1">
+        <v>-0.26465588808059692</v>
+      </c>
+      <c r="D163" s="1">
+        <v>-0.44582921266555786</v>
+      </c>
+      <c r="E163" s="1">
+        <v>-0.083482600748538971</v>
       </c>
     </row>
     <row r="164">
@@ -2994,14 +2997,14 @@
       <c r="B164" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="0">
-        <v>-0.28544160723686218</v>
-      </c>
-      <c r="D164" s="0">
-        <v>-0.3754551112651825</v>
-      </c>
-      <c r="E164" s="0">
-        <v>-0.19542799890041351</v>
+      <c r="C164" s="1">
+        <v>-0.28961029648780823</v>
+      </c>
+      <c r="D164" s="1">
+        <v>-0.38029348850250244</v>
+      </c>
+      <c r="E164" s="1">
+        <v>-0.19892700016498566</v>
       </c>
     </row>
     <row r="165">
@@ -3011,14 +3014,14 @@
       <c r="B165" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="0">
-        <v>0.05214570090174675</v>
-      </c>
-      <c r="D165" s="0">
-        <v>-0.060867298394441605</v>
-      </c>
-      <c r="E165" s="0">
-        <v>0.1651587039232254</v>
+      <c r="C165" s="1">
+        <v>0.056790001690387726</v>
+      </c>
+      <c r="D165" s="1">
+        <v>-0.054107699543237686</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.16768769919872284</v>
       </c>
     </row>
     <row r="166">
@@ -3028,14 +3031,14 @@
       <c r="B166" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="0">
-        <v>-0.22738400101661682</v>
-      </c>
-      <c r="D166" s="0">
-        <v>-0.42273971438407898</v>
-      </c>
-      <c r="E166" s="0">
-        <v>-0.032028298825025558</v>
+      <c r="C166" s="1">
+        <v>-0.2347383052110672</v>
+      </c>
+      <c r="D166" s="1">
+        <v>-0.43467581272125244</v>
+      </c>
+      <c r="E166" s="1">
+        <v>-0.034800898283720016</v>
       </c>
     </row>
     <row r="167">
@@ -3045,14 +3048,14 @@
       <c r="B167" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="0">
-        <v>-0.28839358687400818</v>
-      </c>
-      <c r="D167" s="0">
-        <v>-0.39384201169013977</v>
-      </c>
-      <c r="E167" s="0">
-        <v>-0.18294520676136017</v>
+      <c r="C167" s="1">
+        <v>-0.29123181104660034</v>
+      </c>
+      <c r="D167" s="1">
+        <v>-0.39698919653892517</v>
+      </c>
+      <c r="E167" s="1">
+        <v>-0.18547439575195312</v>
       </c>
     </row>
     <row r="168">
@@ -3062,14 +3065,14 @@
       <c r="B168" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="0">
-        <v>0.056106198579072952</v>
-      </c>
-      <c r="D168" s="0">
-        <v>-0.038437198847532272</v>
-      </c>
-      <c r="E168" s="0">
-        <v>0.15064950287342072</v>
+      <c r="C168" s="1">
+        <v>0.05963430181145668</v>
+      </c>
+      <c r="D168" s="1">
+        <v>-0.034313801676034927</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0.15358230471611023</v>
       </c>
     </row>
     <row r="169">
@@ -3079,14 +3082,14 @@
       <c r="B169" t="s">
         <v>8</v>
       </c>
-      <c r="C169" s="0">
-        <v>-0.21969109773635864</v>
-      </c>
-      <c r="D169" s="0">
-        <v>-0.44537588953971863</v>
-      </c>
-      <c r="E169" s="0">
-        <v>0.0059937001205980778</v>
+      <c r="C169" s="1">
+        <v>-0.22467020153999329</v>
+      </c>
+      <c r="D169" s="1">
+        <v>-0.45187351107597351</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0.0025329000782221556</v>
       </c>
     </row>
     <row r="170">
@@ -3096,14 +3099,14 @@
       <c r="B170" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="0">
-        <v>-0.19902360439300537</v>
-      </c>
-      <c r="D170" s="0">
-        <v>-0.30458089709281921</v>
-      </c>
-      <c r="E170" s="0">
-        <v>-0.093466296792030334</v>
+      <c r="C170" s="1">
+        <v>-0.20100130140781403</v>
+      </c>
+      <c r="D170" s="1">
+        <v>-0.30575978755950928</v>
+      </c>
+      <c r="E170" s="1">
+        <v>-0.096242800354957581</v>
       </c>
     </row>
     <row r="171">
@@ -3113,14 +3116,14 @@
       <c r="B171" t="s">
         <v>12</v>
       </c>
-      <c r="C171" s="0">
-        <v>-0.019210800528526306</v>
-      </c>
-      <c r="D171" s="0">
-        <v>-0.12504540383815765</v>
-      </c>
-      <c r="E171" s="0">
-        <v>0.086623802781105042</v>
+      <c r="C171" s="1">
+        <v>-0.016979899257421494</v>
+      </c>
+      <c r="D171" s="1">
+        <v>-0.12179329991340637</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0.087833397090435028</v>
       </c>
     </row>
     <row r="172">
@@ -3130,14 +3133,14 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="0">
-        <v>-0.11120469868183136</v>
-      </c>
-      <c r="D172" s="0">
-        <v>-0.28806450963020325</v>
-      </c>
-      <c r="E172" s="0">
-        <v>0.065655097365379333</v>
+      <c r="C172" s="1">
+        <v>-0.11468230187892914</v>
+      </c>
+      <c r="D172" s="1">
+        <v>-0.29217419028282166</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0.062809497117996216</v>
       </c>
     </row>
     <row r="173">
@@ -3147,14 +3150,14 @@
       <c r="B173" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="0">
-        <v>-0.17939479649066925</v>
-      </c>
-      <c r="D173" s="0">
-        <v>-0.27408739924430847</v>
-      </c>
-      <c r="E173" s="0">
-        <v>-0.084702298045158386</v>
+      <c r="C173" s="1">
+        <v>-0.18271879851818085</v>
+      </c>
+      <c r="D173" s="1">
+        <v>-0.27638000249862671</v>
+      </c>
+      <c r="E173" s="1">
+        <v>-0.089057497680187225</v>
       </c>
     </row>
     <row r="174">
@@ -3164,14 +3167,14 @@
       <c r="B174" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="0">
-        <v>-0.035299498587846756</v>
-      </c>
-      <c r="D174" s="0">
-        <v>-0.12370669841766357</v>
-      </c>
-      <c r="E174" s="0">
-        <v>0.053107600659132004</v>
+      <c r="C174" s="1">
+        <v>-0.032039199024438858</v>
+      </c>
+      <c r="D174" s="1">
+        <v>-0.11866209656000137</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0.054583799093961716</v>
       </c>
     </row>
     <row r="175">
@@ -3181,14 +3184,14 @@
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="0">
-        <v>-0.088031001389026642</v>
-      </c>
-      <c r="D175" s="0">
-        <v>-0.25068798661231995</v>
-      </c>
-      <c r="E175" s="0">
-        <v>0.074626103043556213</v>
+      <c r="C175" s="1">
+        <v>-0.093517601490020752</v>
+      </c>
+      <c r="D175" s="1">
+        <v>-0.25695538520812988</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0.069920100271701813</v>
       </c>
     </row>
   </sheetData>
@@ -3224,1843 +3227,1843 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>0.29814431071281433</v>
-      </c>
-      <c r="B2" s="0">
-        <v>0.052195198833942413</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="A2" s="1">
+        <v>0.29870098829269409</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.052104901522397995</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="0">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0.40044689178466797</v>
-      </c>
-      <c r="G2" s="0">
-        <v>0.19584169983863831</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.40082660317420959</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.19657540321350098</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>0.29172319173812866</v>
-      </c>
-      <c r="B3" s="0">
-        <v>0.052809100598096848</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="A3" s="1">
+        <v>0.29198428988456726</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.052805200219154358</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0.39522901177406311</v>
-      </c>
-      <c r="G3" s="0">
-        <v>0.1882174015045166</v>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.39548251032829285</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.18848609924316406</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>0.28195500373840332</v>
-      </c>
-      <c r="B4" s="0">
-        <v>0.049875900149345398</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="A4" s="1">
+        <v>0.28190469741821289</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.049849599599838257</v>
+      </c>
+      <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="0">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0">
-        <v>0.3797118067741394</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0.18419820070266724</v>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.37960991263389587</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1841994971036911</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>0.26696610450744629</v>
-      </c>
-      <c r="B5" s="0">
-        <v>0.048747498542070389</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="A5" s="1">
+        <v>0.26649430394172668</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.048679899424314499</v>
+      </c>
+      <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0.36251118779182434</v>
-      </c>
-      <c r="G5" s="0">
-        <v>0.17142100632190704</v>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.36190688610076904</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.17108170688152313</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>0.25850290060043335</v>
-      </c>
-      <c r="B6" s="0">
-        <v>0.047836799174547195</v>
-      </c>
-      <c r="C6" s="0">
+      <c r="A6" s="1">
+        <v>0.25838398933410645</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.047819100320339203</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="0">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.35226300358772278</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0.16474279761314392</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3521094024181366</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.16465850174427032</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <v>0.24496589601039886</v>
-      </c>
-      <c r="B7" s="0">
-        <v>0.046355299651622772</v>
-      </c>
-      <c r="C7" s="0">
+      <c r="A7" s="1">
+        <v>0.24492309987545013</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.046332500874996185</v>
+      </c>
+      <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="0">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0.33582231402397156</v>
-      </c>
-      <c r="G7" s="0">
-        <v>0.15410949289798737</v>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.33573481440544128</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.15411140024662018</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <v>0.22678059339523315</v>
-      </c>
-      <c r="B8" s="0">
-        <v>0.042304500937461853</v>
-      </c>
-      <c r="C8" s="0">
+      <c r="A8" s="1">
+        <v>0.22738839685916901</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.042250201106071472</v>
+      </c>
+      <c r="C8" s="1">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="0">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0.30969738960266113</v>
-      </c>
-      <c r="G8" s="0">
-        <v>0.14386379718780518</v>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.31019881367683411</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1445779949426651</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <v>0.24462689459323883</v>
-      </c>
-      <c r="B9" s="0">
-        <v>0.04210289940237999</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="A9" s="1">
+        <v>0.2462352067232132</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.042079698294401169</v>
+      </c>
+      <c r="C9" s="1">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="0">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0.32714858651161194</v>
-      </c>
-      <c r="G9" s="0">
-        <v>0.16210520267486572</v>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.32871139049530029</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.16375899314880371</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <v>0.28027749061584473</v>
-      </c>
-      <c r="B10" s="0">
-        <v>0.044884499162435532</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="A10" s="1">
+        <v>0.28133070468902588</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.045152399688959122</v>
+      </c>
+      <c r="C10" s="1">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="0">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0.36825108528137207</v>
-      </c>
-      <c r="G10" s="0">
-        <v>0.19230389595031738</v>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.36982938647270203</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.19283199310302734</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <v>0.24692800641059875</v>
-      </c>
-      <c r="B11" s="0">
-        <v>0.044131100177764893</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="A11" s="1">
+        <v>0.24758049845695496</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.044406101107597351</v>
+      </c>
+      <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="0">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0.33342498540878296</v>
-      </c>
-      <c r="G11" s="0">
-        <v>0.16043110191822052</v>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.33461651206016541</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.1605444997549057</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>0.21975859999656677</v>
-      </c>
-      <c r="B12" s="0">
-        <v>0.04014969989657402</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="A12" s="1">
+        <v>0.21994119882583618</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.040273699909448624</v>
+      </c>
+      <c r="C12" s="1">
         <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="0">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0.2984519898891449</v>
-      </c>
-      <c r="G12" s="0">
-        <v>0.14106519520282745</v>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.29887768626213074</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.14100469648838043</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <v>0.20364269614219666</v>
-      </c>
-      <c r="B13" s="0">
-        <v>0.039742801338434219</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="A13" s="1">
+        <v>0.20355910062789917</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.039820898324251175</v>
+      </c>
+      <c r="C13" s="1">
         <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="0">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0.28153860569000244</v>
-      </c>
-      <c r="G13" s="0">
-        <v>0.12574680149555206</v>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.28160810470581055</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.12551009654998779</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <v>0.19054730236530304</v>
-      </c>
-      <c r="B14" s="0">
-        <v>0.03820829838514328</v>
-      </c>
-      <c r="C14" s="0">
+      <c r="A14" s="1">
+        <v>0.19033309817314148</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.038283199071884155</v>
+      </c>
+      <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="0">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0.2654356062412262</v>
-      </c>
-      <c r="G14" s="0">
-        <v>0.11565899848937988</v>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.26536819338798523</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.11529800295829773</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <v>0.18657970428466797</v>
-      </c>
-      <c r="B15" s="0">
-        <v>0.038256101310253143</v>
-      </c>
-      <c r="C15" s="0">
+      <c r="A15" s="1">
+        <v>0.18608790636062622</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.038351800292730331</v>
+      </c>
+      <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="0">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0.26156169176101685</v>
-      </c>
-      <c r="G15" s="0">
-        <v>0.1115977019071579</v>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.26125741004943848</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.11091840267181396</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <v>0.17197880148887634</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.037144798785448074</v>
-      </c>
-      <c r="C16" s="0">
+      <c r="A16" s="1">
+        <v>0.17153039574623108</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.037234898656606674</v>
+      </c>
+      <c r="C16" s="1">
         <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="0">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0.24478259682655334</v>
-      </c>
-      <c r="G16" s="0">
-        <v>0.099174998700618744</v>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.24451079964637756</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.098549999296665192</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <v>0.15993389487266541</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0.036585099995136261</v>
-      </c>
-      <c r="C17" s="0">
+      <c r="A17" s="1">
+        <v>0.15968260169029236</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.036539401859045029</v>
+      </c>
+      <c r="C17" s="1">
         <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="0">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0.23164069652557373</v>
-      </c>
-      <c r="G17" s="0">
-        <v>0.088227100670337677</v>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.23129980266094208</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.088065400719642639</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <v>0.34746518731117249</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.033178601413965225</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="A18" s="1">
+        <v>0.33831220865249634</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.03182699903845787</v>
+      </c>
+      <c r="C18" s="1">
         <v>0.20000000298023224</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="0">
-        <v>2</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0.41249528527259827</v>
-      </c>
-      <c r="G18" s="0">
-        <v>0.2824350893497467</v>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.40069308876991272</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.27593129873275757</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0">
-        <v>0.37686300277709961</v>
-      </c>
-      <c r="B19" s="0">
-        <v>0.035720501095056534</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="A19" s="1">
+        <v>0.36075350642204285</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.034999601542949677</v>
+      </c>
+      <c r="C19" s="1">
         <v>1.2000000476837158</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="0">
-        <v>2</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0.44687521457672119</v>
-      </c>
-      <c r="G19" s="0">
-        <v>0.30685079097747803</v>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.42935270071029663</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.29215431213378906</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>0.39690360426902771</v>
-      </c>
-      <c r="B20" s="0">
-        <v>0.043094001710414886</v>
-      </c>
-      <c r="C20" s="0">
+      <c r="A20" s="1">
+        <v>0.3460271954536438</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.037617500871419907</v>
+      </c>
+      <c r="C20" s="1">
         <v>2.2000000476837158</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="0">
-        <v>2</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0.48136788606643677</v>
-      </c>
-      <c r="G20" s="0">
-        <v>0.31243941187858582</v>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.41975748538970947</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.27229690551757812</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>0.41696760058403015</v>
-      </c>
-      <c r="B21" s="0">
-        <v>0.039848800748586655</v>
-      </c>
-      <c r="C21" s="0">
+      <c r="A21" s="1">
+        <v>0.37396600842475891</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.038405399769544601</v>
+      </c>
+      <c r="C21" s="1">
         <v>3.2000000476837158</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="0">
-        <v>2</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0.49507129192352295</v>
-      </c>
-      <c r="G21" s="0">
-        <v>0.33886390924453735</v>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.44924059510231018</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.29869139194488525</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>0.43678310513496399</v>
-      </c>
-      <c r="B22" s="0">
-        <v>0.041010398417711258</v>
-      </c>
-      <c r="C22" s="0">
+      <c r="A22" s="1">
+        <v>0.39625170826911926</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.042269900441169739</v>
+      </c>
+      <c r="C22" s="1">
         <v>4.1999998092651367</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="0">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0.51716351509094238</v>
-      </c>
-      <c r="G22" s="0">
-        <v>0.3564026951789856</v>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.47910070419311523</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.31340271234512329</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0">
-        <v>0.42289999127388</v>
-      </c>
-      <c r="B23" s="0">
-        <v>0.040379200130701065</v>
-      </c>
-      <c r="C23" s="0">
+      <c r="A23" s="1">
+        <v>0.40156608819961548</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.040895499289035797</v>
+      </c>
+      <c r="C23" s="1">
         <v>5.1999998092651367</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="0">
-        <v>2</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0.50204318761825562</v>
-      </c>
-      <c r="G23" s="0">
-        <v>0.34375679492950439</v>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.48172131180763245</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.3214108943939209</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0">
-        <v>0.42353799939155579</v>
-      </c>
-      <c r="B24" s="0">
-        <v>0.040392998605966568</v>
-      </c>
-      <c r="C24" s="0">
+      <c r="A24" s="1">
+        <v>0.41050231456756592</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.042611099779605865</v>
+      </c>
+      <c r="C24" s="1">
         <v>6.1999998092651367</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="0">
-        <v>2</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0.5027083158493042</v>
-      </c>
-      <c r="G24" s="0">
-        <v>0.34436771273612976</v>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.49402010440826416</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.32698461413383484</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>0.39814010262489319</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0.038309801369905472</v>
-      </c>
-      <c r="C25" s="0">
+      <c r="A25" s="1">
+        <v>0.38565129041671753</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.039835501462221146</v>
+      </c>
+      <c r="C25" s="1">
         <v>7.1999998092651367</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="0">
-        <v>2</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0.47322729229927063</v>
-      </c>
-      <c r="G25" s="0">
-        <v>0.32305291295051575</v>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.46372890472412109</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.30757370591163635</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0">
-        <v>0.36208769679069519</v>
-      </c>
-      <c r="B26" s="0">
-        <v>0.034304298460483551</v>
-      </c>
-      <c r="C26" s="0">
+      <c r="A26" s="1">
+        <v>0.35052910447120667</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.037408098578453064</v>
+      </c>
+      <c r="C26" s="1">
         <v>8.1999998092651367</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="0">
-        <v>2</v>
-      </c>
-      <c r="F26" s="0">
-        <v>0.42932409048080444</v>
-      </c>
-      <c r="G26" s="0">
-        <v>0.29485130310058594</v>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.42384898662567139</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.27720919251441956</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0">
-        <v>0.34748819470405579</v>
-      </c>
-      <c r="B27" s="0">
-        <v>0.034906700253486633</v>
-      </c>
-      <c r="C27" s="0">
+      <c r="A27" s="1">
+        <v>0.33490949869155884</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.037489801645278931</v>
+      </c>
+      <c r="C27" s="1">
         <v>9.1999998092651367</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="0">
-        <v>2</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0.41590529680252075</v>
-      </c>
-      <c r="G27" s="0">
-        <v>0.27907109260559082</v>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.40838950872421265</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.26142948865890503</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0">
-        <v>0.33672469854354858</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.03242579847574234</v>
-      </c>
-      <c r="C28" s="0">
+      <c r="A28" s="1">
+        <v>0.3191182017326355</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.035088401287794113</v>
+      </c>
+      <c r="C28" s="1">
         <v>10.199999809265137</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="0">
-        <v>2</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0.40027931332588196</v>
-      </c>
-      <c r="G28" s="0">
-        <v>0.2731701135635376</v>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.3878915011882782</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.2503449022769928</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0">
-        <v>0.32296329736709595</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.03399369865655899</v>
-      </c>
-      <c r="C29" s="0">
+      <c r="A29" s="1">
+        <v>0.31248849630355835</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.033014301210641861</v>
+      </c>
+      <c r="C29" s="1">
         <v>11.199999809265137</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="0">
-        <v>2</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0.38959088921546936</v>
-      </c>
-      <c r="G29" s="0">
-        <v>0.25633558630943298</v>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.37719649076461792</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.24778050184249878</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0">
-        <v>0.31146660447120667</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.031351599842309952</v>
-      </c>
-      <c r="C30" s="0">
+      <c r="A30" s="1">
+        <v>0.29594171047210693</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.031853098422288895</v>
+      </c>
+      <c r="C30" s="1">
         <v>12.199999809265137</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="0">
-        <v>2</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0.37291568517684937</v>
-      </c>
-      <c r="G30" s="0">
-        <v>0.25001749396324158</v>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.35837379097938538</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.2335096001625061</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0">
-        <v>0.30895420908927917</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.033208098262548447</v>
-      </c>
-      <c r="C31" s="0">
+      <c r="A31" s="1">
+        <v>0.29666221141815186</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.032225001603364944</v>
+      </c>
+      <c r="C31" s="1">
         <v>13.199999809265137</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="0">
-        <v>2</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0.3740420937538147</v>
-      </c>
-      <c r="G31" s="0">
-        <v>0.24386629462242126</v>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.35982319712638855</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.23350119590759277</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0">
-        <v>0.30937731266021729</v>
-      </c>
-      <c r="B32" s="0">
-        <v>0.032332498580217361</v>
-      </c>
-      <c r="C32" s="0">
+      <c r="A32" s="1">
+        <v>0.29817301034927368</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.032639499753713608</v>
+      </c>
+      <c r="C32" s="1">
         <v>14.199999809265137</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="0">
-        <v>2</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0.37274900078773499</v>
-      </c>
-      <c r="G32" s="0">
-        <v>0.2460055947303772</v>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.36214640736579895</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.23419959843158722</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0">
-        <v>0.29045650362968445</v>
-      </c>
-      <c r="B33" s="0">
-        <v>0.032064501196146011</v>
-      </c>
-      <c r="C33" s="0">
+      <c r="A33" s="1">
+        <v>0.28406471014022827</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.032553698867559433</v>
+      </c>
+      <c r="C33" s="1">
         <v>15.199999809265137</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="0">
-        <v>2</v>
-      </c>
-      <c r="F33" s="0">
-        <v>0.35330289602279663</v>
-      </c>
-      <c r="G33" s="0">
-        <v>0.22761009633541107</v>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.34786999225616455</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.22025950253009796</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0">
+      <c r="A34" s="1">
         <v>0.280570387840271</v>
       </c>
-      <c r="B34" s="0">
+      <c r="B34" s="1">
         <v>0.061418000608682632</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34" s="1">
         <v>0.40000000596046448</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="0">
-        <v>4</v>
-      </c>
-      <c r="F34" s="0">
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
         <v>0.40094968676567078</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34" s="1">
         <v>0.16019110381603241</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0">
+      <c r="A35" s="1">
         <v>0.29767811298370361</v>
       </c>
-      <c r="B35" s="0">
+      <c r="B35" s="1">
         <v>0.060981899499893188</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35" s="1">
         <v>1.3999999761581421</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="0">
-        <v>4</v>
-      </c>
-      <c r="F35" s="0">
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
         <v>0.41720259189605713</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35" s="1">
         <v>0.17815360426902771</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0">
+      <c r="A36" s="1">
         <v>0.30145010352134705</v>
       </c>
-      <c r="B36" s="0">
+      <c r="B36" s="1">
         <v>0.060592301189899445</v>
       </c>
-      <c r="C36" s="0">
+      <c r="C36" s="1">
         <v>2.4000000953674316</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="0">
-        <v>4</v>
-      </c>
-      <c r="F36" s="0">
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
         <v>0.42021098732948303</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36" s="1">
         <v>0.18268920481204987</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0">
+      <c r="A37" s="1">
         <v>0.31369748711585999</v>
       </c>
-      <c r="B37" s="0">
+      <c r="B37" s="1">
         <v>0.056942898780107498</v>
       </c>
-      <c r="C37" s="0">
+      <c r="C37" s="1">
         <v>3.4000000953674316</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="0">
-        <v>4</v>
-      </c>
-      <c r="F37" s="0">
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
         <v>0.42530560493469238</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37" s="1">
         <v>0.20208939909934998</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0">
+      <c r="A38" s="1">
         <v>0.30930599570274353</v>
       </c>
-      <c r="B38" s="0">
+      <c r="B38" s="1">
         <v>0.058117099106311798</v>
       </c>
-      <c r="C38" s="0">
+      <c r="C38" s="1">
         <v>4.4000000953674316</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="0">
-        <v>4</v>
-      </c>
-      <c r="F38" s="0">
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
         <v>0.42321550846099854</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38" s="1">
         <v>0.19539649784564972</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0">
+      <c r="A39" s="1">
         <v>0.28975668549537659</v>
       </c>
-      <c r="B39" s="0">
+      <c r="B39" s="1">
         <v>0.058439701795578003</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39" s="1">
         <v>5.4000000953674316</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="0">
-        <v>4</v>
-      </c>
-      <c r="F39" s="0">
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
         <v>0.40429851412773132</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39" s="1">
         <v>0.17521490156650543</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0">
+      <c r="A40" s="1">
         <v>0.2875497043132782</v>
       </c>
-      <c r="B40" s="0">
+      <c r="B40" s="1">
         <v>0.059206601232290268</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40" s="1">
         <v>6.4000000953674316</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="0">
-        <v>4</v>
-      </c>
-      <c r="F40" s="0">
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
         <v>0.40359461307525635</v>
       </c>
-      <c r="G40" s="0">
+      <c r="G40" s="1">
         <v>0.17150479555130005</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0">
+      <c r="A41" s="1">
         <v>0.2675108015537262</v>
       </c>
-      <c r="B41" s="0">
+      <c r="B41" s="1">
         <v>0.059342101216316223</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41" s="1">
         <v>7.4000000953674316</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="0">
-        <v>4</v>
-      </c>
-      <c r="F41" s="0">
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
         <v>0.38382130861282349</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41" s="1">
         <v>0.15120029449462891</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0">
+      <c r="A42" s="1">
         <v>0.24179549515247345</v>
       </c>
-      <c r="B42" s="0">
+      <c r="B42" s="1">
         <v>0.059508699923753738</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42" s="1">
         <v>8.3999996185302734</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="0">
-        <v>4</v>
-      </c>
-      <c r="F42" s="0">
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
         <v>0.3584325909614563</v>
       </c>
-      <c r="G42" s="0">
+      <c r="G42" s="1">
         <v>0.1251583993434906</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0">
+      <c r="A43" s="1">
         <v>0.22909200191497803</v>
       </c>
-      <c r="B43" s="0">
+      <c r="B43" s="1">
         <v>0.059599798172712326</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43" s="1">
         <v>9.3999996185302734</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="0">
-        <v>4</v>
-      </c>
-      <c r="F43" s="0">
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
         <v>0.34590759873390198</v>
       </c>
-      <c r="G43" s="0">
+      <c r="G43" s="1">
         <v>0.11227639764547348</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0">
+      <c r="A44" s="1">
         <v>0.21540489792823792</v>
       </c>
-      <c r="B44" s="0">
+      <c r="B44" s="1">
         <v>0.059326998889446259</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44" s="1">
         <v>10.399999618530273</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="0">
-        <v>4</v>
-      </c>
-      <c r="F44" s="0">
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
         <v>0.33168581128120422</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44" s="1">
         <v>0.0991239994764328</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0">
+      <c r="A45" s="1">
         <v>0.21216310560703278</v>
       </c>
-      <c r="B45" s="0">
+      <c r="B45" s="1">
         <v>0.057766400277614594</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45" s="1">
         <v>11.399999618530273</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="0">
-        <v>4</v>
-      </c>
-      <c r="F45" s="0">
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
         <v>0.32538521289825439</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45" s="1">
         <v>0.098940998315811157</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0">
+      <c r="A46" s="1">
         <v>0.20137989521026611</v>
       </c>
-      <c r="B46" s="0">
+      <c r="B46" s="1">
         <v>0.058563098311424255</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46" s="1">
         <v>12.399999618530273</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="0">
-        <v>4</v>
-      </c>
-      <c r="F46" s="0">
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
         <v>0.31616359949111938</v>
       </c>
-      <c r="G46" s="0">
+      <c r="G46" s="1">
         <v>0.086596198379993439</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0">
+      <c r="A47" s="1">
         <v>0.18796759843826294</v>
       </c>
-      <c r="B47" s="0">
+      <c r="B47" s="1">
         <v>0.058849599212408066</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47" s="1">
         <v>13.399999618530273</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="0">
-        <v>4</v>
-      </c>
-      <c r="F47" s="0">
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
         <v>0.30331280827522278</v>
       </c>
-      <c r="G47" s="0">
+      <c r="G47" s="1">
         <v>0.072622403502464294</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0">
+      <c r="A48" s="1">
         <v>0.19035699963569641</v>
       </c>
-      <c r="B48" s="0">
+      <c r="B48" s="1">
         <v>0.057244900614023209</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48" s="1">
         <v>14.399999618530273</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="0">
-        <v>4</v>
-      </c>
-      <c r="F48" s="0">
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
         <v>0.30255699157714844</v>
       </c>
-      <c r="G48" s="0">
+      <c r="G48" s="1">
         <v>0.078157000243663788</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0">
+      <c r="A49" s="1">
         <v>0.17919610440731049</v>
       </c>
-      <c r="B49" s="0">
+      <c r="B49" s="1">
         <v>0.057498998939990997</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49" s="1">
         <v>15.399999618530273</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="0">
-        <v>4</v>
-      </c>
-      <c r="F49" s="0">
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
         <v>0.29189410805702209</v>
       </c>
-      <c r="G49" s="0">
+      <c r="G49" s="1">
         <v>0.066498100757598877</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0">
+      <c r="A50" s="1">
         <v>0.29401388764381409</v>
       </c>
-      <c r="B50" s="0">
+      <c r="B50" s="1">
         <v>0.01738709956407547</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50" s="1">
         <v>0.30000001192092896</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50" s="1">
         <v>3</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50" s="1">
         <v>0.32809260487556458</v>
       </c>
-      <c r="G50" s="0">
+      <c r="G50" s="1">
         <v>0.25993520021438599</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0">
+      <c r="A51" s="1">
         <v>0.29596820473670959</v>
       </c>
-      <c r="B51" s="0">
+      <c r="B51" s="1">
         <v>0.017838699743151665</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51" s="1">
         <v>1.2999999523162842</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51" s="1">
         <v>0.33093211054801941</v>
       </c>
-      <c r="G51" s="0">
+      <c r="G51" s="1">
         <v>0.26100438833236694</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0">
+      <c r="A52" s="1">
         <v>0.29027459025382996</v>
       </c>
-      <c r="B52" s="0">
+      <c r="B52" s="1">
         <v>0.017728099599480629</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52" s="1">
         <v>2.2999999523162842</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="1">
         <v>3</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="1">
         <v>0.32502171397209167</v>
       </c>
-      <c r="G52" s="0">
-        <v>0.25552749633789063</v>
+      <c r="G52" s="1">
+        <v>0.25552749633789062</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0">
+      <c r="A53" s="1">
         <v>0.29069709777832031</v>
       </c>
-      <c r="B53" s="0">
+      <c r="B53" s="1">
         <v>0.017856400460004807</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53" s="1">
         <v>3.2999999523162842</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="1">
         <v>0.32569560408592224</v>
       </c>
-      <c r="G53" s="0">
+      <c r="G53" s="1">
         <v>0.25569859147071838</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0">
+      <c r="A54" s="1">
         <v>0.29536759853363037</v>
       </c>
-      <c r="B54" s="0">
+      <c r="B54" s="1">
         <v>0.018095700070261955</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54" s="1">
         <v>4.3000001907348633</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="1">
         <v>3</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="1">
         <v>0.33083519339561462</v>
       </c>
-      <c r="G54" s="0">
+      <c r="G54" s="1">
         <v>0.25990000367164612</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0">
+      <c r="A55" s="1">
         <v>0.29971539974212646</v>
       </c>
-      <c r="B55" s="0">
+      <c r="B55" s="1">
         <v>0.017969699576497078</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55" s="1">
         <v>5.3000001907348633</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="1">
         <v>3</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="1">
         <v>0.3349359929561615</v>
       </c>
-      <c r="G55" s="0">
+      <c r="G55" s="1">
         <v>0.26449480652809143</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0">
+      <c r="A56" s="1">
         <v>0.29148399829864502</v>
       </c>
-      <c r="B56" s="0">
+      <c r="B56" s="1">
         <v>0.01838110014796257</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="1">
         <v>6.3000001907348633</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="1">
         <v>3</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56" s="1">
         <v>0.3275110125541687</v>
       </c>
-      <c r="G56" s="0">
+      <c r="G56" s="1">
         <v>0.25545701384544373</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0">
+      <c r="A57" s="1">
         <v>0.29738691449165344</v>
       </c>
-      <c r="B57" s="0">
+      <c r="B57" s="1">
         <v>0.018383599817752838</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="1">
         <v>7.3000001907348633</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="1">
         <v>3</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="1">
         <v>0.33341878652572632</v>
       </c>
-      <c r="G57" s="0">
+      <c r="G57" s="1">
         <v>0.26135510206222534</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0">
+      <c r="A58" s="1">
         <v>0.29233241081237793</v>
       </c>
-      <c r="B58" s="0">
+      <c r="B58" s="1">
         <v>0.018749000504612923</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="1">
         <v>8.3000001907348633</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="1">
         <v>3</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="1">
         <v>0.3290804922580719</v>
       </c>
-      <c r="G58" s="0">
+      <c r="G58" s="1">
         <v>0.25558438897132874</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0">
+      <c r="A59" s="1">
         <v>0.29770201444625854</v>
       </c>
-      <c r="B59" s="0">
+      <c r="B59" s="1">
         <v>0.018396899104118347</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="1">
         <v>9.3000001907348633</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="1">
         <v>3</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="1">
         <v>0.33375990390777588</v>
       </c>
-      <c r="G59" s="0">
+      <c r="G59" s="1">
         <v>0.26164409518241882</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0">
+      <c r="A60" s="1">
         <v>0.30707278847694397</v>
       </c>
-      <c r="B60" s="0">
+      <c r="B60" s="1">
         <v>0.016940699890255928</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="1">
         <v>10.300000190734863</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="1">
         <v>3</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60" s="1">
         <v>0.34027659893035889</v>
       </c>
-      <c r="G60" s="0">
+      <c r="G60" s="1">
         <v>0.27386900782585144</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0">
+      <c r="A61" s="1">
         <v>0.30135929584503174</v>
       </c>
-      <c r="B61" s="0">
+      <c r="B61" s="1">
         <v>0.016470799222588539</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="1">
         <v>11.300000190734863</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="1">
         <v>3</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61" s="1">
         <v>0.33364209532737732</v>
       </c>
-      <c r="G61" s="0">
+      <c r="G61" s="1">
         <v>0.26907649636268616</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0">
+      <c r="A62" s="1">
         <v>0.29493701457977295</v>
       </c>
-      <c r="B62" s="0">
+      <c r="B62" s="1">
         <v>0.016920199617743492</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="1">
         <v>12.300000190734863</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="1">
         <v>3</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="1">
         <v>0.32810059189796448</v>
       </c>
-      <c r="G62" s="0">
+      <c r="G62" s="1">
         <v>0.26177340745925903</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0">
+      <c r="A63" s="1">
         <v>0.29776981472969055</v>
       </c>
-      <c r="B63" s="0">
+      <c r="B63" s="1">
         <v>0.016641100868582726</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="1">
         <v>13.300000190734863</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="1">
         <v>3</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="1">
         <v>0.33038640022277832</v>
       </c>
-      <c r="G63" s="0">
+      <c r="G63" s="1">
         <v>0.26515328884124756</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0">
+      <c r="A64" s="1">
         <v>0.29214251041412354</v>
       </c>
-      <c r="B64" s="0">
+      <c r="B64" s="1">
         <v>0.016594499349594116</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="1">
         <v>14.300000190734863</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="1">
         <v>3</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64" s="1">
         <v>0.32466769218444824</v>
       </c>
-      <c r="G64" s="0">
+      <c r="G64" s="1">
         <v>0.25961729884147644</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0">
+      <c r="A65" s="1">
         <v>0.28460380434989929</v>
       </c>
-      <c r="B65" s="0">
+      <c r="B65" s="1">
         <v>0.016839299350976944</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="1">
         <v>15.300000190734863</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="1">
         <v>3</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="1">
         <v>0.31760880351066589</v>
       </c>
-      <c r="G65" s="0">
+      <c r="G65" s="1">
         <v>0.25159880518913269</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0">
-        <v>0.3045785129070282</v>
-      </c>
-      <c r="B66" s="0">
-        <v>0.026039000600576401</v>
-      </c>
-      <c r="C66" s="0">
+      <c r="A66" s="1">
+        <v>0.30429309606552124</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.026212200522422791</v>
+      </c>
+      <c r="C66" s="1">
         <v>0.5</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="0">
-        <v>5</v>
-      </c>
-      <c r="F66" s="0">
-        <v>0.35561498999595642</v>
-      </c>
-      <c r="G66" s="0">
-        <v>0.25354209542274475</v>
+      <c r="E66" s="1">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.35566899180412292</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.25291720032691956</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0">
-        <v>0.30433130264282227</v>
-      </c>
-      <c r="B67" s="0">
-        <v>0.025096900761127472</v>
-      </c>
-      <c r="C67" s="0">
+      <c r="A67" s="1">
+        <v>0.30532869696617126</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.026491699740290642</v>
+      </c>
+      <c r="C67" s="1">
         <v>1.5</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="0">
-        <v>5</v>
-      </c>
-      <c r="F67" s="0">
-        <v>0.3535211980342865</v>
-      </c>
-      <c r="G67" s="0">
-        <v>0.25514140725135803</v>
+      <c r="E67" s="1">
+        <v>5</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.35725238919258118</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.25340500473976135</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0">
-        <v>0.29900339245796204</v>
-      </c>
-      <c r="B68" s="0">
-        <v>0.027671299874782562</v>
-      </c>
-      <c r="C68" s="0">
+      <c r="A68" s="1">
+        <v>0.30026689171791077</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.029047900810837746</v>
+      </c>
+      <c r="C68" s="1">
         <v>2.5</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="0">
-        <v>5</v>
-      </c>
-      <c r="F68" s="0">
-        <v>0.35323908925056458</v>
-      </c>
-      <c r="G68" s="0">
-        <v>0.2447676956653595</v>
+      <c r="E68" s="1">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.35720080137252808</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.24333299696445465</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0">
-        <v>0.29926618933677673</v>
-      </c>
-      <c r="B69" s="0">
-        <v>0.023820700123906136</v>
-      </c>
-      <c r="C69" s="0">
+      <c r="A69" s="1">
+        <v>0.30224609375</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.025007599964737892</v>
+      </c>
+      <c r="C69" s="1">
         <v>3.5</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="0">
-        <v>5</v>
-      </c>
-      <c r="F69" s="0">
-        <v>0.34595480561256409</v>
-      </c>
-      <c r="G69" s="0">
-        <v>0.25257760286331177</v>
+      <c r="E69" s="1">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.35126098990440369</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.25323119759559631</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0">
-        <v>0.30213889479637146</v>
-      </c>
-      <c r="B70" s="0">
-        <v>0.027656799182295799</v>
-      </c>
-      <c r="C70" s="0">
+      <c r="A70" s="1">
+        <v>0.30447280406951904</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.027151400223374367</v>
+      </c>
+      <c r="C70" s="1">
         <v>4.5</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="0">
-        <v>5</v>
-      </c>
-      <c r="F70" s="0">
-        <v>0.35634618997573853</v>
-      </c>
-      <c r="G70" s="0">
-        <v>0.24793159961700439</v>
+      <c r="E70" s="1">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.35768958926200867</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.25125598907470703</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0">
-        <v>0.29579928517341614</v>
-      </c>
-      <c r="B71" s="0">
-        <v>0.02619520016014576</v>
-      </c>
-      <c r="C71" s="0">
+      <c r="A71" s="1">
+        <v>0.29721969366073608</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.026646200567483902</v>
+      </c>
+      <c r="C71" s="1">
         <v>5.5</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="0">
-        <v>5</v>
-      </c>
-      <c r="F71" s="0">
-        <v>0.34714189171791077</v>
-      </c>
-      <c r="G71" s="0">
-        <v>0.2444566935300827</v>
+      <c r="E71" s="1">
+        <v>5</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.34944620728492737</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.24499310553073883</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0">
-        <v>0.29549318552017212</v>
-      </c>
-      <c r="B72" s="0">
-        <v>0.025371400639414787</v>
-      </c>
-      <c r="C72" s="0">
+      <c r="A72" s="1">
+        <v>0.29506221413612366</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.026534099131822586</v>
+      </c>
+      <c r="C72" s="1">
         <v>6.5</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="0">
-        <v>5</v>
-      </c>
-      <c r="F72" s="0">
-        <v>0.34522110223770142</v>
-      </c>
-      <c r="G72" s="0">
-        <v>0.24576519429683685</v>
+      <c r="E72" s="1">
+        <v>5</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.34706911444664001</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.24305540323257446</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0">
-        <v>0.30904620885848999</v>
-      </c>
-      <c r="B73" s="0">
-        <v>0.024658400565385818</v>
-      </c>
-      <c r="C73" s="0">
+      <c r="A73" s="1">
+        <v>0.30956369638442993</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.025446599349379539</v>
+      </c>
+      <c r="C73" s="1">
         <v>7.5</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="0">
-        <v>5</v>
-      </c>
-      <c r="F73" s="0">
-        <v>0.35737669467926025</v>
-      </c>
-      <c r="G73" s="0">
-        <v>0.26071581244468689</v>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.35943898558616638</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.25968828797340393</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0">
-        <v>0.30647081136703491</v>
-      </c>
-      <c r="B74" s="0">
-        <v>0.026068499311804771</v>
-      </c>
-      <c r="C74" s="0">
+      <c r="A74" s="1">
+        <v>0.30879020690917969</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.025108899921178818</v>
+      </c>
+      <c r="C74" s="1">
         <v>8.5</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="0">
-        <v>5</v>
-      </c>
-      <c r="F74" s="0">
-        <v>0.35756510496139526</v>
-      </c>
-      <c r="G74" s="0">
-        <v>0.25537648797035217</v>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.35800358653068542</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.25957679748535156</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0">
-        <v>0.31066930294036865</v>
-      </c>
-      <c r="B75" s="0">
-        <v>0.026232700794935226</v>
-      </c>
-      <c r="C75" s="0">
+      <c r="A75" s="1">
+        <v>0.31097128987312317</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.025143399834632874</v>
+      </c>
+      <c r="C75" s="1">
         <v>9.5</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="0">
-        <v>5</v>
-      </c>
-      <c r="F75" s="0">
-        <v>0.36208540201187134</v>
-      </c>
-      <c r="G75" s="0">
-        <v>0.25925320386886597</v>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.36025241017341614</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.26169019937515259</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0">
-        <v>0.30885240435600281</v>
-      </c>
-      <c r="B76" s="0">
-        <v>0.024214299395680428</v>
-      </c>
-      <c r="C76" s="0">
+      <c r="A76" s="1">
+        <v>0.30830159783363342</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.025879299268126488</v>
+      </c>
+      <c r="C76" s="1">
         <v>10.5</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="0">
-        <v>5</v>
-      </c>
-      <c r="F76" s="0">
-        <v>0.35631239414215088</v>
-      </c>
-      <c r="G76" s="0">
-        <v>0.26139241456985474</v>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.35902500152587891</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.25757819414138794</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0">
-        <v>0.30349311232566833</v>
-      </c>
-      <c r="B77" s="0">
-        <v>0.022698100656270981</v>
-      </c>
-      <c r="C77" s="0">
+      <c r="A77" s="1">
+        <v>0.30335068702697754</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.023476900532841682</v>
+      </c>
+      <c r="C77" s="1">
         <v>11.5</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="0">
-        <v>5</v>
-      </c>
-      <c r="F77" s="0">
-        <v>0.34798139333724976</v>
-      </c>
-      <c r="G77" s="0">
-        <v>0.25900480151176453</v>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.34936541318893433</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.25733599066734314</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0">
-        <v>0.2955281138420105</v>
-      </c>
-      <c r="B78" s="0">
-        <v>0.022117700427770615</v>
-      </c>
-      <c r="C78" s="0">
+      <c r="A78" s="1">
+        <v>0.29455411434173584</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.021447800099849701</v>
+      </c>
+      <c r="C78" s="1">
         <v>12.5</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="0">
-        <v>5</v>
-      </c>
-      <c r="F78" s="0">
-        <v>0.3388788104057312</v>
-      </c>
-      <c r="G78" s="0">
-        <v>0.25217738747596741</v>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.33659180998802185</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.25251638889312744</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0">
-        <v>0.28708130121231079</v>
-      </c>
-      <c r="B79" s="0">
-        <v>0.020491400733590126</v>
-      </c>
-      <c r="C79" s="0">
+      <c r="A79" s="1">
+        <v>0.28517040610313416</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.019481899216771126</v>
+      </c>
+      <c r="C79" s="1">
         <v>13.5</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="0">
-        <v>5</v>
-      </c>
-      <c r="F79" s="0">
-        <v>0.32724449038505554</v>
-      </c>
-      <c r="G79" s="0">
-        <v>0.2469182014465332</v>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.32335489988327026</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.24698589742183685</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0">
-        <v>0.2824799120426178</v>
-      </c>
-      <c r="B80" s="0">
-        <v>0.018361499533057213</v>
-      </c>
-      <c r="C80" s="0">
+      <c r="A80" s="1">
+        <v>0.28147751092910767</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.018262600526213646</v>
+      </c>
+      <c r="C80" s="1">
         <v>14.5</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="0">
-        <v>5</v>
-      </c>
-      <c r="F80" s="0">
-        <v>0.31846851110458374</v>
-      </c>
-      <c r="G80" s="0">
-        <v>0.24649140238761902</v>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.31727218627929688</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.24568280577659607</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0">
-        <v>0.27574890851974487</v>
-      </c>
-      <c r="B81" s="0">
-        <v>0.018662899732589722</v>
-      </c>
-      <c r="C81" s="0">
+      <c r="A81" s="1">
+        <v>0.27351430058479309</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.019122699275612831</v>
+      </c>
+      <c r="C81" s="1">
         <v>15.5</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="0">
-        <v>5</v>
-      </c>
-      <c r="F81" s="0">
-        <v>0.31232818961143494</v>
-      </c>
-      <c r="G81" s="0">
-        <v>0.23916959762573242</v>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.31099480390548706</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.23603379726409912</v>
       </c>
     </row>
   </sheetData>
@@ -5093,10 +5096,10 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2" s="1">
         <v>0.14100000262260437</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="1">
         <v>0.019999999552965164</v>
       </c>
     </row>
@@ -5107,10 +5110,10 @@
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="1">
         <v>0.12399999797344208</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="1">
         <v>0.014000000432133675</v>
       </c>
     </row>
@@ -5121,10 +5124,10 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4" s="1">
         <v>0.12099999934434891</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="1">
         <v>0.017000000923871994</v>
       </c>
     </row>
@@ -5135,10 +5138,10 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="1">
         <v>0.13899999856948853</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="1">
         <v>0.018999999389052391</v>
       </c>
     </row>
@@ -5149,10 +5152,10 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6" s="1">
         <v>0.11400000005960464</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="1">
         <v>0.016000000759959221</v>
       </c>
     </row>
@@ -5163,10 +5166,10 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7" s="1">
         <v>0.090000003576278687</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="1">
         <v>0.012000000104308128</v>
       </c>
     </row>
@@ -5177,10 +5180,10 @@
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8" s="1">
         <v>0.083999998867511749</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="1">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -5191,10 +5194,10 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9" s="1">
         <v>0.059999998658895493</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9" s="1">
         <v>0.008999999612569809</v>
       </c>
     </row>
@@ -5205,10 +5208,10 @@
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10" s="1">
         <v>0.050999999046325684</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10" s="1">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -5219,10 +5222,10 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11" s="1">
         <v>0.05000000074505806</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11" s="1">
         <v>0.0070000002160668373</v>
       </c>
     </row>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4256" uniqueCount="52">
   <si>
     <t>adm0</t>
   </si>
@@ -169,6 +169,9 @@
   <si>
     <t>Home isolation*</t>
   </si>
+  <si>
+    <t>No gathering</t>
+  </si>
 </sst>
 </file>
 
@@ -238,16 +241,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0082561001181602478</v>
+        <v>-0.010312000289559364</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.065253898501396179</v>
+        <v>-0.068523399531841278</v>
       </c>
       <c r="E2" s="0">
-        <v>0.048741601407527924</v>
+        <v>0.047899298369884491</v>
       </c>
     </row>
     <row r="3">
@@ -255,16 +258,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0">
-        <v>0.02606390044093132</v>
+        <v>0.021823300048708916</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.053167998790740967</v>
+        <v>-0.058582000434398651</v>
       </c>
       <c r="E3" s="0">
-        <v>0.10529589653015137</v>
+        <v>0.10222859680652618</v>
       </c>
     </row>
     <row r="4">
@@ -272,16 +275,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.012575199827551842</v>
+        <v>-0.015444899909198284</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.063942499458789825</v>
+        <v>-0.068040698766708374</v>
       </c>
       <c r="E4" s="0">
-        <v>0.038792099803686142</v>
+        <v>0.037150900810956955</v>
       </c>
     </row>
     <row r="5">
@@ -289,16 +292,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.032948698848485947</v>
+        <v>-0.038050100207328796</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.083888202905654907</v>
+        <v>-0.089286096394062042</v>
       </c>
       <c r="E5" s="0">
-        <v>0.017990700900554657</v>
+        <v>0.013185800053179264</v>
       </c>
     </row>
     <row r="6">
@@ -306,16 +309,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.012658099643886089</v>
+        <v>-0.015242800116539001</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.062964096665382385</v>
+        <v>-0.066220499575138092</v>
       </c>
       <c r="E6" s="0">
-        <v>0.037647999823093414</v>
+        <v>0.035734999924898148</v>
       </c>
     </row>
     <row r="7">
@@ -323,16 +326,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C7" s="0">
-        <v>0.013112599961459637</v>
+        <v>0.011324799619615078</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.057287398725748062</v>
+        <v>-0.060419399291276932</v>
       </c>
       <c r="E7" s="0">
-        <v>0.083512596786022186</v>
+        <v>0.083068899810314178</v>
       </c>
     </row>
     <row r="8">
@@ -343,13 +346,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.11061619967222214</v>
+        <v>-0.11849139630794525</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.23103910684585571</v>
+        <v>-0.23049640655517578</v>
       </c>
       <c r="E8" s="0">
-        <v>0.0098067000508308411</v>
+        <v>-0.0064864000305533409</v>
       </c>
     </row>
     <row r="9">
@@ -360,13 +363,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.19328950345516205</v>
+        <v>-0.18399220705032349</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.31998229026794434</v>
+        <v>-0.30763658881187439</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.066596798598766327</v>
+        <v>-0.060347799211740494</v>
       </c>
     </row>
     <row r="10">
@@ -377,13 +380,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.20695249736309052</v>
+        <v>-0.20545209944248199</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.31713360548019409</v>
+        <v>-0.31066828966140747</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.096771396696567535</v>
+        <v>-0.10023579746484756</v>
       </c>
     </row>
     <row r="11">
@@ -394,13 +397,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.13760590553283691</v>
+        <v>-0.12754009664058685</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.22750170528888702</v>
+        <v>-0.2129732072353363</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.047710098326206207</v>
+        <v>-0.042107000946998596</v>
       </c>
     </row>
     <row r="12">
@@ -411,13 +414,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.22423550486564636</v>
+        <v>-0.2173352986574173</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.30983808636665344</v>
+        <v>-0.2974810004234314</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.13863299787044525</v>
+        <v>-0.13718970119953156</v>
       </c>
     </row>
     <row r="13">
@@ -428,13 +431,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.25031149387359619</v>
+        <v>-0.24582080543041229</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.34570419788360596</v>
+        <v>-0.33625990152359009</v>
       </c>
       <c r="E13" s="0">
-        <v>-0.15491870045661926</v>
+        <v>-0.1553816944360733</v>
       </c>
     </row>
     <row r="14">
@@ -445,13 +448,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.031532701104879379</v>
+        <v>-0.029157500714063644</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.094829797744750977</v>
+        <v>-0.094047799706459045</v>
       </c>
       <c r="E14" s="0">
-        <v>0.031764499843120575</v>
+        <v>0.035732898861169815</v>
       </c>
     </row>
     <row r="15">
@@ -462,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.049695100635290146</v>
+        <v>-0.050004001706838608</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.10701250284910202</v>
+        <v>-0.11011850088834763</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0076223998330533504</v>
+        <v>0.010110599920153618</v>
       </c>
     </row>
     <row r="16">
@@ -479,13 +482,13 @@
         <v>9</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.069177098572254181</v>
+        <v>-0.06653209775686264</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.12231379747390747</v>
+        <v>-0.12157870084047318</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.016040399670600891</v>
+        <v>-0.011485399678349495</v>
       </c>
     </row>
     <row r="17">
@@ -496,13 +499,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.082514002919197083</v>
+        <v>-0.079225599765777588</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.13824689388275146</v>
+        <v>-0.13572660088539124</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.026781199499964714</v>
+        <v>-0.022724499925971031</v>
       </c>
     </row>
     <row r="18">
@@ -513,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.064142100512981415</v>
+        <v>-0.060759499669075012</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.12888219952583313</v>
+        <v>-0.12690219283103943</v>
       </c>
       <c r="E18" s="0">
-        <v>0.00059790001250803471</v>
+        <v>0.0053832000121474266</v>
       </c>
     </row>
     <row r="19">
@@ -530,13 +533,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.063355103135108948</v>
+        <v>-0.061259001493453979</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.1257932037115097</v>
+        <v>-0.12464150041341782</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.00091689999680966139</v>
+        <v>0.0021234001033008099</v>
       </c>
     </row>
     <row r="20">
@@ -547,13 +550,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.015815300866961479</v>
+        <v>-0.013413799926638603</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.12217990309000015</v>
+        <v>-0.10227619856595993</v>
       </c>
       <c r="E20" s="0">
-        <v>0.090549297630786896</v>
+        <v>0.075448699295520782</v>
       </c>
     </row>
     <row r="21">
@@ -564,13 +567,13 @@
         <v>10</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.068355098366737366</v>
+        <v>-0.040389001369476318</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.18509109318256378</v>
+        <v>-0.13513609766960144</v>
       </c>
       <c r="E21" s="0">
-        <v>0.048380900174379349</v>
+        <v>0.054358098655939102</v>
       </c>
     </row>
     <row r="22">
@@ -581,13 +584,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0046492000110447407</v>
+        <v>0.013529299758374691</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.10116969794034958</v>
+        <v>-0.082507498562335968</v>
       </c>
       <c r="E22" s="0">
-        <v>0.11046809703111649</v>
+        <v>0.1095660999417305</v>
       </c>
     </row>
     <row r="23">
@@ -598,13 +601,13 @@
         <v>10</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.058158598840236664</v>
+        <v>-0.04893210157752037</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.15890470147132874</v>
+        <v>-0.1284417062997818</v>
       </c>
       <c r="E23" s="0">
-        <v>0.042587600648403168</v>
+        <v>0.03057749941945076</v>
       </c>
     </row>
     <row r="24">
@@ -615,13 +618,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="0">
-        <v>0.0062216999940574169</v>
+        <v>0.0053237001411616802</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.14672300219535828</v>
+        <v>-0.12326300144195557</v>
       </c>
       <c r="E24" s="0">
-        <v>0.15916639566421509</v>
+        <v>0.1339104026556015</v>
       </c>
     </row>
     <row r="25">
@@ -632,13 +635,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.022551300004124641</v>
+        <v>-0.026576699689030647</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.22345669567584991</v>
+        <v>-0.20317879319190979</v>
       </c>
       <c r="E25" s="0">
-        <v>0.17835420370101929</v>
+        <v>0.15002529323101044</v>
       </c>
     </row>
     <row r="26">
@@ -649,13 +652,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.047858398407697678</v>
+        <v>-0.041132800281047821</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.10030820220708847</v>
+        <v>-0.091124698519706726</v>
       </c>
       <c r="E26" s="0">
-        <v>0.0045914999209344387</v>
+        <v>0.0088590998202562332</v>
       </c>
     </row>
     <row r="27">
@@ -666,13 +669,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.036541398614645004</v>
+        <v>-0.03238309919834137</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.086932897567749023</v>
+        <v>-0.080135896801948547</v>
       </c>
       <c r="E27" s="0">
-        <v>0.013850199989974499</v>
+        <v>0.015369599685072899</v>
       </c>
     </row>
     <row r="28">
@@ -683,13 +686,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.037433799356222153</v>
+        <v>-0.032727498561143875</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.08451080322265625</v>
+        <v>-0.075959697365760803</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0096431998535990715</v>
+        <v>0.010504700243473053</v>
       </c>
     </row>
     <row r="29">
@@ -700,13 +703,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="0">
-        <v>-0.036309801042079926</v>
+        <v>-0.030230000615119934</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.081617303192615509</v>
+        <v>-0.072589203715324402</v>
       </c>
       <c r="E29" s="0">
-        <v>0.0089977001771330833</v>
+        <v>0.012129100039601326</v>
       </c>
     </row>
     <row r="30">
@@ -717,13 +720,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.043020900338888168</v>
+        <v>-0.037640400230884552</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.084574498236179352</v>
+        <v>-0.075827203691005707</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.0014672999968752265</v>
+        <v>0.00054650002857670188</v>
       </c>
     </row>
     <row r="31">
@@ -734,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="C31" s="0">
-        <v>-0.052498098462820053</v>
+        <v>-0.04715690016746521</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.090909399092197418</v>
+        <v>-0.081775397062301636</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.014086700044572353</v>
+        <v>-0.012538399547338486</v>
       </c>
     </row>
     <row r="32">
@@ -751,13 +754,13 @@
         <v>12</v>
       </c>
       <c r="C32" s="0">
-        <v>0.009579099714756012</v>
+        <v>0.0061376001685857773</v>
       </c>
       <c r="D32" s="0">
-        <v>-0.022227799519896507</v>
+        <v>-0.025129800662398338</v>
       </c>
       <c r="E32" s="0">
-        <v>0.041386101394891739</v>
+        <v>0.037404999136924744</v>
       </c>
     </row>
     <row r="33">
@@ -768,13 +771,13 @@
         <v>12</v>
       </c>
       <c r="C33" s="0">
-        <v>0.014879800379276276</v>
+        <v>0.011590000241994858</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.027994100004434586</v>
+        <v>-0.031978901475667953</v>
       </c>
       <c r="E33" s="0">
-        <v>0.057753700762987137</v>
+        <v>0.055158801376819611</v>
       </c>
     </row>
     <row r="34">
@@ -785,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="C34" s="0">
-        <v>0.0081957001239061356</v>
+        <v>0.0060467999428510666</v>
       </c>
       <c r="D34" s="0">
-        <v>-0.027438400313258171</v>
+        <v>-0.031293898820877075</v>
       </c>
       <c r="E34" s="0">
-        <v>0.043829798698425293</v>
+        <v>0.043387401849031448</v>
       </c>
     </row>
     <row r="35">
@@ -802,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="C35" s="0">
-        <v>0.00152449996676296</v>
+        <v>0.0026072000619024038</v>
       </c>
       <c r="D35" s="0">
-        <v>-0.041563399136066437</v>
+        <v>-0.042939398437738419</v>
       </c>
       <c r="E35" s="0">
-        <v>0.044612400233745575</v>
+        <v>0.048153899610042572</v>
       </c>
     </row>
     <row r="36">
@@ -819,13 +822,13 @@
         <v>12</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.0010160000529140234</v>
+        <v>0.00053339998703449965</v>
       </c>
       <c r="D36" s="0">
-        <v>-0.055392000824213028</v>
+        <v>-0.057017598301172256</v>
       </c>
       <c r="E36" s="0">
-        <v>0.053360000252723694</v>
+        <v>0.058084499090909958</v>
       </c>
     </row>
     <row r="37">
@@ -836,13 +839,13 @@
         <v>12</v>
       </c>
       <c r="C37" s="0">
-        <v>0.023939099162817001</v>
+        <v>0.0257594995200634</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.036191001534461975</v>
+        <v>-0.036660399287939072</v>
       </c>
       <c r="E37" s="0">
-        <v>0.084069199860095978</v>
+        <v>0.088179402053356171</v>
       </c>
     </row>
     <row r="38">
@@ -853,13 +856,13 @@
         <v>13</v>
       </c>
       <c r="C38" s="0">
-        <v>0.026365200057625771</v>
+        <v>0.027635600417852402</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.035362798720598221</v>
+        <v>-0.033190999180078506</v>
       </c>
       <c r="E38" s="0">
-        <v>0.088093198835849762</v>
+        <v>0.088462196290493011</v>
       </c>
     </row>
     <row r="39">
@@ -870,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="C39" s="0">
-        <v>0.026520499959588051</v>
+        <v>0.02440669946372509</v>
       </c>
       <c r="D39" s="0">
-        <v>-0.033819198608398438</v>
+        <v>-0.035424001514911652</v>
       </c>
       <c r="E39" s="0">
-        <v>0.086860202252864838</v>
+        <v>0.084237396717071533</v>
       </c>
     </row>
     <row r="40">
@@ -887,13 +890,13 @@
         <v>13</v>
       </c>
       <c r="C40" s="0">
-        <v>-0.0010962999658659101</v>
+        <v>-0.005272699985653162</v>
       </c>
       <c r="D40" s="0">
-        <v>-0.064004398882389069</v>
+        <v>-0.069731399416923523</v>
       </c>
       <c r="E40" s="0">
-        <v>0.061811801046133041</v>
+        <v>0.059186000376939774</v>
       </c>
     </row>
     <row r="41">
@@ -904,13 +907,13 @@
         <v>13</v>
       </c>
       <c r="C41" s="0">
-        <v>-0.0090851001441478729</v>
+        <v>-0.012423399835824966</v>
       </c>
       <c r="D41" s="0">
-        <v>-0.067642703652381897</v>
+        <v>-0.071038499474525452</v>
       </c>
       <c r="E41" s="0">
-        <v>0.049472399055957794</v>
+        <v>0.046191699802875519</v>
       </c>
     </row>
     <row r="42">
@@ -921,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="C42" s="0">
-        <v>0.0029627999756485224</v>
+        <v>-0.0048263999633491039</v>
       </c>
       <c r="D42" s="0">
-        <v>-0.062668800354003906</v>
+        <v>-0.070660799741744995</v>
       </c>
       <c r="E42" s="0">
-        <v>0.068594500422477722</v>
+        <v>0.061007998883724213</v>
       </c>
     </row>
     <row r="43">
@@ -938,13 +941,13 @@
         <v>13</v>
       </c>
       <c r="C43" s="0">
-        <v>0.0001905999961309135</v>
+        <v>-0.008389599621295929</v>
       </c>
       <c r="D43" s="0">
-        <v>-0.066010996699333191</v>
+        <v>-0.075975902378559113</v>
       </c>
       <c r="E43" s="0">
-        <v>0.066392198204994202</v>
+        <v>0.059196799993515015</v>
       </c>
     </row>
     <row r="44">
@@ -955,13 +958,13 @@
         <v>14</v>
       </c>
       <c r="C44" s="0">
-        <v>-0.066577300429344177</v>
+        <v>-0.061126798391342163</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.10710909962654114</v>
+        <v>-0.10152249783277512</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.026045599952340126</v>
+        <v>-0.020731000229716301</v>
       </c>
     </row>
     <row r="45">
@@ -972,13 +975,13 @@
         <v>14</v>
       </c>
       <c r="C45" s="0">
-        <v>-0.063893400132656097</v>
+        <v>-0.060033198446035385</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.10928969830274582</v>
+        <v>-0.10462579876184464</v>
       </c>
       <c r="E45" s="0">
-        <v>-0.018497100099921227</v>
+        <v>-0.015440599992871284</v>
       </c>
     </row>
     <row r="46">
@@ -989,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.063940398395061493</v>
+        <v>-0.059325799345970154</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.10464829951524734</v>
+        <v>-0.098447896540164948</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.02323249913752079</v>
+        <v>-0.020203800871968269</v>
       </c>
     </row>
     <row r="47">
@@ -1006,13 +1009,13 @@
         <v>14</v>
       </c>
       <c r="C47" s="0">
-        <v>-0.064452499151229858</v>
+        <v>-0.060914698988199234</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.096075601875782013</v>
+        <v>-0.09173160046339035</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.032829400151968002</v>
+        <v>-0.030097799375653267</v>
       </c>
     </row>
     <row r="48">
@@ -1023,13 +1026,13 @@
         <v>14</v>
       </c>
       <c r="C48" s="0">
-        <v>-0.056740600615739822</v>
+        <v>-0.05251619964838028</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.095567196607589722</v>
+        <v>-0.090736299753189087</v>
       </c>
       <c r="E48" s="0">
-        <v>-0.017914000898599625</v>
+        <v>-0.014295999892055988</v>
       </c>
     </row>
     <row r="49">
@@ -1040,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="C49" s="0">
-        <v>-0.059118300676345825</v>
+        <v>-0.054601401090621948</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.10247710347175598</v>
+        <v>-0.097254097461700439</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.015759499743580818</v>
+        <v>-0.0119486004114151</v>
       </c>
     </row>
     <row r="50">
@@ -1057,13 +1060,13 @@
         <v>48</v>
       </c>
       <c r="C50" s="0">
-        <v>0.031122500076889992</v>
+        <v>0.030461499467492104</v>
       </c>
       <c r="D50" s="0">
-        <v>-0.0018491999944671988</v>
+        <v>-0.0024574000854045153</v>
       </c>
       <c r="E50" s="0">
-        <v>0.064094200730323792</v>
+        <v>0.063380397856235504</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1077,13 @@
         <v>48</v>
       </c>
       <c r="C51" s="0">
-        <v>0.02805200032889843</v>
+        <v>0.024932699277997017</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.0049049998633563519</v>
+        <v>-0.007548800203949213</v>
       </c>
       <c r="E51" s="0">
-        <v>0.06100890040397644</v>
+        <v>0.057414200156927109</v>
       </c>
     </row>
     <row r="52">
@@ -1091,13 +1094,13 @@
         <v>48</v>
       </c>
       <c r="C52" s="0">
-        <v>0.032415200024843216</v>
+        <v>0.026885999366641045</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.0063224001787602901</v>
+        <v>-0.012327400036156178</v>
       </c>
       <c r="E52" s="0">
-        <v>0.071152903139591217</v>
+        <v>0.066099397838115692</v>
       </c>
     </row>
     <row r="53">
@@ -1108,13 +1111,13 @@
         <v>48</v>
       </c>
       <c r="C53" s="0">
-        <v>0.036841999739408493</v>
+        <v>0.033984299749135971</v>
       </c>
       <c r="D53" s="0">
-        <v>-0.0010896000312641263</v>
+        <v>-0.0034439000301063061</v>
       </c>
       <c r="E53" s="0">
-        <v>0.074773602187633514</v>
+        <v>0.071412503719329834</v>
       </c>
     </row>
     <row r="54">
@@ -1125,13 +1128,13 @@
         <v>48</v>
       </c>
       <c r="C54" s="0">
-        <v>0.030281199142336845</v>
+        <v>0.022633099928498268</v>
       </c>
       <c r="D54" s="0">
-        <v>-0.0078007001429796219</v>
+        <v>-0.015199099667370319</v>
       </c>
       <c r="E54" s="0">
-        <v>0.068363003432750702</v>
+        <v>0.060465298593044281</v>
       </c>
     </row>
     <row r="55">
@@ -1142,13 +1145,13 @@
         <v>48</v>
       </c>
       <c r="C55" s="0">
-        <v>0.014898600056767464</v>
+        <v>0.0075861997902393341</v>
       </c>
       <c r="D55" s="0">
-        <v>-0.026490900665521622</v>
+        <v>-0.034021500498056412</v>
       </c>
       <c r="E55" s="0">
-        <v>0.056288201361894608</v>
+        <v>0.04919390007853508</v>
       </c>
     </row>
     <row r="56">
@@ -1159,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="C56" s="0">
-        <v>-0.14210879802703857</v>
+        <v>-0.14095400273799896</v>
       </c>
       <c r="D56" s="0">
-        <v>-0.19371959567070007</v>
+        <v>-0.19366669654846191</v>
       </c>
       <c r="E56" s="0">
-        <v>-0.090498000383377075</v>
+        <v>-0.088241301476955414</v>
       </c>
     </row>
     <row r="57">
@@ -1176,13 +1179,13 @@
         <v>15</v>
       </c>
       <c r="C57" s="0">
-        <v>-0.11295729875564575</v>
+        <v>-0.11598879843950272</v>
       </c>
       <c r="D57" s="0">
-        <v>-0.17420129477977753</v>
+        <v>-0.17835879325866699</v>
       </c>
       <c r="E57" s="0">
-        <v>-0.051713299006223679</v>
+        <v>-0.0536189004778862</v>
       </c>
     </row>
     <row r="58">
@@ -1193,13 +1196,13 @@
         <v>15</v>
       </c>
       <c r="C58" s="0">
-        <v>-0.13845759630203247</v>
+        <v>-0.13805399835109711</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.19849829375743866</v>
+        <v>-0.19840130209922791</v>
       </c>
       <c r="E58" s="0">
-        <v>-0.078416801989078522</v>
+        <v>-0.077706597745418549</v>
       </c>
     </row>
     <row r="59">
@@ -1210,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="C59" s="0">
-        <v>-0.16503560543060303</v>
+        <v>-0.16872300207614899</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.21292440593242645</v>
+        <v>-0.21544229984283447</v>
       </c>
       <c r="E59" s="0">
-        <v>-0.11714679747819901</v>
+        <v>-0.1220036968588829</v>
       </c>
     </row>
     <row r="60">
@@ -1227,13 +1230,13 @@
         <v>15</v>
       </c>
       <c r="C60" s="0">
-        <v>-0.14333149790763855</v>
+        <v>-0.14328190684318542</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.18365620076656342</v>
+        <v>-0.18264660239219666</v>
       </c>
       <c r="E60" s="0">
-        <v>-0.10300669819116592</v>
+        <v>-0.10391709953546524</v>
       </c>
     </row>
     <row r="61">
@@ -1244,13 +1247,13 @@
         <v>15</v>
       </c>
       <c r="C61" s="0">
-        <v>-0.12116889655590057</v>
+        <v>-0.12017399817705154</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.1758124977350235</v>
+        <v>-0.17395460605621338</v>
       </c>
       <c r="E61" s="0">
-        <v>-0.066525302827358246</v>
+        <v>-0.066393397748470306</v>
       </c>
     </row>
     <row r="62">
@@ -1261,13 +1264,13 @@
         <v>49</v>
       </c>
       <c r="C62" s="0">
-        <v>-0.021204199641942978</v>
+        <v>-0.019395200535655022</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.08586689829826355</v>
+        <v>-0.078932702541351318</v>
       </c>
       <c r="E62" s="0">
-        <v>0.043458499014377594</v>
+        <v>0.040142301470041275</v>
       </c>
     </row>
     <row r="63">
@@ -1278,13 +1281,13 @@
         <v>49</v>
       </c>
       <c r="C63" s="0">
-        <v>-0.0039033000357449055</v>
+        <v>-0.01025409996509552</v>
       </c>
       <c r="D63" s="0">
-        <v>-0.071229398250579834</v>
+        <v>-0.071006700396537781</v>
       </c>
       <c r="E63" s="0">
-        <v>0.063422799110412598</v>
+        <v>0.050498601049184799</v>
       </c>
     </row>
     <row r="64">
@@ -1295,13 +1298,13 @@
         <v>49</v>
       </c>
       <c r="C64" s="0">
-        <v>0.032310198992490768</v>
+        <v>0.030562000349164009</v>
       </c>
       <c r="D64" s="0">
-        <v>-0.0096877999603748322</v>
+        <v>-0.011968200094997883</v>
       </c>
       <c r="E64" s="0">
-        <v>0.074308201670646667</v>
+        <v>0.073092199862003326</v>
       </c>
     </row>
     <row r="65">
@@ -1312,13 +1315,13 @@
         <v>49</v>
       </c>
       <c r="C65" s="0">
-        <v>0.05907440185546875</v>
+        <v>0.055122200399637222</v>
       </c>
       <c r="D65" s="0">
-        <v>0.010922499932348728</v>
+        <v>0.0072631998918950558</v>
       </c>
       <c r="E65" s="0">
-        <v>0.10722629725933075</v>
+        <v>0.10298120230436325</v>
       </c>
     </row>
     <row r="66">
@@ -1329,13 +1332,13 @@
         <v>49</v>
       </c>
       <c r="C66" s="0">
-        <v>0.065580703318119049</v>
+        <v>0.061808299273252487</v>
       </c>
       <c r="D66" s="0">
-        <v>-0.0016401000320911407</v>
+        <v>-0.0021919999271631241</v>
       </c>
       <c r="E66" s="0">
-        <v>0.13280139863491058</v>
+        <v>0.12580870091915131</v>
       </c>
     </row>
     <row r="67">
@@ -1346,13 +1349,13 @@
         <v>49</v>
       </c>
       <c r="C67" s="0">
-        <v>0.053010698407888412</v>
+        <v>0.048536799848079681</v>
       </c>
       <c r="D67" s="0">
-        <v>-0.024370899423956871</v>
+        <v>-0.025765899568796158</v>
       </c>
       <c r="E67" s="0">
-        <v>0.1303924024105072</v>
+        <v>0.12283950299024582</v>
       </c>
     </row>
     <row r="68">
@@ -1363,13 +1366,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="0">
-        <v>-0.20207439363002777</v>
+        <v>-0.20498579740524292</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.33875718712806702</v>
+        <v>-0.34607589244842529</v>
       </c>
       <c r="E68" s="0">
-        <v>-0.065391600131988525</v>
+        <v>-0.063895702362060547</v>
       </c>
     </row>
     <row r="69">
@@ -1380,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="0">
-        <v>-0.19568470120429993</v>
+        <v>-0.19817450642585754</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.30378571152687073</v>
+        <v>-0.30937141180038452</v>
       </c>
       <c r="E69" s="0">
-        <v>-0.087583698332309723</v>
+        <v>-0.086977496743202209</v>
       </c>
     </row>
     <row r="70">
@@ -1397,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="0">
-        <v>-0.14983430504798889</v>
+        <v>-0.14993129670619965</v>
       </c>
       <c r="D70" s="0">
-        <v>-0.27187550067901611</v>
+        <v>-0.27480700612068176</v>
       </c>
       <c r="E70" s="0">
-        <v>-0.027793200686573982</v>
+        <v>-0.025055499747395515</v>
       </c>
     </row>
     <row r="71">
@@ -1414,13 +1417,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="0">
-        <v>-0.15784619748592377</v>
+        <v>-0.15978039801120758</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.32371830940246582</v>
+        <v>-0.32809638977050781</v>
       </c>
       <c r="E71" s="0">
-        <v>0.0080260001122951508</v>
+        <v>0.0085356999188661575</v>
       </c>
     </row>
     <row r="72">
@@ -1431,13 +1434,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="0">
-        <v>-0.21799449622631073</v>
+        <v>-0.22175240516662598</v>
       </c>
       <c r="D72" s="0">
-        <v>-0.37018018960952759</v>
+        <v>-0.37549480795860291</v>
       </c>
       <c r="E72" s="0">
-        <v>-0.065808899700641632</v>
+        <v>-0.068010002374649048</v>
       </c>
     </row>
     <row r="73">
@@ -1448,13 +1451,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="0">
-        <v>-0.23901629447937012</v>
+        <v>-0.2429036945104599</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.38900679349899292</v>
+        <v>-0.39205780625343323</v>
       </c>
       <c r="E73" s="0">
-        <v>-0.089025899767875671</v>
+        <v>-0.093749597668647766</v>
       </c>
     </row>
     <row r="74">
@@ -1465,13 +1468,13 @@
         <v>12</v>
       </c>
       <c r="C74" s="0">
-        <v>-0.010738699696958065</v>
+        <v>-0.0090266996994614601</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.15891279280185699</v>
+        <v>-0.15909430384635925</v>
       </c>
       <c r="E74" s="0">
-        <v>0.13743549585342407</v>
+        <v>0.14104080200195313</v>
       </c>
     </row>
     <row r="75">
@@ -1482,13 +1485,13 @@
         <v>12</v>
       </c>
       <c r="C75" s="0">
-        <v>0.017078200355172157</v>
+        <v>0.018773199990391731</v>
       </c>
       <c r="D75" s="0">
-        <v>-0.096782200038433075</v>
+        <v>-0.095759503543376923</v>
       </c>
       <c r="E75" s="0">
-        <v>0.13093869388103485</v>
+        <v>0.13330590724945068</v>
       </c>
     </row>
     <row r="76">
@@ -1499,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="C76" s="0">
-        <v>-0.021290000528097153</v>
+        <v>-0.02047399990260601</v>
       </c>
       <c r="D76" s="0">
-        <v>-0.13061730563640594</v>
+        <v>-0.13099609315395355</v>
       </c>
       <c r="E76" s="0">
-        <v>0.088037401437759399</v>
+        <v>0.09004809707403183</v>
       </c>
     </row>
     <row r="77">
@@ -1516,13 +1519,13 @@
         <v>12</v>
       </c>
       <c r="C77" s="0">
-        <v>-0.030197400599718094</v>
+        <v>-0.028700400143861771</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.13914379477500916</v>
+        <v>-0.13939189910888672</v>
       </c>
       <c r="E77" s="0">
-        <v>0.078749001026153564</v>
+        <v>0.081991098821163177</v>
       </c>
     </row>
     <row r="78">
@@ -1533,13 +1536,13 @@
         <v>12</v>
       </c>
       <c r="C78" s="0">
-        <v>0.0089459000155329704</v>
+        <v>0.011554700322449207</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.090368501842021942</v>
+        <v>-0.089881502091884613</v>
       </c>
       <c r="E78" s="0">
-        <v>0.10826029628515244</v>
+        <v>0.11299090087413788</v>
       </c>
     </row>
     <row r="79">
@@ -1550,13 +1553,13 @@
         <v>12</v>
       </c>
       <c r="C79" s="0">
-        <v>-0.012183500453829765</v>
+        <v>-0.0092628002166748047</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.096280299127101898</v>
+        <v>-0.095771096646785736</v>
       </c>
       <c r="E79" s="0">
-        <v>0.071913301944732666</v>
+        <v>0.077245503664016724</v>
       </c>
     </row>
     <row r="80">
@@ -1567,13 +1570,13 @@
         <v>16</v>
       </c>
       <c r="C80" s="0">
-        <v>-0.10899700224399567</v>
+        <v>-0.10976310074329376</v>
       </c>
       <c r="D80" s="0">
-        <v>-0.27100661396980286</v>
+        <v>-0.27272120118141174</v>
       </c>
       <c r="E80" s="0">
-        <v>0.053012698888778687</v>
+        <v>0.053194999694824219</v>
       </c>
     </row>
     <row r="81">
@@ -1584,13 +1587,13 @@
         <v>16</v>
       </c>
       <c r="C81" s="0">
-        <v>-0.15903300046920776</v>
+        <v>-0.15974889695644379</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.30057179927825928</v>
+        <v>-0.30157139897346497</v>
       </c>
       <c r="E81" s="0">
-        <v>-0.017494199797511101</v>
+        <v>-0.017926499247550964</v>
       </c>
     </row>
     <row r="82">
@@ -1601,13 +1604,13 @@
         <v>16</v>
       </c>
       <c r="C82" s="0">
-        <v>-0.12838530540466309</v>
+        <v>-0.12838940322399139</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.261850506067276</v>
+        <v>-0.26258409023284912</v>
       </c>
       <c r="E82" s="0">
-        <v>0.005079799797385931</v>
+        <v>0.0058051999658346176</v>
       </c>
     </row>
     <row r="83">
@@ -1618,13 +1621,13 @@
         <v>16</v>
       </c>
       <c r="C83" s="0">
-        <v>-0.1246785968542099</v>
+        <v>-0.12521189451217651</v>
       </c>
       <c r="D83" s="0">
-        <v>-0.23755529522895813</v>
+        <v>-0.23960989713668823</v>
       </c>
       <c r="E83" s="0">
-        <v>-0.011801999993622303</v>
+        <v>-0.010813900269567966</v>
       </c>
     </row>
     <row r="84">
@@ -1635,13 +1638,13 @@
         <v>16</v>
       </c>
       <c r="C84" s="0">
-        <v>-0.17186160385608673</v>
+        <v>-0.17330379784107208</v>
       </c>
       <c r="D84" s="0">
-        <v>-0.28328138589859009</v>
+        <v>-0.28638839721679688</v>
       </c>
       <c r="E84" s="0">
-        <v>-0.060441900044679642</v>
+        <v>-0.060219299048185349</v>
       </c>
     </row>
     <row r="85">
@@ -1652,13 +1655,13 @@
         <v>16</v>
       </c>
       <c r="C85" s="0">
-        <v>-0.15792560577392578</v>
+        <v>-0.15977640450000763</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.262176513671875</v>
+        <v>-0.26569628715515137</v>
       </c>
       <c r="E85" s="0">
-        <v>-0.053674701601266861</v>
+        <v>-0.053856600075960159</v>
       </c>
     </row>
     <row r="86">
@@ -1669,13 +1672,13 @@
         <v>17</v>
       </c>
       <c r="C86" s="0">
-        <v>-0.3161529004573822</v>
+        <v>-0.3544309139251709</v>
       </c>
       <c r="D86" s="0">
-        <v>-0.37197110056877136</v>
+        <v>-0.42525729537010193</v>
       </c>
       <c r="E86" s="0">
-        <v>-0.26033470034599304</v>
+        <v>-0.28360459208488464</v>
       </c>
     </row>
     <row r="87">
@@ -1686,13 +1689,13 @@
         <v>17</v>
       </c>
       <c r="C87" s="0">
-        <v>-0.38542190194129944</v>
+        <v>-0.42027229070663452</v>
       </c>
       <c r="D87" s="0">
-        <v>-0.44791358709335327</v>
+        <v>-0.52322667837142944</v>
       </c>
       <c r="E87" s="0">
-        <v>-0.32293018698692322</v>
+        <v>-0.31731781363487244</v>
       </c>
     </row>
     <row r="88">
@@ -1703,13 +1706,13 @@
         <v>17</v>
       </c>
       <c r="C88" s="0">
-        <v>-0.37274080514907837</v>
+        <v>-0.39082500338554382</v>
       </c>
       <c r="D88" s="0">
-        <v>-0.44494989514350891</v>
+        <v>-0.52977627515792847</v>
       </c>
       <c r="E88" s="0">
-        <v>-0.30053168535232544</v>
+        <v>-0.25187370181083679</v>
       </c>
     </row>
     <row r="89">
@@ -1720,13 +1723,13 @@
         <v>17</v>
       </c>
       <c r="C89" s="0">
-        <v>-0.36941158771514893</v>
+        <v>-0.33294400572776794</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.49847540259361267</v>
+        <v>-0.5112454891204834</v>
       </c>
       <c r="E89" s="0">
-        <v>-0.24034780263900757</v>
+        <v>-0.15464259684085846</v>
       </c>
     </row>
     <row r="90">
@@ -1737,13 +1740,13 @@
         <v>17</v>
       </c>
       <c r="C90" s="0">
-        <v>-0.30194690823554993</v>
+        <v>-0.33615279197692871</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.42135569453239441</v>
+        <v>-0.45380499958992004</v>
       </c>
       <c r="E90" s="0">
-        <v>-0.18253810703754425</v>
+        <v>-0.21850059926509857</v>
       </c>
     </row>
     <row r="91">
@@ -1754,13 +1757,13 @@
         <v>17</v>
       </c>
       <c r="C91" s="0">
-        <v>-0.28528809547424316</v>
+        <v>-0.33383971452713013</v>
       </c>
       <c r="D91" s="0">
-        <v>-0.44931790232658386</v>
+        <v>-0.51850968599319458</v>
       </c>
       <c r="E91" s="0">
-        <v>-0.12125830352306366</v>
+        <v>-0.14916959404945374</v>
       </c>
     </row>
     <row r="92">
@@ -1771,13 +1774,13 @@
         <v>15</v>
       </c>
       <c r="C92" s="0">
-        <v>-0.074010796844959259</v>
+        <v>-0.092635996639728546</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.11017850041389465</v>
+        <v>-0.14015479385852814</v>
       </c>
       <c r="E92" s="0">
-        <v>-0.03784320130944252</v>
+        <v>-0.045117098838090897</v>
       </c>
     </row>
     <row r="93">
@@ -1788,13 +1791,13 @@
         <v>15</v>
       </c>
       <c r="C93" s="0">
-        <v>-0.078051097691059113</v>
+        <v>-0.10194040089845657</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.10492180287837982</v>
+        <v>-0.14108580350875854</v>
       </c>
       <c r="E93" s="0">
-        <v>-0.051180399954319</v>
+        <v>-0.062794901430606842</v>
       </c>
     </row>
     <row r="94">
@@ -1805,13 +1808,13 @@
         <v>15</v>
       </c>
       <c r="C94" s="0">
-        <v>-0.10111019760370255</v>
+        <v>-0.11984570324420929</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.14005169272422791</v>
+        <v>-0.17743760347366333</v>
       </c>
       <c r="E94" s="0">
-        <v>-0.062168598175048828</v>
+        <v>-0.062253799289464951</v>
       </c>
     </row>
     <row r="95">
@@ -1822,13 +1825,13 @@
         <v>15</v>
       </c>
       <c r="C95" s="0">
-        <v>-0.11574780195951462</v>
+        <v>-0.13601620495319366</v>
       </c>
       <c r="D95" s="0">
-        <v>-0.15907770395278931</v>
+        <v>-0.20041139423847198</v>
       </c>
       <c r="E95" s="0">
-        <v>-0.072417899966239929</v>
+        <v>-0.07162100076675415</v>
       </c>
     </row>
     <row r="96">
@@ -1839,13 +1842,13 @@
         <v>15</v>
       </c>
       <c r="C96" s="0">
-        <v>-0.13912059366703033</v>
+        <v>-0.14504599571228027</v>
       </c>
       <c r="D96" s="0">
-        <v>-0.20296800136566162</v>
+        <v>-0.20962269604206085</v>
       </c>
       <c r="E96" s="0">
-        <v>-0.075273200869560242</v>
+        <v>-0.080469198524951935</v>
       </c>
     </row>
     <row r="97">
@@ -1856,13 +1859,13 @@
         <v>15</v>
       </c>
       <c r="C97" s="0">
-        <v>-0.15070550143718719</v>
+        <v>-0.15360230207443237</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.21933630108833313</v>
+        <v>-0.22243089973926544</v>
       </c>
       <c r="E97" s="0">
-        <v>-0.08207479864358902</v>
+        <v>-0.084773600101470947</v>
       </c>
     </row>
     <row r="98">
@@ -2893,13 +2896,13 @@
         <v>16</v>
       </c>
       <c r="C158" s="0">
-        <v>-0.31551319360733032</v>
+        <v>-0.31720688939094543</v>
       </c>
       <c r="D158" s="0">
-        <v>-0.46545770764350891</v>
+        <v>-0.46753141283988953</v>
       </c>
       <c r="E158" s="0">
-        <v>-0.16556869447231293</v>
+        <v>-0.16688239574432373</v>
       </c>
     </row>
     <row r="159">
@@ -2910,13 +2913,13 @@
         <v>12</v>
       </c>
       <c r="C159" s="0">
-        <v>0.070942498743534088</v>
+        <v>0.073519803583621979</v>
       </c>
       <c r="D159" s="0">
-        <v>-0.13110730051994324</v>
+        <v>-0.1286969929933548</v>
       </c>
       <c r="E159" s="0">
-        <v>0.27299231290817261</v>
+        <v>0.27573660016059875</v>
       </c>
     </row>
     <row r="160">
@@ -2927,13 +2930,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="0">
-        <v>-0.22906219959259033</v>
+        <v>-0.23214809596538544</v>
       </c>
       <c r="D160" s="0">
-        <v>-0.3924202024936676</v>
+        <v>-0.39599820971488953</v>
       </c>
       <c r="E160" s="0">
-        <v>-0.065704300999641418</v>
+        <v>-0.068298101425170898</v>
       </c>
     </row>
     <row r="161">
@@ -2944,13 +2947,13 @@
         <v>16</v>
       </c>
       <c r="C161" s="0">
-        <v>-0.34423309564590454</v>
+        <v>-0.34820461273193359</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.44197380542755127</v>
+        <v>-0.44688990712165833</v>
       </c>
       <c r="E161" s="0">
-        <v>-0.24649240076541901</v>
+        <v>-0.24951939284801483</v>
       </c>
     </row>
     <row r="162">
@@ -2961,13 +2964,13 @@
         <v>12</v>
       </c>
       <c r="C162" s="0">
-        <v>0.10212010145187378</v>
+        <v>0.10668569803237915</v>
       </c>
       <c r="D162" s="0">
-        <v>0.018806099891662598</v>
+        <v>0.025227999314665794</v>
       </c>
       <c r="E162" s="0">
-        <v>0.1854339987039566</v>
+        <v>0.18814340233802795</v>
       </c>
     </row>
     <row r="163">
@@ -2978,13 +2981,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="0">
-        <v>-0.25752121210098267</v>
+        <v>-0.26465588808059692</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.43590730428695679</v>
+        <v>-0.44582921266555786</v>
       </c>
       <c r="E163" s="0">
-        <v>-0.079135201871395111</v>
+        <v>-0.083482600748538971</v>
       </c>
     </row>
     <row r="164">
@@ -2995,13 +2998,13 @@
         <v>16</v>
       </c>
       <c r="C164" s="0">
-        <v>-0.28544160723686218</v>
+        <v>-0.28961029648780823</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.3754551112651825</v>
+        <v>-0.38029348850250244</v>
       </c>
       <c r="E164" s="0">
-        <v>-0.19542799890041351</v>
+        <v>-0.19892700016498566</v>
       </c>
     </row>
     <row r="165">
@@ -3012,13 +3015,13 @@
         <v>12</v>
       </c>
       <c r="C165" s="0">
-        <v>0.05214570090174675</v>
+        <v>0.056790001690387726</v>
       </c>
       <c r="D165" s="0">
-        <v>-0.060867298394441605</v>
+        <v>-0.054107699543237686</v>
       </c>
       <c r="E165" s="0">
-        <v>0.1651587039232254</v>
+        <v>0.16768769919872284</v>
       </c>
     </row>
     <row r="166">
@@ -3029,13 +3032,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="0">
-        <v>-0.22738400101661682</v>
+        <v>-0.2347383052110672</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.42273971438407898</v>
+        <v>-0.43467581272125244</v>
       </c>
       <c r="E166" s="0">
-        <v>-0.032028298825025558</v>
+        <v>-0.034800898283720016</v>
       </c>
     </row>
     <row r="167">
@@ -3046,13 +3049,13 @@
         <v>16</v>
       </c>
       <c r="C167" s="0">
-        <v>-0.28839358687400818</v>
+        <v>-0.29123181104660034</v>
       </c>
       <c r="D167" s="0">
-        <v>-0.39384201169013977</v>
+        <v>-0.39698919653892517</v>
       </c>
       <c r="E167" s="0">
-        <v>-0.18294520676136017</v>
+        <v>-0.18547439575195313</v>
       </c>
     </row>
     <row r="168">
@@ -3063,13 +3066,13 @@
         <v>12</v>
       </c>
       <c r="C168" s="0">
-        <v>0.056106198579072952</v>
+        <v>0.05963430181145668</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.038437198847532272</v>
+        <v>-0.034313801676034927</v>
       </c>
       <c r="E168" s="0">
-        <v>0.15064950287342072</v>
+        <v>0.15358230471611023</v>
       </c>
     </row>
     <row r="169">
@@ -3080,13 +3083,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="0">
-        <v>-0.21969109773635864</v>
+        <v>-0.22467020153999329</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.44537588953971863</v>
+        <v>-0.45187351107597351</v>
       </c>
       <c r="E169" s="0">
-        <v>0.0059937001205980778</v>
+        <v>0.0025329000782221556</v>
       </c>
     </row>
     <row r="170">
@@ -3097,13 +3100,13 @@
         <v>16</v>
       </c>
       <c r="C170" s="0">
-        <v>-0.19902360439300537</v>
+        <v>-0.20100130140781403</v>
       </c>
       <c r="D170" s="0">
-        <v>-0.30458089709281921</v>
+        <v>-0.30575978755950928</v>
       </c>
       <c r="E170" s="0">
-        <v>-0.093466296792030334</v>
+        <v>-0.096242800354957581</v>
       </c>
     </row>
     <row r="171">
@@ -3114,13 +3117,13 @@
         <v>12</v>
       </c>
       <c r="C171" s="0">
-        <v>-0.019210800528526306</v>
+        <v>-0.016979899257421494</v>
       </c>
       <c r="D171" s="0">
-        <v>-0.12504540383815765</v>
+        <v>-0.12179329991340637</v>
       </c>
       <c r="E171" s="0">
-        <v>0.086623802781105042</v>
+        <v>0.087833397090435028</v>
       </c>
     </row>
     <row r="172">
@@ -3131,13 +3134,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="0">
-        <v>-0.11120469868183136</v>
+        <v>-0.11468230187892914</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.28806450963020325</v>
+        <v>-0.29217419028282166</v>
       </c>
       <c r="E172" s="0">
-        <v>0.065655097365379333</v>
+        <v>0.062809497117996216</v>
       </c>
     </row>
     <row r="173">
@@ -3148,13 +3151,13 @@
         <v>16</v>
       </c>
       <c r="C173" s="0">
-        <v>-0.17939479649066925</v>
+        <v>-0.18271879851818085</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.27408739924430847</v>
+        <v>-0.27638000249862671</v>
       </c>
       <c r="E173" s="0">
-        <v>-0.084702298045158386</v>
+        <v>-0.089057497680187225</v>
       </c>
     </row>
     <row r="174">
@@ -3165,13 +3168,13 @@
         <v>12</v>
       </c>
       <c r="C174" s="0">
-        <v>-0.035299498587846756</v>
+        <v>-0.032039199024438858</v>
       </c>
       <c r="D174" s="0">
-        <v>-0.12370669841766357</v>
+        <v>-0.11866209656000137</v>
       </c>
       <c r="E174" s="0">
-        <v>0.053107600659132004</v>
+        <v>0.054583799093961716</v>
       </c>
     </row>
     <row r="175">
@@ -3182,13 +3185,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="0">
-        <v>-0.088031001389026642</v>
+        <v>-0.093517601490020752</v>
       </c>
       <c r="D175" s="0">
-        <v>-0.25068798661231995</v>
+        <v>-0.25695538520812988</v>
       </c>
       <c r="E175" s="0">
-        <v>0.074626103043556213</v>
+        <v>0.069920100271701813</v>
       </c>
     </row>
   </sheetData>
@@ -3225,10 +3228,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.29814431071281433</v>
+        <v>0.29870098829269409</v>
       </c>
       <c r="B2" s="0">
-        <v>0.052195198833942413</v>
+        <v>0.052104901522397995</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -3240,18 +3243,18 @@
         <v>1</v>
       </c>
       <c r="F2" s="0">
-        <v>0.40044689178466797</v>
+        <v>0.40082660317420959</v>
       </c>
       <c r="G2" s="0">
-        <v>0.19584169983863831</v>
+        <v>0.19657540321350098</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.29172319173812866</v>
+        <v>0.29198428988456726</v>
       </c>
       <c r="B3" s="0">
-        <v>0.052809100598096848</v>
+        <v>0.052805200219154358</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
@@ -3263,18 +3266,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="0">
-        <v>0.39522901177406311</v>
+        <v>0.39548251032829285</v>
       </c>
       <c r="G3" s="0">
-        <v>0.1882174015045166</v>
+        <v>0.18848609924316406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28195500373840332</v>
+        <v>0.28190469741821289</v>
       </c>
       <c r="B4" s="0">
-        <v>0.049875900149345398</v>
+        <v>0.049849599599838257</v>
       </c>
       <c r="C4" s="0">
         <v>2</v>
@@ -3286,18 +3289,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="0">
-        <v>0.3797118067741394</v>
+        <v>0.37960991263389587</v>
       </c>
       <c r="G4" s="0">
-        <v>0.18419820070266724</v>
+        <v>0.1841994971036911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.26696610450744629</v>
+        <v>0.26649430394172668</v>
       </c>
       <c r="B5" s="0">
-        <v>0.048747498542070389</v>
+        <v>0.048679899424314499</v>
       </c>
       <c r="C5" s="0">
         <v>3</v>
@@ -3309,18 +3312,18 @@
         <v>1</v>
       </c>
       <c r="F5" s="0">
-        <v>0.36251118779182434</v>
+        <v>0.36190688610076904</v>
       </c>
       <c r="G5" s="0">
-        <v>0.17142100632190704</v>
+        <v>0.17108170688152313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.25850290060043335</v>
+        <v>0.25838398933410645</v>
       </c>
       <c r="B6" s="0">
-        <v>0.047836799174547195</v>
+        <v>0.047819100320339203</v>
       </c>
       <c r="C6" s="0">
         <v>4</v>
@@ -3332,18 +3335,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="0">
-        <v>0.35226300358772278</v>
+        <v>0.3521094024181366</v>
       </c>
       <c r="G6" s="0">
-        <v>0.16474279761314392</v>
+        <v>0.16465850174427032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.24496589601039886</v>
+        <v>0.24492309987545013</v>
       </c>
       <c r="B7" s="0">
-        <v>0.046355299651622772</v>
+        <v>0.046332500874996185</v>
       </c>
       <c r="C7" s="0">
         <v>5</v>
@@ -3355,18 +3358,18 @@
         <v>1</v>
       </c>
       <c r="F7" s="0">
-        <v>0.33582231402397156</v>
+        <v>0.33573481440544128</v>
       </c>
       <c r="G7" s="0">
-        <v>0.15410949289798737</v>
+        <v>0.15411140024662018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.22678059339523315</v>
+        <v>0.22738839685916901</v>
       </c>
       <c r="B8" s="0">
-        <v>0.042304500937461853</v>
+        <v>0.042250201106071472</v>
       </c>
       <c r="C8" s="0">
         <v>6</v>
@@ -3378,18 +3381,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="0">
-        <v>0.30969738960266113</v>
+        <v>0.31019881367683411</v>
       </c>
       <c r="G8" s="0">
-        <v>0.14386379718780518</v>
+        <v>0.1445779949426651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.24462689459323883</v>
+        <v>0.2462352067232132</v>
       </c>
       <c r="B9" s="0">
-        <v>0.04210289940237999</v>
+        <v>0.042079698294401169</v>
       </c>
       <c r="C9" s="0">
         <v>7</v>
@@ -3401,18 +3404,18 @@
         <v>1</v>
       </c>
       <c r="F9" s="0">
-        <v>0.32714858651161194</v>
+        <v>0.32871139049530029</v>
       </c>
       <c r="G9" s="0">
-        <v>0.16210520267486572</v>
+        <v>0.16375899314880371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.28027749061584473</v>
+        <v>0.28133070468902588</v>
       </c>
       <c r="B10" s="0">
-        <v>0.044884499162435532</v>
+        <v>0.045152399688959122</v>
       </c>
       <c r="C10" s="0">
         <v>8</v>
@@ -3424,18 +3427,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="0">
-        <v>0.36825108528137207</v>
+        <v>0.36982938647270203</v>
       </c>
       <c r="G10" s="0">
-        <v>0.19230389595031738</v>
+        <v>0.19283199310302734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24692800641059875</v>
+        <v>0.24758049845695496</v>
       </c>
       <c r="B11" s="0">
-        <v>0.044131100177764893</v>
+        <v>0.044406101107597351</v>
       </c>
       <c r="C11" s="0">
         <v>9</v>
@@ -3447,18 +3450,18 @@
         <v>1</v>
       </c>
       <c r="F11" s="0">
-        <v>0.33342498540878296</v>
+        <v>0.33461651206016541</v>
       </c>
       <c r="G11" s="0">
-        <v>0.16043110191822052</v>
+        <v>0.1605444997549057</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.21975859999656677</v>
+        <v>0.21994119882583618</v>
       </c>
       <c r="B12" s="0">
-        <v>0.04014969989657402</v>
+        <v>0.040273699909448624</v>
       </c>
       <c r="C12" s="0">
         <v>10</v>
@@ -3470,18 +3473,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="0">
-        <v>0.2984519898891449</v>
+        <v>0.29887768626213074</v>
       </c>
       <c r="G12" s="0">
-        <v>0.14106519520282745</v>
+        <v>0.14100469648838043</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.20364269614219666</v>
+        <v>0.20355910062789917</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039742801338434219</v>
+        <v>0.039820898324251175</v>
       </c>
       <c r="C13" s="0">
         <v>11</v>
@@ -3493,18 +3496,18 @@
         <v>1</v>
       </c>
       <c r="F13" s="0">
-        <v>0.28153860569000244</v>
+        <v>0.28160810470581055</v>
       </c>
       <c r="G13" s="0">
-        <v>0.12574680149555206</v>
+        <v>0.12551009654998779</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.19054730236530304</v>
+        <v>0.19033309817314148</v>
       </c>
       <c r="B14" s="0">
-        <v>0.03820829838514328</v>
+        <v>0.038283199071884155</v>
       </c>
       <c r="C14" s="0">
         <v>12</v>
@@ -3516,18 +3519,18 @@
         <v>1</v>
       </c>
       <c r="F14" s="0">
-        <v>0.2654356062412262</v>
+        <v>0.26536819338798523</v>
       </c>
       <c r="G14" s="0">
-        <v>0.11565899848937988</v>
+        <v>0.11529800295829773</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.18657970428466797</v>
+        <v>0.18608790636062622</v>
       </c>
       <c r="B15" s="0">
-        <v>0.038256101310253143</v>
+        <v>0.038351800292730331</v>
       </c>
       <c r="C15" s="0">
         <v>13</v>
@@ -3539,18 +3542,18 @@
         <v>1</v>
       </c>
       <c r="F15" s="0">
-        <v>0.26156169176101685</v>
+        <v>0.26125741004943848</v>
       </c>
       <c r="G15" s="0">
-        <v>0.1115977019071579</v>
+        <v>0.11091840267181396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.17197880148887634</v>
+        <v>0.17153039574623108</v>
       </c>
       <c r="B16" s="0">
-        <v>0.037144798785448074</v>
+        <v>0.037234898656606674</v>
       </c>
       <c r="C16" s="0">
         <v>14</v>
@@ -3562,18 +3565,18 @@
         <v>1</v>
       </c>
       <c r="F16" s="0">
-        <v>0.24478259682655334</v>
+        <v>0.24451079964637756</v>
       </c>
       <c r="G16" s="0">
-        <v>0.099174998700618744</v>
+        <v>0.098549999296665192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.15993389487266541</v>
+        <v>0.15968260169029236</v>
       </c>
       <c r="B17" s="0">
-        <v>0.036585099995136261</v>
+        <v>0.036539401859045029</v>
       </c>
       <c r="C17" s="0">
         <v>15</v>
@@ -3585,18 +3588,18 @@
         <v>1</v>
       </c>
       <c r="F17" s="0">
-        <v>0.23164069652557373</v>
+        <v>0.23129980266094208</v>
       </c>
       <c r="G17" s="0">
-        <v>0.088227100670337677</v>
+        <v>0.088065400719642639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34746518731117249</v>
+        <v>0.33831220865249634</v>
       </c>
       <c r="B18" s="0">
-        <v>0.033178601413965225</v>
+        <v>0.03182699903845787</v>
       </c>
       <c r="C18" s="0">
         <v>0.20000000298023224</v>
@@ -3608,18 +3611,18 @@
         <v>2</v>
       </c>
       <c r="F18" s="0">
-        <v>0.41249528527259827</v>
+        <v>0.40069308876991272</v>
       </c>
       <c r="G18" s="0">
-        <v>0.2824350893497467</v>
+        <v>0.27593129873275757</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.37686300277709961</v>
+        <v>0.36075350642204285</v>
       </c>
       <c r="B19" s="0">
-        <v>0.035720501095056534</v>
+        <v>0.034999601542949677</v>
       </c>
       <c r="C19" s="0">
         <v>1.2000000476837158</v>
@@ -3631,18 +3634,18 @@
         <v>2</v>
       </c>
       <c r="F19" s="0">
-        <v>0.44687521457672119</v>
+        <v>0.42935270071029663</v>
       </c>
       <c r="G19" s="0">
-        <v>0.30685079097747803</v>
+        <v>0.29215431213378906</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.39690360426902771</v>
+        <v>0.3460271954536438</v>
       </c>
       <c r="B20" s="0">
-        <v>0.043094001710414886</v>
+        <v>0.037617500871419907</v>
       </c>
       <c r="C20" s="0">
         <v>2.2000000476837158</v>
@@ -3654,18 +3657,18 @@
         <v>2</v>
       </c>
       <c r="F20" s="0">
-        <v>0.48136788606643677</v>
+        <v>0.41975748538970947</v>
       </c>
       <c r="G20" s="0">
-        <v>0.31243941187858582</v>
+        <v>0.27229690551757813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.41696760058403015</v>
+        <v>0.37396600842475891</v>
       </c>
       <c r="B21" s="0">
-        <v>0.039848800748586655</v>
+        <v>0.038405399769544601</v>
       </c>
       <c r="C21" s="0">
         <v>3.2000000476837158</v>
@@ -3677,18 +3680,18 @@
         <v>2</v>
       </c>
       <c r="F21" s="0">
-        <v>0.49507129192352295</v>
+        <v>0.44924059510231018</v>
       </c>
       <c r="G21" s="0">
-        <v>0.33886390924453735</v>
+        <v>0.29869139194488525</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.43678310513496399</v>
+        <v>0.39625170826911926</v>
       </c>
       <c r="B22" s="0">
-        <v>0.041010398417711258</v>
+        <v>0.042269900441169739</v>
       </c>
       <c r="C22" s="0">
         <v>4.1999998092651367</v>
@@ -3700,18 +3703,18 @@
         <v>2</v>
       </c>
       <c r="F22" s="0">
-        <v>0.51716351509094238</v>
+        <v>0.47910070419311523</v>
       </c>
       <c r="G22" s="0">
-        <v>0.3564026951789856</v>
+        <v>0.31340271234512329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42289999127388</v>
+        <v>0.40156608819961548</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040379200130701065</v>
+        <v>0.040895499289035797</v>
       </c>
       <c r="C23" s="0">
         <v>5.1999998092651367</v>
@@ -3723,18 +3726,18 @@
         <v>2</v>
       </c>
       <c r="F23" s="0">
-        <v>0.50204318761825562</v>
+        <v>0.48172131180763245</v>
       </c>
       <c r="G23" s="0">
-        <v>0.34375679492950439</v>
+        <v>0.3214108943939209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.42353799939155579</v>
+        <v>0.41050231456756592</v>
       </c>
       <c r="B24" s="0">
-        <v>0.040392998605966568</v>
+        <v>0.042611099779605865</v>
       </c>
       <c r="C24" s="0">
         <v>6.1999998092651367</v>
@@ -3746,18 +3749,18 @@
         <v>2</v>
       </c>
       <c r="F24" s="0">
-        <v>0.5027083158493042</v>
+        <v>0.49402010440826416</v>
       </c>
       <c r="G24" s="0">
-        <v>0.34436771273612976</v>
+        <v>0.32698461413383484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.39814010262489319</v>
+        <v>0.38565129041671753</v>
       </c>
       <c r="B25" s="0">
-        <v>0.038309801369905472</v>
+        <v>0.039835501462221146</v>
       </c>
       <c r="C25" s="0">
         <v>7.1999998092651367</v>
@@ -3769,18 +3772,18 @@
         <v>2</v>
       </c>
       <c r="F25" s="0">
-        <v>0.47322729229927063</v>
+        <v>0.46372890472412109</v>
       </c>
       <c r="G25" s="0">
-        <v>0.32305291295051575</v>
+        <v>0.30757370591163635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.36208769679069519</v>
+        <v>0.35052910447120667</v>
       </c>
       <c r="B26" s="0">
-        <v>0.034304298460483551</v>
+        <v>0.037408098578453064</v>
       </c>
       <c r="C26" s="0">
         <v>8.1999998092651367</v>
@@ -3792,18 +3795,18 @@
         <v>2</v>
       </c>
       <c r="F26" s="0">
-        <v>0.42932409048080444</v>
+        <v>0.42384898662567139</v>
       </c>
       <c r="G26" s="0">
-        <v>0.29485130310058594</v>
+        <v>0.27720919251441956</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.34748819470405579</v>
+        <v>0.33490949869155884</v>
       </c>
       <c r="B27" s="0">
-        <v>0.034906700253486633</v>
+        <v>0.037489801645278931</v>
       </c>
       <c r="C27" s="0">
         <v>9.1999998092651367</v>
@@ -3815,18 +3818,18 @@
         <v>2</v>
       </c>
       <c r="F27" s="0">
-        <v>0.41590529680252075</v>
+        <v>0.40838950872421265</v>
       </c>
       <c r="G27" s="0">
-        <v>0.27907109260559082</v>
+        <v>0.26142948865890503</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.33672469854354858</v>
+        <v>0.3191182017326355</v>
       </c>
       <c r="B28" s="0">
-        <v>0.03242579847574234</v>
+        <v>0.035088401287794113</v>
       </c>
       <c r="C28" s="0">
         <v>10.199999809265137</v>
@@ -3838,18 +3841,18 @@
         <v>2</v>
       </c>
       <c r="F28" s="0">
-        <v>0.40027931332588196</v>
+        <v>0.3878915011882782</v>
       </c>
       <c r="G28" s="0">
-        <v>0.2731701135635376</v>
+        <v>0.2503449022769928</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.32296329736709595</v>
+        <v>0.31248849630355835</v>
       </c>
       <c r="B29" s="0">
-        <v>0.03399369865655899</v>
+        <v>0.033014301210641861</v>
       </c>
       <c r="C29" s="0">
         <v>11.199999809265137</v>
@@ -3861,18 +3864,18 @@
         <v>2</v>
       </c>
       <c r="F29" s="0">
-        <v>0.38959088921546936</v>
+        <v>0.37719649076461792</v>
       </c>
       <c r="G29" s="0">
-        <v>0.25633558630943298</v>
+        <v>0.24778050184249878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.31146660447120667</v>
+        <v>0.29594171047210693</v>
       </c>
       <c r="B30" s="0">
-        <v>0.031351599842309952</v>
+        <v>0.031853098422288895</v>
       </c>
       <c r="C30" s="0">
         <v>12.199999809265137</v>
@@ -3884,18 +3887,18 @@
         <v>2</v>
       </c>
       <c r="F30" s="0">
-        <v>0.37291568517684937</v>
+        <v>0.35837379097938538</v>
       </c>
       <c r="G30" s="0">
-        <v>0.25001749396324158</v>
+        <v>0.2335096001625061</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.30895420908927917</v>
+        <v>0.29666221141815186</v>
       </c>
       <c r="B31" s="0">
-        <v>0.033208098262548447</v>
+        <v>0.032225001603364944</v>
       </c>
       <c r="C31" s="0">
         <v>13.199999809265137</v>
@@ -3907,18 +3910,18 @@
         <v>2</v>
       </c>
       <c r="F31" s="0">
-        <v>0.3740420937538147</v>
+        <v>0.35982319712638855</v>
       </c>
       <c r="G31" s="0">
-        <v>0.24386629462242126</v>
+        <v>0.23350119590759277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.30937731266021729</v>
+        <v>0.29817301034927368</v>
       </c>
       <c r="B32" s="0">
-        <v>0.032332498580217361</v>
+        <v>0.032639499753713608</v>
       </c>
       <c r="C32" s="0">
         <v>14.199999809265137</v>
@@ -3930,18 +3933,18 @@
         <v>2</v>
       </c>
       <c r="F32" s="0">
-        <v>0.37274900078773499</v>
+        <v>0.36214640736579895</v>
       </c>
       <c r="G32" s="0">
-        <v>0.2460055947303772</v>
+        <v>0.23419959843158722</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.29045650362968445</v>
+        <v>0.28406471014022827</v>
       </c>
       <c r="B33" s="0">
-        <v>0.032064501196146011</v>
+        <v>0.032553698867559433</v>
       </c>
       <c r="C33" s="0">
         <v>15.199999809265137</v>
@@ -3953,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="F33" s="0">
-        <v>0.35330289602279663</v>
+        <v>0.34786999225616455</v>
       </c>
       <c r="G33" s="0">
-        <v>0.22761009633541107</v>
+        <v>0.22025950253009796</v>
       </c>
     </row>
     <row r="34">
@@ -4697,10 +4700,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>0.3045785129070282</v>
+        <v>0.30429309606552124</v>
       </c>
       <c r="B66" s="0">
-        <v>0.026039000600576401</v>
+        <v>0.026212200522422791</v>
       </c>
       <c r="C66" s="0">
         <v>0.5</v>
@@ -4712,18 +4715,18 @@
         <v>5</v>
       </c>
       <c r="F66" s="0">
-        <v>0.35561498999595642</v>
+        <v>0.35566899180412292</v>
       </c>
       <c r="G66" s="0">
-        <v>0.25354209542274475</v>
+        <v>0.25291720032691956</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.30433130264282227</v>
+        <v>0.30532869696617126</v>
       </c>
       <c r="B67" s="0">
-        <v>0.025096900761127472</v>
+        <v>0.026491699740290642</v>
       </c>
       <c r="C67" s="0">
         <v>1.5</v>
@@ -4735,18 +4738,18 @@
         <v>5</v>
       </c>
       <c r="F67" s="0">
-        <v>0.3535211980342865</v>
+        <v>0.35725238919258118</v>
       </c>
       <c r="G67" s="0">
-        <v>0.25514140725135803</v>
+        <v>0.25340500473976135</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.29900339245796204</v>
+        <v>0.30026689171791077</v>
       </c>
       <c r="B68" s="0">
-        <v>0.027671299874782562</v>
+        <v>0.029047900810837746</v>
       </c>
       <c r="C68" s="0">
         <v>2.5</v>
@@ -4758,18 +4761,18 @@
         <v>5</v>
       </c>
       <c r="F68" s="0">
-        <v>0.35323908925056458</v>
+        <v>0.35720080137252808</v>
       </c>
       <c r="G68" s="0">
-        <v>0.2447676956653595</v>
+        <v>0.24333299696445465</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>0.29926618933677673</v>
+        <v>0.30224609375</v>
       </c>
       <c r="B69" s="0">
-        <v>0.023820700123906136</v>
+        <v>0.025007599964737892</v>
       </c>
       <c r="C69" s="0">
         <v>3.5</v>
@@ -4781,18 +4784,18 @@
         <v>5</v>
       </c>
       <c r="F69" s="0">
-        <v>0.34595480561256409</v>
+        <v>0.35126098990440369</v>
       </c>
       <c r="G69" s="0">
-        <v>0.25257760286331177</v>
+        <v>0.25323119759559631</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>0.30213889479637146</v>
+        <v>0.30447280406951904</v>
       </c>
       <c r="B70" s="0">
-        <v>0.027656799182295799</v>
+        <v>0.027151400223374367</v>
       </c>
       <c r="C70" s="0">
         <v>4.5</v>
@@ -4804,18 +4807,18 @@
         <v>5</v>
       </c>
       <c r="F70" s="0">
-        <v>0.35634618997573853</v>
+        <v>0.35768958926200867</v>
       </c>
       <c r="G70" s="0">
-        <v>0.24793159961700439</v>
+        <v>0.25125598907470703</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>0.29579928517341614</v>
+        <v>0.29721969366073608</v>
       </c>
       <c r="B71" s="0">
-        <v>0.02619520016014576</v>
+        <v>0.026646200567483902</v>
       </c>
       <c r="C71" s="0">
         <v>5.5</v>
@@ -4827,18 +4830,18 @@
         <v>5</v>
       </c>
       <c r="F71" s="0">
-        <v>0.34714189171791077</v>
+        <v>0.34944620728492737</v>
       </c>
       <c r="G71" s="0">
-        <v>0.2444566935300827</v>
+        <v>0.24499310553073883</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>0.29549318552017212</v>
+        <v>0.29506221413612366</v>
       </c>
       <c r="B72" s="0">
-        <v>0.025371400639414787</v>
+        <v>0.026534099131822586</v>
       </c>
       <c r="C72" s="0">
         <v>6.5</v>
@@ -4850,18 +4853,18 @@
         <v>5</v>
       </c>
       <c r="F72" s="0">
-        <v>0.34522110223770142</v>
+        <v>0.34706911444664001</v>
       </c>
       <c r="G72" s="0">
-        <v>0.24576519429683685</v>
+        <v>0.24305540323257446</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>0.30904620885848999</v>
+        <v>0.30956369638442993</v>
       </c>
       <c r="B73" s="0">
-        <v>0.024658400565385818</v>
+        <v>0.025446599349379539</v>
       </c>
       <c r="C73" s="0">
         <v>7.5</v>
@@ -4873,18 +4876,18 @@
         <v>5</v>
       </c>
       <c r="F73" s="0">
-        <v>0.35737669467926025</v>
+        <v>0.35943898558616638</v>
       </c>
       <c r="G73" s="0">
-        <v>0.26071581244468689</v>
+        <v>0.25968828797340393</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>0.30647081136703491</v>
+        <v>0.30879020690917969</v>
       </c>
       <c r="B74" s="0">
-        <v>0.026068499311804771</v>
+        <v>0.025108899921178818</v>
       </c>
       <c r="C74" s="0">
         <v>8.5</v>
@@ -4896,18 +4899,18 @@
         <v>5</v>
       </c>
       <c r="F74" s="0">
-        <v>0.35756510496139526</v>
+        <v>0.35800358653068542</v>
       </c>
       <c r="G74" s="0">
-        <v>0.25537648797035217</v>
+        <v>0.25957679748535156</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>0.31066930294036865</v>
+        <v>0.31097128987312317</v>
       </c>
       <c r="B75" s="0">
-        <v>0.026232700794935226</v>
+        <v>0.025143399834632874</v>
       </c>
       <c r="C75" s="0">
         <v>9.5</v>
@@ -4919,18 +4922,18 @@
         <v>5</v>
       </c>
       <c r="F75" s="0">
-        <v>0.36208540201187134</v>
+        <v>0.36025241017341614</v>
       </c>
       <c r="G75" s="0">
-        <v>0.25925320386886597</v>
+        <v>0.26169019937515259</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>0.30885240435600281</v>
+        <v>0.30830159783363342</v>
       </c>
       <c r="B76" s="0">
-        <v>0.024214299395680428</v>
+        <v>0.025879299268126488</v>
       </c>
       <c r="C76" s="0">
         <v>10.5</v>
@@ -4942,18 +4945,18 @@
         <v>5</v>
       </c>
       <c r="F76" s="0">
-        <v>0.35631239414215088</v>
+        <v>0.35902500152587891</v>
       </c>
       <c r="G76" s="0">
-        <v>0.26139241456985474</v>
+        <v>0.25757819414138794</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>0.30349311232566833</v>
+        <v>0.30335068702697754</v>
       </c>
       <c r="B77" s="0">
-        <v>0.022698100656270981</v>
+        <v>0.023476900532841682</v>
       </c>
       <c r="C77" s="0">
         <v>11.5</v>
@@ -4965,18 +4968,18 @@
         <v>5</v>
       </c>
       <c r="F77" s="0">
-        <v>0.34798139333724976</v>
+        <v>0.34936541318893433</v>
       </c>
       <c r="G77" s="0">
-        <v>0.25900480151176453</v>
+        <v>0.25733599066734314</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>0.2955281138420105</v>
+        <v>0.29455411434173584</v>
       </c>
       <c r="B78" s="0">
-        <v>0.022117700427770615</v>
+        <v>0.021447800099849701</v>
       </c>
       <c r="C78" s="0">
         <v>12.5</v>
@@ -4988,18 +4991,18 @@
         <v>5</v>
       </c>
       <c r="F78" s="0">
-        <v>0.3388788104057312</v>
+        <v>0.33659180998802185</v>
       </c>
       <c r="G78" s="0">
-        <v>0.25217738747596741</v>
+        <v>0.25251638889312744</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>0.28708130121231079</v>
+        <v>0.28517040610313416</v>
       </c>
       <c r="B79" s="0">
-        <v>0.020491400733590126</v>
+        <v>0.019481899216771126</v>
       </c>
       <c r="C79" s="0">
         <v>13.5</v>
@@ -5011,18 +5014,18 @@
         <v>5</v>
       </c>
       <c r="F79" s="0">
-        <v>0.32724449038505554</v>
+        <v>0.32335489988327026</v>
       </c>
       <c r="G79" s="0">
-        <v>0.2469182014465332</v>
+        <v>0.24698589742183685</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>0.2824799120426178</v>
+        <v>0.28147751092910767</v>
       </c>
       <c r="B80" s="0">
-        <v>0.018361499533057213</v>
+        <v>0.018262600526213646</v>
       </c>
       <c r="C80" s="0">
         <v>14.5</v>
@@ -5034,18 +5037,18 @@
         <v>5</v>
       </c>
       <c r="F80" s="0">
-        <v>0.31846851110458374</v>
+        <v>0.31727218627929688</v>
       </c>
       <c r="G80" s="0">
-        <v>0.24649140238761902</v>
+        <v>0.24568280577659607</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>0.27574890851974487</v>
+        <v>0.27351430058479309</v>
       </c>
       <c r="B81" s="0">
-        <v>0.018662899732589722</v>
+        <v>0.019122699275612831</v>
       </c>
       <c r="C81" s="0">
         <v>15.5</v>
@@ -5057,10 +5060,10 @@
         <v>5</v>
       </c>
       <c r="F81" s="0">
-        <v>0.31232818961143494</v>
+        <v>0.31099480390548706</v>
       </c>
       <c r="G81" s="0">
-        <v>0.23916959762573242</v>
+        <v>0.23603379726409912</v>
       </c>
     </row>
   </sheetData>

--- a/results/source_data/ExtendedDataFigure5_lags.xlsx
+++ b/results/source_data/ExtendedDataFigure5_lags.xlsx
@@ -243,13 +243,13 @@
       <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="0">
         <v>-0.010312000289559364</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="0">
         <v>-0.068523399531841278</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="0">
         <v>0.047899298369884491</v>
       </c>
     </row>
@@ -260,13 +260,13 @@
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="0">
         <v>0.021823300048708916</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="0">
         <v>-0.058582000434398651</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="0">
         <v>0.10222859680652618</v>
       </c>
     </row>
@@ -277,13 +277,13 @@
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="0">
         <v>-0.015444899909198284</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="0">
         <v>-0.068040698766708374</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="0">
         <v>0.037150900810956955</v>
       </c>
     </row>
@@ -294,13 +294,13 @@
       <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="0">
         <v>-0.038050100207328796</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="0">
         <v>-0.089286096394062042</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="0">
         <v>0.013185800053179264</v>
       </c>
     </row>
@@ -311,13 +311,13 @@
       <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="0">
         <v>-0.015242800116539001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="0">
         <v>-0.066220499575138092</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="0">
         <v>0.035734999924898148</v>
       </c>
     </row>
@@ -328,13 +328,13 @@
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="0">
         <v>0.011324799619615078</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="0">
         <v>-0.060419399291276932</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="0">
         <v>0.083068899810314178</v>
       </c>
     </row>
@@ -345,13 +345,13 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="0">
         <v>-0.11849139630794525</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="0">
         <v>-0.23049640655517578</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="0">
         <v>-0.0064864000305533409</v>
       </c>
     </row>
@@ -362,13 +362,13 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="0">
         <v>-0.18399220705032349</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="0">
         <v>-0.30763658881187439</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="0">
         <v>-0.060347799211740494</v>
       </c>
     </row>
@@ -379,13 +379,13 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="0">
         <v>-0.20545209944248199</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="0">
         <v>-0.31066828966140747</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="0">
         <v>-0.10023579746484756</v>
       </c>
     </row>
@@ -396,13 +396,13 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="0">
         <v>-0.12754009664058685</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="0">
         <v>-0.2129732072353363</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="0">
         <v>-0.042107000946998596</v>
       </c>
     </row>
@@ -413,13 +413,13 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="0">
         <v>-0.2173352986574173</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="0">
         <v>-0.2974810004234314</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="0">
         <v>-0.13718970119953156</v>
       </c>
     </row>
@@ -430,13 +430,13 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="0">
         <v>-0.24582080543041229</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="0">
         <v>-0.33625990152359009</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="0">
         <v>-0.1553816944360733</v>
       </c>
     </row>
@@ -447,13 +447,13 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="0">
         <v>-0.029157500714063644</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="0">
         <v>-0.094047799706459045</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="0">
         <v>0.035732898861169815</v>
       </c>
     </row>
@@ -464,13 +464,13 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="0">
         <v>-0.050004001706838608</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="0">
         <v>-0.11011850088834763</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="0">
         <v>0.010110599920153618</v>
       </c>
     </row>
@@ -481,13 +481,13 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="0">
         <v>-0.06653209775686264</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="0">
         <v>-0.12157870084047318</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="0">
         <v>-0.011485399678349495</v>
       </c>
     </row>
@@ -498,13 +498,13 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="0">
         <v>-0.079225599765777588</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="0">
         <v>-0.13572660088539124</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="0">
         <v>-0.022724499925971031</v>
       </c>
     </row>
@@ -515,13 +515,13 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="0">
         <v>-0.060759499669075012</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="0">
         <v>-0.12690219283103943</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="0">
         <v>0.0053832000121474266</v>
       </c>
     </row>
@@ -532,13 +532,13 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="0">
         <v>-0.061259001493453979</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="0">
         <v>-0.12464150041341782</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="0">
         <v>0.0021234001033008099</v>
       </c>
     </row>
@@ -549,13 +549,13 @@
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="0">
         <v>-0.013413799926638603</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="0">
         <v>-0.10227619856595993</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="0">
         <v>0.075448699295520782</v>
       </c>
     </row>
@@ -566,13 +566,13 @@
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="0">
         <v>-0.040389001369476318</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="0">
         <v>-0.13513609766960144</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="0">
         <v>0.054358098655939102</v>
       </c>
     </row>
@@ -583,13 +583,13 @@
       <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="0">
         <v>0.013529299758374691</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="0">
         <v>-0.082507498562335968</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="0">
         <v>0.1095660999417305</v>
       </c>
     </row>
@@ -600,13 +600,13 @@
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="0">
         <v>-0.04893210157752037</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="0">
         <v>-0.1284417062997818</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="0">
         <v>0.03057749941945076</v>
       </c>
     </row>
@@ -617,13 +617,13 @@
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="0">
         <v>0.0053237001411616802</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="0">
         <v>-0.12326300144195557</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="0">
         <v>0.1339104026556015</v>
       </c>
     </row>
@@ -634,13 +634,13 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="0">
         <v>-0.026576699689030647</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="0">
         <v>-0.20317879319190979</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="0">
         <v>0.15002529323101044</v>
       </c>
     </row>
@@ -651,13 +651,13 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="0">
         <v>-0.041132800281047821</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="0">
         <v>-0.091124698519706726</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="0">
         <v>0.0088590998202562332</v>
       </c>
     </row>
@@ -668,13 +668,13 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="0">
         <v>-0.03238309919834137</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="0">
         <v>-0.080135896801948547</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="0">
         <v>0.015369599685072899</v>
       </c>
     </row>
@@ -685,13 +685,13 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="0">
         <v>-0.032727498561143875</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="0">
         <v>-0.075959697365760803</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="0">
         <v>0.010504700243473053</v>
       </c>
     </row>
@@ -702,13 +702,13 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="0">
         <v>-0.030230000615119934</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="0">
         <v>-0.072589203715324402</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="0">
         <v>0.012129100039601326</v>
       </c>
     </row>
@@ -719,13 +719,13 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="0">
         <v>-0.037640400230884552</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="0">
         <v>-0.075827203691005707</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="0">
         <v>0.00054650002857670188</v>
       </c>
     </row>
@@ -736,13 +736,13 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="0">
         <v>-0.04715690016746521</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="0">
         <v>-0.081775397062301636</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="0">
         <v>-0.012538399547338486</v>
       </c>
     </row>
@@ -753,13 +753,13 @@
       <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="0">
         <v>0.0061376001685857773</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="0">
         <v>-0.025129800662398338</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="0">
         <v>0.037404999136924744</v>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="B33" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="0">
         <v>0.011590000241994858</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="0">
         <v>-0.031978901475667953</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="0">
         <v>0.055158801376819611</v>
       </c>
     </row>
@@ -787,13 +787,13 @@
       <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="0">
         <v>0.0060467999428510666</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="0">
         <v>-0.031293898820877075</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="0">
         <v>0.043387401849031448</v>
       </c>
     </row>
@@ -804,13 +804,13 @@
       <c r="B35" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="0">
         <v>0.0026072000619024038</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="0">
         <v>-0.042939398437738419</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="0">
         <v>0.048153899610042572</v>
       </c>
     </row>
@@ -821,13 +821,13 @@
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="0">
         <v>0.00053339998703449965</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="0">
         <v>-0.057017598301172256</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="0">
         <v>0.058084499090909958</v>
       </c>
     </row>
@@ -838,13 +838,13 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="0">
         <v>0.0257594995200634</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="0">
         <v>-0.036660399287939072</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="0">
         <v>0.088179402053356171</v>
       </c>
     </row>
@@ -855,13 +855,13 @@
       <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="0">
         <v>0.027635600417852402</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="0">
         <v>-0.033190999180078506</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="0">
         <v>0.088462196290493011</v>
       </c>
     </row>
@@ -872,13 +872,13 @@
       <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="0">
         <v>0.02440669946372509</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="0">
         <v>-0.035424001514911652</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="0">
         <v>0.084237396717071533</v>
       </c>
     </row>
@@ -889,13 +889,13 @@
       <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="0">
         <v>-0.005272699985653162</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="0">
         <v>-0.069731399416923523</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="0">
         <v>0.059186000376939774</v>
       </c>
     </row>
@@ -906,13 +906,13 @@
       <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="0">
         <v>-0.012423399835824966</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="0">
         <v>-0.071038499474525452</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="0">
         <v>0.046191699802875519</v>
       </c>
     </row>
@@ -923,13 +923,13 @@
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="0">
         <v>-0.0048263999633491039</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="0">
         <v>-0.070660799741744995</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="0">
         <v>0.061007998883724213</v>
       </c>
     </row>
@@ -940,13 +940,13 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="0">
         <v>-0.008389599621295929</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="0">
         <v>-0.075975902378559113</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="0">
         <v>0.059196799993515015</v>
       </c>
     </row>
@@ -957,13 +957,13 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="0">
         <v>-0.061126798391342163</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="0">
         <v>-0.10152249783277512</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="0">
         <v>-0.020731000229716301</v>
       </c>
     </row>
@@ -974,13 +974,13 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="0">
         <v>-0.060033198446035385</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="0">
         <v>-0.10462579876184464</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="0">
         <v>-0.015440599992871284</v>
       </c>
     </row>
@@ -991,13 +991,13 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="0">
         <v>-0.059325799345970154</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="0">
         <v>-0.098447896540164948</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="0">
         <v>-0.020203800871968269</v>
       </c>
     </row>
@@ -1008,13 +1008,13 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="0">
         <v>-0.060914698988199234</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="0">
         <v>-0.09173160046339035</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="0">
         <v>-0.030097799375653267</v>
       </c>
     </row>
@@ -1025,13 +1025,13 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="0">
         <v>-0.05251619964838028</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="0">
         <v>-0.090736299753189087</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="0">
         <v>-0.014295999892055988</v>
       </c>
     </row>
@@ -1042,13 +1042,13 @@
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="0">
         <v>-0.054601401090621948</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="0">
         <v>-0.097254097461700439</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="0">
         <v>-0.0119486004114151</v>
       </c>
     </row>
@@ -1059,13 +1059,13 @@
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="0">
         <v>0.030461499467492104</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="0">
         <v>-0.0024574000854045153</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="0">
         <v>0.063380397856235504</v>
       </c>
     </row>
@@ -1076,13 +1076,13 @@
       <c r="B51" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="0">
         <v>0.024932699277997017</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="0">
         <v>-0.007548800203949213</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="0">
         <v>0.057414200156927109</v>
       </c>
     </row>
@@ -1093,13 +1093,13 @@
       <c r="B52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="0">
         <v>0.026885999366641045</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="0">
         <v>-0.012327400036156178</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="0">
         <v>0.066099397838115692</v>
       </c>
     </row>
@@ -1110,13 +1110,13 @@
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="0">
         <v>0.033984299749135971</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="0">
         <v>-0.0034439000301063061</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="0">
         <v>0.071412503719329834</v>
       </c>
     </row>
@@ -1127,13 +1127,13 @@
       <c r="B54" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="0">
         <v>0.022633099928498268</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="0">
         <v>-0.015199099667370319</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="0">
         <v>0.060465298593044281</v>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="B55" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="0">
         <v>0.0075861997902393341</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="0">
         <v>-0.034021500498056412</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="0">
         <v>0.04919390007853508</v>
       </c>
     </row>
@@ -1161,13 +1161,13 @@
       <c r="B56" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="0">
         <v>-0.14095400273799896</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="0">
         <v>-0.19366669654846191</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="0">
         <v>-0.088241301476955414</v>
       </c>
     </row>
@@ -1178,13 +1178,13 @@
       <c r="B57" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="0">
         <v>-0.11598879843950272</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="0">
         <v>-0.17835879325866699</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="0">
         <v>-0.0536189004778862</v>
       </c>
     </row>
@@ -1195,13 +1195,13 @@
       <c r="B58" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="0">
         <v>-0.13805399835109711</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="0">
         <v>-0.19840130209922791</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="0">
         <v>-0.077706597745418549</v>
       </c>
     </row>
@@ -1212,13 +1212,13 @@
       <c r="B59" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="0">
         <v>-0.16872300207614899</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="0">
         <v>-0.21544229984283447</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="0">
         <v>-0.1220036968588829</v>
       </c>
     </row>
@@ -1229,13 +1229,13 @@
       <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="0">
         <v>-0.14328190684318542</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="0">
         <v>-0.18264660239219666</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="0">
         <v>-0.10391709953546524</v>
       </c>
     </row>
@@ -1246,13 +1246,13 @@
       <c r="B61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="0">
         <v>-0.12017399817705154</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="0">
         <v>-0.17395460605621338</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="0">
         <v>-0.066393397748470306</v>
       </c>
     </row>
@@ -1263,13 +1263,13 @@
       <c r="B62" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="0">
         <v>-0.019395200535655022</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="0">
         <v>-0.078932702541351318</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="0">
         <v>0.040142301470041275</v>
       </c>
     </row>
@@ -1280,13 +1280,13 @@
       <c r="B63" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="0">
         <v>-0.01025409996509552</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="0">
         <v>-0.071006700396537781</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="0">
         <v>0.050498601049184799</v>
       </c>
     </row>
@@ -1297,13 +1297,13 @@
       <c r="B64" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="0">
         <v>0.030562000349164009</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="0">
         <v>-0.011968200094997883</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="0">
         <v>0.073092199862003326</v>
       </c>
     </row>
@@ -1314,13 +1314,13 @@
       <c r="B65" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="0">
         <v>0.055122200399637222</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="0">
         <v>0.0072631998918950558</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="0">
         <v>0.10298120230436325</v>
       </c>
     </row>
@@ -1331,13 +1331,13 @@
       <c r="B66" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="0">
         <v>0.061808299273252487</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="0">
         <v>-0.0021919999271631241</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="0">
         <v>0.12580870091915131</v>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="0">
         <v>0.048536799848079681</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="0">
         <v>-0.025765899568796158</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="0">
         <v>0.12283950299024582</v>
       </c>
     </row>
@@ -1365,13 +1365,13 @@
       <c r="B68" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="0">
         <v>-0.20498579740524292</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="0">
         <v>-0.34607589244842529</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="0">
         <v>-0.063895702362060547</v>
       </c>
     </row>
@@ -1382,13 +1382,13 @@
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="0">
         <v>-0.19817450642585754</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="0">
         <v>-0.30937141180038452</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="0">
         <v>-0.086977496743202209</v>
       </c>
     </row>
@@ -1399,13 +1399,13 @@
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="0">
         <v>-0.14993129670619965</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="0">
         <v>-0.27480700612068176</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="0">
         <v>-0.025055499747395515</v>
       </c>
     </row>
@@ -1416,13 +1416,13 @@
       <c r="B71" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="0">
         <v>-0.15978039801120758</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="0">
         <v>-0.32809638977050781</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="0">
         <v>0.0085356999188661575</v>
       </c>
     </row>
@@ -1433,13 +1433,13 @@
       <c r="B72" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="0">
         <v>-0.22175240516662598</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="0">
         <v>-0.37549480795860291</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="0">
         <v>-0.068010002374649048</v>
       </c>
     </row>
@@ -1450,13 +1450,13 @@
       <c r="B73" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="0">
         <v>-0.2429036945104599</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="0">
         <v>-0.39205780625343323</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="0">
         <v>-0.093749597668647766</v>
       </c>
     </row>
@@ -1467,14 +1467,14 @@
       <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="0">
         <v>-0.0090266996994614601</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="0">
         <v>-0.15909430384635925</v>
       </c>
-      <c r="E74" s="1">
-        <v>0.14104080200195312</v>
+      <c r="E74" s="0">
+        <v>0.14104080200195313</v>
       </c>
     </row>
     <row r="75">
@@ -1484,13 +1484,13 @@
       <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="0">
         <v>0.018773199990391731</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="0">
         <v>-0.095759503543376923</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="0">
         <v>0.13330590724945068</v>
       </c>
     </row>
@@ -1501,13 +1501,13 @@
       <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="0">
         <v>-0.02047399990260601</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="0">
         <v>-0.13099609315395355</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="0">
         <v>0.09004809707403183</v>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="B77" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="0">
         <v>-0.028700400143861771</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="0">
         <v>-0.13939189910888672</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="0">
         <v>0.081991098821163177</v>
       </c>
     </row>
@@ -1535,13 +1535,13 @@
       <c r="B78" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="0">
         <v>0.011554700322449207</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="0">
         <v>-0.089881502091884613</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="0">
         <v>0.11299090087413788</v>
       </c>
     </row>
@@ -1552,13 +1552,13 @@
       <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="0">
         <v>-0.0092628002166748047</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="0">
         <v>-0.095771096646785736</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="0">
         <v>0.077245503664016724</v>
       </c>
     </row>
@@ -1569,13 +1569,13 @@
       <c r="B80" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="0">
         <v>-0.10976310074329376</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="0">
         <v>-0.27272120118141174</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="0">
         <v>0.053194999694824219</v>
       </c>
     </row>
@@ -1586,13 +1586,13 @@
       <c r="B81" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="0">
         <v>-0.15974889695644379</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="0">
         <v>-0.30157139897346497</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="0">
         <v>-0.017926499247550964</v>
       </c>
     </row>
@@ -1603,13 +1603,13 @@
       <c r="B82" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="0">
         <v>-0.12838940322399139</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="0">
         <v>-0.26258409023284912</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="0">
         <v>0.0058051999658346176</v>
       </c>
     </row>
@@ -1620,13 +1620,13 @@
       <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="0">
         <v>-0.12521189451217651</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="0">
         <v>-0.23960989713668823</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="0">
         <v>-0.010813900269567966</v>
       </c>
     </row>
@@ -1637,13 +1637,13 @@
       <c r="B84" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="0">
         <v>-0.17330379784107208</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="0">
         <v>-0.28638839721679688</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="0">
         <v>-0.060219299048185349</v>
       </c>
     </row>
@@ -1654,13 +1654,13 @@
       <c r="B85" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="0">
         <v>-0.15977640450000763</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="0">
         <v>-0.26569628715515137</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="0">
         <v>-0.053856600075960159</v>
       </c>
     </row>
@@ -1671,13 +1671,13 @@
       <c r="B86" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="0">
         <v>-0.3544309139251709</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="0">
         <v>-0.42525729537010193</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="0">
         <v>-0.28360459208488464</v>
       </c>
     </row>
@@ -1688,13 +1688,13 @@
       <c r="B87" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="0">
         <v>-0.42027229070663452</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="0">
         <v>-0.52322667837142944</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="0">
         <v>-0.31731781363487244</v>
       </c>
     </row>
@@ -1705,13 +1705,13 @@
       <c r="B88" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="0">
         <v>-0.39082500338554382</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="0">
         <v>-0.52977627515792847</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="0">
         <v>-0.25187370181083679</v>
       </c>
     </row>
@@ -1722,13 +1722,13 @@
       <c r="B89" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="0">
         <v>-0.33294400572776794</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="0">
         <v>-0.5112454891204834</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="0">
         <v>-0.15464259684085846</v>
       </c>
     </row>
@@ -1739,13 +1739,13 @@
       <c r="B90" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="0">
         <v>-0.33615279197692871</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="0">
         <v>-0.45380499958992004</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="0">
         <v>-0.21850059926509857</v>
       </c>
     </row>
@@ -1756,13 +1756,13 @@
       <c r="B91" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="0">
         <v>-0.33383971452713013</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="0">
         <v>-0.51850968599319458</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="0">
         <v>-0.14916959404945374</v>
       </c>
     </row>
@@ -1773,13 +1773,13 @@
       <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="0">
         <v>-0.092635996639728546</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="0">
         <v>-0.14015479385852814</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="0">
         <v>-0.045117098838090897</v>
       </c>
     </row>
@@ -1790,13 +1790,13 @@
       <c r="B93" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="0">
         <v>-0.10194040089845657</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="0">
         <v>-0.14108580350875854</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="0">
         <v>-0.062794901430606842</v>
       </c>
     </row>
@@ -1807,13 +1807,13 @@
       <c r="B94" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="0">
         <v>-0.11984570324420929</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="0">
         <v>-0.17743760347366333</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="0">
         <v>-0.062253799289464951</v>
       </c>
     </row>
@@ -1824,13 +1824,13 @@
       <c r="B95" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="0">
         <v>-0.13601620495319366</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="0">
         <v>-0.20041139423847198</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="0">
         <v>-0.07162100076675415</v>
       </c>
     </row>
@@ -1841,13 +1841,13 @@
       <c r="B96" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="0">
         <v>-0.14504599571228027</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="0">
         <v>-0.20962269604206085</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="0">
         <v>-0.080469198524951935</v>
       </c>
     </row>
@@ -1858,13 +1858,13 @@
       <c r="B97" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="0">
         <v>-0.15360230207443237</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="0">
         <v>-0.22243089973926544</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="0">
         <v>-0.084773600101470947</v>
       </c>
     </row>
@@ -1875,13 +1875,13 @@
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="0">
         <v>0.092292197048664093</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="0">
         <v>-0.0047777998261153698</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="0">
         <v>0.18936209380626678</v>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="B99" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="0">
         <v>0.095018602907657623</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="0">
         <v>-0.0073734000325202942</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="0">
         <v>0.19741059839725494</v>
       </c>
     </row>
@@ -1909,13 +1909,13 @@
       <c r="B100" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="0">
         <v>0.11779829859733582</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="0">
         <v>0.019012900069355965</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="0">
         <v>0.21658369898796082</v>
       </c>
     </row>
@@ -1926,13 +1926,13 @@
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="0">
         <v>0.10150880366563797</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="0">
         <v>-0.028974400833249092</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="0">
         <v>0.23199209570884705</v>
       </c>
     </row>
@@ -1943,13 +1943,13 @@
       <c r="B102" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="0">
         <v>0.11672709882259369</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="0">
         <v>-0.0028454998973757029</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="0">
         <v>0.23629969358444214</v>
       </c>
     </row>
@@ -1960,13 +1960,13 @@
       <c r="B103" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="0">
         <v>0.14434400200843811</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="0">
         <v>0.0070397998206317425</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="0">
         <v>0.28164830803871155</v>
       </c>
     </row>
@@ -1977,13 +1977,13 @@
       <c r="B104" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="0">
         <v>-0.06966099888086319</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="0">
         <v>-0.13488650321960449</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="0">
         <v>-0.0044354000128805637</v>
       </c>
     </row>
@@ -1994,13 +1994,13 @@
       <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="0">
         <v>-0.069186203181743622</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="0">
         <v>-0.13323439657688141</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="0">
         <v>-0.0051378998905420303</v>
       </c>
     </row>
@@ -2011,13 +2011,13 @@
       <c r="B106" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="0">
         <v>-0.08965650200843811</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="0">
         <v>-0.16718029975891113</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="0">
         <v>-0.012132800184190273</v>
       </c>
     </row>
@@ -2028,13 +2028,13 @@
       <c r="B107" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="0">
         <v>-0.083830900490283966</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="0">
         <v>-0.18740920722484589</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="0">
         <v>0.019747400656342506</v>
       </c>
     </row>
@@ -2045,13 +2045,13 @@
       <c r="B108" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="0">
         <v>-0.078354597091674805</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="0">
         <v>-0.18712860345840454</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="0">
         <v>0.030419299378991127</v>
       </c>
     </row>
@@ -2062,13 +2062,13 @@
       <c r="B109" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="0">
         <v>-0.10949569940567017</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="0">
         <v>-0.25138631463050842</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="0">
         <v>0.032394900918006897</v>
       </c>
     </row>
@@ -2079,13 +2079,13 @@
       <c r="B110" t="s">
         <v>13</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="0">
         <v>-0.1293071061372757</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="0">
         <v>-0.29690030217170715</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="0">
         <v>0.038286000490188599</v>
       </c>
     </row>
@@ -2096,13 +2096,13 @@
       <c r="B111" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="0">
         <v>-0.12830360233783722</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="0">
         <v>-0.31990361213684082</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="0">
         <v>0.063296303153038025</v>
       </c>
     </row>
@@ -2113,13 +2113,13 @@
       <c r="B112" t="s">
         <v>13</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="0">
         <v>-0.16766129434108734</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="0">
         <v>-0.31412848830223083</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="0">
         <v>-0.021194100379943848</v>
       </c>
     </row>
@@ -2130,13 +2130,13 @@
       <c r="B113" t="s">
         <v>13</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="0">
         <v>-0.22743089497089386</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="0">
         <v>-0.36130079627037048</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="0">
         <v>-0.093561001121997833</v>
       </c>
     </row>
@@ -2147,13 +2147,13 @@
       <c r="B114" t="s">
         <v>13</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="0">
         <v>-0.094052903354167938</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="0">
         <v>-0.24868719279766083</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="0">
         <v>0.060581501573324203</v>
       </c>
     </row>
@@ -2164,13 +2164,13 @@
       <c r="B115" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="0">
         <v>-0.33108291029930115</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="0">
         <v>-0.60860979557037354</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="0">
         <v>-0.053555998951196671</v>
       </c>
     </row>
@@ -2181,13 +2181,13 @@
       <c r="B116" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="0">
         <v>-0.031478900462388992</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="0">
         <v>-0.079572699964046478</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="0">
         <v>0.016614900901913643</v>
       </c>
     </row>
@@ -2198,13 +2198,13 @@
       <c r="B117" t="s">
         <v>9</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="0">
         <v>-0.052664600312709808</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="0">
         <v>-0.10516860336065292</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="0">
         <v>-0.00016049999976530671</v>
       </c>
     </row>
@@ -2215,13 +2215,13 @@
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="0">
         <v>-0.066323898732662201</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="0">
         <v>-0.11299960315227509</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="0">
         <v>-0.019648199900984764</v>
       </c>
     </row>
@@ -2232,13 +2232,13 @@
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="0">
         <v>-0.07612919807434082</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="0">
         <v>-0.12824900448322296</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="0">
         <v>-0.024009499698877335</v>
       </c>
     </row>
@@ -2249,13 +2249,13 @@
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="0">
         <v>-0.10406090319156647</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="0">
         <v>-0.15465910732746124</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="0">
         <v>-0.053462699055671692</v>
       </c>
     </row>
@@ -2266,13 +2266,13 @@
       <c r="B121" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="0">
         <v>-0.083518199622631073</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="0">
         <v>-0.19396039843559265</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="0">
         <v>0.026924099773168564</v>
       </c>
     </row>
@@ -2283,13 +2283,13 @@
       <c r="B122" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="0">
         <v>-0.17438270151615143</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="0">
         <v>-0.28495800495147705</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="0">
         <v>-0.063807502388954163</v>
       </c>
     </row>
@@ -2300,13 +2300,13 @@
       <c r="B123" t="s">
         <v>14</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="0">
         <v>-0.19913800060749054</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="0">
         <v>-0.32711189985275269</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="0">
         <v>-0.071164101362228394</v>
       </c>
     </row>
@@ -2317,13 +2317,13 @@
       <c r="B124" t="s">
         <v>14</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="0">
         <v>-0.19038090109825134</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="0">
         <v>-0.25921940803527832</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="0">
         <v>-0.12154240161180496</v>
       </c>
     </row>
@@ -2334,13 +2334,13 @@
       <c r="B125" t="s">
         <v>14</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="0">
         <v>-0.15794670581817627</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="0">
         <v>-0.23302440345287323</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="0">
         <v>-0.082869000732898712</v>
       </c>
     </row>
@@ -2351,13 +2351,13 @@
       <c r="B126" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="0">
         <v>-0.27867469191551208</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="0">
         <v>-0.37051481008529663</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="0">
         <v>-0.18683460354804993</v>
       </c>
     </row>
@@ -2368,13 +2368,13 @@
       <c r="B127" t="s">
         <v>14</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="0">
         <v>-0.12124659866094589</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="0">
         <v>-0.32012259960174561</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="0">
         <v>0.077629297971725464</v>
       </c>
     </row>
@@ -2385,13 +2385,13 @@
       <c r="B128" t="s">
         <v>50</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="0">
         <v>-0.068294800817966461</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="0">
         <v>-0.15233120322227478</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="0">
         <v>0.015741599723696709</v>
       </c>
     </row>
@@ -2402,13 +2402,13 @@
       <c r="B129" t="s">
         <v>50</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="0">
         <v>-0.039226099848747253</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="0">
         <v>-0.13231079280376434</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="0">
         <v>0.053858701139688492</v>
       </c>
     </row>
@@ -2419,13 +2419,13 @@
       <c r="B130" t="s">
         <v>50</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="0">
         <v>-0.0044534001499414444</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="0">
         <v>-0.10074260085821152</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="0">
         <v>0.091835901141166687</v>
       </c>
     </row>
@@ -2436,13 +2436,13 @@
       <c r="B131" t="s">
         <v>50</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="0">
         <v>0.00036490001366473734</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="0">
         <v>-0.12429530173540115</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="0">
         <v>0.12502509355545044</v>
       </c>
     </row>
@@ -2453,13 +2453,13 @@
       <c r="B132" t="s">
         <v>50</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="0">
         <v>0.011334000155329704</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="0">
         <v>-0.10497819632291794</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="0">
         <v>0.12764610350131989</v>
       </c>
     </row>
@@ -2470,13 +2470,13 @@
       <c r="B133" t="s">
         <v>50</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="0">
         <v>0.027882099151611328</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="0">
         <v>-0.12519629299640656</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="0">
         <v>0.18096050620079041</v>
       </c>
     </row>
@@ -2487,13 +2487,13 @@
       <c r="B134" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="0">
         <v>0.011527099646627903</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="0">
         <v>-0.049515798687934875</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="0">
         <v>0.072569899260997772</v>
       </c>
     </row>
@@ -2504,13 +2504,13 @@
       <c r="B135" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="0">
         <v>-0.0086843995377421379</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="0">
         <v>-0.062157798558473587</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="0">
         <v>0.04478909820318222</v>
       </c>
     </row>
@@ -2521,13 +2521,13 @@
       <c r="B136" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="0">
         <v>-0.031061200425028801</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="0">
         <v>-0.072899296879768372</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="0">
         <v>0.010777000337839127</v>
       </c>
     </row>
@@ -2538,13 +2538,13 @@
       <c r="B137" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="0">
         <v>-0.063822999596595764</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="0">
         <v>-0.10928530246019363</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="0">
         <v>-0.018360799178481102</v>
       </c>
     </row>
@@ -2555,13 +2555,13 @@
       <c r="B138" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="0">
         <v>-0.059255801141262054</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="0">
         <v>-0.11425860226154327</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="0">
         <v>-0.004253000020980835</v>
       </c>
     </row>
@@ -2572,13 +2572,13 @@
       <c r="B139" t="s">
         <v>18</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="0">
         <v>-0.08315189927816391</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="0">
         <v>-0.15886589884757996</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="0">
         <v>-0.0074379001744091511</v>
       </c>
     </row>
@@ -2589,13 +2589,13 @@
       <c r="B140" t="s">
         <v>19</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="0">
         <v>-0.28803971409797668</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="0">
         <v>-0.43633389472961426</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="0">
         <v>-0.13974550366401672</v>
       </c>
     </row>
@@ -2606,13 +2606,13 @@
       <c r="B141" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="0">
         <v>-0.31275489926338196</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="0">
         <v>-0.47169199585914612</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="0">
         <v>-0.1538178026676178</v>
       </c>
     </row>
@@ -2623,13 +2623,13 @@
       <c r="B142" t="s">
         <v>19</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="0">
         <v>-0.32570910453796387</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="0">
         <v>-0.48825448751449585</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="0">
         <v>-0.16316360235214233</v>
       </c>
     </row>
@@ -2640,13 +2640,13 @@
       <c r="B143" t="s">
         <v>19</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="0">
         <v>-0.30696290731430054</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="0">
         <v>-0.49264359474182129</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="0">
         <v>-0.12128219753503799</v>
       </c>
     </row>
@@ -2657,13 +2657,13 @@
       <c r="B144" t="s">
         <v>19</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="0">
         <v>-0.32761558890342712</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="0">
         <v>-0.55175948143005371</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="0">
         <v>-0.10347159951925278</v>
       </c>
     </row>
@@ -2674,13 +2674,13 @@
       <c r="B145" t="s">
         <v>19</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="0">
         <v>-0.30382460355758667</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="0">
         <v>-0.60693228244781494</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="0">
         <v>-0.00071679998654872179</v>
       </c>
     </row>
@@ -2691,13 +2691,13 @@
       <c r="B146" t="s">
         <v>20</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="0">
         <v>-0.11842170357704163</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="0">
         <v>-0.20130950212478638</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="0">
         <v>-0.035533998161554337</v>
       </c>
     </row>
@@ -2708,13 +2708,13 @@
       <c r="B147" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="0">
         <v>-0.12045329809188843</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="0">
         <v>-0.20358340442180634</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="0">
         <v>-0.037323199212551117</v>
       </c>
     </row>
@@ -2725,13 +2725,13 @@
       <c r="B148" t="s">
         <v>20</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="0">
         <v>-0.12224339693784714</v>
       </c>
-      <c r="D148" s="1">
-        <v>-0.20943069458007812</v>
-      </c>
-      <c r="E148" s="1">
+      <c r="D148" s="0">
+        <v>-0.20943069458007813</v>
+      </c>
+      <c r="E148" s="0">
         <v>-0.035056199878454208</v>
       </c>
     </row>
@@ -2742,13 +2742,13 @@
       <c r="B149" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="0">
         <v>-0.12185929715633392</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="0">
         <v>-0.21153199672698975</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="0">
         <v>-0.032186601310968399</v>
       </c>
     </row>
@@ -2759,13 +2759,13 @@
       <c r="B150" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="0">
         <v>-0.12546789646148682</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="0">
         <v>-0.21812550723552704</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="0">
         <v>-0.032810401171445847</v>
       </c>
     </row>
@@ -2776,13 +2776,13 @@
       <c r="B151" t="s">
         <v>20</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="0">
         <v>-0.1274556964635849</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="0">
         <v>-0.22088049352169037</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="0">
         <v>-0.034030899405479431</v>
       </c>
     </row>
@@ -2793,13 +2793,13 @@
       <c r="B152" t="s">
         <v>9</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="0">
         <v>0.0011742999777197838</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="0">
         <v>-0.036519799381494522</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="0">
         <v>0.03886830061674118</v>
       </c>
     </row>
@@ -2810,13 +2810,13 @@
       <c r="B153" t="s">
         <v>9</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="0">
         <v>0.021168999373912811</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="0">
         <v>-0.016581600531935692</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="0">
         <v>0.058919601142406464</v>
       </c>
     </row>
@@ -2827,13 +2827,13 @@
       <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="0">
         <v>0.023247199133038521</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="0">
         <v>-0.011351499706506729</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="0">
         <v>0.057845998555421829</v>
       </c>
     </row>
@@ -2844,13 +2844,13 @@
       <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="0">
         <v>0.026719400659203529</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="0">
         <v>-0.017189500853419304</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="0">
         <v>0.070628203451633453</v>
       </c>
     </row>
@@ -2861,13 +2861,13 @@
       <c r="B156" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="0">
         <v>0.020646700635552406</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="0">
         <v>-0.017602499574422836</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="0">
         <v>0.05889580026268959</v>
       </c>
     </row>
@@ -2878,13 +2878,13 @@
       <c r="B157" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="0">
         <v>0.020179999992251396</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="0">
         <v>-0.018105700612068176</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="0">
         <v>0.058465801179409027</v>
       </c>
     </row>
@@ -2895,13 +2895,13 @@
       <c r="B158" t="s">
         <v>16</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="0">
         <v>-0.31720688939094543</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="0">
         <v>-0.46753141283988953</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="0">
         <v>-0.16688239574432373</v>
       </c>
     </row>
@@ -2912,13 +2912,13 @@
       <c r="B159" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="0">
         <v>0.073519803583621979</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="0">
         <v>-0.1286969929933548</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="0">
         <v>0.27573660016059875</v>
       </c>
     </row>
@@ -2929,13 +2929,13 @@
       <c r="B160" t="s">
         <v>8</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="0">
         <v>-0.23214809596538544</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="0">
         <v>-0.39599820971488953</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="0">
         <v>-0.068298101425170898</v>
       </c>
     </row>
@@ -2946,13 +2946,13 @@
       <c r="B161" t="s">
         <v>16</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="0">
         <v>-0.34820461273193359</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="0">
         <v>-0.44688990712165833</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="0">
         <v>-0.24951939284801483</v>
       </c>
     </row>
@@ -2963,13 +2963,13 @@
       <c r="B162" t="s">
         <v>12</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="0">
         <v>0.10668569803237915</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="0">
         <v>0.025227999314665794</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="0">
         <v>0.18814340233802795</v>
       </c>
     </row>
@@ -2980,13 +2980,13 @@
       <c r="B163" t="s">
         <v>8</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="0">
         <v>-0.26465588808059692</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="0">
         <v>-0.44582921266555786</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="0">
         <v>-0.083482600748538971</v>
       </c>
     </row>
@@ -2997,13 +2997,13 @@
       <c r="B164" t="s">
         <v>16</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="0">
         <v>-0.28961029648780823</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="0">
         <v>-0.38029348850250244</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="0">
         <v>-0.19892700016498566</v>
       </c>
     </row>
@@ -3014,13 +3014,13 @@
       <c r="B165" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="0">
         <v>0.056790001690387726</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="0">
         <v>-0.054107699543237686</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="0">
         <v>0.16768769919872284</v>
       </c>
     </row>
@@ -3031,13 +3031,13 @@
       <c r="B166" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="0">
         <v>-0.2347383052110672</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="0">
         <v>-0.43467581272125244</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="0">
         <v>-0.034800898283720016</v>
       </c>
     </row>
@@ -3048,14 +3048,14 @@
       <c r="B167" t="s">
         <v>16</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="0">
         <v>-0.29123181104660034</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="0">
         <v>-0.39698919653892517</v>
       </c>
-      <c r="E167" s="1">
-        <v>-0.18547439575195312</v>
+      <c r="E167" s="0">
+        <v>-0.18547439575195313</v>
       </c>
     </row>
     <row r="168">
@@ -3065,13 +3065,13 @@
       <c r="B168" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="0">
         <v>0.05963430181145668</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="0">
         <v>-0.034313801676034927</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="0">
         <v>0.15358230471611023</v>
       </c>
     </row>
@@ -3082,13 +3082,13 @@
       <c r="B169" t="s">
         <v>8</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="0">
         <v>-0.22467020153999329</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="0">
         <v>-0.45187351107597351</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="0">
         <v>0.0025329000782221556</v>
       </c>
     </row>
@@ -3099,13 +3099,13 @@
       <c r="B170" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="0">
         <v>-0.20100130140781403</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="0">
         <v>-0.30575978755950928</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="0">
         <v>-0.096242800354957581</v>
       </c>
     </row>
@@ -3116,13 +3116,13 @@
       <c r="B171" t="s">
         <v>12</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="0">
         <v>-0.016979899257421494</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="0">
         <v>-0.12179329991340637</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="0">
         <v>0.087833397090435028</v>
       </c>
     </row>
@@ -3133,13 +3133,13 @@
       <c r="B172" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="0">
         <v>-0.11468230187892914</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="0">
         <v>-0.29217419028282166</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="0">
         <v>0.062809497117996216</v>
       </c>
     </row>
@@ -3150,13 +3150,13 @@
       <c r="B173" t="s">
         <v>16</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="0">
         <v>-0.18271879851818085</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="0">
         <v>-0.27638000249862671</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="0">
         <v>-0.089057497680187225</v>
       </c>
     </row>
@@ -3167,13 +3167,13 @@
       <c r="B174" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="0">
         <v>-0.032039199024438858</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="0">
         <v>-0.11866209656000137</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="0">
         <v>0.054583799093961716</v>
       </c>
     </row>
@@ -3184,13 +3184,13 @@
       <c r="B175" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="0">
         <v>-0.093517601490020752</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="0">
         <v>-0.25695538520812988</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="0">
         <v>0.069920100271701813</v>
       </c>
     </row>
@@ -3227,1842 +3227,1842 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
+      <c r="A2" s="0">
         <v>0.29870098829269409</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="0">
         <v>0.052104901522397995</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="0">
         <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0">
         <v>0.40082660317420959</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="0">
         <v>0.19657540321350098</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
+      <c r="A3" s="0">
         <v>0.29198428988456726</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="0">
         <v>0.052805200219154358</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
         <v>0.39548251032829285</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="0">
         <v>0.18848609924316406</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
+      <c r="A4" s="0">
         <v>0.28190469741821289</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="0">
         <v>0.049849599599838257</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="0">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="0">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0">
         <v>0.37960991263389587</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="0">
         <v>0.1841994971036911</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
+      <c r="A5" s="0">
         <v>0.26649430394172668</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="0">
         <v>0.048679899424314499</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="0">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
         <v>0.36190688610076904</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="0">
         <v>0.17108170688152313</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
+      <c r="A6" s="0">
         <v>0.25838398933410645</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="0">
         <v>0.047819100320339203</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="0">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="0">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.3521094024181366</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="0">
         <v>0.16465850174427032</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
+      <c r="A7" s="0">
         <v>0.24492309987545013</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="0">
         <v>0.046332500874996185</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="0">
         <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0">
         <v>0.33573481440544128</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="0">
         <v>0.15411140024662018</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
+      <c r="A8" s="0">
         <v>0.22738839685916901</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="0">
         <v>0.042250201106071472</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="0">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0">
         <v>0.31019881367683411</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="0">
         <v>0.1445779949426651</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
+      <c r="A9" s="0">
         <v>0.2462352067232132</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="0">
         <v>0.042079698294401169</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="0">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="0">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0">
         <v>0.32871139049530029</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="0">
         <v>0.16375899314880371</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
+      <c r="A10" s="0">
         <v>0.28133070468902588</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="0">
         <v>0.045152399688959122</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="0">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0">
         <v>0.36982938647270203</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="0">
         <v>0.19283199310302734</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
+      <c r="A11" s="0">
         <v>0.24758049845695496</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="0">
         <v>0.044406101107597351</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="0">
         <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="0">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0">
         <v>0.33461651206016541</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="0">
         <v>0.1605444997549057</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
+      <c r="A12" s="0">
         <v>0.21994119882583618</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="0">
         <v>0.040273699909448624</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="0">
         <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="0">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0">
         <v>0.29887768626213074</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="0">
         <v>0.14100469648838043</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
+      <c r="A13" s="0">
         <v>0.20355910062789917</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="0">
         <v>0.039820898324251175</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="0">
         <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0">
         <v>0.28160810470581055</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="0">
         <v>0.12551009654998779</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="0">
         <v>0.19033309817314148</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="0">
         <v>0.038283199071884155</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="0">
         <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="0">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0">
         <v>0.26536819338798523</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="0">
         <v>0.11529800295829773</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
+      <c r="A15" s="0">
         <v>0.18608790636062622</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="0">
         <v>0.038351800292730331</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="0">
         <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E15" s="0">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0">
         <v>0.26125741004943848</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="0">
         <v>0.11091840267181396</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
+      <c r="A16" s="0">
         <v>0.17153039574623108</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="0">
         <v>0.037234898656606674</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="0">
         <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="0">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0">
         <v>0.24451079964637756</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="0">
         <v>0.098549999296665192</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
+      <c r="A17" s="0">
         <v>0.15968260169029236</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="0">
         <v>0.036539401859045029</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="0">
         <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="0">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0">
         <v>0.23129980266094208</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="0">
         <v>0.088065400719642639</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
+      <c r="A18" s="0">
         <v>0.33831220865249634</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="0">
         <v>0.03182699903845787</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="0">
         <v>0.20000000298023224</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="0">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0">
         <v>0.40069308876991272</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="0">
         <v>0.27593129873275757</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
+      <c r="A19" s="0">
         <v>0.36075350642204285</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="0">
         <v>0.034999601542949677</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="0">
         <v>1.2000000476837158</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="0">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0">
         <v>0.42935270071029663</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="0">
         <v>0.29215431213378906</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
+      <c r="A20" s="0">
         <v>0.3460271954536438</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="0">
         <v>0.037617500871419907</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="0">
         <v>2.2000000476837158</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="0">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0">
         <v>0.41975748538970947</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.27229690551757812</v>
+      <c r="G20" s="0">
+        <v>0.27229690551757813</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
+      <c r="A21" s="0">
         <v>0.37396600842475891</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="0">
         <v>0.038405399769544601</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="0">
         <v>3.2000000476837158</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="0">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0">
         <v>0.44924059510231018</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="0">
         <v>0.29869139194488525</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
+      <c r="A22" s="0">
         <v>0.39625170826911926</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="0">
         <v>0.042269900441169739</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="0">
         <v>4.1999998092651367</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="0">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0">
         <v>0.47910070419311523</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="0">
         <v>0.31340271234512329</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1">
+      <c r="A23" s="0">
         <v>0.40156608819961548</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="0">
         <v>0.040895499289035797</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="0">
         <v>5.1999998092651367</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="0">
+        <v>2</v>
+      </c>
+      <c r="F23" s="0">
         <v>0.48172131180763245</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="0">
         <v>0.3214108943939209</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1">
+      <c r="A24" s="0">
         <v>0.41050231456756592</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="0">
         <v>0.042611099779605865</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="0">
         <v>6.1999998092651367</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="0">
+        <v>2</v>
+      </c>
+      <c r="F24" s="0">
         <v>0.49402010440826416</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="0">
         <v>0.32698461413383484</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1">
+      <c r="A25" s="0">
         <v>0.38565129041671753</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="0">
         <v>0.039835501462221146</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="0">
         <v>7.1999998092651367</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="0">
+        <v>2</v>
+      </c>
+      <c r="F25" s="0">
         <v>0.46372890472412109</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="0">
         <v>0.30757370591163635</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1">
+      <c r="A26" s="0">
         <v>0.35052910447120667</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="0">
         <v>0.037408098578453064</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="0">
         <v>8.1999998092651367</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="0">
+        <v>2</v>
+      </c>
+      <c r="F26" s="0">
         <v>0.42384898662567139</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="0">
         <v>0.27720919251441956</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1">
+      <c r="A27" s="0">
         <v>0.33490949869155884</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="0">
         <v>0.037489801645278931</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="0">
         <v>9.1999998092651367</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E27" s="0">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0">
         <v>0.40838950872421265</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="0">
         <v>0.26142948865890503</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1">
+      <c r="A28" s="0">
         <v>0.3191182017326355</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="0">
         <v>0.035088401287794113</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="0">
         <v>10.199999809265137</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="E28" s="0">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0">
         <v>0.3878915011882782</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="0">
         <v>0.2503449022769928</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1">
+      <c r="A29" s="0">
         <v>0.31248849630355835</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="0">
         <v>0.033014301210641861</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="0">
         <v>11.199999809265137</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="0">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0">
         <v>0.37719649076461792</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="0">
         <v>0.24778050184249878</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1">
+      <c r="A30" s="0">
         <v>0.29594171047210693</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="0">
         <v>0.031853098422288895</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="0">
         <v>12.199999809265137</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="0">
+        <v>2</v>
+      </c>
+      <c r="F30" s="0">
         <v>0.35837379097938538</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="0">
         <v>0.2335096001625061</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1">
+      <c r="A31" s="0">
         <v>0.29666221141815186</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="0">
         <v>0.032225001603364944</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="0">
         <v>13.199999809265137</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="0">
+        <v>2</v>
+      </c>
+      <c r="F31" s="0">
         <v>0.35982319712638855</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="0">
         <v>0.23350119590759277</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1">
+      <c r="A32" s="0">
         <v>0.29817301034927368</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="0">
         <v>0.032639499753713608</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="0">
         <v>14.199999809265137</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="0">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0">
         <v>0.36214640736579895</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="0">
         <v>0.23419959843158722</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1">
+      <c r="A33" s="0">
         <v>0.28406471014022827</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="0">
         <v>0.032553698867559433</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="0">
         <v>15.199999809265137</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="0">
+        <v>2</v>
+      </c>
+      <c r="F33" s="0">
         <v>0.34786999225616455</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="0">
         <v>0.22025950253009796</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1">
+      <c r="A34" s="0">
         <v>0.280570387840271</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="0">
         <v>0.061418000608682632</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="0">
         <v>0.40000000596046448</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="0">
+        <v>4</v>
+      </c>
+      <c r="F34" s="0">
         <v>0.40094968676567078</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="0">
         <v>0.16019110381603241</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1">
+      <c r="A35" s="0">
         <v>0.29767811298370361</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="0">
         <v>0.060981899499893188</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="0">
         <v>1.3999999761581421</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="0">
+        <v>4</v>
+      </c>
+      <c r="F35" s="0">
         <v>0.41720259189605713</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="0">
         <v>0.17815360426902771</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1">
+      <c r="A36" s="0">
         <v>0.30145010352134705</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="0">
         <v>0.060592301189899445</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="0">
         <v>2.4000000953674316</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="1">
-        <v>4</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="0">
+        <v>4</v>
+      </c>
+      <c r="F36" s="0">
         <v>0.42021098732948303</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="0">
         <v>0.18268920481204987</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1">
+      <c r="A37" s="0">
         <v>0.31369748711585999</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="0">
         <v>0.056942898780107498</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="0">
         <v>3.4000000953674316</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="1">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="0">
+        <v>4</v>
+      </c>
+      <c r="F37" s="0">
         <v>0.42530560493469238</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="0">
         <v>0.20208939909934998</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1">
+      <c r="A38" s="0">
         <v>0.30930599570274353</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="0">
         <v>0.058117099106311798</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="0">
         <v>4.4000000953674316</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1">
+      <c r="E38" s="0">
+        <v>4</v>
+      </c>
+      <c r="F38" s="0">
         <v>0.42321550846099854</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="0">
         <v>0.19539649784564972</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1">
+      <c r="A39" s="0">
         <v>0.28975668549537659</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="0">
         <v>0.058439701795578003</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="0">
         <v>5.4000000953674316</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="1">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" s="0">
+        <v>4</v>
+      </c>
+      <c r="F39" s="0">
         <v>0.40429851412773132</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="0">
         <v>0.17521490156650543</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1">
+      <c r="A40" s="0">
         <v>0.2875497043132782</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="0">
         <v>0.059206601232290268</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="0">
         <v>6.4000000953674316</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" s="0">
+        <v>4</v>
+      </c>
+      <c r="F40" s="0">
         <v>0.40359461307525635</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="0">
         <v>0.17150479555130005</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="0">
         <v>0.2675108015537262</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="0">
         <v>0.059342101216316223</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="0">
         <v>7.4000000953674316</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E41" s="0">
+        <v>4</v>
+      </c>
+      <c r="F41" s="0">
         <v>0.38382130861282349</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="0">
         <v>0.15120029449462891</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1">
+      <c r="A42" s="0">
         <v>0.24179549515247345</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="0">
         <v>0.059508699923753738</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="0">
         <v>8.3999996185302734</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="0">
+        <v>4</v>
+      </c>
+      <c r="F42" s="0">
         <v>0.3584325909614563</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="0">
         <v>0.1251583993434906</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
+      <c r="A43" s="0">
         <v>0.22909200191497803</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="0">
         <v>0.059599798172712326</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="0">
         <v>9.3999996185302734</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="1">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="0">
+        <v>4</v>
+      </c>
+      <c r="F43" s="0">
         <v>0.34590759873390198</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="0">
         <v>0.11227639764547348</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
+      <c r="A44" s="0">
         <v>0.21540489792823792</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="0">
         <v>0.059326998889446259</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="0">
         <v>10.399999618530273</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="E44" s="0">
+        <v>4</v>
+      </c>
+      <c r="F44" s="0">
         <v>0.33168581128120422</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="0">
         <v>0.0991239994764328</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
+      <c r="A45" s="0">
         <v>0.21216310560703278</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="0">
         <v>0.057766400277614594</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="0">
         <v>11.399999618530273</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="E45" s="0">
+        <v>4</v>
+      </c>
+      <c r="F45" s="0">
         <v>0.32538521289825439</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="0">
         <v>0.098940998315811157</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
+      <c r="A46" s="0">
         <v>0.20137989521026611</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="0">
         <v>0.058563098311424255</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="0">
         <v>12.399999618530273</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="1">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E46" s="0">
+        <v>4</v>
+      </c>
+      <c r="F46" s="0">
         <v>0.31616359949111938</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="0">
         <v>0.086596198379993439</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
+      <c r="A47" s="0">
         <v>0.18796759843826294</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="0">
         <v>0.058849599212408066</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="0">
         <v>13.399999618530273</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="1">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="0">
+        <v>4</v>
+      </c>
+      <c r="F47" s="0">
         <v>0.30331280827522278</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="0">
         <v>0.072622403502464294</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
+      <c r="A48" s="0">
         <v>0.19035699963569641</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="0">
         <v>0.057244900614023209</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="0">
         <v>14.399999618530273</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="1">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="0">
+        <v>4</v>
+      </c>
+      <c r="F48" s="0">
         <v>0.30255699157714844</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="0">
         <v>0.078157000243663788</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
+      <c r="A49" s="0">
         <v>0.17919610440731049</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="0">
         <v>0.057498998939990997</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="0">
         <v>15.399999618530273</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="1">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="0">
+        <v>4</v>
+      </c>
+      <c r="F49" s="0">
         <v>0.29189410805702209</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="0">
         <v>0.066498100757598877</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
+      <c r="A50" s="0">
         <v>0.29401388764381409</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="0">
         <v>0.01738709956407547</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="0">
         <v>0.30000001192092896</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="0">
         <v>3</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="0">
         <v>0.32809260487556458</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="0">
         <v>0.25993520021438599</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
+      <c r="A51" s="0">
         <v>0.29596820473670959</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="0">
         <v>0.017838699743151665</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="0">
         <v>1.2999999523162842</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="0">
         <v>3</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="0">
         <v>0.33093211054801941</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="0">
         <v>0.26100438833236694</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
+      <c r="A52" s="0">
         <v>0.29027459025382996</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="0">
         <v>0.017728099599480629</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="0">
         <v>2.2999999523162842</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="0">
         <v>3</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="0">
         <v>0.32502171397209167</v>
       </c>
-      <c r="G52" s="1">
-        <v>0.25552749633789062</v>
+      <c r="G52" s="0">
+        <v>0.25552749633789063</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
+      <c r="A53" s="0">
         <v>0.29069709777832031</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="0">
         <v>0.017856400460004807</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="0">
         <v>3.2999999523162842</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="0">
         <v>3</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="0">
         <v>0.32569560408592224</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="0">
         <v>0.25569859147071838</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
+      <c r="A54" s="0">
         <v>0.29536759853363037</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="0">
         <v>0.018095700070261955</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="0">
         <v>4.3000001907348633</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="0">
         <v>3</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="0">
         <v>0.33083519339561462</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="0">
         <v>0.25990000367164612</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
+      <c r="A55" s="0">
         <v>0.29971539974212646</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="0">
         <v>0.017969699576497078</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="0">
         <v>5.3000001907348633</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="0">
         <v>3</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="0">
         <v>0.3349359929561615</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="0">
         <v>0.26449480652809143</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
+      <c r="A56" s="0">
         <v>0.29148399829864502</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="0">
         <v>0.01838110014796257</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="0">
         <v>6.3000001907348633</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="0">
         <v>3</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="0">
         <v>0.3275110125541687</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="0">
         <v>0.25545701384544373</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
+      <c r="A57" s="0">
         <v>0.29738691449165344</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="0">
         <v>0.018383599817752838</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="0">
         <v>7.3000001907348633</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="0">
         <v>3</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="0">
         <v>0.33341878652572632</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="0">
         <v>0.26135510206222534</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
+      <c r="A58" s="0">
         <v>0.29233241081237793</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="0">
         <v>0.018749000504612923</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="0">
         <v>8.3000001907348633</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="0">
         <v>3</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="0">
         <v>0.3290804922580719</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="0">
         <v>0.25558438897132874</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
+      <c r="A59" s="0">
         <v>0.29770201444625854</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="0">
         <v>0.018396899104118347</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="0">
         <v>9.3000001907348633</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="0">
         <v>3</v>
       </c>
-      <c r="F59" s="1">
+      <c r="F59" s="0">
         <v>0.33375990390777588</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G59" s="0">
         <v>0.26164409518241882</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
+      <c r="A60" s="0">
         <v>0.30707278847694397</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="0">
         <v>0.016940699890255928</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="0">
         <v>10.300000190734863</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="0">
         <v>3</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="0">
         <v>0.34027659893035889</v>
       </c>
-      <c r="G60" s="1">
+      <c r="G60" s="0">
         <v>0.27386900782585144</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
+      <c r="A61" s="0">
         <v>0.30135929584503174</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="0">
         <v>0.016470799222588539</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="0">
         <v>11.300000190734863</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="0">
         <v>3</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="0">
         <v>0.33364209532737732</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G61" s="0">
         <v>0.26907649636268616</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
+      <c r="A62" s="0">
         <v>0.29493701457977295</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="0">
         <v>0.016920199617743492</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="0">
         <v>12.300000190734863</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="0">
         <v>3</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="0">
         <v>0.32810059189796448</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="0">
         <v>0.26177340745925903</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
+      <c r="A63" s="0">
         <v>0.29776981472969055</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="0">
         <v>0.016641100868582726</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="0">
         <v>13.300000190734863</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="0">
         <v>3</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="0">
         <v>0.33038640022277832</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="0">
         <v>0.26515328884124756</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
+      <c r="A64" s="0">
         <v>0.29214251041412354</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="0">
         <v>0.016594499349594116</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="0">
         <v>14.300000190734863</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="0">
         <v>3</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="0">
         <v>0.32466769218444824</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="0">
         <v>0.25961729884147644</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
+      <c r="A65" s="0">
         <v>0.28460380434989929</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="0">
         <v>0.016839299350976944</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="0">
         <v>15.300000190734863</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="0">
         <v>3</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="0">
         <v>0.31760880351066589</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="0">
         <v>0.25159880518913269</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
+      <c r="A66" s="0">
         <v>0.30429309606552124</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="0">
         <v>0.026212200522422791</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="0">
         <v>0.5</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="1">
-        <v>5</v>
-      </c>
-      <c r="F66" s="1">
+      <c r="E66" s="0">
+        <v>5</v>
+      </c>
+      <c r="F66" s="0">
         <v>0.35566899180412292</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="0">
         <v>0.25291720032691956</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
+      <c r="A67" s="0">
         <v>0.30532869696617126</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="0">
         <v>0.026491699740290642</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="0">
         <v>1.5</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="1">
-        <v>5</v>
-      </c>
-      <c r="F67" s="1">
+      <c r="E67" s="0">
+        <v>5</v>
+      </c>
+      <c r="F67" s="0">
         <v>0.35725238919258118</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="0">
         <v>0.25340500473976135</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
+      <c r="A68" s="0">
         <v>0.30026689171791077</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="0">
         <v>0.029047900810837746</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="0">
         <v>2.5</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="1">
-        <v>5</v>
-      </c>
-      <c r="F68" s="1">
+      <c r="E68" s="0">
+        <v>5</v>
+      </c>
+      <c r="F68" s="0">
         <v>0.35720080137252808</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="0">
         <v>0.24333299696445465</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
+      <c r="A69" s="0">
         <v>0.30224609375</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="0">
         <v>0.025007599964737892</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="0">
         <v>3.5</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="1">
-        <v>5</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="E69" s="0">
+        <v>5</v>
+      </c>
+      <c r="F69" s="0">
         <v>0.35126098990440369</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="0">
         <v>0.25323119759559631</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
+      <c r="A70" s="0">
         <v>0.30447280406951904</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="0">
         <v>0.027151400223374367</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="0">
         <v>4.5</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
-      <c r="E70" s="1">
-        <v>5</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="E70" s="0">
+        <v>5</v>
+      </c>
+      <c r="F70" s="0">
         <v>0.35768958926200867</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="0">
         <v>0.25125598907470703</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
+      <c r="A71" s="0">
         <v>0.29721969366073608</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="0">
         <v>0.026646200567483902</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="0">
         <v>5.5</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
-      <c r="E71" s="1">
-        <v>5</v>
-      </c>
-      <c r="F71" s="1">
+      <c r="E71" s="0">
+        <v>5</v>
+      </c>
+      <c r="F71" s="0">
         <v>0.34944620728492737</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G71" s="0">
         <v>0.24499310553073883</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1">
+      <c r="A72" s="0">
         <v>0.29506221413612366</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="0">
         <v>0.026534099131822586</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="0">
         <v>6.5</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="1">
-        <v>5</v>
-      </c>
-      <c r="F72" s="1">
+      <c r="E72" s="0">
+        <v>5</v>
+      </c>
+      <c r="F72" s="0">
         <v>0.34706911444664001</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="0">
         <v>0.24305540323257446</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1">
+      <c r="A73" s="0">
         <v>0.30956369638442993</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="0">
         <v>0.025446599349379539</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="0">
         <v>7.5</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="1">
-        <v>5</v>
-      </c>
-      <c r="F73" s="1">
+      <c r="E73" s="0">
+        <v>5</v>
+      </c>
+      <c r="F73" s="0">
         <v>0.35943898558616638</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="0">
         <v>0.25968828797340393</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1">
+      <c r="A74" s="0">
         <v>0.30879020690917969</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="0">
         <v>0.025108899921178818</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="0">
         <v>8.5</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="1">
-        <v>5</v>
-      </c>
-      <c r="F74" s="1">
+      <c r="E74" s="0">
+        <v>5</v>
+      </c>
+      <c r="F74" s="0">
         <v>0.35800358653068542</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="0">
         <v>0.25957679748535156</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1">
+      <c r="A75" s="0">
         <v>0.31097128987312317</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="0">
         <v>0.025143399834632874</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="0">
         <v>9.5</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="1">
-        <v>5</v>
-      </c>
-      <c r="F75" s="1">
+      <c r="E75" s="0">
+        <v>5</v>
+      </c>
+      <c r="F75" s="0">
         <v>0.36025241017341614</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="0">
         <v>0.26169019937515259</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1">
+      <c r="A76" s="0">
         <v>0.30830159783363342</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="0">
         <v>0.025879299268126488</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="0">
         <v>10.5</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="1">
-        <v>5</v>
-      </c>
-      <c r="F76" s="1">
+      <c r="E76" s="0">
+        <v>5</v>
+      </c>
+      <c r="F76" s="0">
         <v>0.35902500152587891</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="0">
         <v>0.25757819414138794</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1">
+      <c r="A77" s="0">
         <v>0.30335068702697754</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="0">
         <v>0.023476900532841682</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="0">
         <v>11.5</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
-      <c r="E77" s="1">
-        <v>5</v>
-      </c>
-      <c r="F77" s="1">
+      <c r="E77" s="0">
+        <v>5</v>
+      </c>
+      <c r="F77" s="0">
         <v>0.34936541318893433</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="0">
         <v>0.25733599066734314</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1">
+      <c r="A78" s="0">
         <v>0.29455411434173584</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="0">
         <v>0.021447800099849701</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="0">
         <v>12.5</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="1">
-        <v>5</v>
-      </c>
-      <c r="F78" s="1">
+      <c r="E78" s="0">
+        <v>5</v>
+      </c>
+      <c r="F78" s="0">
         <v>0.33659180998802185</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="0">
         <v>0.25251638889312744</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1">
+      <c r="A79" s="0">
         <v>0.28517040610313416</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="0">
         <v>0.019481899216771126</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="0">
         <v>13.5</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="1">
-        <v>5</v>
-      </c>
-      <c r="F79" s="1">
+      <c r="E79" s="0">
+        <v>5</v>
+      </c>
+      <c r="F79" s="0">
         <v>0.32335489988327026</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G79" s="0">
         <v>0.24698589742183685</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1">
+      <c r="A80" s="0">
         <v>0.28147751092910767</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="0">
         <v>0.018262600526213646</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="0">
         <v>14.5</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
-      <c r="E80" s="1">
-        <v>5</v>
-      </c>
-      <c r="F80" s="1">
+      <c r="E80" s="0">
+        <v>5</v>
+      </c>
+      <c r="F80" s="0">
         <v>0.31727218627929688</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G80" s="0">
         <v>0.24568280577659607</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1">
+      <c r="A81" s="0">
         <v>0.27351430058479309</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="0">
         <v>0.019122699275612831</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="0">
         <v>15.5</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="1">
-        <v>5</v>
-      </c>
-      <c r="F81" s="1">
+      <c r="E81" s="0">
+        <v>5</v>
+      </c>
+      <c r="F81" s="0">
         <v>0.31099480390548706</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G81" s="0">
         <v>0.23603379726409912</v>
       </c>
     </row>
@@ -5096,10 +5096,10 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="0">
         <v>0.14100000262260437</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="0">
         <v>0.019999999552965164</v>
       </c>
     </row>
@@ -5110,10 +5110,10 @@
       <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="0">
         <v>0.12399999797344208</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="0">
         <v>0.014000000432133675</v>
       </c>
     </row>
@@ -5124,10 +5124,10 @@
       <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="0">
         <v>0.12099999934434891</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="0">
         <v>0.017000000923871994</v>
       </c>
     </row>
@@ -5138,10 +5138,10 @@
       <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="0">
         <v>0.13899999856948853</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="0">
         <v>0.018999999389052391</v>
       </c>
     </row>
@@ -5152,10 +5152,10 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="0">
         <v>0.11400000005960464</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="0">
         <v>0.016000000759959221</v>
       </c>
     </row>
@@ -5166,10 +5166,10 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="0">
         <v>0.090000003576278687</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="0">
         <v>0.012000000104308128</v>
       </c>
     </row>
@@ -5180,10 +5180,10 @@
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="0">
         <v>0.083999998867511749</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="0">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -5194,10 +5194,10 @@
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="0">
         <v>0.059999998658895493</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="0">
         <v>0.008999999612569809</v>
       </c>
     </row>
@@ -5208,10 +5208,10 @@
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="0">
         <v>0.050999999046325684</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="0">
         <v>0.0080000003799796104</v>
       </c>
     </row>
@@ -5222,10 +5222,10 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="0">
         <v>0.05000000074505806</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="0">
         <v>0.0070000002160668373</v>
       </c>
     </row>
